--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,868 +31,1156 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.01.20251</t>
-  </si>
-  <si>
-    <t>28.01.20252</t>
-  </si>
-  <si>
-    <t>28.01.20253</t>
-  </si>
-  <si>
-    <t>28.01.20254</t>
-  </si>
-  <si>
-    <t>28.01.20255</t>
-  </si>
-  <si>
-    <t>28.01.20256</t>
-  </si>
-  <si>
-    <t>28.01.20257</t>
-  </si>
-  <si>
-    <t>28.01.20258</t>
-  </si>
-  <si>
-    <t>28.01.20259</t>
-  </si>
-  <si>
-    <t>28.01.202510</t>
-  </si>
-  <si>
-    <t>28.01.202511</t>
-  </si>
-  <si>
-    <t>28.01.202512</t>
-  </si>
-  <si>
-    <t>28.01.202513</t>
-  </si>
-  <si>
-    <t>28.01.202514</t>
-  </si>
-  <si>
-    <t>28.01.202515</t>
-  </si>
-  <si>
-    <t>28.01.202516</t>
-  </si>
-  <si>
-    <t>28.01.202517</t>
-  </si>
-  <si>
-    <t>28.01.202518</t>
-  </si>
-  <si>
-    <t>28.01.202519</t>
-  </si>
-  <si>
-    <t>28.01.202520</t>
-  </si>
-  <si>
-    <t>28.01.202521</t>
-  </si>
-  <si>
-    <t>28.01.202522</t>
-  </si>
-  <si>
-    <t>28.01.202523</t>
-  </si>
-  <si>
-    <t>28.01.202524</t>
-  </si>
-  <si>
-    <t>28.01.202525</t>
-  </si>
-  <si>
-    <t>28.01.202526</t>
-  </si>
-  <si>
-    <t>28.01.202527</t>
-  </si>
-  <si>
-    <t>28.01.202528</t>
-  </si>
-  <si>
-    <t>28.01.202529</t>
-  </si>
-  <si>
-    <t>28.01.202530</t>
-  </si>
-  <si>
-    <t>28.01.202531</t>
-  </si>
-  <si>
-    <t>28.01.202532</t>
-  </si>
-  <si>
-    <t>28.01.202533</t>
-  </si>
-  <si>
-    <t>28.01.202534</t>
-  </si>
-  <si>
-    <t>28.01.202535</t>
-  </si>
-  <si>
-    <t>28.01.202536</t>
-  </si>
-  <si>
-    <t>28.01.202537</t>
-  </si>
-  <si>
-    <t>28.01.202538</t>
-  </si>
-  <si>
-    <t>28.01.202539</t>
-  </si>
-  <si>
-    <t>28.01.202540</t>
-  </si>
-  <si>
-    <t>28.01.202541</t>
-  </si>
-  <si>
-    <t>28.01.202542</t>
-  </si>
-  <si>
-    <t>28.01.202543</t>
-  </si>
-  <si>
-    <t>28.01.202544</t>
-  </si>
-  <si>
-    <t>28.01.202545</t>
-  </si>
-  <si>
-    <t>28.01.202546</t>
-  </si>
-  <si>
-    <t>28.01.202547</t>
-  </si>
-  <si>
-    <t>28.01.202548</t>
-  </si>
-  <si>
-    <t>28.01.202549</t>
-  </si>
-  <si>
-    <t>28.01.202550</t>
-  </si>
-  <si>
-    <t>28.01.202551</t>
-  </si>
-  <si>
-    <t>28.01.202552</t>
-  </si>
-  <si>
-    <t>28.01.202553</t>
-  </si>
-  <si>
-    <t>28.01.202554</t>
-  </si>
-  <si>
-    <t>28.01.202555</t>
-  </si>
-  <si>
-    <t>28.01.202556</t>
-  </si>
-  <si>
-    <t>28.01.202557</t>
-  </si>
-  <si>
-    <t>28.01.202558</t>
-  </si>
-  <si>
-    <t>28.01.202559</t>
-  </si>
-  <si>
-    <t>28.01.202560</t>
-  </si>
-  <si>
-    <t>28.01.202561</t>
-  </si>
-  <si>
-    <t>28.01.202562</t>
-  </si>
-  <si>
-    <t>28.01.202563</t>
-  </si>
-  <si>
-    <t>28.01.202564</t>
-  </si>
-  <si>
-    <t>28.01.202565</t>
-  </si>
-  <si>
-    <t>28.01.202566</t>
-  </si>
-  <si>
-    <t>28.01.202567</t>
-  </si>
-  <si>
-    <t>28.01.202568</t>
-  </si>
-  <si>
-    <t>28.01.202569</t>
-  </si>
-  <si>
-    <t>28.01.202570</t>
-  </si>
-  <si>
-    <t>28.01.202571</t>
-  </si>
-  <si>
-    <t>28.01.202572</t>
-  </si>
-  <si>
-    <t>28.01.202573</t>
-  </si>
-  <si>
-    <t>28.01.202574</t>
-  </si>
-  <si>
-    <t>28.01.202575</t>
-  </si>
-  <si>
-    <t>28.01.202576</t>
-  </si>
-  <si>
-    <t>28.01.202577</t>
-  </si>
-  <si>
-    <t>28.01.202578</t>
-  </si>
-  <si>
-    <t>28.01.202579</t>
-  </si>
-  <si>
-    <t>28.01.202580</t>
-  </si>
-  <si>
-    <t>28.01.202581</t>
-  </si>
-  <si>
-    <t>28.01.202582</t>
-  </si>
-  <si>
-    <t>28.01.202583</t>
-  </si>
-  <si>
-    <t>28.01.202584</t>
-  </si>
-  <si>
-    <t>28.01.202585</t>
-  </si>
-  <si>
-    <t>28.01.202586</t>
-  </si>
-  <si>
-    <t>28.01.202587</t>
-  </si>
-  <si>
-    <t>28.01.202588</t>
-  </si>
-  <si>
-    <t>28.01.202589</t>
-  </si>
-  <si>
-    <t>28.01.202590</t>
-  </si>
-  <si>
-    <t>28.01.202591</t>
-  </si>
-  <si>
-    <t>28.01.202592</t>
-  </si>
-  <si>
-    <t>28.01.202593</t>
-  </si>
-  <si>
-    <t>28.01.202594</t>
-  </si>
-  <si>
-    <t>28.01.202595</t>
-  </si>
-  <si>
-    <t>28.01.202596</t>
-  </si>
-  <si>
-    <t>29.01.20251</t>
-  </si>
-  <si>
-    <t>29.01.20252</t>
-  </si>
-  <si>
-    <t>29.01.20253</t>
-  </si>
-  <si>
-    <t>29.01.20254</t>
-  </si>
-  <si>
-    <t>29.01.20255</t>
-  </si>
-  <si>
-    <t>29.01.20256</t>
-  </si>
-  <si>
-    <t>29.01.20257</t>
-  </si>
-  <si>
-    <t>29.01.20258</t>
-  </si>
-  <si>
-    <t>29.01.20259</t>
-  </si>
-  <si>
-    <t>29.01.202510</t>
-  </si>
-  <si>
-    <t>29.01.202511</t>
-  </si>
-  <si>
-    <t>29.01.202512</t>
-  </si>
-  <si>
-    <t>29.01.202513</t>
-  </si>
-  <si>
-    <t>29.01.202514</t>
-  </si>
-  <si>
-    <t>29.01.202515</t>
-  </si>
-  <si>
-    <t>29.01.202516</t>
-  </si>
-  <si>
-    <t>29.01.202517</t>
-  </si>
-  <si>
-    <t>29.01.202518</t>
-  </si>
-  <si>
-    <t>29.01.202519</t>
-  </si>
-  <si>
-    <t>29.01.202520</t>
-  </si>
-  <si>
-    <t>29.01.202521</t>
-  </si>
-  <si>
-    <t>29.01.202522</t>
-  </si>
-  <si>
-    <t>29.01.202523</t>
-  </si>
-  <si>
-    <t>29.01.202524</t>
-  </si>
-  <si>
-    <t>29.01.202525</t>
-  </si>
-  <si>
-    <t>29.01.202526</t>
-  </si>
-  <si>
-    <t>29.01.202527</t>
-  </si>
-  <si>
-    <t>29.01.202528</t>
-  </si>
-  <si>
-    <t>29.01.202529</t>
-  </si>
-  <si>
-    <t>29.01.202530</t>
-  </si>
-  <si>
-    <t>29.01.202531</t>
-  </si>
-  <si>
-    <t>29.01.202532</t>
-  </si>
-  <si>
-    <t>29.01.202533</t>
-  </si>
-  <si>
-    <t>29.01.202534</t>
-  </si>
-  <si>
-    <t>29.01.202535</t>
-  </si>
-  <si>
-    <t>29.01.202536</t>
-  </si>
-  <si>
-    <t>29.01.202537</t>
-  </si>
-  <si>
-    <t>29.01.202538</t>
-  </si>
-  <si>
-    <t>29.01.202539</t>
-  </si>
-  <si>
-    <t>29.01.202540</t>
-  </si>
-  <si>
-    <t>29.01.202541</t>
-  </si>
-  <si>
-    <t>29.01.202542</t>
-  </si>
-  <si>
-    <t>29.01.202543</t>
-  </si>
-  <si>
-    <t>29.01.202544</t>
-  </si>
-  <si>
-    <t>29.01.202545</t>
-  </si>
-  <si>
-    <t>29.01.202546</t>
-  </si>
-  <si>
-    <t>29.01.202547</t>
-  </si>
-  <si>
-    <t>29.01.202548</t>
-  </si>
-  <si>
-    <t>29.01.202549</t>
-  </si>
-  <si>
-    <t>29.01.202550</t>
-  </si>
-  <si>
-    <t>29.01.202551</t>
-  </si>
-  <si>
-    <t>29.01.202552</t>
-  </si>
-  <si>
-    <t>29.01.202553</t>
-  </si>
-  <si>
-    <t>29.01.202554</t>
-  </si>
-  <si>
-    <t>29.01.202555</t>
-  </si>
-  <si>
-    <t>29.01.202556</t>
-  </si>
-  <si>
-    <t>29.01.202557</t>
-  </si>
-  <si>
-    <t>29.01.202558</t>
-  </si>
-  <si>
-    <t>29.01.202559</t>
-  </si>
-  <si>
-    <t>29.01.202560</t>
-  </si>
-  <si>
-    <t>29.01.202561</t>
-  </si>
-  <si>
-    <t>29.01.202562</t>
-  </si>
-  <si>
-    <t>29.01.202563</t>
-  </si>
-  <si>
-    <t>29.01.202564</t>
-  </si>
-  <si>
-    <t>29.01.202565</t>
-  </si>
-  <si>
-    <t>29.01.202566</t>
-  </si>
-  <si>
-    <t>29.01.202567</t>
-  </si>
-  <si>
-    <t>29.01.202568</t>
-  </si>
-  <si>
-    <t>29.01.202569</t>
-  </si>
-  <si>
-    <t>29.01.202570</t>
-  </si>
-  <si>
-    <t>29.01.202571</t>
-  </si>
-  <si>
-    <t>29.01.202572</t>
-  </si>
-  <si>
-    <t>29.01.202573</t>
-  </si>
-  <si>
-    <t>29.01.202574</t>
-  </si>
-  <si>
-    <t>29.01.202575</t>
-  </si>
-  <si>
-    <t>29.01.202576</t>
-  </si>
-  <si>
-    <t>29.01.202577</t>
-  </si>
-  <si>
-    <t>29.01.202578</t>
-  </si>
-  <si>
-    <t>29.01.202579</t>
-  </si>
-  <si>
-    <t>29.01.202580</t>
-  </si>
-  <si>
-    <t>29.01.202581</t>
-  </si>
-  <si>
-    <t>29.01.202582</t>
-  </si>
-  <si>
-    <t>29.01.202583</t>
-  </si>
-  <si>
-    <t>29.01.202584</t>
-  </si>
-  <si>
-    <t>29.01.202585</t>
-  </si>
-  <si>
-    <t>29.01.202586</t>
-  </si>
-  <si>
-    <t>29.01.202587</t>
-  </si>
-  <si>
-    <t>29.01.202588</t>
-  </si>
-  <si>
-    <t>29.01.202589</t>
-  </si>
-  <si>
-    <t>29.01.202590</t>
-  </si>
-  <si>
-    <t>29.01.202591</t>
-  </si>
-  <si>
-    <t>29.01.202592</t>
-  </si>
-  <si>
-    <t>29.01.202593</t>
-  </si>
-  <si>
-    <t>29.01.202594</t>
-  </si>
-  <si>
-    <t>29.01.202595</t>
-  </si>
-  <si>
-    <t>29.01.202596</t>
-  </si>
-  <si>
-    <t>30.01.20251</t>
-  </si>
-  <si>
-    <t>30.01.20252</t>
-  </si>
-  <si>
-    <t>30.01.20253</t>
-  </si>
-  <si>
-    <t>30.01.20254</t>
-  </si>
-  <si>
-    <t>30.01.20255</t>
-  </si>
-  <si>
-    <t>30.01.20256</t>
-  </si>
-  <si>
-    <t>30.01.20257</t>
-  </si>
-  <si>
-    <t>30.01.20258</t>
-  </si>
-  <si>
-    <t>30.01.20259</t>
-  </si>
-  <si>
-    <t>30.01.202510</t>
-  </si>
-  <si>
-    <t>30.01.202511</t>
-  </si>
-  <si>
-    <t>30.01.202512</t>
-  </si>
-  <si>
-    <t>30.01.202513</t>
-  </si>
-  <si>
-    <t>30.01.202514</t>
-  </si>
-  <si>
-    <t>30.01.202515</t>
-  </si>
-  <si>
-    <t>30.01.202516</t>
-  </si>
-  <si>
-    <t>30.01.202517</t>
-  </si>
-  <si>
-    <t>30.01.202518</t>
-  </si>
-  <si>
-    <t>30.01.202519</t>
-  </si>
-  <si>
-    <t>30.01.202520</t>
-  </si>
-  <si>
-    <t>30.01.202521</t>
-  </si>
-  <si>
-    <t>30.01.202522</t>
-  </si>
-  <si>
-    <t>30.01.202523</t>
-  </si>
-  <si>
-    <t>30.01.202524</t>
-  </si>
-  <si>
-    <t>30.01.202525</t>
-  </si>
-  <si>
-    <t>30.01.202526</t>
-  </si>
-  <si>
-    <t>30.01.202527</t>
-  </si>
-  <si>
-    <t>30.01.202528</t>
-  </si>
-  <si>
-    <t>30.01.202529</t>
-  </si>
-  <si>
-    <t>30.01.202530</t>
-  </si>
-  <si>
-    <t>30.01.202531</t>
-  </si>
-  <si>
-    <t>30.01.202532</t>
-  </si>
-  <si>
-    <t>30.01.202533</t>
-  </si>
-  <si>
-    <t>30.01.202534</t>
-  </si>
-  <si>
-    <t>30.01.202535</t>
-  </si>
-  <si>
-    <t>30.01.202536</t>
-  </si>
-  <si>
-    <t>30.01.202537</t>
-  </si>
-  <si>
-    <t>30.01.202538</t>
-  </si>
-  <si>
-    <t>30.01.202539</t>
-  </si>
-  <si>
-    <t>30.01.202540</t>
-  </si>
-  <si>
-    <t>30.01.202541</t>
-  </si>
-  <si>
-    <t>30.01.202542</t>
-  </si>
-  <si>
-    <t>30.01.202543</t>
-  </si>
-  <si>
-    <t>30.01.202544</t>
-  </si>
-  <si>
-    <t>30.01.202545</t>
-  </si>
-  <si>
-    <t>30.01.202546</t>
-  </si>
-  <si>
-    <t>30.01.202547</t>
-  </si>
-  <si>
-    <t>30.01.202548</t>
-  </si>
-  <si>
-    <t>30.01.202549</t>
-  </si>
-  <si>
-    <t>30.01.202550</t>
-  </si>
-  <si>
-    <t>30.01.202551</t>
-  </si>
-  <si>
-    <t>30.01.202552</t>
-  </si>
-  <si>
-    <t>30.01.202553</t>
-  </si>
-  <si>
-    <t>30.01.202554</t>
-  </si>
-  <si>
-    <t>30.01.202555</t>
-  </si>
-  <si>
-    <t>30.01.202556</t>
-  </si>
-  <si>
-    <t>30.01.202557</t>
-  </si>
-  <si>
-    <t>30.01.202558</t>
-  </si>
-  <si>
-    <t>30.01.202559</t>
-  </si>
-  <si>
-    <t>30.01.202560</t>
-  </si>
-  <si>
-    <t>30.01.202561</t>
-  </si>
-  <si>
-    <t>30.01.202562</t>
-  </si>
-  <si>
-    <t>30.01.202563</t>
-  </si>
-  <si>
-    <t>30.01.202564</t>
-  </si>
-  <si>
-    <t>30.01.202565</t>
-  </si>
-  <si>
-    <t>30.01.202566</t>
-  </si>
-  <si>
-    <t>30.01.202567</t>
-  </si>
-  <si>
-    <t>30.01.202568</t>
-  </si>
-  <si>
-    <t>30.01.202569</t>
-  </si>
-  <si>
-    <t>30.01.202570</t>
-  </si>
-  <si>
-    <t>30.01.202571</t>
-  </si>
-  <si>
-    <t>30.01.202572</t>
-  </si>
-  <si>
-    <t>30.01.202573</t>
-  </si>
-  <si>
-    <t>30.01.202574</t>
-  </si>
-  <si>
-    <t>30.01.202575</t>
-  </si>
-  <si>
-    <t>30.01.202576</t>
-  </si>
-  <si>
-    <t>30.01.202577</t>
-  </si>
-  <si>
-    <t>30.01.202578</t>
-  </si>
-  <si>
-    <t>30.01.202579</t>
-  </si>
-  <si>
-    <t>30.01.202580</t>
-  </si>
-  <si>
-    <t>30.01.202581</t>
-  </si>
-  <si>
-    <t>30.01.202582</t>
-  </si>
-  <si>
-    <t>30.01.202583</t>
-  </si>
-  <si>
-    <t>30.01.202584</t>
-  </si>
-  <si>
-    <t>30.01.202585</t>
-  </si>
-  <si>
-    <t>30.01.202586</t>
-  </si>
-  <si>
-    <t>30.01.202587</t>
-  </si>
-  <si>
-    <t>30.01.202588</t>
-  </si>
-  <si>
-    <t>30.01.202589</t>
-  </si>
-  <si>
-    <t>30.01.202590</t>
-  </si>
-  <si>
-    <t>30.01.202591</t>
-  </si>
-  <si>
-    <t>30.01.202592</t>
-  </si>
-  <si>
-    <t>30.01.202593</t>
-  </si>
-  <si>
-    <t>30.01.202594</t>
-  </si>
-  <si>
-    <t>30.01.202595</t>
-  </si>
-  <si>
-    <t>30.01.202596</t>
+    <t>14.03.20251</t>
+  </si>
+  <si>
+    <t>14.03.20252</t>
+  </si>
+  <si>
+    <t>14.03.20253</t>
+  </si>
+  <si>
+    <t>14.03.20254</t>
+  </si>
+  <si>
+    <t>14.03.20255</t>
+  </si>
+  <si>
+    <t>14.03.20256</t>
+  </si>
+  <si>
+    <t>14.03.20257</t>
+  </si>
+  <si>
+    <t>14.03.20258</t>
+  </si>
+  <si>
+    <t>14.03.20259</t>
+  </si>
+  <si>
+    <t>14.03.202510</t>
+  </si>
+  <si>
+    <t>14.03.202511</t>
+  </si>
+  <si>
+    <t>14.03.202512</t>
+  </si>
+  <si>
+    <t>14.03.202513</t>
+  </si>
+  <si>
+    <t>14.03.202514</t>
+  </si>
+  <si>
+    <t>14.03.202515</t>
+  </si>
+  <si>
+    <t>14.03.202516</t>
+  </si>
+  <si>
+    <t>14.03.202517</t>
+  </si>
+  <si>
+    <t>14.03.202518</t>
+  </si>
+  <si>
+    <t>14.03.202519</t>
+  </si>
+  <si>
+    <t>14.03.202520</t>
+  </si>
+  <si>
+    <t>14.03.202521</t>
+  </si>
+  <si>
+    <t>14.03.202522</t>
+  </si>
+  <si>
+    <t>14.03.202523</t>
+  </si>
+  <si>
+    <t>14.03.202524</t>
+  </si>
+  <si>
+    <t>14.03.202525</t>
+  </si>
+  <si>
+    <t>14.03.202526</t>
+  </si>
+  <si>
+    <t>14.03.202527</t>
+  </si>
+  <si>
+    <t>14.03.202528</t>
+  </si>
+  <si>
+    <t>14.03.202529</t>
+  </si>
+  <si>
+    <t>14.03.202530</t>
+  </si>
+  <si>
+    <t>14.03.202531</t>
+  </si>
+  <si>
+    <t>14.03.202532</t>
+  </si>
+  <si>
+    <t>14.03.202533</t>
+  </si>
+  <si>
+    <t>14.03.202534</t>
+  </si>
+  <si>
+    <t>14.03.202535</t>
+  </si>
+  <si>
+    <t>14.03.202536</t>
+  </si>
+  <si>
+    <t>14.03.202537</t>
+  </si>
+  <si>
+    <t>14.03.202538</t>
+  </si>
+  <si>
+    <t>14.03.202539</t>
+  </si>
+  <si>
+    <t>14.03.202540</t>
+  </si>
+  <si>
+    <t>14.03.202541</t>
+  </si>
+  <si>
+    <t>14.03.202542</t>
+  </si>
+  <si>
+    <t>14.03.202543</t>
+  </si>
+  <si>
+    <t>14.03.202544</t>
+  </si>
+  <si>
+    <t>14.03.202545</t>
+  </si>
+  <si>
+    <t>14.03.202546</t>
+  </si>
+  <si>
+    <t>14.03.202547</t>
+  </si>
+  <si>
+    <t>14.03.202548</t>
+  </si>
+  <si>
+    <t>14.03.202549</t>
+  </si>
+  <si>
+    <t>14.03.202550</t>
+  </si>
+  <si>
+    <t>14.03.202551</t>
+  </si>
+  <si>
+    <t>14.03.202552</t>
+  </si>
+  <si>
+    <t>14.03.202553</t>
+  </si>
+  <si>
+    <t>14.03.202554</t>
+  </si>
+  <si>
+    <t>14.03.202555</t>
+  </si>
+  <si>
+    <t>14.03.202556</t>
+  </si>
+  <si>
+    <t>14.03.202557</t>
+  </si>
+  <si>
+    <t>14.03.202558</t>
+  </si>
+  <si>
+    <t>14.03.202559</t>
+  </si>
+  <si>
+    <t>14.03.202560</t>
+  </si>
+  <si>
+    <t>14.03.202561</t>
+  </si>
+  <si>
+    <t>14.03.202562</t>
+  </si>
+  <si>
+    <t>14.03.202563</t>
+  </si>
+  <si>
+    <t>14.03.202564</t>
+  </si>
+  <si>
+    <t>14.03.202565</t>
+  </si>
+  <si>
+    <t>14.03.202566</t>
+  </si>
+  <si>
+    <t>14.03.202567</t>
+  </si>
+  <si>
+    <t>14.03.202568</t>
+  </si>
+  <si>
+    <t>14.03.202569</t>
+  </si>
+  <si>
+    <t>14.03.202570</t>
+  </si>
+  <si>
+    <t>14.03.202571</t>
+  </si>
+  <si>
+    <t>14.03.202572</t>
+  </si>
+  <si>
+    <t>14.03.202573</t>
+  </si>
+  <si>
+    <t>14.03.202574</t>
+  </si>
+  <si>
+    <t>14.03.202575</t>
+  </si>
+  <si>
+    <t>14.03.202576</t>
+  </si>
+  <si>
+    <t>14.03.202577</t>
+  </si>
+  <si>
+    <t>14.03.202578</t>
+  </si>
+  <si>
+    <t>14.03.202579</t>
+  </si>
+  <si>
+    <t>14.03.202580</t>
+  </si>
+  <si>
+    <t>14.03.202581</t>
+  </si>
+  <si>
+    <t>14.03.202582</t>
+  </si>
+  <si>
+    <t>14.03.202583</t>
+  </si>
+  <si>
+    <t>14.03.202584</t>
+  </si>
+  <si>
+    <t>14.03.202585</t>
+  </si>
+  <si>
+    <t>14.03.202586</t>
+  </si>
+  <si>
+    <t>14.03.202587</t>
+  </si>
+  <si>
+    <t>14.03.202588</t>
+  </si>
+  <si>
+    <t>14.03.202589</t>
+  </si>
+  <si>
+    <t>14.03.202590</t>
+  </si>
+  <si>
+    <t>14.03.202591</t>
+  </si>
+  <si>
+    <t>14.03.202592</t>
+  </si>
+  <si>
+    <t>14.03.202593</t>
+  </si>
+  <si>
+    <t>14.03.202594</t>
+  </si>
+  <si>
+    <t>14.03.202595</t>
+  </si>
+  <si>
+    <t>14.03.202596</t>
+  </si>
+  <si>
+    <t>15.03.20251</t>
+  </si>
+  <si>
+    <t>15.03.20252</t>
+  </si>
+  <si>
+    <t>15.03.20253</t>
+  </si>
+  <si>
+    <t>15.03.20254</t>
+  </si>
+  <si>
+    <t>15.03.20255</t>
+  </si>
+  <si>
+    <t>15.03.20256</t>
+  </si>
+  <si>
+    <t>15.03.20257</t>
+  </si>
+  <si>
+    <t>15.03.20258</t>
+  </si>
+  <si>
+    <t>15.03.20259</t>
+  </si>
+  <si>
+    <t>15.03.202510</t>
+  </si>
+  <si>
+    <t>15.03.202511</t>
+  </si>
+  <si>
+    <t>15.03.202512</t>
+  </si>
+  <si>
+    <t>15.03.202513</t>
+  </si>
+  <si>
+    <t>15.03.202514</t>
+  </si>
+  <si>
+    <t>15.03.202515</t>
+  </si>
+  <si>
+    <t>15.03.202516</t>
+  </si>
+  <si>
+    <t>15.03.202517</t>
+  </si>
+  <si>
+    <t>15.03.202518</t>
+  </si>
+  <si>
+    <t>15.03.202519</t>
+  </si>
+  <si>
+    <t>15.03.202520</t>
+  </si>
+  <si>
+    <t>15.03.202521</t>
+  </si>
+  <si>
+    <t>15.03.202522</t>
+  </si>
+  <si>
+    <t>15.03.202523</t>
+  </si>
+  <si>
+    <t>15.03.202524</t>
+  </si>
+  <si>
+    <t>15.03.202525</t>
+  </si>
+  <si>
+    <t>15.03.202526</t>
+  </si>
+  <si>
+    <t>15.03.202527</t>
+  </si>
+  <si>
+    <t>15.03.202528</t>
+  </si>
+  <si>
+    <t>15.03.202529</t>
+  </si>
+  <si>
+    <t>15.03.202530</t>
+  </si>
+  <si>
+    <t>15.03.202531</t>
+  </si>
+  <si>
+    <t>15.03.202532</t>
+  </si>
+  <si>
+    <t>15.03.202533</t>
+  </si>
+  <si>
+    <t>15.03.202534</t>
+  </si>
+  <si>
+    <t>15.03.202535</t>
+  </si>
+  <si>
+    <t>15.03.202536</t>
+  </si>
+  <si>
+    <t>15.03.202537</t>
+  </si>
+  <si>
+    <t>15.03.202538</t>
+  </si>
+  <si>
+    <t>15.03.202539</t>
+  </si>
+  <si>
+    <t>15.03.202540</t>
+  </si>
+  <si>
+    <t>15.03.202541</t>
+  </si>
+  <si>
+    <t>15.03.202542</t>
+  </si>
+  <si>
+    <t>15.03.202543</t>
+  </si>
+  <si>
+    <t>15.03.202544</t>
+  </si>
+  <si>
+    <t>15.03.202545</t>
+  </si>
+  <si>
+    <t>15.03.202546</t>
+  </si>
+  <si>
+    <t>15.03.202547</t>
+  </si>
+  <si>
+    <t>15.03.202548</t>
+  </si>
+  <si>
+    <t>15.03.202549</t>
+  </si>
+  <si>
+    <t>15.03.202550</t>
+  </si>
+  <si>
+    <t>15.03.202551</t>
+  </si>
+  <si>
+    <t>15.03.202552</t>
+  </si>
+  <si>
+    <t>15.03.202553</t>
+  </si>
+  <si>
+    <t>15.03.202554</t>
+  </si>
+  <si>
+    <t>15.03.202555</t>
+  </si>
+  <si>
+    <t>15.03.202556</t>
+  </si>
+  <si>
+    <t>15.03.202557</t>
+  </si>
+  <si>
+    <t>15.03.202558</t>
+  </si>
+  <si>
+    <t>15.03.202559</t>
+  </si>
+  <si>
+    <t>15.03.202560</t>
+  </si>
+  <si>
+    <t>15.03.202561</t>
+  </si>
+  <si>
+    <t>15.03.202562</t>
+  </si>
+  <si>
+    <t>15.03.202563</t>
+  </si>
+  <si>
+    <t>15.03.202564</t>
+  </si>
+  <si>
+    <t>15.03.202565</t>
+  </si>
+  <si>
+    <t>15.03.202566</t>
+  </si>
+  <si>
+    <t>15.03.202567</t>
+  </si>
+  <si>
+    <t>15.03.202568</t>
+  </si>
+  <si>
+    <t>15.03.202569</t>
+  </si>
+  <si>
+    <t>15.03.202570</t>
+  </si>
+  <si>
+    <t>15.03.202571</t>
+  </si>
+  <si>
+    <t>15.03.202572</t>
+  </si>
+  <si>
+    <t>15.03.202573</t>
+  </si>
+  <si>
+    <t>15.03.202574</t>
+  </si>
+  <si>
+    <t>15.03.202575</t>
+  </si>
+  <si>
+    <t>15.03.202576</t>
+  </si>
+  <si>
+    <t>15.03.202577</t>
+  </si>
+  <si>
+    <t>15.03.202578</t>
+  </si>
+  <si>
+    <t>15.03.202579</t>
+  </si>
+  <si>
+    <t>15.03.202580</t>
+  </si>
+  <si>
+    <t>15.03.202581</t>
+  </si>
+  <si>
+    <t>15.03.202582</t>
+  </si>
+  <si>
+    <t>15.03.202583</t>
+  </si>
+  <si>
+    <t>15.03.202584</t>
+  </si>
+  <si>
+    <t>15.03.202585</t>
+  </si>
+  <si>
+    <t>15.03.202586</t>
+  </si>
+  <si>
+    <t>15.03.202587</t>
+  </si>
+  <si>
+    <t>15.03.202588</t>
+  </si>
+  <si>
+    <t>15.03.202589</t>
+  </si>
+  <si>
+    <t>15.03.202590</t>
+  </si>
+  <si>
+    <t>15.03.202591</t>
+  </si>
+  <si>
+    <t>15.03.202592</t>
+  </si>
+  <si>
+    <t>15.03.202593</t>
+  </si>
+  <si>
+    <t>15.03.202594</t>
+  </si>
+  <si>
+    <t>15.03.202595</t>
+  </si>
+  <si>
+    <t>15.03.202596</t>
+  </si>
+  <si>
+    <t>16.03.20251</t>
+  </si>
+  <si>
+    <t>16.03.20252</t>
+  </si>
+  <si>
+    <t>16.03.20253</t>
+  </si>
+  <si>
+    <t>16.03.20254</t>
+  </si>
+  <si>
+    <t>16.03.20255</t>
+  </si>
+  <si>
+    <t>16.03.20256</t>
+  </si>
+  <si>
+    <t>16.03.20257</t>
+  </si>
+  <si>
+    <t>16.03.20258</t>
+  </si>
+  <si>
+    <t>16.03.20259</t>
+  </si>
+  <si>
+    <t>16.03.202510</t>
+  </si>
+  <si>
+    <t>16.03.202511</t>
+  </si>
+  <si>
+    <t>16.03.202512</t>
+  </si>
+  <si>
+    <t>16.03.202513</t>
+  </si>
+  <si>
+    <t>16.03.202514</t>
+  </si>
+  <si>
+    <t>16.03.202515</t>
+  </si>
+  <si>
+    <t>16.03.202516</t>
+  </si>
+  <si>
+    <t>16.03.202517</t>
+  </si>
+  <si>
+    <t>16.03.202518</t>
+  </si>
+  <si>
+    <t>16.03.202519</t>
+  </si>
+  <si>
+    <t>16.03.202520</t>
+  </si>
+  <si>
+    <t>16.03.202521</t>
+  </si>
+  <si>
+    <t>16.03.202522</t>
+  </si>
+  <si>
+    <t>16.03.202523</t>
+  </si>
+  <si>
+    <t>16.03.202524</t>
+  </si>
+  <si>
+    <t>16.03.202525</t>
+  </si>
+  <si>
+    <t>16.03.202526</t>
+  </si>
+  <si>
+    <t>16.03.202527</t>
+  </si>
+  <si>
+    <t>16.03.202528</t>
+  </si>
+  <si>
+    <t>16.03.202529</t>
+  </si>
+  <si>
+    <t>16.03.202530</t>
+  </si>
+  <si>
+    <t>16.03.202531</t>
+  </si>
+  <si>
+    <t>16.03.202532</t>
+  </si>
+  <si>
+    <t>16.03.202533</t>
+  </si>
+  <si>
+    <t>16.03.202534</t>
+  </si>
+  <si>
+    <t>16.03.202535</t>
+  </si>
+  <si>
+    <t>16.03.202536</t>
+  </si>
+  <si>
+    <t>16.03.202537</t>
+  </si>
+  <si>
+    <t>16.03.202538</t>
+  </si>
+  <si>
+    <t>16.03.202539</t>
+  </si>
+  <si>
+    <t>16.03.202540</t>
+  </si>
+  <si>
+    <t>16.03.202541</t>
+  </si>
+  <si>
+    <t>16.03.202542</t>
+  </si>
+  <si>
+    <t>16.03.202543</t>
+  </si>
+  <si>
+    <t>16.03.202544</t>
+  </si>
+  <si>
+    <t>16.03.202545</t>
+  </si>
+  <si>
+    <t>16.03.202546</t>
+  </si>
+  <si>
+    <t>16.03.202547</t>
+  </si>
+  <si>
+    <t>16.03.202548</t>
+  </si>
+  <si>
+    <t>16.03.202549</t>
+  </si>
+  <si>
+    <t>16.03.202550</t>
+  </si>
+  <si>
+    <t>16.03.202551</t>
+  </si>
+  <si>
+    <t>16.03.202552</t>
+  </si>
+  <si>
+    <t>16.03.202553</t>
+  </si>
+  <si>
+    <t>16.03.202554</t>
+  </si>
+  <si>
+    <t>16.03.202555</t>
+  </si>
+  <si>
+    <t>16.03.202556</t>
+  </si>
+  <si>
+    <t>16.03.202557</t>
+  </si>
+  <si>
+    <t>16.03.202558</t>
+  </si>
+  <si>
+    <t>16.03.202559</t>
+  </si>
+  <si>
+    <t>16.03.202560</t>
+  </si>
+  <si>
+    <t>16.03.202561</t>
+  </si>
+  <si>
+    <t>16.03.202562</t>
+  </si>
+  <si>
+    <t>16.03.202563</t>
+  </si>
+  <si>
+    <t>16.03.202564</t>
+  </si>
+  <si>
+    <t>16.03.202565</t>
+  </si>
+  <si>
+    <t>16.03.202566</t>
+  </si>
+  <si>
+    <t>16.03.202567</t>
+  </si>
+  <si>
+    <t>16.03.202568</t>
+  </si>
+  <si>
+    <t>16.03.202569</t>
+  </si>
+  <si>
+    <t>16.03.202570</t>
+  </si>
+  <si>
+    <t>16.03.202571</t>
+  </si>
+  <si>
+    <t>16.03.202572</t>
+  </si>
+  <si>
+    <t>16.03.202573</t>
+  </si>
+  <si>
+    <t>16.03.202574</t>
+  </si>
+  <si>
+    <t>16.03.202575</t>
+  </si>
+  <si>
+    <t>16.03.202576</t>
+  </si>
+  <si>
+    <t>16.03.202577</t>
+  </si>
+  <si>
+    <t>16.03.202578</t>
+  </si>
+  <si>
+    <t>16.03.202579</t>
+  </si>
+  <si>
+    <t>16.03.202580</t>
+  </si>
+  <si>
+    <t>16.03.202581</t>
+  </si>
+  <si>
+    <t>16.03.202582</t>
+  </si>
+  <si>
+    <t>16.03.202583</t>
+  </si>
+  <si>
+    <t>16.03.202584</t>
+  </si>
+  <si>
+    <t>16.03.202585</t>
+  </si>
+  <si>
+    <t>16.03.202586</t>
+  </si>
+  <si>
+    <t>16.03.202587</t>
+  </si>
+  <si>
+    <t>16.03.202588</t>
+  </si>
+  <si>
+    <t>16.03.202589</t>
+  </si>
+  <si>
+    <t>16.03.202590</t>
+  </si>
+  <si>
+    <t>16.03.202591</t>
+  </si>
+  <si>
+    <t>16.03.202592</t>
+  </si>
+  <si>
+    <t>16.03.202593</t>
+  </si>
+  <si>
+    <t>16.03.202594</t>
+  </si>
+  <si>
+    <t>16.03.202595</t>
+  </si>
+  <si>
+    <t>16.03.202596</t>
+  </si>
+  <si>
+    <t>17.03.20251</t>
+  </si>
+  <si>
+    <t>17.03.20252</t>
+  </si>
+  <si>
+    <t>17.03.20253</t>
+  </si>
+  <si>
+    <t>17.03.20254</t>
+  </si>
+  <si>
+    <t>17.03.20255</t>
+  </si>
+  <si>
+    <t>17.03.20256</t>
+  </si>
+  <si>
+    <t>17.03.20257</t>
+  </si>
+  <si>
+    <t>17.03.20258</t>
+  </si>
+  <si>
+    <t>17.03.20259</t>
+  </si>
+  <si>
+    <t>17.03.202510</t>
+  </si>
+  <si>
+    <t>17.03.202511</t>
+  </si>
+  <si>
+    <t>17.03.202512</t>
+  </si>
+  <si>
+    <t>17.03.202513</t>
+  </si>
+  <si>
+    <t>17.03.202514</t>
+  </si>
+  <si>
+    <t>17.03.202515</t>
+  </si>
+  <si>
+    <t>17.03.202516</t>
+  </si>
+  <si>
+    <t>17.03.202517</t>
+  </si>
+  <si>
+    <t>17.03.202518</t>
+  </si>
+  <si>
+    <t>17.03.202519</t>
+  </si>
+  <si>
+    <t>17.03.202520</t>
+  </si>
+  <si>
+    <t>17.03.202521</t>
+  </si>
+  <si>
+    <t>17.03.202522</t>
+  </si>
+  <si>
+    <t>17.03.202523</t>
+  </si>
+  <si>
+    <t>17.03.202524</t>
+  </si>
+  <si>
+    <t>17.03.202525</t>
+  </si>
+  <si>
+    <t>17.03.202526</t>
+  </si>
+  <si>
+    <t>17.03.202527</t>
+  </si>
+  <si>
+    <t>17.03.202528</t>
+  </si>
+  <si>
+    <t>17.03.202529</t>
+  </si>
+  <si>
+    <t>17.03.202530</t>
+  </si>
+  <si>
+    <t>17.03.202531</t>
+  </si>
+  <si>
+    <t>17.03.202532</t>
+  </si>
+  <si>
+    <t>17.03.202533</t>
+  </si>
+  <si>
+    <t>17.03.202534</t>
+  </si>
+  <si>
+    <t>17.03.202535</t>
+  </si>
+  <si>
+    <t>17.03.202536</t>
+  </si>
+  <si>
+    <t>17.03.202537</t>
+  </si>
+  <si>
+    <t>17.03.202538</t>
+  </si>
+  <si>
+    <t>17.03.202539</t>
+  </si>
+  <si>
+    <t>17.03.202540</t>
+  </si>
+  <si>
+    <t>17.03.202541</t>
+  </si>
+  <si>
+    <t>17.03.202542</t>
+  </si>
+  <si>
+    <t>17.03.202543</t>
+  </si>
+  <si>
+    <t>17.03.202544</t>
+  </si>
+  <si>
+    <t>17.03.202545</t>
+  </si>
+  <si>
+    <t>17.03.202546</t>
+  </si>
+  <si>
+    <t>17.03.202547</t>
+  </si>
+  <si>
+    <t>17.03.202548</t>
+  </si>
+  <si>
+    <t>17.03.202549</t>
+  </si>
+  <si>
+    <t>17.03.202550</t>
+  </si>
+  <si>
+    <t>17.03.202551</t>
+  </si>
+  <si>
+    <t>17.03.202552</t>
+  </si>
+  <si>
+    <t>17.03.202553</t>
+  </si>
+  <si>
+    <t>17.03.202554</t>
+  </si>
+  <si>
+    <t>17.03.202555</t>
+  </si>
+  <si>
+    <t>17.03.202556</t>
+  </si>
+  <si>
+    <t>17.03.202557</t>
+  </si>
+  <si>
+    <t>17.03.202558</t>
+  </si>
+  <si>
+    <t>17.03.202559</t>
+  </si>
+  <si>
+    <t>17.03.202560</t>
+  </si>
+  <si>
+    <t>17.03.202561</t>
+  </si>
+  <si>
+    <t>17.03.202562</t>
+  </si>
+  <si>
+    <t>17.03.202563</t>
+  </si>
+  <si>
+    <t>17.03.202564</t>
+  </si>
+  <si>
+    <t>17.03.202565</t>
+  </si>
+  <si>
+    <t>17.03.202566</t>
+  </si>
+  <si>
+    <t>17.03.202567</t>
+  </si>
+  <si>
+    <t>17.03.202568</t>
+  </si>
+  <si>
+    <t>17.03.202569</t>
+  </si>
+  <si>
+    <t>17.03.202570</t>
+  </si>
+  <si>
+    <t>17.03.202571</t>
+  </si>
+  <si>
+    <t>17.03.202572</t>
+  </si>
+  <si>
+    <t>17.03.202573</t>
+  </si>
+  <si>
+    <t>17.03.202574</t>
+  </si>
+  <si>
+    <t>17.03.202575</t>
+  </si>
+  <si>
+    <t>17.03.202576</t>
+  </si>
+  <si>
+    <t>17.03.202577</t>
+  </si>
+  <si>
+    <t>17.03.202578</t>
+  </si>
+  <si>
+    <t>17.03.202579</t>
+  </si>
+  <si>
+    <t>17.03.202580</t>
+  </si>
+  <si>
+    <t>17.03.202581</t>
+  </si>
+  <si>
+    <t>17.03.202582</t>
+  </si>
+  <si>
+    <t>17.03.202583</t>
+  </si>
+  <si>
+    <t>17.03.202584</t>
+  </si>
+  <si>
+    <t>17.03.202585</t>
+  </si>
+  <si>
+    <t>17.03.202586</t>
+  </si>
+  <si>
+    <t>17.03.202587</t>
+  </si>
+  <si>
+    <t>17.03.202588</t>
+  </si>
+  <si>
+    <t>17.03.202589</t>
+  </si>
+  <si>
+    <t>17.03.202590</t>
+  </si>
+  <si>
+    <t>17.03.202591</t>
+  </si>
+  <si>
+    <t>17.03.202592</t>
+  </si>
+  <si>
+    <t>17.03.202593</t>
+  </si>
+  <si>
+    <t>17.03.202594</t>
+  </si>
+  <si>
+    <t>17.03.202595</t>
+  </si>
+  <si>
+    <t>17.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,13 +1567,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45685</v>
+        <v>45730</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>1571</v>
       </c>
       <c r="C2">
-        <v>441</v>
+        <v>1718</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1296,13 +1584,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45685.01041666666</v>
+        <v>45730.01041666666</v>
       </c>
       <c r="B3">
-        <v>507</v>
+        <v>1570</v>
       </c>
       <c r="C3">
-        <v>439</v>
+        <v>1860</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1313,13 +1601,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45685.02083333334</v>
+        <v>45730.02083333334</v>
       </c>
       <c r="B4">
-        <v>508</v>
+        <v>1573</v>
       </c>
       <c r="C4">
-        <v>459</v>
+        <v>1919</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1330,13 +1618,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45685.03125</v>
+        <v>45730.03125</v>
       </c>
       <c r="B5">
-        <v>510</v>
+        <v>1569</v>
       </c>
       <c r="C5">
-        <v>482</v>
+        <v>1866</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1347,13 +1635,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45685.04166666666</v>
+        <v>45730.04166666666</v>
       </c>
       <c r="B6">
-        <v>498</v>
+        <v>1629</v>
       </c>
       <c r="C6">
-        <v>490</v>
+        <v>1902</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1364,13 +1652,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45685.05208333334</v>
+        <v>45730.05208333334</v>
       </c>
       <c r="B7">
-        <v>501</v>
+        <v>1628</v>
       </c>
       <c r="C7">
-        <v>515</v>
+        <v>1956</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1381,13 +1669,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45685.0625</v>
+        <v>45730.0625</v>
       </c>
       <c r="B8">
-        <v>503</v>
+        <v>1628</v>
       </c>
       <c r="C8">
-        <v>534</v>
+        <v>1970</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1398,13 +1686,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45685.07291666666</v>
+        <v>45730.07291666666</v>
       </c>
       <c r="B9">
-        <v>507</v>
+        <v>1629</v>
       </c>
       <c r="C9">
-        <v>529</v>
+        <v>1959</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1415,13 +1703,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45685.08333333334</v>
+        <v>45730.08333333334</v>
       </c>
       <c r="B10">
-        <v>518</v>
+        <v>1606</v>
       </c>
       <c r="C10">
-        <v>523</v>
+        <v>1889</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1432,13 +1720,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45685.09375</v>
+        <v>45730.09375</v>
       </c>
       <c r="B11">
-        <v>524</v>
+        <v>1602</v>
       </c>
       <c r="C11">
-        <v>517</v>
+        <v>1725</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1449,13 +1737,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45685.10416666666</v>
+        <v>45730.10416666666</v>
       </c>
       <c r="B12">
-        <v>538</v>
+        <v>1589</v>
       </c>
       <c r="C12">
-        <v>497</v>
+        <v>1613</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1466,13 +1754,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45685.11458333334</v>
+        <v>45730.11458333334</v>
       </c>
       <c r="B13">
-        <v>541</v>
+        <v>1589</v>
       </c>
       <c r="C13">
-        <v>469</v>
+        <v>1505</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1483,13 +1771,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45685.125</v>
+        <v>45730.125</v>
       </c>
       <c r="B14">
-        <v>574</v>
+        <v>1462</v>
       </c>
       <c r="C14">
-        <v>447</v>
+        <v>1335</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1500,13 +1788,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45685.13541666666</v>
+        <v>45730.13541666666</v>
       </c>
       <c r="B15">
-        <v>576</v>
+        <v>1451</v>
       </c>
       <c r="C15">
-        <v>418</v>
+        <v>1145</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1517,13 +1805,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45685.14583333334</v>
+        <v>45730.14583333334</v>
       </c>
       <c r="B16">
-        <v>583</v>
+        <v>1432</v>
       </c>
       <c r="C16">
-        <v>393</v>
+        <v>973</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1534,13 +1822,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45685.15625</v>
+        <v>45730.15625</v>
       </c>
       <c r="B17">
-        <v>583</v>
+        <v>1415</v>
       </c>
       <c r="C17">
-        <v>367</v>
+        <v>836</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1551,13 +1839,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45685.16666666666</v>
+        <v>45730.16666666666</v>
       </c>
       <c r="B18">
-        <v>579</v>
+        <v>1109</v>
       </c>
       <c r="C18">
-        <v>321</v>
+        <v>817</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1568,13 +1856,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45685.17708333334</v>
+        <v>45730.17708333334</v>
       </c>
       <c r="B19">
-        <v>577</v>
+        <v>1102</v>
       </c>
       <c r="C19">
-        <v>262</v>
+        <v>945</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1585,13 +1873,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45685.1875</v>
+        <v>45730.1875</v>
       </c>
       <c r="B20">
-        <v>565</v>
+        <v>1070</v>
       </c>
       <c r="C20">
-        <v>227</v>
+        <v>1073</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1602,13 +1890,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45685.19791666666</v>
+        <v>45730.19791666666</v>
       </c>
       <c r="B21">
-        <v>566</v>
+        <v>1064</v>
       </c>
       <c r="C21">
-        <v>205</v>
+        <v>1155</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1619,13 +1907,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45685.20833333334</v>
+        <v>45730.20833333334</v>
       </c>
       <c r="B22">
-        <v>573</v>
+        <v>1028</v>
       </c>
       <c r="C22">
-        <v>175</v>
+        <v>1271</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1636,13 +1924,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45685.21875</v>
+        <v>45730.21875</v>
       </c>
       <c r="B23">
-        <v>569</v>
+        <v>1024</v>
       </c>
       <c r="C23">
-        <v>148</v>
+        <v>1287</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1653,13 +1941,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45685.22916666666</v>
+        <v>45730.22916666666</v>
       </c>
       <c r="B24">
-        <v>558</v>
+        <v>1028</v>
       </c>
       <c r="C24">
-        <v>132</v>
+        <v>1265</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1670,13 +1958,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45685.23958333334</v>
+        <v>45730.23958333334</v>
       </c>
       <c r="B25">
-        <v>557</v>
+        <v>1048</v>
       </c>
       <c r="C25">
-        <v>138</v>
+        <v>1274</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1687,13 +1975,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45685.25</v>
+        <v>45730.25</v>
       </c>
       <c r="B26">
-        <v>574</v>
+        <v>1063</v>
       </c>
       <c r="C26">
-        <v>150</v>
+        <v>1321</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1704,13 +1992,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45685.26041666666</v>
+        <v>45730.26041666666</v>
       </c>
       <c r="B27">
-        <v>574</v>
+        <v>1060</v>
       </c>
       <c r="C27">
-        <v>173</v>
+        <v>1353</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1721,13 +2009,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45685.27083333334</v>
+        <v>45730.27083333334</v>
       </c>
       <c r="B28">
-        <v>575</v>
+        <v>1064</v>
       </c>
       <c r="C28">
-        <v>178</v>
+        <v>1249</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1738,13 +2026,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45685.28125</v>
+        <v>45730.28125</v>
       </c>
       <c r="B29">
-        <v>574</v>
+        <v>1061</v>
       </c>
       <c r="C29">
-        <v>196</v>
+        <v>1152</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1755,13 +2043,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45685.29166666666</v>
+        <v>45730.29166666666</v>
       </c>
       <c r="B30">
-        <v>593</v>
+        <v>955</v>
       </c>
       <c r="C30">
-        <v>221</v>
+        <v>1035</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1772,13 +2060,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45685.30208333334</v>
+        <v>45730.30208333334</v>
       </c>
       <c r="B31">
-        <v>593</v>
+        <v>959</v>
       </c>
       <c r="C31">
-        <v>258</v>
+        <v>950</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1789,13 +2077,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45685.3125</v>
+        <v>45730.3125</v>
       </c>
       <c r="B32">
-        <v>593</v>
+        <v>959</v>
       </c>
       <c r="C32">
-        <v>276</v>
+        <v>848</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1806,13 +2094,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45685.32291666666</v>
+        <v>45730.32291666666</v>
       </c>
       <c r="B33">
-        <v>591</v>
+        <v>952</v>
       </c>
       <c r="C33">
-        <v>291</v>
+        <v>711</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1823,13 +2111,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45685.33333333334</v>
+        <v>45730.33333333334</v>
       </c>
       <c r="B34">
-        <v>566</v>
+        <v>784</v>
       </c>
       <c r="C34">
-        <v>321</v>
+        <v>523</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1840,13 +2128,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45685.34375</v>
+        <v>45730.34375</v>
       </c>
       <c r="B35">
-        <v>564</v>
+        <v>776</v>
       </c>
       <c r="C35">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1857,13 +2145,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45685.35416666666</v>
+        <v>45730.35416666666</v>
       </c>
       <c r="B36">
-        <v>565</v>
+        <v>737</v>
       </c>
       <c r="C36">
-        <v>445</v>
+        <v>329</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1874,13 +2162,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45685.36458333334</v>
+        <v>45730.36458333334</v>
       </c>
       <c r="B37">
-        <v>562</v>
+        <v>728</v>
       </c>
       <c r="C37">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1891,13 +2179,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45685.375</v>
+        <v>45730.375</v>
       </c>
       <c r="B38">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="C38">
-        <v>414</v>
+        <v>260</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1908,13 +2196,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45685.38541666666</v>
+        <v>45730.38541666666</v>
       </c>
       <c r="B39">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="C39">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1925,13 +2213,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45685.39583333334</v>
+        <v>45730.39583333334</v>
       </c>
       <c r="B40">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="C40">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1942,13 +2230,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45685.40625</v>
+        <v>45730.40625</v>
       </c>
       <c r="B41">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="C41">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1959,13 +2247,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45685.41666666666</v>
+        <v>45730.41666666666</v>
       </c>
       <c r="B42">
-        <v>434</v>
+        <v>538</v>
       </c>
       <c r="C42">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1976,13 +2264,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45685.42708333334</v>
+        <v>45730.42708333334</v>
       </c>
       <c r="B43">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="C43">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1993,13 +2281,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45685.4375</v>
+        <v>45730.4375</v>
       </c>
       <c r="B44">
-        <v>429</v>
+        <v>541</v>
       </c>
       <c r="C44">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -2010,13 +2298,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45685.44791666666</v>
+        <v>45730.44791666666</v>
       </c>
       <c r="B45">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="C45">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -2027,13 +2315,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45685.45833333334</v>
+        <v>45730.45833333334</v>
       </c>
       <c r="B46">
-        <v>371</v>
+        <v>555</v>
       </c>
       <c r="C46">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -2044,13 +2332,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45685.46875</v>
+        <v>45730.46875</v>
       </c>
       <c r="B47">
-        <v>370</v>
+        <v>561</v>
       </c>
       <c r="C47">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -2061,13 +2349,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45685.47916666666</v>
+        <v>45730.47916666666</v>
       </c>
       <c r="B48">
-        <v>370</v>
+        <v>566</v>
       </c>
       <c r="C48">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -2078,13 +2366,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45685.48958333334</v>
+        <v>45730.48958333334</v>
       </c>
       <c r="B49">
-        <v>369</v>
+        <v>571</v>
       </c>
       <c r="C49">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -2095,13 +2383,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45685.5</v>
+        <v>45730.5</v>
       </c>
       <c r="B50">
-        <v>374</v>
+        <v>627</v>
       </c>
       <c r="C50">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -2112,13 +2400,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45685.51041666666</v>
+        <v>45730.51041666666</v>
       </c>
       <c r="B51">
-        <v>375</v>
+        <v>632</v>
       </c>
       <c r="C51">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -2129,13 +2417,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45685.52083333334</v>
+        <v>45730.52083333334</v>
       </c>
       <c r="B52">
-        <v>375</v>
+        <v>638</v>
       </c>
       <c r="C52">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -2146,13 +2434,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45685.53125</v>
+        <v>45730.53125</v>
       </c>
       <c r="B53">
-        <v>376</v>
+        <v>643</v>
       </c>
       <c r="C53">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -2163,13 +2451,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45685.54166666666</v>
+        <v>45730.54166666666</v>
       </c>
       <c r="B54">
-        <v>398</v>
+        <v>708</v>
       </c>
       <c r="C54">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -2180,13 +2468,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45685.55208333334</v>
+        <v>45730.55208333334</v>
       </c>
       <c r="B55">
-        <v>399</v>
+        <v>714</v>
       </c>
       <c r="C55">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -2197,13 +2485,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45685.5625</v>
+        <v>45730.5625</v>
       </c>
       <c r="B56">
-        <v>400</v>
+        <v>721</v>
       </c>
       <c r="C56">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -2214,13 +2502,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45685.57291666666</v>
+        <v>45730.57291666666</v>
       </c>
       <c r="B57">
-        <v>402</v>
+        <v>727</v>
       </c>
       <c r="C57">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -2231,13 +2519,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45685.58333333334</v>
+        <v>45730.58333333334</v>
       </c>
       <c r="B58">
-        <v>451</v>
+        <v>807</v>
       </c>
       <c r="C58">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -2248,13 +2536,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45685.59375</v>
+        <v>45730.59375</v>
       </c>
       <c r="B59">
-        <v>454</v>
+        <v>811</v>
       </c>
       <c r="C59">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -2265,13 +2553,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45685.60416666666</v>
+        <v>45730.60416666666</v>
       </c>
       <c r="B60">
-        <v>456</v>
+        <v>815</v>
       </c>
       <c r="C60">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -2282,13 +2570,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45685.61458333334</v>
+        <v>45730.61458333334</v>
       </c>
       <c r="B61">
-        <v>459</v>
+        <v>819</v>
       </c>
       <c r="C61">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2299,13 +2587,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45685.625</v>
+        <v>45730.625</v>
       </c>
       <c r="B62">
-        <v>540</v>
+        <v>892</v>
       </c>
       <c r="C62">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2316,13 +2604,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45685.63541666666</v>
+        <v>45730.63541666666</v>
       </c>
       <c r="B63">
-        <v>546</v>
+        <v>892</v>
       </c>
       <c r="C63">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2333,13 +2621,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45685.64583333334</v>
+        <v>45730.64583333334</v>
       </c>
       <c r="B64">
-        <v>553</v>
+        <v>893</v>
       </c>
       <c r="C64">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2350,13 +2638,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45685.65625</v>
+        <v>45730.65625</v>
       </c>
       <c r="B65">
-        <v>560</v>
+        <v>893</v>
       </c>
       <c r="C65">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2367,13 +2655,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45685.66666666666</v>
+        <v>45730.66666666666</v>
       </c>
       <c r="B66">
-        <v>670</v>
+        <v>1001</v>
       </c>
       <c r="C66">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2384,13 +2672,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45685.67708333334</v>
+        <v>45730.67708333334</v>
       </c>
       <c r="B67">
-        <v>678</v>
+        <v>1002</v>
       </c>
       <c r="C67">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2401,13 +2689,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45685.6875</v>
+        <v>45730.6875</v>
       </c>
       <c r="B68">
-        <v>687</v>
+        <v>1003</v>
       </c>
       <c r="C68">
-        <v>620</v>
+        <v>737</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2418,13 +2706,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45685.69791666666</v>
+        <v>45730.69791666666</v>
       </c>
       <c r="B69">
-        <v>695</v>
+        <v>1004</v>
       </c>
       <c r="C69">
-        <v>622</v>
+        <v>793</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2435,13 +2723,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45685.70833333334</v>
+        <v>45730.70833333334</v>
       </c>
       <c r="B70">
-        <v>822</v>
+        <v>1238</v>
       </c>
       <c r="C70">
-        <v>638</v>
+        <v>888</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2452,13 +2740,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45685.71875</v>
+        <v>45730.71875</v>
       </c>
       <c r="B71">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="C71">
-        <v>650</v>
+        <v>981</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2469,13 +2757,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45685.72916666666</v>
+        <v>45730.72916666666</v>
       </c>
       <c r="B72">
-        <v>834</v>
+        <v>1247</v>
       </c>
       <c r="C72">
-        <v>677</v>
+        <v>1120</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2486,13 +2774,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45685.73958333334</v>
+        <v>45730.73958333334</v>
       </c>
       <c r="B73">
-        <v>840</v>
+        <v>1251</v>
       </c>
       <c r="C73">
-        <v>727</v>
+        <v>1214</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2503,13 +2791,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45685.75</v>
+        <v>45730.75</v>
       </c>
       <c r="B74">
-        <v>925</v>
+        <v>1404</v>
       </c>
       <c r="C74">
-        <v>758</v>
+        <v>1350</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2520,13 +2808,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45685.76041666666</v>
+        <v>45730.76041666666</v>
       </c>
       <c r="B75">
-        <v>928</v>
+        <v>1408</v>
       </c>
       <c r="C75">
-        <v>770</v>
+        <v>1413</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2537,13 +2825,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45685.77083333334</v>
+        <v>45730.77083333334</v>
       </c>
       <c r="B76">
-        <v>932</v>
+        <v>1411</v>
       </c>
       <c r="C76">
-        <v>786</v>
+        <v>1428</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2554,13 +2842,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45685.78125</v>
+        <v>45730.78125</v>
       </c>
       <c r="B77">
-        <v>935</v>
+        <v>1415</v>
       </c>
       <c r="C77">
-        <v>805</v>
+        <v>1375</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2571,13 +2859,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45685.79166666666</v>
+        <v>45730.79166666666</v>
       </c>
       <c r="B78">
-        <v>965</v>
+        <v>1501</v>
       </c>
       <c r="C78">
-        <v>827</v>
+        <v>1431</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2588,13 +2876,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45685.80208333334</v>
+        <v>45730.80208333334</v>
       </c>
       <c r="B79">
-        <v>966</v>
+        <v>1504</v>
       </c>
       <c r="C79">
-        <v>824</v>
+        <v>1463</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2605,13 +2893,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45685.8125</v>
+        <v>45730.8125</v>
       </c>
       <c r="B80">
-        <v>967</v>
+        <v>1506</v>
       </c>
       <c r="C80">
-        <v>837</v>
+        <v>1492</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2622,13 +2910,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45685.82291666666</v>
+        <v>45730.82291666666</v>
       </c>
       <c r="B81">
-        <v>969</v>
+        <v>1509</v>
       </c>
       <c r="C81">
-        <v>843</v>
+        <v>1529</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2639,13 +2927,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45685.83333333334</v>
+        <v>45730.83333333334</v>
       </c>
       <c r="B82">
-        <v>948</v>
+        <v>1554</v>
       </c>
       <c r="C82">
-        <v>818</v>
+        <v>1559</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2656,13 +2944,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45685.84375</v>
+        <v>45730.84375</v>
       </c>
       <c r="B83">
-        <v>948</v>
+        <v>1558</v>
       </c>
       <c r="C83">
-        <v>775</v>
+        <v>1566</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2673,13 +2961,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45685.85416666666</v>
+        <v>45730.85416666666</v>
       </c>
       <c r="B84">
-        <v>948</v>
+        <v>1563</v>
       </c>
       <c r="C84">
-        <v>750</v>
+        <v>1568</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2690,13 +2978,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45685.86458333334</v>
+        <v>45730.86458333334</v>
       </c>
       <c r="B85">
-        <v>947</v>
+        <v>1567</v>
       </c>
       <c r="C85">
-        <v>747</v>
+        <v>1531</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2707,13 +2995,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45685.875</v>
+        <v>45730.875</v>
       </c>
       <c r="B86">
-        <v>895</v>
+        <v>1605</v>
       </c>
       <c r="C86">
-        <v>728</v>
+        <v>1488</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2724,13 +3012,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45685.88541666666</v>
+        <v>45730.88541666666</v>
       </c>
       <c r="B87">
-        <v>893</v>
+        <v>1605</v>
       </c>
       <c r="C87">
-        <v>724</v>
+        <v>1488</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2741,13 +3029,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45685.89583333334</v>
+        <v>45730.89583333334</v>
       </c>
       <c r="B88">
-        <v>891</v>
+        <v>1604</v>
       </c>
       <c r="C88">
-        <v>717</v>
+        <v>1549</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2758,13 +3046,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45685.90625</v>
+        <v>45730.90625</v>
       </c>
       <c r="B89">
-        <v>891</v>
+        <v>1604</v>
       </c>
       <c r="C89">
-        <v>708</v>
+        <v>1563</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2775,13 +3063,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45685.91666666666</v>
+        <v>45730.91666666666</v>
       </c>
       <c r="B90">
-        <v>816</v>
+        <v>1558</v>
       </c>
       <c r="C90">
-        <v>645</v>
+        <v>1505</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2792,13 +3080,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45685.92708333334</v>
+        <v>45730.92708333334</v>
       </c>
       <c r="B91">
-        <v>813</v>
+        <v>1557</v>
       </c>
       <c r="C91">
-        <v>593</v>
+        <v>1525</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2809,13 +3097,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45685.9375</v>
+        <v>45730.9375</v>
       </c>
       <c r="B92">
-        <v>811</v>
+        <v>1555</v>
       </c>
       <c r="C92">
-        <v>565</v>
+        <v>1488</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2826,13 +3114,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45685.94791666666</v>
+        <v>45730.94791666666</v>
       </c>
       <c r="B93">
-        <v>809</v>
+        <v>1553</v>
       </c>
       <c r="C93">
-        <v>557</v>
+        <v>1464</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2843,13 +3131,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45685.95833333334</v>
+        <v>45730.95833333334</v>
       </c>
       <c r="B94">
-        <v>744</v>
+        <v>1436</v>
       </c>
       <c r="C94">
-        <v>567</v>
+        <v>1423</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2860,13 +3148,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45685.96875</v>
+        <v>45730.96875</v>
       </c>
       <c r="B95">
-        <v>754</v>
+        <v>1429</v>
       </c>
       <c r="C95">
-        <v>582</v>
+        <v>1401</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2877,13 +3165,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45685.97916666666</v>
+        <v>45730.97916666666</v>
       </c>
       <c r="B96">
-        <v>750</v>
+        <v>1434</v>
       </c>
       <c r="C96">
-        <v>585</v>
+        <v>1335</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2894,13 +3182,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45685.98958333334</v>
+        <v>45730.98958333334</v>
       </c>
       <c r="B97">
-        <v>740</v>
+        <v>1431</v>
       </c>
       <c r="C97">
-        <v>582</v>
+        <v>1282</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2911,13 +3199,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45686</v>
+        <v>45731</v>
       </c>
       <c r="B98">
-        <v>771</v>
+        <v>1443</v>
       </c>
       <c r="C98">
-        <v>575</v>
+        <v>1186</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2928,13 +3216,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45686.01041666666</v>
+        <v>45731.01041666666</v>
       </c>
       <c r="B99">
-        <v>771</v>
+        <v>1443</v>
       </c>
       <c r="C99">
-        <v>548</v>
+        <v>1069</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2945,13 +3233,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45686.02083333334</v>
+        <v>45731.02083333334</v>
       </c>
       <c r="B100">
-        <v>769</v>
+        <v>1449</v>
       </c>
       <c r="C100">
-        <v>491</v>
+        <v>1005</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2962,13 +3250,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45686.03125</v>
+        <v>45731.03125</v>
       </c>
       <c r="B101">
-        <v>771</v>
+        <v>1456</v>
       </c>
       <c r="C101">
-        <v>459</v>
+        <v>1031</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2979,13 +3267,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45686.04166666666</v>
+        <v>45731.04166666666</v>
       </c>
       <c r="B102">
-        <v>722</v>
+        <v>1412</v>
       </c>
       <c r="C102">
-        <v>428</v>
+        <v>1076</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2996,13 +3284,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45686.05208333334</v>
+        <v>45731.05208333334</v>
       </c>
       <c r="B103">
-        <v>721</v>
+        <v>1413</v>
       </c>
       <c r="C103">
-        <v>402</v>
+        <v>1094</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -3013,13 +3301,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45686.0625</v>
+        <v>45731.0625</v>
       </c>
       <c r="B104">
-        <v>719</v>
+        <v>1408</v>
       </c>
       <c r="C104">
-        <v>388</v>
+        <v>1100</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -3030,13 +3318,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45686.07291666666</v>
+        <v>45731.07291666666</v>
       </c>
       <c r="B105">
-        <v>711</v>
+        <v>1406</v>
       </c>
       <c r="C105">
-        <v>368</v>
+        <v>1092</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -3047,13 +3335,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45686.08333333334</v>
+        <v>45731.08333333334</v>
       </c>
       <c r="B106">
-        <v>631</v>
+        <v>1358</v>
       </c>
       <c r="C106">
-        <v>332</v>
+        <v>1045</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -3064,13 +3352,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45686.09375</v>
+        <v>45731.09375</v>
       </c>
       <c r="B107">
-        <v>629</v>
+        <v>1360</v>
       </c>
       <c r="C107">
-        <v>324</v>
+        <v>1030</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -3081,13 +3369,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45686.10416666666</v>
+        <v>45731.10416666666</v>
       </c>
       <c r="B108">
-        <v>621</v>
+        <v>1358</v>
       </c>
       <c r="C108">
-        <v>321</v>
+        <v>1037</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -3098,13 +3386,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45686.11458333334</v>
+        <v>45731.11458333334</v>
       </c>
       <c r="B109">
-        <v>617</v>
+        <v>1341</v>
       </c>
       <c r="C109">
-        <v>334</v>
+        <v>1012</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -3115,13 +3403,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45686.125</v>
+        <v>45731.125</v>
       </c>
       <c r="B110">
-        <v>552</v>
+        <v>1247</v>
       </c>
       <c r="C110">
-        <v>335</v>
+        <v>996</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -3132,13 +3420,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45686.13541666666</v>
+        <v>45731.13541666666</v>
       </c>
       <c r="B111">
-        <v>552</v>
+        <v>1238</v>
       </c>
       <c r="C111">
-        <v>351</v>
+        <v>1013</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -3149,13 +3437,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45686.14583333334</v>
+        <v>45731.14583333334</v>
       </c>
       <c r="B112">
-        <v>551</v>
+        <v>1243</v>
       </c>
       <c r="C112">
-        <v>382</v>
+        <v>1036</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -3166,13 +3454,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45686.15625</v>
+        <v>45731.15625</v>
       </c>
       <c r="B113">
-        <v>547</v>
+        <v>1240</v>
       </c>
       <c r="C113">
-        <v>425</v>
+        <v>1088</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -3183,13 +3471,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45686.16666666666</v>
+        <v>45731.16666666666</v>
       </c>
       <c r="B114">
-        <v>559</v>
+        <v>1121</v>
       </c>
       <c r="C114">
-        <v>455</v>
+        <v>1065</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -3200,13 +3488,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45686.17708333334</v>
+        <v>45731.17708333334</v>
       </c>
       <c r="B115">
-        <v>563</v>
+        <v>1120</v>
       </c>
       <c r="C115">
-        <v>471</v>
+        <v>1015</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -3217,13 +3505,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45686.1875</v>
+        <v>45731.1875</v>
       </c>
       <c r="B116">
-        <v>565</v>
+        <v>1118</v>
       </c>
       <c r="C116">
-        <v>499</v>
+        <v>977</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -3234,13 +3522,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45686.19791666666</v>
+        <v>45731.19791666666</v>
       </c>
       <c r="B117">
-        <v>570</v>
+        <v>1118</v>
       </c>
       <c r="C117">
-        <v>531</v>
+        <v>943</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -3251,13 +3539,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45686.20833333334</v>
+        <v>45731.20833333334</v>
       </c>
       <c r="B118">
-        <v>569</v>
+        <v>1129</v>
       </c>
       <c r="C118">
-        <v>535</v>
+        <v>944</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -3268,13 +3556,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45686.21875</v>
+        <v>45731.21875</v>
       </c>
       <c r="B119">
-        <v>568</v>
+        <v>1129</v>
       </c>
       <c r="C119">
-        <v>555</v>
+        <v>961</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -3285,13 +3573,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45686.22916666666</v>
+        <v>45731.22916666666</v>
       </c>
       <c r="B120">
-        <v>567</v>
+        <v>1123</v>
       </c>
       <c r="C120">
-        <v>559</v>
+        <v>967</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3302,13 +3590,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45686.23958333334</v>
+        <v>45731.23958333334</v>
       </c>
       <c r="B121">
-        <v>564</v>
+        <v>1118</v>
       </c>
       <c r="C121">
-        <v>567</v>
+        <v>963</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3319,13 +3607,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45686.25</v>
+        <v>45731.25</v>
       </c>
       <c r="B122">
-        <v>607</v>
+        <v>1102</v>
       </c>
       <c r="C122">
-        <v>579</v>
+        <v>1002</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3336,13 +3624,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45686.26041666666</v>
+        <v>45731.26041666666</v>
       </c>
       <c r="B123">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="C123">
-        <v>580</v>
+        <v>1051</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3353,13 +3641,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45686.27083333334</v>
+        <v>45731.27083333334</v>
       </c>
       <c r="B124">
-        <v>603</v>
+        <v>1098</v>
       </c>
       <c r="C124">
-        <v>601</v>
+        <v>1123</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3370,13 +3658,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45686.28125</v>
+        <v>45731.28125</v>
       </c>
       <c r="B125">
-        <v>601</v>
+        <v>1095</v>
       </c>
       <c r="C125">
-        <v>616</v>
+        <v>1165</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3387,13 +3675,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45686.29166666666</v>
+        <v>45731.29166666666</v>
       </c>
       <c r="B126">
-        <v>697</v>
+        <v>1090</v>
       </c>
       <c r="C126">
-        <v>663</v>
+        <v>1221</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3404,13 +3692,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45686.30208333334</v>
+        <v>45731.30208333334</v>
       </c>
       <c r="B127">
-        <v>695</v>
+        <v>1091</v>
       </c>
       <c r="C127">
-        <v>692</v>
+        <v>1251</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3421,13 +3709,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45686.3125</v>
+        <v>45731.3125</v>
       </c>
       <c r="B128">
-        <v>694</v>
+        <v>1090</v>
       </c>
       <c r="C128">
-        <v>720</v>
+        <v>1189</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3438,13 +3726,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45686.32291666666</v>
+        <v>45731.32291666666</v>
       </c>
       <c r="B129">
-        <v>684</v>
+        <v>1090</v>
       </c>
       <c r="C129">
-        <v>765</v>
+        <v>1133</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3455,13 +3743,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45686.33333333334</v>
+        <v>45731.33333333334</v>
       </c>
       <c r="B130">
-        <v>782</v>
+        <v>1135</v>
       </c>
       <c r="C130">
-        <v>876</v>
+        <v>1137</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3472,13 +3760,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45686.34375</v>
+        <v>45731.34375</v>
       </c>
       <c r="B131">
-        <v>781</v>
+        <v>1138</v>
       </c>
       <c r="C131">
-        <v>815</v>
+        <v>1125</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3489,13 +3777,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45686.35416666666</v>
+        <v>45731.35416666666</v>
       </c>
       <c r="B132">
-        <v>780</v>
+        <v>1136</v>
       </c>
       <c r="C132">
-        <v>784</v>
+        <v>1071</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3506,13 +3794,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45686.36458333334</v>
+        <v>45731.36458333334</v>
       </c>
       <c r="B133">
-        <v>771</v>
+        <v>1131</v>
       </c>
       <c r="C133">
-        <v>772</v>
+        <v>982</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3523,13 +3811,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45686.375</v>
+        <v>45731.375</v>
       </c>
       <c r="B134">
-        <v>743</v>
+        <v>1085</v>
       </c>
       <c r="C134">
-        <v>821</v>
+        <v>986</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3540,13 +3828,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45686.38541666666</v>
+        <v>45731.38541666666</v>
       </c>
       <c r="B135">
-        <v>741</v>
+        <v>1083</v>
       </c>
       <c r="C135">
-        <v>817</v>
+        <v>1064</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3557,13 +3845,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45686.39583333334</v>
+        <v>45731.39583333334</v>
       </c>
       <c r="B136">
-        <v>729</v>
+        <v>1080</v>
       </c>
       <c r="C136">
-        <v>801</v>
+        <v>1060</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3574,13 +3862,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45686.40625</v>
+        <v>45731.40625</v>
       </c>
       <c r="B137">
-        <v>727</v>
+        <v>1078</v>
       </c>
       <c r="C137">
-        <v>725</v>
+        <v>1017</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3591,13 +3879,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45686.41666666666</v>
+        <v>45731.41666666666</v>
       </c>
       <c r="B138">
-        <v>598</v>
+        <v>1115</v>
       </c>
       <c r="C138">
-        <v>706</v>
+        <v>984</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3608,13 +3896,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45686.42708333334</v>
+        <v>45731.42708333334</v>
       </c>
       <c r="B139">
-        <v>593</v>
+        <v>1116</v>
       </c>
       <c r="C139">
-        <v>642</v>
+        <v>1017</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3625,13 +3913,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45686.4375</v>
+        <v>45731.4375</v>
       </c>
       <c r="B140">
-        <v>588</v>
+        <v>1117</v>
       </c>
       <c r="C140">
-        <v>583</v>
+        <v>1018</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3642,13 +3930,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45686.44791666666</v>
+        <v>45731.44791666666</v>
       </c>
       <c r="B141">
-        <v>584</v>
+        <v>1118</v>
       </c>
       <c r="C141">
-        <v>540</v>
+        <v>1038</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3659,13 +3947,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45686.45833333334</v>
+        <v>45731.45833333334</v>
       </c>
       <c r="B142">
-        <v>503</v>
+        <v>1202</v>
       </c>
       <c r="C142">
-        <v>537</v>
+        <v>1060</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3676,13 +3964,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45686.46875</v>
+        <v>45731.46875</v>
       </c>
       <c r="B143">
-        <v>501</v>
+        <v>1204</v>
       </c>
       <c r="C143">
-        <v>533</v>
+        <v>1083</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3693,13 +3981,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45686.47916666666</v>
+        <v>45731.47916666666</v>
       </c>
       <c r="B144">
-        <v>498</v>
+        <v>1205</v>
       </c>
       <c r="C144">
-        <v>539</v>
+        <v>1088</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3710,13 +3998,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45686.48958333334</v>
+        <v>45731.48958333334</v>
       </c>
       <c r="B145">
-        <v>496</v>
+        <v>1206</v>
       </c>
       <c r="C145">
-        <v>537</v>
+        <v>1089</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3727,13 +4015,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45686.5</v>
+        <v>45731.5</v>
       </c>
       <c r="B146">
-        <v>466</v>
+        <v>1249</v>
       </c>
       <c r="C146">
-        <v>543</v>
+        <v>1065</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3744,13 +4032,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45686.51041666666</v>
+        <v>45731.51041666666</v>
       </c>
       <c r="B147">
-        <v>465</v>
+        <v>1250</v>
       </c>
       <c r="C147">
-        <v>569</v>
+        <v>1093</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3761,13 +4049,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45686.52083333334</v>
+        <v>45731.52083333334</v>
       </c>
       <c r="B148">
-        <v>463</v>
+        <v>1251</v>
       </c>
       <c r="C148">
-        <v>568</v>
+        <v>1130</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3778,13 +4066,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45686.53125</v>
+        <v>45731.53125</v>
       </c>
       <c r="B149">
-        <v>461</v>
+        <v>1251</v>
       </c>
       <c r="C149">
-        <v>523</v>
+        <v>1142</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3795,13 +4083,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45686.54166666666</v>
+        <v>45731.54166666666</v>
       </c>
       <c r="B150">
-        <v>446</v>
+        <v>1233</v>
       </c>
       <c r="C150">
-        <v>508</v>
+        <v>1154</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3812,13 +4100,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45686.55208333334</v>
+        <v>45731.55208333334</v>
       </c>
       <c r="B151">
-        <v>445</v>
+        <v>1231</v>
       </c>
       <c r="C151">
-        <v>469</v>
+        <v>1087</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3829,13 +4117,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45686.5625</v>
+        <v>45731.5625</v>
       </c>
       <c r="B152">
-        <v>443</v>
+        <v>1229</v>
       </c>
       <c r="C152">
-        <v>390</v>
+        <v>1005</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3846,13 +4134,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45686.57291666666</v>
+        <v>45731.57291666666</v>
       </c>
       <c r="B153">
-        <v>441</v>
+        <v>1227</v>
       </c>
       <c r="C153">
-        <v>361</v>
+        <v>889</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3863,13 +4151,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45686.58333333334</v>
+        <v>45731.58333333334</v>
       </c>
       <c r="B154">
-        <v>435</v>
+        <v>1105</v>
       </c>
       <c r="C154">
-        <v>332</v>
+        <v>741</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3880,13 +4168,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45686.59375</v>
+        <v>45731.59375</v>
       </c>
       <c r="B155">
-        <v>435</v>
+        <v>1102</v>
       </c>
       <c r="C155">
-        <v>325</v>
+        <v>664</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3897,13 +4185,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45686.60416666666</v>
+        <v>45731.60416666666</v>
       </c>
       <c r="B156">
-        <v>434</v>
+        <v>1099</v>
       </c>
       <c r="C156">
-        <v>355</v>
+        <v>663</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3914,13 +4202,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45686.61458333334</v>
+        <v>45731.61458333334</v>
       </c>
       <c r="B157">
-        <v>433</v>
+        <v>1096</v>
       </c>
       <c r="C157">
-        <v>375</v>
+        <v>644</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3931,13 +4219,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45686.625</v>
+        <v>45731.625</v>
       </c>
       <c r="B158">
-        <v>450</v>
+        <v>898</v>
       </c>
       <c r="C158">
-        <v>398</v>
+        <v>627</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3948,13 +4236,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45686.63541666666</v>
+        <v>45731.63541666666</v>
       </c>
       <c r="B159">
-        <v>450</v>
+        <v>898</v>
       </c>
       <c r="C159">
-        <v>408</v>
+        <v>651</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3965,13 +4253,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45686.64583333334</v>
+        <v>45731.64583333334</v>
       </c>
       <c r="B160">
-        <v>450</v>
+        <v>897</v>
       </c>
       <c r="C160">
-        <v>401</v>
+        <v>690</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3982,13 +4270,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45686.65625</v>
+        <v>45731.65625</v>
       </c>
       <c r="B161">
-        <v>451</v>
+        <v>897</v>
       </c>
       <c r="C161">
-        <v>410</v>
+        <v>757</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3999,13 +4287,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45686.66666666666</v>
+        <v>45731.66666666666</v>
       </c>
       <c r="B162">
-        <v>424</v>
+        <v>934</v>
       </c>
       <c r="C162">
-        <v>362</v>
+        <v>866</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -4016,13 +4304,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45686.67708333334</v>
+        <v>45731.67708333334</v>
       </c>
       <c r="B163">
-        <v>425</v>
+        <v>938</v>
       </c>
       <c r="C163">
-        <v>365</v>
+        <v>964</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -4033,13 +4321,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45686.6875</v>
+        <v>45731.6875</v>
       </c>
       <c r="B164">
-        <v>426</v>
+        <v>942</v>
       </c>
       <c r="C164">
-        <v>355</v>
+        <v>1058</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -4050,13 +4338,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45686.69791666666</v>
+        <v>45731.69791666666</v>
       </c>
       <c r="B165">
-        <v>428</v>
+        <v>946</v>
       </c>
       <c r="C165">
-        <v>351</v>
+        <v>1186</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -4067,13 +4355,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45686.70833333334</v>
+        <v>45731.70833333334</v>
       </c>
       <c r="B166">
-        <v>397</v>
+        <v>1267</v>
       </c>
       <c r="C166">
-        <v>321</v>
+        <v>1342</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -4084,13 +4372,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45686.71875</v>
+        <v>45731.71875</v>
       </c>
       <c r="B167">
-        <v>397</v>
+        <v>1275</v>
       </c>
       <c r="C167">
-        <v>319</v>
+        <v>1393</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -4101,13 +4389,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45686.72916666666</v>
+        <v>45731.72916666666</v>
       </c>
       <c r="B168">
-        <v>397</v>
+        <v>1282</v>
       </c>
       <c r="C168">
-        <v>311</v>
+        <v>1488</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -4118,13 +4406,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45686.73958333334</v>
+        <v>45731.73958333334</v>
       </c>
       <c r="B169">
-        <v>396</v>
+        <v>1290</v>
       </c>
       <c r="C169">
-        <v>270</v>
+        <v>1572</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -4135,13 +4423,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45686.75</v>
+        <v>45731.75</v>
       </c>
       <c r="B170">
-        <v>329</v>
+        <v>1515</v>
       </c>
       <c r="C170">
-        <v>238</v>
+        <v>1646</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -4152,13 +4440,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45686.76041666666</v>
+        <v>45731.76041666666</v>
       </c>
       <c r="B171">
-        <v>329</v>
+        <v>1516</v>
       </c>
       <c r="C171">
-        <v>232</v>
+        <v>1635</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -4169,13 +4457,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45686.77083333334</v>
+        <v>45731.77083333334</v>
       </c>
       <c r="B172">
-        <v>329</v>
+        <v>1517</v>
       </c>
       <c r="C172">
-        <v>237</v>
+        <v>1610</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -4186,13 +4474,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45686.78125</v>
+        <v>45731.78125</v>
       </c>
       <c r="B173">
-        <v>329</v>
+        <v>1517</v>
       </c>
       <c r="C173">
-        <v>229</v>
+        <v>1598</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -4203,13 +4491,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45686.79166666666</v>
+        <v>45731.79166666666</v>
       </c>
       <c r="B174">
-        <v>268</v>
+        <v>1573</v>
       </c>
       <c r="C174">
-        <v>217</v>
+        <v>1698</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -4220,13 +4508,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45686.80208333334</v>
+        <v>45731.80208333334</v>
       </c>
       <c r="B175">
-        <v>267</v>
+        <v>1569</v>
       </c>
       <c r="C175">
-        <v>214</v>
+        <v>1703</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -4237,13 +4525,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45686.8125</v>
+        <v>45731.8125</v>
       </c>
       <c r="B176">
-        <v>267</v>
+        <v>1566</v>
       </c>
       <c r="C176">
-        <v>195</v>
+        <v>1718</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -4254,13 +4542,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45686.82291666666</v>
+        <v>45731.82291666666</v>
       </c>
       <c r="B177">
-        <v>266</v>
+        <v>1562</v>
       </c>
       <c r="C177">
-        <v>161</v>
+        <v>1696</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -4271,13 +4559,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45686.83333333334</v>
+        <v>45731.83333333334</v>
       </c>
       <c r="B178">
-        <v>221</v>
+        <v>1458</v>
       </c>
       <c r="C178">
-        <v>140</v>
+        <v>1732</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4288,13 +4576,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45686.84375</v>
+        <v>45731.84375</v>
       </c>
       <c r="B179">
-        <v>221</v>
+        <v>1457</v>
       </c>
       <c r="C179">
-        <v>119</v>
+        <v>1730</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4305,13 +4593,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45686.85416666666</v>
+        <v>45731.85416666666</v>
       </c>
       <c r="B180">
-        <v>221</v>
+        <v>1457</v>
       </c>
       <c r="C180">
-        <v>111</v>
+        <v>1676</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4322,13 +4610,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45686.86458333334</v>
+        <v>45731.86458333334</v>
       </c>
       <c r="B181">
-        <v>221</v>
+        <v>1456</v>
       </c>
       <c r="C181">
-        <v>94</v>
+        <v>1708</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4339,13 +4627,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45686.875</v>
+        <v>45731.875</v>
       </c>
       <c r="B182">
-        <v>200</v>
+        <v>1413</v>
       </c>
       <c r="C182">
-        <v>81</v>
+        <v>1653</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4356,13 +4644,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45686.88541666666</v>
+        <v>45731.88541666666</v>
       </c>
       <c r="B183">
-        <v>200</v>
+        <v>1413</v>
       </c>
       <c r="C183">
-        <v>62</v>
+        <v>1537</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4373,13 +4661,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45686.89583333334</v>
+        <v>45731.89583333334</v>
       </c>
       <c r="B184">
-        <v>201</v>
+        <v>1413</v>
       </c>
       <c r="C184">
-        <v>43</v>
+        <v>1499</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4390,13 +4678,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45686.90625</v>
+        <v>45731.90625</v>
       </c>
       <c r="B185">
-        <v>202</v>
+        <v>1413</v>
       </c>
       <c r="C185">
-        <v>40</v>
+        <v>1310</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4407,13 +4695,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45686.91666666666</v>
+        <v>45731.91666666666</v>
       </c>
       <c r="B186">
-        <v>200</v>
+        <v>1434</v>
       </c>
       <c r="C186">
-        <v>41</v>
+        <v>1244</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4424,13 +4712,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45686.92708333334</v>
+        <v>45731.92708333334</v>
       </c>
       <c r="B187">
-        <v>200</v>
+        <v>1433</v>
       </c>
       <c r="C187">
-        <v>37</v>
+        <v>1241</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4441,13 +4729,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45686.9375</v>
+        <v>45731.9375</v>
       </c>
       <c r="B188">
-        <v>201</v>
+        <v>1432</v>
       </c>
       <c r="C188">
-        <v>46</v>
+        <v>1250</v>
       </c>
       <c r="D188">
         <v>91</v>
@@ -4458,13 +4746,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45686.94791666666</v>
+        <v>45731.94791666666</v>
       </c>
       <c r="B189">
-        <v>202</v>
+        <v>1431</v>
       </c>
       <c r="C189">
-        <v>46</v>
+        <v>1308</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4475,13 +4763,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45686.95833333334</v>
+        <v>45731.95833333334</v>
       </c>
       <c r="B190">
-        <v>198</v>
+        <v>1355</v>
       </c>
       <c r="C190">
-        <v>59</v>
+        <v>1378</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4492,13 +4780,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45686.96875</v>
+        <v>45731.96875</v>
       </c>
       <c r="B191">
-        <v>195</v>
+        <v>1334</v>
       </c>
       <c r="C191">
-        <v>78</v>
+        <v>1350</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4509,13 +4797,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45686.97916666666</v>
+        <v>45731.97916666666</v>
       </c>
       <c r="B192">
-        <v>200</v>
+        <v>1318</v>
       </c>
       <c r="C192">
-        <v>110</v>
+        <v>1315</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4526,13 +4814,13 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45686.98958333334</v>
+        <v>45731.98958333334</v>
       </c>
       <c r="B193">
-        <v>200</v>
+        <v>1317</v>
       </c>
       <c r="C193">
-        <v>144</v>
+        <v>1211</v>
       </c>
       <c r="D193">
         <v>96</v>
@@ -4543,13 +4831,13 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>45687</v>
+        <v>45732</v>
       </c>
       <c r="B194">
-        <v>111</v>
+        <v>1059</v>
       </c>
       <c r="C194">
-        <v>126</v>
+        <v>1096</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4560,13 +4848,13 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>45687.01041666666</v>
+        <v>45732.01041666666</v>
       </c>
       <c r="B195">
-        <v>105</v>
+        <v>1060</v>
       </c>
       <c r="C195">
-        <v>150</v>
+        <v>1027</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4577,13 +4865,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>45687.02083333334</v>
+        <v>45732.02083333334</v>
       </c>
       <c r="B196">
-        <v>108</v>
+        <v>1064</v>
       </c>
       <c r="C196">
-        <v>181</v>
+        <v>1048</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -4594,13 +4882,13 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>45687.03125</v>
+        <v>45732.03125</v>
       </c>
       <c r="B197">
-        <v>111</v>
+        <v>1051</v>
       </c>
       <c r="C197">
-        <v>207</v>
+        <v>995</v>
       </c>
       <c r="D197">
         <v>4</v>
@@ -4611,13 +4899,13 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>45687.04166666666</v>
+        <v>45732.04166666666</v>
       </c>
       <c r="B198">
-        <v>146</v>
+        <v>923</v>
       </c>
       <c r="C198">
-        <v>221</v>
+        <v>909</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -4628,13 +4916,13 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>45687.05208333334</v>
+        <v>45732.05208333334</v>
       </c>
       <c r="B199">
-        <v>149</v>
+        <v>918</v>
       </c>
       <c r="C199">
-        <v>227</v>
+        <v>827</v>
       </c>
       <c r="D199">
         <v>6</v>
@@ -4645,13 +4933,13 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>45687.0625</v>
+        <v>45732.0625</v>
       </c>
       <c r="B200">
-        <v>156</v>
+        <v>912</v>
       </c>
       <c r="C200">
-        <v>238</v>
+        <v>749</v>
       </c>
       <c r="D200">
         <v>7</v>
@@ -4662,13 +4950,13 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>45687.07291666666</v>
+        <v>45732.07291666666</v>
       </c>
       <c r="B201">
-        <v>165</v>
+        <v>907</v>
       </c>
       <c r="C201">
-        <v>259</v>
+        <v>735</v>
       </c>
       <c r="D201">
         <v>8</v>
@@ -4679,13 +4967,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>45687.08333333334</v>
+        <v>45732.08333333334</v>
       </c>
       <c r="B202">
-        <v>197</v>
+        <v>747</v>
       </c>
       <c r="C202">
-        <v>272</v>
+        <v>721</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -4696,13 +4984,13 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>45687.09375</v>
+        <v>45732.09375</v>
       </c>
       <c r="B203">
-        <v>197</v>
+        <v>744</v>
       </c>
       <c r="C203">
-        <v>262</v>
+        <v>717</v>
       </c>
       <c r="D203">
         <v>10</v>
@@ -4713,13 +5001,13 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>45687.10416666666</v>
+        <v>45732.10416666666</v>
       </c>
       <c r="B204">
-        <v>198</v>
+        <v>741</v>
       </c>
       <c r="C204">
-        <v>267</v>
+        <v>736</v>
       </c>
       <c r="D204">
         <v>11</v>
@@ -4730,13 +5018,13 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>45687.11458333334</v>
+        <v>45732.11458333334</v>
       </c>
       <c r="B205">
-        <v>205</v>
+        <v>734</v>
       </c>
       <c r="C205">
-        <v>276</v>
+        <v>760</v>
       </c>
       <c r="D205">
         <v>12</v>
@@ -4747,13 +5035,13 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2">
-        <v>45687.125</v>
+        <v>45732.125</v>
       </c>
       <c r="B206">
-        <v>256</v>
+        <v>677</v>
       </c>
       <c r="C206">
-        <v>307</v>
+        <v>750</v>
       </c>
       <c r="D206">
         <v>13</v>
@@ -4764,13 +5052,13 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>45687.13541666666</v>
+        <v>45732.13541666666</v>
       </c>
       <c r="B207">
-        <v>273</v>
+        <v>672</v>
       </c>
       <c r="C207">
-        <v>323</v>
+        <v>726</v>
       </c>
       <c r="D207">
         <v>14</v>
@@ -4781,13 +5069,13 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>45687.14583333334</v>
+        <v>45732.14583333334</v>
       </c>
       <c r="B208">
-        <v>288</v>
+        <v>660</v>
       </c>
       <c r="C208">
-        <v>329</v>
+        <v>711</v>
       </c>
       <c r="D208">
         <v>15</v>
@@ -4798,13 +5086,13 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2">
-        <v>45687.15625</v>
+        <v>45732.15625</v>
       </c>
       <c r="B209">
-        <v>293</v>
+        <v>658</v>
       </c>
       <c r="C209">
-        <v>316</v>
+        <v>673</v>
       </c>
       <c r="D209">
         <v>16</v>
@@ -4815,13 +5103,13 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>45687.16666666666</v>
+        <v>45732.16666666666</v>
       </c>
       <c r="B210">
-        <v>364</v>
+        <v>631</v>
       </c>
       <c r="C210">
-        <v>333</v>
+        <v>592</v>
       </c>
       <c r="D210">
         <v>17</v>
@@ -4832,13 +5120,13 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>45687.17708333334</v>
+        <v>45732.17708333334</v>
       </c>
       <c r="B211">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="C211">
-        <v>327</v>
+        <v>567</v>
       </c>
       <c r="D211">
         <v>18</v>
@@ -4849,13 +5137,13 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2">
-        <v>45687.1875</v>
+        <v>45732.1875</v>
       </c>
       <c r="B212">
-        <v>357</v>
+        <v>624</v>
       </c>
       <c r="C212">
-        <v>345</v>
+        <v>565</v>
       </c>
       <c r="D212">
         <v>19</v>
@@ -4866,13 +5154,13 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>45687.19791666666</v>
+        <v>45732.19791666666</v>
       </c>
       <c r="B213">
-        <v>360</v>
+        <v>620</v>
       </c>
       <c r="C213">
-        <v>364</v>
+        <v>588</v>
       </c>
       <c r="D213">
         <v>20</v>
@@ -4883,13 +5171,13 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>45687.20833333334</v>
+        <v>45732.20833333334</v>
       </c>
       <c r="B214">
-        <v>393</v>
+        <v>606</v>
       </c>
       <c r="C214">
-        <v>387</v>
+        <v>604</v>
       </c>
       <c r="D214">
         <v>21</v>
@@ -4900,13 +5188,13 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2">
-        <v>45687.21875</v>
+        <v>45732.21875</v>
       </c>
       <c r="B215">
-        <v>392</v>
+        <v>597</v>
       </c>
       <c r="C215">
-        <v>388</v>
+        <v>600</v>
       </c>
       <c r="D215">
         <v>22</v>
@@ -4917,13 +5205,13 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>45687.22916666666</v>
+        <v>45732.22916666666</v>
       </c>
       <c r="B216">
-        <v>394</v>
+        <v>587</v>
       </c>
       <c r="C216">
-        <v>402</v>
+        <v>607</v>
       </c>
       <c r="D216">
         <v>23</v>
@@ -4934,13 +5222,13 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>45687.23958333334</v>
+        <v>45732.23958333334</v>
       </c>
       <c r="B217">
-        <v>378</v>
+        <v>590</v>
       </c>
       <c r="C217">
-        <v>418</v>
+        <v>624</v>
       </c>
       <c r="D217">
         <v>24</v>
@@ -4951,13 +5239,13 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2">
-        <v>45687.25</v>
+        <v>45732.25</v>
       </c>
       <c r="B218">
-        <v>379</v>
+        <v>595</v>
       </c>
       <c r="C218">
-        <v>415</v>
+        <v>639</v>
       </c>
       <c r="D218">
         <v>25</v>
@@ -4968,13 +5256,13 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>45687.26041666666</v>
+        <v>45732.26041666666</v>
       </c>
       <c r="B219">
-        <v>393</v>
+        <v>594</v>
       </c>
       <c r="C219">
-        <v>396</v>
+        <v>673</v>
       </c>
       <c r="D219">
         <v>26</v>
@@ -4985,13 +5273,13 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2">
-        <v>45687.27083333334</v>
+        <v>45732.27083333334</v>
       </c>
       <c r="B220">
-        <v>377</v>
+        <v>588</v>
       </c>
       <c r="C220">
-        <v>399</v>
+        <v>666</v>
       </c>
       <c r="D220">
         <v>27</v>
@@ -5002,13 +5290,13 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2">
-        <v>45687.28125</v>
+        <v>45732.28125</v>
       </c>
       <c r="B221">
-        <v>374</v>
+        <v>593</v>
       </c>
       <c r="C221">
-        <v>364</v>
+        <v>650</v>
       </c>
       <c r="D221">
         <v>28</v>
@@ -5019,13 +5307,13 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2">
-        <v>45687.29166666666</v>
+        <v>45732.29166666666</v>
       </c>
       <c r="B222">
-        <v>383</v>
+        <v>538</v>
       </c>
       <c r="C222">
-        <v>306</v>
+        <v>625</v>
       </c>
       <c r="D222">
         <v>29</v>
@@ -5036,13 +5324,13 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2">
-        <v>45687.30208333334</v>
+        <v>45732.30208333334</v>
       </c>
       <c r="B223">
-        <v>382</v>
+        <v>534</v>
       </c>
       <c r="C223">
-        <v>306</v>
+        <v>603</v>
       </c>
       <c r="D223">
         <v>30</v>
@@ -5053,13 +5341,13 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2">
-        <v>45687.3125</v>
+        <v>45732.3125</v>
       </c>
       <c r="B224">
-        <v>383</v>
+        <v>533</v>
       </c>
       <c r="C224">
-        <v>307</v>
+        <v>578</v>
       </c>
       <c r="D224">
         <v>31</v>
@@ -5070,13 +5358,13 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>45687.32291666666</v>
+        <v>45732.32291666666</v>
       </c>
       <c r="B225">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="C225">
-        <v>323</v>
+        <v>545</v>
       </c>
       <c r="D225">
         <v>32</v>
@@ -5087,13 +5375,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2">
-        <v>45687.33333333334</v>
+        <v>45732.33333333334</v>
       </c>
       <c r="B226">
-        <v>398</v>
+        <v>500</v>
       </c>
       <c r="C226">
-        <v>303</v>
+        <v>526</v>
       </c>
       <c r="D226">
         <v>33</v>
@@ -5104,13 +5392,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2">
-        <v>45687.34375</v>
+        <v>45732.34375</v>
       </c>
       <c r="B227">
-        <v>397</v>
+        <v>497</v>
       </c>
       <c r="C227">
-        <v>290</v>
+        <v>521</v>
       </c>
       <c r="D227">
         <v>34</v>
@@ -5121,13 +5409,13 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>45687.35416666666</v>
+        <v>45732.35416666666</v>
       </c>
       <c r="B228">
-        <v>401</v>
+        <v>491</v>
       </c>
       <c r="C228">
-        <v>272</v>
+        <v>538</v>
       </c>
       <c r="D228">
         <v>35</v>
@@ -5138,13 +5426,13 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2">
-        <v>45687.36458333334</v>
+        <v>45732.36458333334</v>
       </c>
       <c r="B229">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="C229">
-        <v>250</v>
+        <v>541</v>
       </c>
       <c r="D229">
         <v>36</v>
@@ -5155,13 +5443,13 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>45687.375</v>
+        <v>45732.375</v>
       </c>
       <c r="B230">
-        <v>310</v>
+        <v>457</v>
       </c>
       <c r="C230">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="D230">
         <v>37</v>
@@ -5172,13 +5460,13 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>45687.38541666666</v>
+        <v>45732.38541666666</v>
       </c>
       <c r="B231">
-        <v>309</v>
+        <v>456</v>
       </c>
       <c r="C231">
-        <v>196</v>
+        <v>488</v>
       </c>
       <c r="D231">
         <v>38</v>
@@ -5189,13 +5477,13 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2">
-        <v>45687.39583333334</v>
+        <v>45732.39583333334</v>
       </c>
       <c r="B232">
-        <v>308</v>
+        <v>455</v>
       </c>
       <c r="C232">
-        <v>187</v>
+        <v>469</v>
       </c>
       <c r="D232">
         <v>39</v>
@@ -5206,13 +5494,13 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>45687.40625</v>
+        <v>45732.40625</v>
       </c>
       <c r="B233">
-        <v>306</v>
+        <v>454</v>
       </c>
       <c r="C233">
-        <v>171</v>
+        <v>468</v>
       </c>
       <c r="D233">
         <v>40</v>
@@ -5223,13 +5511,13 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>45687.41666666666</v>
+        <v>45732.41666666666</v>
       </c>
       <c r="B234">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D234">
         <v>41</v>
@@ -5240,13 +5528,13 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2">
-        <v>45687.42708333334</v>
+        <v>45732.42708333334</v>
       </c>
       <c r="B235">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D235">
         <v>42</v>
@@ -5257,13 +5545,13 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2">
-        <v>45687.4375</v>
+        <v>45732.4375</v>
       </c>
       <c r="B236">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="D236">
         <v>43</v>
@@ -5274,13 +5562,13 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>45687.44791666666</v>
+        <v>45732.44791666666</v>
       </c>
       <c r="B237">
-        <v>268</v>
+        <v>416</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D237">
         <v>44</v>
@@ -5291,13 +5579,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2">
-        <v>45687.45833333334</v>
+        <v>45732.45833333334</v>
       </c>
       <c r="B238">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D238">
         <v>45</v>
@@ -5308,13 +5596,13 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2">
-        <v>45687.46875</v>
+        <v>45732.46875</v>
       </c>
       <c r="B239">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="D239">
         <v>46</v>
@@ -5325,13 +5613,13 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2">
-        <v>45687.47916666666</v>
+        <v>45732.47916666666</v>
       </c>
       <c r="B240">
-        <v>235</v>
+        <v>410</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="D240">
         <v>47</v>
@@ -5342,13 +5630,13 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2">
-        <v>45687.48958333334</v>
+        <v>45732.48958333334</v>
       </c>
       <c r="B241">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="D241">
         <v>48</v>
@@ -5359,13 +5647,13 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>45687.5</v>
+        <v>45732.5</v>
       </c>
       <c r="B242">
-        <v>193</v>
+        <v>452</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D242">
         <v>49</v>
@@ -5376,13 +5664,13 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2">
-        <v>45687.51041666666</v>
+        <v>45732.51041666666</v>
       </c>
       <c r="B243">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="D243">
         <v>50</v>
@@ -5393,13 +5681,13 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2">
-        <v>45687.52083333334</v>
+        <v>45732.52083333334</v>
       </c>
       <c r="B244">
-        <v>190</v>
+        <v>451</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D244">
         <v>51</v>
@@ -5410,13 +5698,13 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>45687.53125</v>
+        <v>45732.53125</v>
       </c>
       <c r="B245">
-        <v>188</v>
+        <v>451</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D245">
         <v>52</v>
@@ -5427,13 +5715,13 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>45687.54166666666</v>
+        <v>45732.54166666666</v>
       </c>
       <c r="B246">
-        <v>155</v>
+        <v>480</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D246">
         <v>53</v>
@@ -5444,13 +5732,13 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2">
-        <v>45687.55208333334</v>
+        <v>45732.55208333334</v>
       </c>
       <c r="B247">
-        <v>153</v>
+        <v>479</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D247">
         <v>54</v>
@@ -5461,13 +5749,13 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2">
-        <v>45687.5625</v>
+        <v>45732.5625</v>
       </c>
       <c r="B248">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D248">
         <v>55</v>
@@ -5478,13 +5766,13 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2">
-        <v>45687.57291666666</v>
+        <v>45732.57291666666</v>
       </c>
       <c r="B249">
-        <v>149</v>
+        <v>477</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D249">
         <v>56</v>
@@ -5495,13 +5783,13 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2">
-        <v>45687.58333333334</v>
+        <v>45732.58333333334</v>
       </c>
       <c r="B250">
-        <v>134</v>
+        <v>455</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D250">
         <v>57</v>
@@ -5512,13 +5800,13 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>45687.59375</v>
+        <v>45732.59375</v>
       </c>
       <c r="B251">
-        <v>133</v>
+        <v>454</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D251">
         <v>58</v>
@@ -5529,13 +5817,13 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2">
-        <v>45687.60416666666</v>
+        <v>45732.60416666666</v>
       </c>
       <c r="B252">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D252">
         <v>59</v>
@@ -5546,13 +5834,13 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2">
-        <v>45687.61458333334</v>
+        <v>45732.61458333334</v>
       </c>
       <c r="B253">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D253">
         <v>60</v>
@@ -5563,13 +5851,13 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2">
-        <v>45687.625</v>
+        <v>45732.625</v>
       </c>
       <c r="B254">
-        <v>140</v>
+        <v>413</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D254">
         <v>61</v>
@@ -5580,13 +5868,13 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2">
-        <v>45687.63541666666</v>
+        <v>45732.63541666666</v>
       </c>
       <c r="B255">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D255">
         <v>62</v>
@@ -5597,13 +5885,13 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="2">
-        <v>45687.64583333334</v>
+        <v>45732.64583333334</v>
       </c>
       <c r="B256">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D256">
         <v>63</v>
@@ -5614,13 +5902,13 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2">
-        <v>45687.65625</v>
+        <v>45732.65625</v>
       </c>
       <c r="B257">
-        <v>142</v>
+        <v>415</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D257">
         <v>64</v>
@@ -5631,13 +5919,13 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="2">
-        <v>45687.66666666666</v>
+        <v>45732.66666666666</v>
       </c>
       <c r="B258">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D258">
         <v>65</v>
@@ -5648,13 +5936,13 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="2">
-        <v>45687.67708333334</v>
+        <v>45732.67708333334</v>
       </c>
       <c r="B259">
-        <v>178</v>
+        <v>493</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D259">
         <v>66</v>
@@ -5665,13 +5953,13 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2">
-        <v>45687.6875</v>
+        <v>45732.6875</v>
       </c>
       <c r="B260">
-        <v>180</v>
+        <v>494</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D260">
         <v>67</v>
@@ -5682,13 +5970,13 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="2">
-        <v>45687.69791666666</v>
+        <v>45732.69791666666</v>
       </c>
       <c r="B261">
-        <v>182</v>
+        <v>496</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D261">
         <v>68</v>
@@ -5699,13 +5987,13 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2">
-        <v>45687.70833333334</v>
+        <v>45732.70833333334</v>
       </c>
       <c r="B262">
-        <v>237</v>
+        <v>614</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D262">
         <v>69</v>
@@ -5716,13 +6004,13 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2">
-        <v>45687.71875</v>
+        <v>45732.71875</v>
       </c>
       <c r="B263">
-        <v>239</v>
+        <v>616</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D263">
         <v>70</v>
@@ -5733,13 +6021,13 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2">
-        <v>45687.72916666666</v>
+        <v>45732.72916666666</v>
       </c>
       <c r="B264">
-        <v>240</v>
+        <v>619</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D264">
         <v>71</v>
@@ -5750,13 +6038,13 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2">
-        <v>45687.73958333334</v>
+        <v>45732.73958333334</v>
       </c>
       <c r="B265">
-        <v>242</v>
+        <v>621</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="D265">
         <v>72</v>
@@ -5767,13 +6055,13 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="2">
-        <v>45687.75</v>
+        <v>45732.75</v>
       </c>
       <c r="B266">
-        <v>306</v>
+        <v>618</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D266">
         <v>73</v>
@@ -5784,13 +6072,13 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2">
-        <v>45687.76041666666</v>
+        <v>45732.76041666666</v>
       </c>
       <c r="B267">
-        <v>306</v>
+        <v>620</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="D267">
         <v>74</v>
@@ -5801,13 +6089,13 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2">
-        <v>45687.77083333334</v>
+        <v>45732.77083333334</v>
       </c>
       <c r="B268">
-        <v>307</v>
+        <v>621</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D268">
         <v>75</v>
@@ -5818,13 +6106,13 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="2">
-        <v>45687.78125</v>
+        <v>45732.78125</v>
       </c>
       <c r="B269">
-        <v>307</v>
+        <v>622</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="D269">
         <v>76</v>
@@ -5835,13 +6123,13 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2">
-        <v>45687.79166666666</v>
+        <v>45732.79166666666</v>
       </c>
       <c r="B270">
-        <v>328</v>
+        <v>641</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D270">
         <v>77</v>
@@ -5852,13 +6140,13 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2">
-        <v>45687.80208333334</v>
+        <v>45732.80208333334</v>
       </c>
       <c r="B271">
-        <v>328</v>
+        <v>640</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D271">
         <v>78</v>
@@ -5869,13 +6157,13 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2">
-        <v>45687.8125</v>
+        <v>45732.8125</v>
       </c>
       <c r="B272">
-        <v>328</v>
+        <v>638</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="D272">
         <v>79</v>
@@ -5886,13 +6174,13 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2">
-        <v>45687.82291666666</v>
+        <v>45732.82291666666</v>
       </c>
       <c r="B273">
-        <v>328</v>
+        <v>637</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="D273">
         <v>80</v>
@@ -5903,13 +6191,13 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2">
-        <v>45687.83333333334</v>
+        <v>45732.83333333334</v>
       </c>
       <c r="B274">
-        <v>315</v>
+        <v>649</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="D274">
         <v>81</v>
@@ -5920,13 +6208,13 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2">
-        <v>45687.84375</v>
+        <v>45732.84375</v>
       </c>
       <c r="B275">
-        <v>316</v>
+        <v>648</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="D275">
         <v>82</v>
@@ -5937,13 +6225,13 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2">
-        <v>45687.85416666666</v>
+        <v>45732.85416666666</v>
       </c>
       <c r="B276">
-        <v>316</v>
+        <v>647</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="D276">
         <v>83</v>
@@ -5954,13 +6242,13 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2">
-        <v>45687.86458333334</v>
+        <v>45732.86458333334</v>
       </c>
       <c r="B277">
-        <v>316</v>
+        <v>646</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D277">
         <v>84</v>
@@ -5971,13 +6259,13 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2">
-        <v>45687.875</v>
+        <v>45732.875</v>
       </c>
       <c r="B278">
-        <v>299</v>
+        <v>636</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D278">
         <v>85</v>
@@ -5988,13 +6276,13 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2">
-        <v>45687.88541666666</v>
+        <v>45732.88541666666</v>
       </c>
       <c r="B279">
-        <v>298</v>
+        <v>634</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D279">
         <v>86</v>
@@ -6005,13 +6293,13 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2">
-        <v>45687.89583333334</v>
+        <v>45732.89583333334</v>
       </c>
       <c r="B280">
-        <v>297</v>
+        <v>633</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D280">
         <v>87</v>
@@ -6022,13 +6310,13 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2">
-        <v>45687.90625</v>
+        <v>45732.90625</v>
       </c>
       <c r="B281">
-        <v>299</v>
+        <v>632</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="D281">
         <v>88</v>
@@ -6039,13 +6327,13 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2">
-        <v>45687.91666666666</v>
+        <v>45732.91666666666</v>
       </c>
       <c r="B282">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D282">
         <v>89</v>
@@ -6056,13 +6344,13 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2">
-        <v>45687.92708333334</v>
+        <v>45732.92708333334</v>
       </c>
       <c r="B283">
-        <v>267</v>
+        <v>603</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D283">
         <v>90</v>
@@ -6073,13 +6361,13 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2">
-        <v>45687.9375</v>
+        <v>45732.9375</v>
       </c>
       <c r="B284">
-        <v>266</v>
+        <v>602</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D284">
         <v>91</v>
@@ -6090,13 +6378,13 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2">
-        <v>45687.94791666666</v>
+        <v>45732.94791666666</v>
       </c>
       <c r="B285">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D285">
         <v>92</v>
@@ -6107,13 +6395,13 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2">
-        <v>45687.95833333334</v>
+        <v>45732.95833333334</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D286">
         <v>93</v>
@@ -6124,13 +6412,13 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2">
-        <v>45687.96875</v>
+        <v>45732.96875</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D287">
         <v>94</v>
@@ -6141,13 +6429,13 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2">
-        <v>45687.97916666666</v>
+        <v>45732.97916666666</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D288">
         <v>95</v>
@@ -6158,19 +6446,1651 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2">
-        <v>45687.98958333334</v>
+        <v>45732.98958333334</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D289">
         <v>96</v>
       </c>
       <c r="E289" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B290">
+        <v>206</v>
+      </c>
+      <c r="C290">
+        <v>130</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45733.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>206</v>
+      </c>
+      <c r="C291">
+        <v>134</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45733.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>205</v>
+      </c>
+      <c r="C292">
+        <v>138</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45733.03125</v>
+      </c>
+      <c r="B293">
+        <v>205</v>
+      </c>
+      <c r="C293">
+        <v>131</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45733.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>211</v>
+      </c>
+      <c r="C294">
+        <v>121</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45733.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>210</v>
+      </c>
+      <c r="C295">
+        <v>131</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45733.0625</v>
+      </c>
+      <c r="B296">
+        <v>212</v>
+      </c>
+      <c r="C296">
+        <v>114</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45733.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>221</v>
+      </c>
+      <c r="C297">
+        <v>85</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45733.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>213</v>
+      </c>
+      <c r="C298">
+        <v>70</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45733.09375</v>
+      </c>
+      <c r="B299">
+        <v>207</v>
+      </c>
+      <c r="C299">
+        <v>72</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45733.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>207</v>
+      </c>
+      <c r="C300">
+        <v>70</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45733.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>206</v>
+      </c>
+      <c r="C301">
+        <v>76</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45733.125</v>
+      </c>
+      <c r="B302">
+        <v>173</v>
+      </c>
+      <c r="C302">
+        <v>74</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45733.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>172</v>
+      </c>
+      <c r="C303">
+        <v>73</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45733.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>172</v>
+      </c>
+      <c r="C304">
+        <v>75</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45733.15625</v>
+      </c>
+      <c r="B305">
+        <v>171</v>
+      </c>
+      <c r="C305">
+        <v>72</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45733.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>152</v>
+      </c>
+      <c r="C306">
+        <v>71</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45733.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>152</v>
+      </c>
+      <c r="C307">
+        <v>78</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45733.1875</v>
+      </c>
+      <c r="B308">
+        <v>150</v>
+      </c>
+      <c r="C308">
+        <v>74</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>148</v>
+      </c>
+      <c r="C309">
+        <v>70</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45733.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>145</v>
+      </c>
+      <c r="C310">
+        <v>68</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45733.21875</v>
+      </c>
+      <c r="B311">
+        <v>141</v>
+      </c>
+      <c r="C311">
+        <v>65</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45733.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>139</v>
+      </c>
+      <c r="C312">
+        <v>50</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>138</v>
+      </c>
+      <c r="C313">
+        <v>46</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45733.25</v>
+      </c>
+      <c r="B314">
+        <v>141</v>
+      </c>
+      <c r="C314">
+        <v>36</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45733.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>140</v>
+      </c>
+      <c r="C315">
+        <v>42</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45733.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>141</v>
+      </c>
+      <c r="C316">
+        <v>43</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45733.28125</v>
+      </c>
+      <c r="B317">
+        <v>141</v>
+      </c>
+      <c r="C317">
+        <v>48</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45733.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>159</v>
+      </c>
+      <c r="C318">
+        <v>46</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45733.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>160</v>
+      </c>
+      <c r="C319">
+        <v>55</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45733.3125</v>
+      </c>
+      <c r="B320">
+        <v>162</v>
+      </c>
+      <c r="C320">
+        <v>60</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>163</v>
+      </c>
+      <c r="C321">
+        <v>67</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45733.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>205</v>
+      </c>
+      <c r="C322">
+        <v>62</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45733.34375</v>
+      </c>
+      <c r="B323">
+        <v>207</v>
+      </c>
+      <c r="C323">
+        <v>64</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45733.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>209</v>
+      </c>
+      <c r="C324">
+        <v>71</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>211</v>
+      </c>
+      <c r="C325">
+        <v>76</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>45733.375</v>
+      </c>
+      <c r="B326">
+        <v>257</v>
+      </c>
+      <c r="C326">
+        <v>73</v>
+      </c>
+      <c r="D326">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>45733.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>260</v>
+      </c>
+      <c r="C327">
+        <v>96</v>
+      </c>
+      <c r="D327">
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>45733.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>262</v>
+      </c>
+      <c r="C328">
+        <v>99</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>45733.40625</v>
+      </c>
+      <c r="B329">
+        <v>265</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>45733.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>336</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>41</v>
+      </c>
+      <c r="E330" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>45733.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>338</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>42</v>
+      </c>
+      <c r="E331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>45733.4375</v>
+      </c>
+      <c r="B332">
+        <v>341</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>43</v>
+      </c>
+      <c r="E332" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>45733.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>343</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>44</v>
+      </c>
+      <c r="E333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>45733.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>460</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>45</v>
+      </c>
+      <c r="E334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>45733.46875</v>
+      </c>
+      <c r="B335">
+        <v>464</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>46</v>
+      </c>
+      <c r="E335" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>45733.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>467</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>45733.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>471</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>48</v>
+      </c>
+      <c r="E337" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>45733.5</v>
+      </c>
+      <c r="B338">
+        <v>645</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>49</v>
+      </c>
+      <c r="E338" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>45733.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>650</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>45733.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>655</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>45733.53125</v>
+      </c>
+      <c r="B341">
+        <v>660</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>52</v>
+      </c>
+      <c r="E341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>45733.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>857</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>45733.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>862</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>54</v>
+      </c>
+      <c r="E343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>45733.5625</v>
+      </c>
+      <c r="B344">
+        <v>867</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>45733.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>872</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>56</v>
+      </c>
+      <c r="E345" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>45733.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>1184</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>45733.59375</v>
+      </c>
+      <c r="B347">
+        <v>1189</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>58</v>
+      </c>
+      <c r="E347" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>45733.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>1194</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>59</v>
+      </c>
+      <c r="E348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>45733.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>1200</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>60</v>
+      </c>
+      <c r="E349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>45733.625</v>
+      </c>
+      <c r="B350">
+        <v>1400</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>45733.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>1405</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>45733.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>1410</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>45733.65625</v>
+      </c>
+      <c r="B353">
+        <v>1415</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>45733.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>1664</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>65</v>
+      </c>
+      <c r="E354" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>45733.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>1667</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>66</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>45733.6875</v>
+      </c>
+      <c r="B356">
+        <v>1670</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>67</v>
+      </c>
+      <c r="E356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>45733.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>1673</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>45733.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>1934</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>69</v>
+      </c>
+      <c r="E358" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>45733.71875</v>
+      </c>
+      <c r="B359">
+        <v>1938</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>70</v>
+      </c>
+      <c r="E359" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>45733.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>1941</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>71</v>
+      </c>
+      <c r="E360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>45733.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>1945</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>45733.75</v>
+      </c>
+      <c r="B362">
+        <v>2091</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>73</v>
+      </c>
+      <c r="E362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>45733.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>2095</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>45733.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>2100</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>45733.78125</v>
+      </c>
+      <c r="B365">
+        <v>2104</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>45733.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>2159</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>77</v>
+      </c>
+      <c r="E366" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>45733.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>2163</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>78</v>
+      </c>
+      <c r="E367" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>45733.8125</v>
+      </c>
+      <c r="B368">
+        <v>2166</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>79</v>
+      </c>
+      <c r="E368" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>45733.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>2170</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>80</v>
+      </c>
+      <c r="E369" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>45733.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>2178</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>45733.84375</v>
+      </c>
+      <c r="B371">
+        <v>2180</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>82</v>
+      </c>
+      <c r="E371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>45733.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>2181</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>83</v>
+      </c>
+      <c r="E372" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>45733.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>2183</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>45733.875</v>
+      </c>
+      <c r="B374">
+        <v>2265</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>45733.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>2268</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>86</v>
+      </c>
+      <c r="E375" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>45733.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>2271</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>87</v>
+      </c>
+      <c r="E376" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>45733.90625</v>
+      </c>
+      <c r="B377">
+        <v>2273</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>45733.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>2417</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>89</v>
+      </c>
+      <c r="E378" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>45733.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>2422</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>90</v>
+      </c>
+      <c r="E379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>45733.9375</v>
+      </c>
+      <c r="B380">
+        <v>2426</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>45733.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>2430</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>92</v>
+      </c>
+      <c r="E381" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>45733.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>93</v>
+      </c>
+      <c r="E382" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>45733.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>94</v>
+      </c>
+      <c r="E383" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>45733.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>95</v>
+      </c>
+      <c r="E384" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>45733.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>96</v>
+      </c>
+      <c r="E385" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1181,6 +1181,294 @@
   </si>
   <si>
     <t>17.03.202596</t>
+  </si>
+  <si>
+    <t>18.03.20251</t>
+  </si>
+  <si>
+    <t>18.03.20252</t>
+  </si>
+  <si>
+    <t>18.03.20253</t>
+  </si>
+  <si>
+    <t>18.03.20254</t>
+  </si>
+  <si>
+    <t>18.03.20255</t>
+  </si>
+  <si>
+    <t>18.03.20256</t>
+  </si>
+  <si>
+    <t>18.03.20257</t>
+  </si>
+  <si>
+    <t>18.03.20258</t>
+  </si>
+  <si>
+    <t>18.03.20259</t>
+  </si>
+  <si>
+    <t>18.03.202510</t>
+  </si>
+  <si>
+    <t>18.03.202511</t>
+  </si>
+  <si>
+    <t>18.03.202512</t>
+  </si>
+  <si>
+    <t>18.03.202513</t>
+  </si>
+  <si>
+    <t>18.03.202514</t>
+  </si>
+  <si>
+    <t>18.03.202515</t>
+  </si>
+  <si>
+    <t>18.03.202516</t>
+  </si>
+  <si>
+    <t>18.03.202517</t>
+  </si>
+  <si>
+    <t>18.03.202518</t>
+  </si>
+  <si>
+    <t>18.03.202519</t>
+  </si>
+  <si>
+    <t>18.03.202520</t>
+  </si>
+  <si>
+    <t>18.03.202521</t>
+  </si>
+  <si>
+    <t>18.03.202522</t>
+  </si>
+  <si>
+    <t>18.03.202523</t>
+  </si>
+  <si>
+    <t>18.03.202524</t>
+  </si>
+  <si>
+    <t>18.03.202525</t>
+  </si>
+  <si>
+    <t>18.03.202526</t>
+  </si>
+  <si>
+    <t>18.03.202527</t>
+  </si>
+  <si>
+    <t>18.03.202528</t>
+  </si>
+  <si>
+    <t>18.03.202529</t>
+  </si>
+  <si>
+    <t>18.03.202530</t>
+  </si>
+  <si>
+    <t>18.03.202531</t>
+  </si>
+  <si>
+    <t>18.03.202532</t>
+  </si>
+  <si>
+    <t>18.03.202533</t>
+  </si>
+  <si>
+    <t>18.03.202534</t>
+  </si>
+  <si>
+    <t>18.03.202535</t>
+  </si>
+  <si>
+    <t>18.03.202536</t>
+  </si>
+  <si>
+    <t>18.03.202537</t>
+  </si>
+  <si>
+    <t>18.03.202538</t>
+  </si>
+  <si>
+    <t>18.03.202539</t>
+  </si>
+  <si>
+    <t>18.03.202540</t>
+  </si>
+  <si>
+    <t>18.03.202541</t>
+  </si>
+  <si>
+    <t>18.03.202542</t>
+  </si>
+  <si>
+    <t>18.03.202543</t>
+  </si>
+  <si>
+    <t>18.03.202544</t>
+  </si>
+  <si>
+    <t>18.03.202545</t>
+  </si>
+  <si>
+    <t>18.03.202546</t>
+  </si>
+  <si>
+    <t>18.03.202547</t>
+  </si>
+  <si>
+    <t>18.03.202548</t>
+  </si>
+  <si>
+    <t>18.03.202549</t>
+  </si>
+  <si>
+    <t>18.03.202550</t>
+  </si>
+  <si>
+    <t>18.03.202551</t>
+  </si>
+  <si>
+    <t>18.03.202552</t>
+  </si>
+  <si>
+    <t>18.03.202553</t>
+  </si>
+  <si>
+    <t>18.03.202554</t>
+  </si>
+  <si>
+    <t>18.03.202555</t>
+  </si>
+  <si>
+    <t>18.03.202556</t>
+  </si>
+  <si>
+    <t>18.03.202557</t>
+  </si>
+  <si>
+    <t>18.03.202558</t>
+  </si>
+  <si>
+    <t>18.03.202559</t>
+  </si>
+  <si>
+    <t>18.03.202560</t>
+  </si>
+  <si>
+    <t>18.03.202561</t>
+  </si>
+  <si>
+    <t>18.03.202562</t>
+  </si>
+  <si>
+    <t>18.03.202563</t>
+  </si>
+  <si>
+    <t>18.03.202564</t>
+  </si>
+  <si>
+    <t>18.03.202565</t>
+  </si>
+  <si>
+    <t>18.03.202566</t>
+  </si>
+  <si>
+    <t>18.03.202567</t>
+  </si>
+  <si>
+    <t>18.03.202568</t>
+  </si>
+  <si>
+    <t>18.03.202569</t>
+  </si>
+  <si>
+    <t>18.03.202570</t>
+  </si>
+  <si>
+    <t>18.03.202571</t>
+  </si>
+  <si>
+    <t>18.03.202572</t>
+  </si>
+  <si>
+    <t>18.03.202573</t>
+  </si>
+  <si>
+    <t>18.03.202574</t>
+  </si>
+  <si>
+    <t>18.03.202575</t>
+  </si>
+  <si>
+    <t>18.03.202576</t>
+  </si>
+  <si>
+    <t>18.03.202577</t>
+  </si>
+  <si>
+    <t>18.03.202578</t>
+  </si>
+  <si>
+    <t>18.03.202579</t>
+  </si>
+  <si>
+    <t>18.03.202580</t>
+  </si>
+  <si>
+    <t>18.03.202581</t>
+  </si>
+  <si>
+    <t>18.03.202582</t>
+  </si>
+  <si>
+    <t>18.03.202583</t>
+  </si>
+  <si>
+    <t>18.03.202584</t>
+  </si>
+  <si>
+    <t>18.03.202585</t>
+  </si>
+  <si>
+    <t>18.03.202586</t>
+  </si>
+  <si>
+    <t>18.03.202587</t>
+  </si>
+  <si>
+    <t>18.03.202588</t>
+  </si>
+  <si>
+    <t>18.03.202589</t>
+  </si>
+  <si>
+    <t>18.03.202590</t>
+  </si>
+  <si>
+    <t>18.03.202591</t>
+  </si>
+  <si>
+    <t>18.03.202592</t>
+  </si>
+  <si>
+    <t>18.03.202593</t>
+  </si>
+  <si>
+    <t>18.03.202594</t>
+  </si>
+  <si>
+    <t>18.03.202595</t>
+  </si>
+  <si>
+    <t>18.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7132,7 +7420,7 @@
         <v>265</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D329">
         <v>40</v>
@@ -7149,7 +7437,7 @@
         <v>336</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D330">
         <v>41</v>
@@ -7166,7 +7454,7 @@
         <v>338</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D331">
         <v>42</v>
@@ -7183,7 +7471,7 @@
         <v>341</v>
       </c>
       <c r="C332">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D332">
         <v>43</v>
@@ -7200,7 +7488,7 @@
         <v>343</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D333">
         <v>44</v>
@@ -7217,7 +7505,7 @@
         <v>460</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D334">
         <v>45</v>
@@ -7234,7 +7522,7 @@
         <v>464</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D335">
         <v>46</v>
@@ -7251,7 +7539,7 @@
         <v>467</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D336">
         <v>47</v>
@@ -7268,7 +7556,7 @@
         <v>471</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D337">
         <v>48</v>
@@ -7285,7 +7573,7 @@
         <v>645</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D338">
         <v>49</v>
@@ -7302,7 +7590,7 @@
         <v>650</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D339">
         <v>50</v>
@@ -7319,7 +7607,7 @@
         <v>655</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D340">
         <v>51</v>
@@ -7336,7 +7624,7 @@
         <v>660</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D341">
         <v>52</v>
@@ -7353,7 +7641,7 @@
         <v>857</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D342">
         <v>53</v>
@@ -7370,7 +7658,7 @@
         <v>862</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D343">
         <v>54</v>
@@ -7387,7 +7675,7 @@
         <v>867</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="D344">
         <v>55</v>
@@ -7404,7 +7692,7 @@
         <v>872</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D345">
         <v>56</v>
@@ -7421,7 +7709,7 @@
         <v>1184</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="D346">
         <v>57</v>
@@ -7438,7 +7726,7 @@
         <v>1189</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="D347">
         <v>58</v>
@@ -7455,7 +7743,7 @@
         <v>1194</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D348">
         <v>59</v>
@@ -7472,7 +7760,7 @@
         <v>1200</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="D349">
         <v>60</v>
@@ -7489,7 +7777,7 @@
         <v>1400</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="D350">
         <v>61</v>
@@ -7506,7 +7794,7 @@
         <v>1405</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="D351">
         <v>62</v>
@@ -7523,7 +7811,7 @@
         <v>1410</v>
       </c>
       <c r="C352">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="D352">
         <v>63</v>
@@ -7540,7 +7828,7 @@
         <v>1415</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="D353">
         <v>64</v>
@@ -7557,7 +7845,7 @@
         <v>1664</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D354">
         <v>65</v>
@@ -7574,7 +7862,7 @@
         <v>1667</v>
       </c>
       <c r="C355">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="D355">
         <v>66</v>
@@ -7591,7 +7879,7 @@
         <v>1670</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="D356">
         <v>67</v>
@@ -7608,7 +7896,7 @@
         <v>1673</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="D357">
         <v>68</v>
@@ -7625,7 +7913,7 @@
         <v>1934</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="D358">
         <v>69</v>
@@ -7642,7 +7930,7 @@
         <v>1938</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D359">
         <v>70</v>
@@ -7659,7 +7947,7 @@
         <v>1941</v>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="D360">
         <v>71</v>
@@ -7676,7 +7964,7 @@
         <v>1945</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="D361">
         <v>72</v>
@@ -7693,7 +7981,7 @@
         <v>2091</v>
       </c>
       <c r="C362">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="D362">
         <v>73</v>
@@ -7710,7 +7998,7 @@
         <v>2095</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1511</v>
       </c>
       <c r="D363">
         <v>74</v>
@@ -7727,7 +8015,7 @@
         <v>2100</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1569</v>
       </c>
       <c r="D364">
         <v>75</v>
@@ -7744,7 +8032,7 @@
         <v>2104</v>
       </c>
       <c r="C365">
-        <v>0</v>
+        <v>1607</v>
       </c>
       <c r="D365">
         <v>76</v>
@@ -7761,7 +8049,7 @@
         <v>2159</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="D366">
         <v>77</v>
@@ -7778,7 +8066,7 @@
         <v>2163</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="D367">
         <v>78</v>
@@ -7795,7 +8083,7 @@
         <v>2166</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>1845</v>
       </c>
       <c r="D368">
         <v>79</v>
@@ -7812,7 +8100,7 @@
         <v>2170</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="D369">
         <v>80</v>
@@ -7829,7 +8117,7 @@
         <v>2178</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="D370">
         <v>81</v>
@@ -7846,7 +8134,7 @@
         <v>2180</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>1943</v>
       </c>
       <c r="D371">
         <v>82</v>
@@ -7863,7 +8151,7 @@
         <v>2181</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="D372">
         <v>83</v>
@@ -7880,7 +8168,7 @@
         <v>2183</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="D373">
         <v>84</v>
@@ -7897,7 +8185,7 @@
         <v>2265</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D374">
         <v>85</v>
@@ -7914,7 +8202,7 @@
         <v>2268</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="D375">
         <v>86</v>
@@ -7931,7 +8219,7 @@
         <v>2271</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="D376">
         <v>87</v>
@@ -7948,7 +8236,7 @@
         <v>2273</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="D377">
         <v>88</v>
@@ -7965,7 +8253,7 @@
         <v>2417</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="D378">
         <v>89</v>
@@ -7982,7 +8270,7 @@
         <v>2422</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>2233</v>
       </c>
       <c r="D379">
         <v>90</v>
@@ -7999,7 +8287,7 @@
         <v>2426</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="D380">
         <v>91</v>
@@ -8016,7 +8304,7 @@
         <v>2430</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D381">
         <v>92</v>
@@ -8030,10 +8318,10 @@
         <v>45733.95833333334</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>2461</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>2584</v>
       </c>
       <c r="D382">
         <v>93</v>
@@ -8047,10 +8335,10 @@
         <v>45733.96875</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>2470</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="D383">
         <v>94</v>
@@ -8064,10 +8352,10 @@
         <v>45733.97916666666</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>2474</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>2657</v>
       </c>
       <c r="D384">
         <v>95</v>
@@ -8081,16 +8369,1648 @@
         <v>45733.98958333334</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>2498</v>
       </c>
       <c r="C385">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="D385">
         <v>96</v>
       </c>
       <c r="E385" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B386">
+        <v>2579</v>
+      </c>
+      <c r="C386">
+        <v>2707</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>45734.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>2585</v>
+      </c>
+      <c r="C387">
+        <v>2710</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>45734.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>2603</v>
+      </c>
+      <c r="C388">
+        <v>2711</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+      <c r="E388" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>45734.03125</v>
+      </c>
+      <c r="B389">
+        <v>2625</v>
+      </c>
+      <c r="C389">
+        <v>2701</v>
+      </c>
+      <c r="D389">
+        <v>4</v>
+      </c>
+      <c r="E389" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>45734.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>2672</v>
+      </c>
+      <c r="C390">
+        <v>2719</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
+      <c r="E390" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>45734.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>2673</v>
+      </c>
+      <c r="C391">
+        <v>2726</v>
+      </c>
+      <c r="D391">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>45734.0625</v>
+      </c>
+      <c r="B392">
+        <v>2667</v>
+      </c>
+      <c r="C392">
+        <v>2715</v>
+      </c>
+      <c r="D392">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>45734.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>2665</v>
+      </c>
+      <c r="C393">
+        <v>2705</v>
+      </c>
+      <c r="D393">
+        <v>8</v>
+      </c>
+      <c r="E393" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>45734.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>2684</v>
+      </c>
+      <c r="C394">
+        <v>2704</v>
+      </c>
+      <c r="D394">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>45734.09375</v>
+      </c>
+      <c r="B395">
+        <v>2684</v>
+      </c>
+      <c r="C395">
+        <v>2724</v>
+      </c>
+      <c r="D395">
+        <v>10</v>
+      </c>
+      <c r="E395" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>45734.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>2654</v>
+      </c>
+      <c r="C396">
+        <v>2714</v>
+      </c>
+      <c r="D396">
+        <v>11</v>
+      </c>
+      <c r="E396" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>45734.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>2653</v>
+      </c>
+      <c r="C397">
+        <v>2692</v>
+      </c>
+      <c r="D397">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>45734.125</v>
+      </c>
+      <c r="B398">
+        <v>2668</v>
+      </c>
+      <c r="C398">
+        <v>2665</v>
+      </c>
+      <c r="D398">
+        <v>13</v>
+      </c>
+      <c r="E398" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>45734.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>2665</v>
+      </c>
+      <c r="C399">
+        <v>2667</v>
+      </c>
+      <c r="D399">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>45734.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>2664</v>
+      </c>
+      <c r="C400">
+        <v>2667</v>
+      </c>
+      <c r="D400">
+        <v>15</v>
+      </c>
+      <c r="E400" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>45734.15625</v>
+      </c>
+      <c r="B401">
+        <v>2654</v>
+      </c>
+      <c r="C401">
+        <v>2657</v>
+      </c>
+      <c r="D401">
+        <v>16</v>
+      </c>
+      <c r="E401" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>45734.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>2652</v>
+      </c>
+      <c r="C402">
+        <v>2662</v>
+      </c>
+      <c r="D402">
+        <v>17</v>
+      </c>
+      <c r="E402" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>45734.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>2655</v>
+      </c>
+      <c r="C403">
+        <v>2663</v>
+      </c>
+      <c r="D403">
+        <v>18</v>
+      </c>
+      <c r="E403" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>45734.1875</v>
+      </c>
+      <c r="B404">
+        <v>2650</v>
+      </c>
+      <c r="C404">
+        <v>2665</v>
+      </c>
+      <c r="D404">
+        <v>19</v>
+      </c>
+      <c r="E404" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>2642</v>
+      </c>
+      <c r="C405">
+        <v>2637</v>
+      </c>
+      <c r="D405">
+        <v>20</v>
+      </c>
+      <c r="E405" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>45734.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>2606</v>
+      </c>
+      <c r="C406">
+        <v>2654</v>
+      </c>
+      <c r="D406">
+        <v>21</v>
+      </c>
+      <c r="E406" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>45734.21875</v>
+      </c>
+      <c r="B407">
+        <v>2608</v>
+      </c>
+      <c r="C407">
+        <v>2665</v>
+      </c>
+      <c r="D407">
+        <v>22</v>
+      </c>
+      <c r="E407" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>45734.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>2604</v>
+      </c>
+      <c r="C408">
+        <v>2646</v>
+      </c>
+      <c r="D408">
+        <v>23</v>
+      </c>
+      <c r="E408" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>2608</v>
+      </c>
+      <c r="C409">
+        <v>2616</v>
+      </c>
+      <c r="D409">
+        <v>24</v>
+      </c>
+      <c r="E409" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>45734.25</v>
+      </c>
+      <c r="B410">
+        <v>2600</v>
+      </c>
+      <c r="C410">
+        <v>2614</v>
+      </c>
+      <c r="D410">
+        <v>25</v>
+      </c>
+      <c r="E410" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>45734.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>2596</v>
+      </c>
+      <c r="C411">
+        <v>2622</v>
+      </c>
+      <c r="D411">
+        <v>26</v>
+      </c>
+      <c r="E411" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>45734.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>2599</v>
+      </c>
+      <c r="C412">
+        <v>2650</v>
+      </c>
+      <c r="D412">
+        <v>27</v>
+      </c>
+      <c r="E412" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>45734.28125</v>
+      </c>
+      <c r="B413">
+        <v>2597</v>
+      </c>
+      <c r="C413">
+        <v>2651</v>
+      </c>
+      <c r="D413">
+        <v>28</v>
+      </c>
+      <c r="E413" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>45734.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>2583</v>
+      </c>
+      <c r="C414">
+        <v>2658</v>
+      </c>
+      <c r="D414">
+        <v>29</v>
+      </c>
+      <c r="E414" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>45734.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>2583</v>
+      </c>
+      <c r="C415">
+        <v>2654</v>
+      </c>
+      <c r="D415">
+        <v>30</v>
+      </c>
+      <c r="E415" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>45734.3125</v>
+      </c>
+      <c r="B416">
+        <v>2584</v>
+      </c>
+      <c r="C416">
+        <v>2659</v>
+      </c>
+      <c r="D416">
+        <v>31</v>
+      </c>
+      <c r="E416" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>2585</v>
+      </c>
+      <c r="C417">
+        <v>2651</v>
+      </c>
+      <c r="D417">
+        <v>32</v>
+      </c>
+      <c r="E417" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>45734.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>2554</v>
+      </c>
+      <c r="C418">
+        <v>2640</v>
+      </c>
+      <c r="D418">
+        <v>33</v>
+      </c>
+      <c r="E418" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>45734.34375</v>
+      </c>
+      <c r="B419">
+        <v>2554</v>
+      </c>
+      <c r="C419">
+        <v>2654</v>
+      </c>
+      <c r="D419">
+        <v>34</v>
+      </c>
+      <c r="E419" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>45734.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>2557</v>
+      </c>
+      <c r="C420">
+        <v>2654</v>
+      </c>
+      <c r="D420">
+        <v>35</v>
+      </c>
+      <c r="E420" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>2558</v>
+      </c>
+      <c r="C421">
+        <v>2650</v>
+      </c>
+      <c r="D421">
+        <v>36</v>
+      </c>
+      <c r="E421" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>45734.375</v>
+      </c>
+      <c r="B422">
+        <v>2517</v>
+      </c>
+      <c r="C422">
+        <v>2636</v>
+      </c>
+      <c r="D422">
+        <v>37</v>
+      </c>
+      <c r="E422" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>45734.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>2517</v>
+      </c>
+      <c r="C423">
+        <v>2647</v>
+      </c>
+      <c r="D423">
+        <v>38</v>
+      </c>
+      <c r="E423" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>45734.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>2516</v>
+      </c>
+      <c r="C424">
+        <v>2637</v>
+      </c>
+      <c r="D424">
+        <v>39</v>
+      </c>
+      <c r="E424" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>45734.40625</v>
+      </c>
+      <c r="B425">
+        <v>2516</v>
+      </c>
+      <c r="C425">
+        <v>2602</v>
+      </c>
+      <c r="D425">
+        <v>40</v>
+      </c>
+      <c r="E425" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>45734.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>2453</v>
+      </c>
+      <c r="C426">
+        <v>2572</v>
+      </c>
+      <c r="D426">
+        <v>41</v>
+      </c>
+      <c r="E426" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>45734.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>2452</v>
+      </c>
+      <c r="C427">
+        <v>2559</v>
+      </c>
+      <c r="D427">
+        <v>42</v>
+      </c>
+      <c r="E427" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>45734.4375</v>
+      </c>
+      <c r="B428">
+        <v>2450</v>
+      </c>
+      <c r="C428">
+        <v>2543</v>
+      </c>
+      <c r="D428">
+        <v>43</v>
+      </c>
+      <c r="E428" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>45734.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>2449</v>
+      </c>
+      <c r="C429">
+        <v>2513</v>
+      </c>
+      <c r="D429">
+        <v>44</v>
+      </c>
+      <c r="E429" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>45734.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>2368</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>45</v>
+      </c>
+      <c r="E430" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>45734.46875</v>
+      </c>
+      <c r="B431">
+        <v>2365</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>46</v>
+      </c>
+      <c r="E431" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>45734.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>2363</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>47</v>
+      </c>
+      <c r="E432" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>45734.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>2361</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>48</v>
+      </c>
+      <c r="E433" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>45734.5</v>
+      </c>
+      <c r="B434">
+        <v>2293</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>49</v>
+      </c>
+      <c r="E434" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>45734.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>2290</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>50</v>
+      </c>
+      <c r="E435" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>45734.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>2288</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>51</v>
+      </c>
+      <c r="E436" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>45734.53125</v>
+      </c>
+      <c r="B437">
+        <v>2285</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>52</v>
+      </c>
+      <c r="E437" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>45734.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>2250</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>53</v>
+      </c>
+      <c r="E438" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>45734.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>2247</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>54</v>
+      </c>
+      <c r="E439" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>45734.5625</v>
+      </c>
+      <c r="B440">
+        <v>2245</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>55</v>
+      </c>
+      <c r="E440" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>45734.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>2243</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>56</v>
+      </c>
+      <c r="E441" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>45734.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>2209</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>57</v>
+      </c>
+      <c r="E442" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>45734.59375</v>
+      </c>
+      <c r="B443">
+        <v>2207</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>58</v>
+      </c>
+      <c r="E443" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>45734.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>2205</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>59</v>
+      </c>
+      <c r="E444" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>45734.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>2202</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>60</v>
+      </c>
+      <c r="E445" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>45734.625</v>
+      </c>
+      <c r="B446">
+        <v>2104</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>61</v>
+      </c>
+      <c r="E446" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>45734.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>2101</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>62</v>
+      </c>
+      <c r="E447" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>45734.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>2097</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>63</v>
+      </c>
+      <c r="E448" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>45734.65625</v>
+      </c>
+      <c r="B449">
+        <v>2094</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>64</v>
+      </c>
+      <c r="E449" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>45734.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>1909</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>65</v>
+      </c>
+      <c r="E450" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>45734.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>1899</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>66</v>
+      </c>
+      <c r="E451" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>45734.6875</v>
+      </c>
+      <c r="B452">
+        <v>1889</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>67</v>
+      </c>
+      <c r="E452" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>45734.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>1880</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>68</v>
+      </c>
+      <c r="E453" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>45734.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>1580</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>69</v>
+      </c>
+      <c r="E454" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>45734.71875</v>
+      </c>
+      <c r="B455">
+        <v>1572</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>70</v>
+      </c>
+      <c r="E455" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>45734.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>1564</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>71</v>
+      </c>
+      <c r="E456" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>45734.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>1556</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>72</v>
+      </c>
+      <c r="E457" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>45734.75</v>
+      </c>
+      <c r="B458">
+        <v>1309</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>73</v>
+      </c>
+      <c r="E458" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>45734.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>1303</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>74</v>
+      </c>
+      <c r="E459" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>45734.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>1298</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>75</v>
+      </c>
+      <c r="E460" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>45734.78125</v>
+      </c>
+      <c r="B461">
+        <v>1293</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>76</v>
+      </c>
+      <c r="E461" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>45734.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>1135</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>77</v>
+      </c>
+      <c r="E462" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>45734.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>1132</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>78</v>
+      </c>
+      <c r="E463" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>45734.8125</v>
+      </c>
+      <c r="B464">
+        <v>1129</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>79</v>
+      </c>
+      <c r="E464" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>45734.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>1126</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>80</v>
+      </c>
+      <c r="E465" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>45734.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>1048</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>81</v>
+      </c>
+      <c r="E466" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>45734.84375</v>
+      </c>
+      <c r="B467">
+        <v>1047</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>82</v>
+      </c>
+      <c r="E467" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>45734.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>1045</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>83</v>
+      </c>
+      <c r="E468" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>45734.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>1044</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>84</v>
+      </c>
+      <c r="E469" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>45734.875</v>
+      </c>
+      <c r="B470">
+        <v>1010</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>85</v>
+      </c>
+      <c r="E470" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>45734.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>1009</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>86</v>
+      </c>
+      <c r="E471" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>45734.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>1008</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>87</v>
+      </c>
+      <c r="E472" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>45734.90625</v>
+      </c>
+      <c r="B473">
+        <v>1008</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>88</v>
+      </c>
+      <c r="E473" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>45734.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>993</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>89</v>
+      </c>
+      <c r="E474" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>45734.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>991</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>90</v>
+      </c>
+      <c r="E475" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>45734.9375</v>
+      </c>
+      <c r="B476">
+        <v>990</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>91</v>
+      </c>
+      <c r="E476" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>45734.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>989</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>92</v>
+      </c>
+      <c r="E477" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>45734.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>93</v>
+      </c>
+      <c r="E478" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>45734.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>94</v>
+      </c>
+      <c r="E479" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>45734.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>95</v>
+      </c>
+      <c r="E480" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>45734.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>96</v>
+      </c>
+      <c r="E481" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.03.20251</t>
-  </si>
-  <si>
-    <t>23.03.20252</t>
-  </si>
-  <si>
-    <t>23.03.20253</t>
-  </si>
-  <si>
-    <t>23.03.20254</t>
-  </si>
-  <si>
-    <t>23.03.20255</t>
-  </si>
-  <si>
-    <t>23.03.20256</t>
-  </si>
-  <si>
-    <t>23.03.20257</t>
-  </si>
-  <si>
-    <t>23.03.20258</t>
-  </si>
-  <si>
-    <t>23.03.20259</t>
-  </si>
-  <si>
-    <t>23.03.202510</t>
-  </si>
-  <si>
-    <t>23.03.202511</t>
-  </si>
-  <si>
-    <t>23.03.202512</t>
-  </si>
-  <si>
-    <t>23.03.202513</t>
-  </si>
-  <si>
-    <t>23.03.202514</t>
-  </si>
-  <si>
-    <t>23.03.202515</t>
-  </si>
-  <si>
-    <t>23.03.202516</t>
-  </si>
-  <si>
-    <t>23.03.202517</t>
-  </si>
-  <si>
-    <t>23.03.202518</t>
-  </si>
-  <si>
-    <t>23.03.202519</t>
-  </si>
-  <si>
-    <t>23.03.202520</t>
-  </si>
-  <si>
-    <t>23.03.202521</t>
-  </si>
-  <si>
-    <t>23.03.202522</t>
-  </si>
-  <si>
-    <t>23.03.202523</t>
-  </si>
-  <si>
-    <t>23.03.202524</t>
-  </si>
-  <si>
-    <t>23.03.202525</t>
-  </si>
-  <si>
-    <t>23.03.202526</t>
-  </si>
-  <si>
-    <t>23.03.202527</t>
-  </si>
-  <si>
-    <t>23.03.202528</t>
-  </si>
-  <si>
-    <t>23.03.202529</t>
-  </si>
-  <si>
-    <t>23.03.202530</t>
-  </si>
-  <si>
-    <t>23.03.202531</t>
-  </si>
-  <si>
-    <t>23.03.202532</t>
-  </si>
-  <si>
-    <t>23.03.202533</t>
-  </si>
-  <si>
-    <t>23.03.202534</t>
-  </si>
-  <si>
-    <t>23.03.202535</t>
-  </si>
-  <si>
-    <t>23.03.202536</t>
-  </si>
-  <si>
-    <t>23.03.202537</t>
-  </si>
-  <si>
-    <t>23.03.202538</t>
-  </si>
-  <si>
-    <t>23.03.202539</t>
-  </si>
-  <si>
-    <t>23.03.202540</t>
-  </si>
-  <si>
-    <t>23.03.202541</t>
-  </si>
-  <si>
-    <t>23.03.202542</t>
-  </si>
-  <si>
-    <t>23.03.202543</t>
-  </si>
-  <si>
-    <t>23.03.202544</t>
-  </si>
-  <si>
-    <t>23.03.202545</t>
-  </si>
-  <si>
-    <t>23.03.202546</t>
-  </si>
-  <si>
-    <t>23.03.202547</t>
-  </si>
-  <si>
-    <t>23.03.202548</t>
-  </si>
-  <si>
-    <t>23.03.202549</t>
-  </si>
-  <si>
-    <t>23.03.202550</t>
-  </si>
-  <si>
-    <t>23.03.202551</t>
-  </si>
-  <si>
-    <t>23.03.202552</t>
-  </si>
-  <si>
-    <t>23.03.202553</t>
-  </si>
-  <si>
-    <t>23.03.202554</t>
-  </si>
-  <si>
-    <t>23.03.202555</t>
-  </si>
-  <si>
-    <t>23.03.202556</t>
-  </si>
-  <si>
-    <t>23.03.202557</t>
-  </si>
-  <si>
-    <t>23.03.202558</t>
-  </si>
-  <si>
-    <t>23.03.202559</t>
-  </si>
-  <si>
-    <t>23.03.202560</t>
-  </si>
-  <si>
-    <t>23.03.202561</t>
-  </si>
-  <si>
-    <t>23.03.202562</t>
-  </si>
-  <si>
-    <t>23.03.202563</t>
-  </si>
-  <si>
-    <t>23.03.202564</t>
-  </si>
-  <si>
-    <t>23.03.202565</t>
-  </si>
-  <si>
-    <t>23.03.202566</t>
-  </si>
-  <si>
-    <t>23.03.202567</t>
-  </si>
-  <si>
-    <t>23.03.202568</t>
-  </si>
-  <si>
-    <t>23.03.202569</t>
-  </si>
-  <si>
-    <t>23.03.202570</t>
-  </si>
-  <si>
-    <t>23.03.202571</t>
-  </si>
-  <si>
-    <t>23.03.202572</t>
-  </si>
-  <si>
-    <t>23.03.202573</t>
-  </si>
-  <si>
-    <t>23.03.202574</t>
-  </si>
-  <si>
-    <t>23.03.202575</t>
-  </si>
-  <si>
-    <t>23.03.202576</t>
-  </si>
-  <si>
-    <t>23.03.202577</t>
-  </si>
-  <si>
-    <t>23.03.202578</t>
-  </si>
-  <si>
-    <t>23.03.202579</t>
-  </si>
-  <si>
-    <t>23.03.202580</t>
-  </si>
-  <si>
-    <t>23.03.202581</t>
-  </si>
-  <si>
-    <t>23.03.202582</t>
-  </si>
-  <si>
-    <t>23.03.202583</t>
-  </si>
-  <si>
-    <t>23.03.202584</t>
-  </si>
-  <si>
-    <t>23.03.202585</t>
-  </si>
-  <si>
-    <t>23.03.202586</t>
-  </si>
-  <si>
-    <t>23.03.202587</t>
-  </si>
-  <si>
-    <t>23.03.202588</t>
-  </si>
-  <si>
-    <t>23.03.202589</t>
-  </si>
-  <si>
-    <t>23.03.202590</t>
-  </si>
-  <si>
-    <t>23.03.202591</t>
-  </si>
-  <si>
-    <t>23.03.202592</t>
-  </si>
-  <si>
-    <t>23.03.202593</t>
-  </si>
-  <si>
-    <t>23.03.202594</t>
-  </si>
-  <si>
-    <t>23.03.202595</t>
-  </si>
-  <si>
-    <t>23.03.202596</t>
-  </si>
-  <si>
     <t>24.03.20251</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>24.03.202596</t>
+  </si>
+  <si>
+    <t>25.03.20251</t>
+  </si>
+  <si>
+    <t>25.03.20252</t>
+  </si>
+  <si>
+    <t>25.03.20253</t>
+  </si>
+  <si>
+    <t>25.03.20254</t>
+  </si>
+  <si>
+    <t>25.03.20255</t>
+  </si>
+  <si>
+    <t>25.03.20256</t>
+  </si>
+  <si>
+    <t>25.03.20257</t>
+  </si>
+  <si>
+    <t>25.03.20258</t>
+  </si>
+  <si>
+    <t>25.03.20259</t>
+  </si>
+  <si>
+    <t>25.03.202510</t>
+  </si>
+  <si>
+    <t>25.03.202511</t>
+  </si>
+  <si>
+    <t>25.03.202512</t>
+  </si>
+  <si>
+    <t>25.03.202513</t>
+  </si>
+  <si>
+    <t>25.03.202514</t>
+  </si>
+  <si>
+    <t>25.03.202515</t>
+  </si>
+  <si>
+    <t>25.03.202516</t>
+  </si>
+  <si>
+    <t>25.03.202517</t>
+  </si>
+  <si>
+    <t>25.03.202518</t>
+  </si>
+  <si>
+    <t>25.03.202519</t>
+  </si>
+  <si>
+    <t>25.03.202520</t>
+  </si>
+  <si>
+    <t>25.03.202521</t>
+  </si>
+  <si>
+    <t>25.03.202522</t>
+  </si>
+  <si>
+    <t>25.03.202523</t>
+  </si>
+  <si>
+    <t>25.03.202524</t>
+  </si>
+  <si>
+    <t>25.03.202525</t>
+  </si>
+  <si>
+    <t>25.03.202526</t>
+  </si>
+  <si>
+    <t>25.03.202527</t>
+  </si>
+  <si>
+    <t>25.03.202528</t>
+  </si>
+  <si>
+    <t>25.03.202529</t>
+  </si>
+  <si>
+    <t>25.03.202530</t>
+  </si>
+  <si>
+    <t>25.03.202531</t>
+  </si>
+  <si>
+    <t>25.03.202532</t>
+  </si>
+  <si>
+    <t>25.03.202533</t>
+  </si>
+  <si>
+    <t>25.03.202534</t>
+  </si>
+  <si>
+    <t>25.03.202535</t>
+  </si>
+  <si>
+    <t>25.03.202536</t>
+  </si>
+  <si>
+    <t>25.03.202537</t>
+  </si>
+  <si>
+    <t>25.03.202538</t>
+  </si>
+  <si>
+    <t>25.03.202539</t>
+  </si>
+  <si>
+    <t>25.03.202540</t>
+  </si>
+  <si>
+    <t>25.03.202541</t>
+  </si>
+  <si>
+    <t>25.03.202542</t>
+  </si>
+  <si>
+    <t>25.03.202543</t>
+  </si>
+  <si>
+    <t>25.03.202544</t>
+  </si>
+  <si>
+    <t>25.03.202545</t>
+  </si>
+  <si>
+    <t>25.03.202546</t>
+  </si>
+  <si>
+    <t>25.03.202547</t>
+  </si>
+  <si>
+    <t>25.03.202548</t>
+  </si>
+  <si>
+    <t>25.03.202549</t>
+  </si>
+  <si>
+    <t>25.03.202550</t>
+  </si>
+  <si>
+    <t>25.03.202551</t>
+  </si>
+  <si>
+    <t>25.03.202552</t>
+  </si>
+  <si>
+    <t>25.03.202553</t>
+  </si>
+  <si>
+    <t>25.03.202554</t>
+  </si>
+  <si>
+    <t>25.03.202555</t>
+  </si>
+  <si>
+    <t>25.03.202556</t>
+  </si>
+  <si>
+    <t>25.03.202557</t>
+  </si>
+  <si>
+    <t>25.03.202558</t>
+  </si>
+  <si>
+    <t>25.03.202559</t>
+  </si>
+  <si>
+    <t>25.03.202560</t>
+  </si>
+  <si>
+    <t>25.03.202561</t>
+  </si>
+  <si>
+    <t>25.03.202562</t>
+  </si>
+  <si>
+    <t>25.03.202563</t>
+  </si>
+  <si>
+    <t>25.03.202564</t>
+  </si>
+  <si>
+    <t>25.03.202565</t>
+  </si>
+  <si>
+    <t>25.03.202566</t>
+  </si>
+  <si>
+    <t>25.03.202567</t>
+  </si>
+  <si>
+    <t>25.03.202568</t>
+  </si>
+  <si>
+    <t>25.03.202569</t>
+  </si>
+  <si>
+    <t>25.03.202570</t>
+  </si>
+  <si>
+    <t>25.03.202571</t>
+  </si>
+  <si>
+    <t>25.03.202572</t>
+  </si>
+  <si>
+    <t>25.03.202573</t>
+  </si>
+  <si>
+    <t>25.03.202574</t>
+  </si>
+  <si>
+    <t>25.03.202575</t>
+  </si>
+  <si>
+    <t>25.03.202576</t>
+  </si>
+  <si>
+    <t>25.03.202577</t>
+  </si>
+  <si>
+    <t>25.03.202578</t>
+  </si>
+  <si>
+    <t>25.03.202579</t>
+  </si>
+  <si>
+    <t>25.03.202580</t>
+  </si>
+  <si>
+    <t>25.03.202581</t>
+  </si>
+  <si>
+    <t>25.03.202582</t>
+  </si>
+  <si>
+    <t>25.03.202583</t>
+  </si>
+  <si>
+    <t>25.03.202584</t>
+  </si>
+  <si>
+    <t>25.03.202585</t>
+  </si>
+  <si>
+    <t>25.03.202586</t>
+  </si>
+  <si>
+    <t>25.03.202587</t>
+  </si>
+  <si>
+    <t>25.03.202588</t>
+  </si>
+  <si>
+    <t>25.03.202589</t>
+  </si>
+  <si>
+    <t>25.03.202590</t>
+  </si>
+  <si>
+    <t>25.03.202591</t>
+  </si>
+  <si>
+    <t>25.03.202592</t>
+  </si>
+  <si>
+    <t>25.03.202593</t>
+  </si>
+  <si>
+    <t>25.03.202594</t>
+  </si>
+  <si>
+    <t>25.03.202595</t>
+  </si>
+  <si>
+    <t>25.03.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>2184</v>
+        <v>1751</v>
       </c>
       <c r="C2">
-        <v>2288</v>
+        <v>1833</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>2177</v>
+        <v>1749</v>
       </c>
       <c r="C3">
-        <v>2259</v>
+        <v>1818</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>2169</v>
+        <v>1744</v>
       </c>
       <c r="C4">
-        <v>2219</v>
+        <v>1775</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>2167</v>
+        <v>1730</v>
       </c>
       <c r="C5">
-        <v>2199</v>
+        <v>1650</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>2140</v>
+        <v>1536</v>
       </c>
       <c r="C6">
-        <v>2181</v>
+        <v>1571</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
-        <v>2140</v>
+        <v>1531</v>
       </c>
       <c r="C7">
-        <v>2167</v>
+        <v>1494</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>2130</v>
+        <v>1527</v>
       </c>
       <c r="C8">
-        <v>2132</v>
+        <v>1381</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
-        <v>2132</v>
+        <v>1519</v>
       </c>
       <c r="C9">
-        <v>2047</v>
+        <v>1279</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
-        <v>2074</v>
+        <v>1305</v>
       </c>
       <c r="C10">
-        <v>2008</v>
+        <v>1149</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>2072</v>
+        <v>1301</v>
       </c>
       <c r="C11">
-        <v>2014</v>
+        <v>1024</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
-        <v>2071</v>
+        <v>1295</v>
       </c>
       <c r="C12">
-        <v>1975</v>
+        <v>907</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
-        <v>2070</v>
+        <v>1285</v>
       </c>
       <c r="C13">
-        <v>1971</v>
+        <v>849</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>2089</v>
+        <v>1100</v>
       </c>
       <c r="C14">
-        <v>1971</v>
+        <v>867</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
-        <v>2087</v>
+        <v>1096</v>
       </c>
       <c r="C15">
-        <v>1965</v>
+        <v>837</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
-        <v>2084</v>
+        <v>1079</v>
       </c>
       <c r="C16">
-        <v>1978</v>
+        <v>746</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>2074</v>
+        <v>1064</v>
       </c>
       <c r="C17">
-        <v>1979</v>
+        <v>732</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>2096</v>
+        <v>896</v>
       </c>
       <c r="C18">
-        <v>2021</v>
+        <v>789</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>2095</v>
+        <v>890</v>
       </c>
       <c r="C19">
-        <v>2048</v>
+        <v>826</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>2103</v>
+        <v>888</v>
       </c>
       <c r="C20">
-        <v>2048</v>
+        <v>871</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>2102</v>
+        <v>874</v>
       </c>
       <c r="C21">
-        <v>2037</v>
+        <v>868</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>2150</v>
+        <v>814</v>
       </c>
       <c r="C22">
-        <v>2028</v>
+        <v>839</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>2151</v>
+        <v>811</v>
       </c>
       <c r="C23">
-        <v>2026</v>
+        <v>845</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>2152</v>
+        <v>816</v>
       </c>
       <c r="C24">
-        <v>2008</v>
+        <v>828</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>2154</v>
+        <v>811</v>
       </c>
       <c r="C25">
-        <v>2005</v>
+        <v>799</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>2224</v>
+        <v>667</v>
       </c>
       <c r="C26">
-        <v>2036</v>
+        <v>716</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>2227</v>
+        <v>665</v>
       </c>
       <c r="C27">
-        <v>2031</v>
+        <v>674</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
-        <v>2220</v>
+        <v>667</v>
       </c>
       <c r="C28">
-        <v>2059</v>
+        <v>614</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>2221</v>
+        <v>662</v>
       </c>
       <c r="C29">
-        <v>2094</v>
+        <v>552</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
-        <v>2340</v>
+        <v>531</v>
       </c>
       <c r="C30">
-        <v>2118</v>
+        <v>467</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
-        <v>2344</v>
+        <v>527</v>
       </c>
       <c r="C31">
-        <v>2162</v>
+        <v>448</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>2333</v>
+        <v>525</v>
       </c>
       <c r="C32">
-        <v>2215</v>
+        <v>428</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
-        <v>2343</v>
+        <v>519</v>
       </c>
       <c r="C33">
-        <v>2244</v>
+        <v>385</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
-        <v>2462</v>
+        <v>408</v>
       </c>
       <c r="C34">
-        <v>2269</v>
+        <v>332</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
-        <v>2466</v>
+        <v>404</v>
       </c>
       <c r="C35">
-        <v>2301</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
-        <v>2471</v>
+        <v>402</v>
       </c>
       <c r="C36">
-        <v>2329</v>
+        <v>292</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
-        <v>2475</v>
+        <v>401</v>
       </c>
       <c r="C37">
-        <v>2379</v>
+        <v>282</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>2538</v>
+        <v>296</v>
       </c>
       <c r="C38">
-        <v>2436</v>
+        <v>202</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
-        <v>2541</v>
+        <v>296</v>
       </c>
       <c r="C39">
-        <v>2466</v>
+        <v>190</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
-        <v>2544</v>
+        <v>297</v>
       </c>
       <c r="C40">
-        <v>2496</v>
+        <v>174</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>2547</v>
+        <v>297</v>
       </c>
       <c r="C41">
-        <v>2495</v>
+        <v>169</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
-        <v>2583</v>
+        <v>283</v>
       </c>
       <c r="C42">
-        <v>2502</v>
+        <v>169</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
-        <v>2583</v>
+        <v>284</v>
       </c>
       <c r="C43">
-        <v>2502</v>
+        <v>159</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>2584</v>
+        <v>285</v>
       </c>
       <c r="C44">
-        <v>2509</v>
+        <v>148</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
-        <v>2585</v>
+        <v>286</v>
       </c>
       <c r="C45">
-        <v>2523</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
-        <v>2597</v>
+        <v>292</v>
       </c>
       <c r="C46">
-        <v>2549</v>
+        <v>169</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>2597</v>
+        <v>293</v>
       </c>
       <c r="C47">
-        <v>2551</v>
+        <v>168</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
-        <v>2598</v>
+        <v>295</v>
       </c>
       <c r="C48">
-        <v>2568</v>
+        <v>175</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
-        <v>2598</v>
+        <v>296</v>
       </c>
       <c r="C49">
-        <v>2582</v>
+        <v>183</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>2600</v>
+        <v>314</v>
       </c>
       <c r="C50">
-        <v>2571</v>
+        <v>201</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
-        <v>2600</v>
+        <v>316</v>
       </c>
       <c r="C51">
-        <v>2577</v>
+        <v>216</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
-        <v>2599</v>
+        <v>318</v>
       </c>
       <c r="C52">
-        <v>2588</v>
+        <v>225</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
-        <v>2599</v>
+        <v>320</v>
       </c>
       <c r="C53">
-        <v>2586</v>
+        <v>230</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
-        <v>2576</v>
+        <v>355</v>
       </c>
       <c r="C54">
-        <v>2585</v>
+        <v>237</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
-        <v>2574</v>
+        <v>357</v>
       </c>
       <c r="C55">
-        <v>2581</v>
+        <v>246</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>2572</v>
+        <v>360</v>
       </c>
       <c r="C56">
-        <v>2562</v>
+        <v>251</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
-        <v>2570</v>
+        <v>363</v>
       </c>
       <c r="C57">
-        <v>2562</v>
+        <v>255</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
-        <v>2548</v>
+        <v>409</v>
       </c>
       <c r="C58">
-        <v>2555</v>
+        <v>246</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>2546</v>
+        <v>411</v>
       </c>
       <c r="C59">
-        <v>2543</v>
+        <v>253</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
-        <v>2544</v>
+        <v>414</v>
       </c>
       <c r="C60">
-        <v>2542</v>
+        <v>259</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
-        <v>2542</v>
+        <v>417</v>
       </c>
       <c r="C61">
-        <v>2546</v>
+        <v>254</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>2512</v>
+        <v>477</v>
       </c>
       <c r="C62">
-        <v>2548</v>
+        <v>268</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
-        <v>2510</v>
+        <v>480</v>
       </c>
       <c r="C63">
-        <v>2550</v>
+        <v>295</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
-        <v>2508</v>
+        <v>483</v>
       </c>
       <c r="C64">
-        <v>2558</v>
+        <v>307</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
-        <v>2506</v>
+        <v>486</v>
       </c>
       <c r="C65">
-        <v>2557</v>
+        <v>301</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
-        <v>2507</v>
+        <v>615</v>
       </c>
       <c r="C66">
-        <v>2539</v>
+        <v>317</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
-        <v>2506</v>
+        <v>619</v>
       </c>
       <c r="C67">
-        <v>2507</v>
+        <v>351</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
-        <v>2506</v>
+        <v>624</v>
       </c>
       <c r="C68">
-        <v>2434</v>
+        <v>425</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
-        <v>2505</v>
+        <v>629</v>
       </c>
       <c r="C69">
-        <v>2362</v>
+        <v>498</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
-        <v>2498</v>
+        <v>808</v>
       </c>
       <c r="C70">
-        <v>2333</v>
+        <v>575</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>2498</v>
+        <v>814</v>
       </c>
       <c r="C71">
-        <v>2324</v>
+        <v>624</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
-        <v>2499</v>
+        <v>821</v>
       </c>
       <c r="C72">
-        <v>2285</v>
+        <v>699</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
-        <v>2499</v>
+        <v>827</v>
       </c>
       <c r="C73">
-        <v>2211</v>
+        <v>774</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>2434</v>
+        <v>957</v>
       </c>
       <c r="C74">
-        <v>2176</v>
+        <v>868</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
-        <v>2434</v>
+        <v>960</v>
       </c>
       <c r="C75">
-        <v>2122</v>
+        <v>954</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
-        <v>2435</v>
+        <v>963</v>
       </c>
       <c r="C76">
-        <v>2057</v>
+        <v>965</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>2435</v>
+        <v>965</v>
       </c>
       <c r="C77">
-        <v>2088</v>
+        <v>1000</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
-        <v>2460</v>
+        <v>980</v>
       </c>
       <c r="C78">
-        <v>2153</v>
+        <v>1051</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
-        <v>2458</v>
+        <v>981</v>
       </c>
       <c r="C79">
-        <v>2175</v>
+        <v>1069</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>2457</v>
+        <v>981</v>
       </c>
       <c r="C80">
-        <v>2166</v>
+        <v>1097</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
-        <v>2455</v>
+        <v>982</v>
       </c>
       <c r="C81">
-        <v>2197</v>
+        <v>1082</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
-        <v>2407</v>
+        <v>911</v>
       </c>
       <c r="C82">
-        <v>2175</v>
+        <v>1025</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
-        <v>2404</v>
+        <v>911</v>
       </c>
       <c r="C83">
-        <v>2156</v>
+        <v>977</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
-        <v>2401</v>
+        <v>910</v>
       </c>
       <c r="C84">
-        <v>2141</v>
+        <v>974</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
-        <v>2398</v>
+        <v>910</v>
       </c>
       <c r="C85">
-        <v>2110</v>
+        <v>998</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
-        <v>2344</v>
+        <v>843</v>
       </c>
       <c r="C86">
-        <v>2079</v>
+        <v>968</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
-        <v>2340</v>
+        <v>842</v>
       </c>
       <c r="C87">
-        <v>2077</v>
+        <v>951</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
-        <v>2336</v>
+        <v>841</v>
       </c>
       <c r="C88">
-        <v>2039</v>
+        <v>956</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>2332</v>
+        <v>840</v>
       </c>
       <c r="C89">
-        <v>2037</v>
+        <v>989</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
-        <v>2264</v>
+        <v>788</v>
       </c>
       <c r="C90">
-        <v>2025</v>
+        <v>987</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
-        <v>2259</v>
+        <v>785</v>
       </c>
       <c r="C91">
-        <v>2029</v>
+        <v>965</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>2254</v>
+        <v>783</v>
       </c>
       <c r="C92">
-        <v>2002</v>
+        <v>936</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
-        <v>2249</v>
+        <v>780</v>
       </c>
       <c r="C93">
-        <v>2010</v>
+        <v>923</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
-        <v>2038</v>
+        <v>772</v>
       </c>
       <c r="C94">
-        <v>2016</v>
+        <v>934</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>2033</v>
+        <v>775</v>
       </c>
       <c r="C95">
-        <v>1996</v>
+        <v>944</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
-        <v>2028</v>
+        <v>779</v>
       </c>
       <c r="C96">
-        <v>1946</v>
+        <v>940</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
-        <v>2022</v>
+        <v>776</v>
       </c>
       <c r="C97">
-        <v>1893</v>
+        <v>938</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>1769</v>
+        <v>915</v>
       </c>
       <c r="C98">
-        <v>1833</v>
+        <v>956</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B99">
-        <v>1763</v>
+        <v>920</v>
       </c>
       <c r="C99">
-        <v>1818</v>
+        <v>959</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B100">
-        <v>1757</v>
+        <v>917</v>
       </c>
       <c r="C100">
-        <v>1775</v>
+        <v>919</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>1751</v>
+        <v>918</v>
       </c>
       <c r="C101">
-        <v>1650</v>
+        <v>907</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B102">
-        <v>1499</v>
+        <v>973</v>
       </c>
       <c r="C102">
-        <v>1571</v>
+        <v>931</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B103">
-        <v>1493</v>
+        <v>980</v>
       </c>
       <c r="C103">
-        <v>1494</v>
+        <v>1003</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>1486</v>
+        <v>982</v>
       </c>
       <c r="C104">
-        <v>1381</v>
+        <v>999</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B105">
-        <v>1479</v>
+        <v>982</v>
       </c>
       <c r="C105">
-        <v>1279</v>
+        <v>992</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B106">
-        <v>1278</v>
+        <v>1004</v>
       </c>
       <c r="C106">
-        <v>1149</v>
+        <v>982</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>1272</v>
+        <v>1003</v>
       </c>
       <c r="C107">
-        <v>1024</v>
+        <v>996</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B108">
-        <v>1265</v>
+        <v>1003</v>
       </c>
       <c r="C108">
-        <v>907</v>
+        <v>1064</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B109">
-        <v>1259</v>
+        <v>1004</v>
       </c>
       <c r="C109">
-        <v>849</v>
+        <v>1072</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>1083</v>
+        <v>1106</v>
       </c>
       <c r="C110">
-        <v>867</v>
+        <v>1061</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B111">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="C111">
-        <v>837</v>
+        <v>1050</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B112">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="C112">
-        <v>746</v>
+        <v>1014</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>1080</v>
+        <v>1114</v>
       </c>
       <c r="C113">
-        <v>732</v>
+        <v>1045</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B114">
-        <v>915</v>
+        <v>1138</v>
       </c>
       <c r="C114">
-        <v>789</v>
+        <v>1061</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B115">
-        <v>911</v>
+        <v>1130</v>
       </c>
       <c r="C115">
-        <v>826</v>
+        <v>1044</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
-        <v>908</v>
+        <v>1138</v>
       </c>
       <c r="C116">
-        <v>871</v>
+        <v>990</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B117">
-        <v>904</v>
+        <v>1131</v>
       </c>
       <c r="C117">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B118">
-        <v>828</v>
+        <v>1190</v>
       </c>
       <c r="C118">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="C119">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B120">
-        <v>825</v>
+        <v>1185</v>
       </c>
       <c r="C120">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B121">
-        <v>823</v>
+        <v>1185</v>
       </c>
       <c r="C121">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
-        <v>675</v>
+        <v>1179</v>
       </c>
       <c r="C122">
-        <v>716</v>
+        <v>847</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B123">
-        <v>672</v>
+        <v>1159</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B124">
-        <v>669</v>
+        <v>1154</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B125">
-        <v>666</v>
+        <v>1153</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B126">
-        <v>513</v>
+        <v>1039</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B127">
-        <v>509</v>
+        <v>1030</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B128">
-        <v>504</v>
+        <v>1022</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B129">
-        <v>500</v>
+        <v>1012</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B130">
-        <v>393</v>
+        <v>855</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B131">
-        <v>392</v>
+        <v>852</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B132">
-        <v>391</v>
+        <v>849</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B133">
-        <v>389</v>
+        <v>846</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B134">
-        <v>297</v>
+        <v>933</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B135">
-        <v>297</v>
+        <v>934</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B136">
-        <v>297</v>
+        <v>935</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B137">
-        <v>297</v>
+        <v>935</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B138">
-        <v>285</v>
+        <v>922</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B139">
-        <v>286</v>
+        <v>922</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B140">
-        <v>287</v>
+        <v>923</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B141">
-        <v>288</v>
+        <v>923</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B142">
-        <v>292</v>
+        <v>907</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B143">
-        <v>293</v>
+        <v>906</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B144">
-        <v>295</v>
+        <v>904</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B145">
-        <v>296</v>
+        <v>903</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B146">
-        <v>314</v>
+        <v>909</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B147">
-        <v>316</v>
+        <v>907</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B148">
-        <v>318</v>
+        <v>906</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B149">
-        <v>320</v>
+        <v>904</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B150">
-        <v>355</v>
+        <v>831</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B151">
-        <v>357</v>
+        <v>829</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B152">
-        <v>360</v>
+        <v>827</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B153">
-        <v>363</v>
+        <v>825</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B154">
-        <v>409</v>
+        <v>722</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B155">
-        <v>411</v>
+        <v>720</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B156">
-        <v>414</v>
+        <v>717</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B157">
-        <v>417</v>
+        <v>714</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B158">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B159">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B160">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B161">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B162">
-        <v>615</v>
+        <v>379</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B163">
-        <v>619</v>
+        <v>377</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B164">
-        <v>624</v>
+        <v>375</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B165">
-        <v>629</v>
+        <v>374</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B166">
-        <v>808</v>
+        <v>312</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B167">
-        <v>814</v>
+        <v>313</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B168">
-        <v>821</v>
+        <v>314</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B169">
-        <v>827</v>
+        <v>315</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B170">
-        <v>961</v>
+        <v>283</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B171">
-        <v>964</v>
+        <v>283</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B172">
-        <v>967</v>
+        <v>284</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B173">
-        <v>969</v>
+        <v>284</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B174">
-        <v>985</v>
+        <v>267</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B175">
-        <v>986</v>
+        <v>267</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B176">
-        <v>986</v>
+        <v>267</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B177">
-        <v>987</v>
+        <v>267</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B178">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B179">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B180">
-        <v>910</v>
+        <v>258</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B181">
-        <v>910</v>
+        <v>258</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B182">
-        <v>843</v>
+        <v>227</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B183">
-        <v>842</v>
+        <v>227</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B184">
-        <v>841</v>
+        <v>227</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B185">
-        <v>840</v>
+        <v>228</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B186">
-        <v>788</v>
+        <v>199</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B187">
-        <v>785</v>
+        <v>199</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B188">
-        <v>783</v>
+        <v>199</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B189">
-        <v>780</v>
+        <v>199</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.03.20251</t>
-  </si>
-  <si>
-    <t>24.03.20252</t>
-  </si>
-  <si>
-    <t>24.03.20253</t>
-  </si>
-  <si>
-    <t>24.03.20254</t>
-  </si>
-  <si>
-    <t>24.03.20255</t>
-  </si>
-  <si>
-    <t>24.03.20256</t>
-  </si>
-  <si>
-    <t>24.03.20257</t>
-  </si>
-  <si>
-    <t>24.03.20258</t>
-  </si>
-  <si>
-    <t>24.03.20259</t>
-  </si>
-  <si>
-    <t>24.03.202510</t>
-  </si>
-  <si>
-    <t>24.03.202511</t>
-  </si>
-  <si>
-    <t>24.03.202512</t>
-  </si>
-  <si>
-    <t>24.03.202513</t>
-  </si>
-  <si>
-    <t>24.03.202514</t>
-  </si>
-  <si>
-    <t>24.03.202515</t>
-  </si>
-  <si>
-    <t>24.03.202516</t>
-  </si>
-  <si>
-    <t>24.03.202517</t>
-  </si>
-  <si>
-    <t>24.03.202518</t>
-  </si>
-  <si>
-    <t>24.03.202519</t>
-  </si>
-  <si>
-    <t>24.03.202520</t>
-  </si>
-  <si>
-    <t>24.03.202521</t>
-  </si>
-  <si>
-    <t>24.03.202522</t>
-  </si>
-  <si>
-    <t>24.03.202523</t>
-  </si>
-  <si>
-    <t>24.03.202524</t>
-  </si>
-  <si>
-    <t>24.03.202525</t>
-  </si>
-  <si>
-    <t>24.03.202526</t>
-  </si>
-  <si>
-    <t>24.03.202527</t>
-  </si>
-  <si>
-    <t>24.03.202528</t>
-  </si>
-  <si>
-    <t>24.03.202529</t>
-  </si>
-  <si>
-    <t>24.03.202530</t>
-  </si>
-  <si>
-    <t>24.03.202531</t>
-  </si>
-  <si>
-    <t>24.03.202532</t>
-  </si>
-  <si>
-    <t>24.03.202533</t>
-  </si>
-  <si>
-    <t>24.03.202534</t>
-  </si>
-  <si>
-    <t>24.03.202535</t>
-  </si>
-  <si>
-    <t>24.03.202536</t>
-  </si>
-  <si>
-    <t>24.03.202537</t>
-  </si>
-  <si>
-    <t>24.03.202538</t>
-  </si>
-  <si>
-    <t>24.03.202539</t>
-  </si>
-  <si>
-    <t>24.03.202540</t>
-  </si>
-  <si>
-    <t>24.03.202541</t>
-  </si>
-  <si>
-    <t>24.03.202542</t>
-  </si>
-  <si>
-    <t>24.03.202543</t>
-  </si>
-  <si>
-    <t>24.03.202544</t>
-  </si>
-  <si>
-    <t>24.03.202545</t>
-  </si>
-  <si>
-    <t>24.03.202546</t>
-  </si>
-  <si>
-    <t>24.03.202547</t>
-  </si>
-  <si>
-    <t>24.03.202548</t>
-  </si>
-  <si>
-    <t>24.03.202549</t>
-  </si>
-  <si>
-    <t>24.03.202550</t>
-  </si>
-  <si>
-    <t>24.03.202551</t>
-  </si>
-  <si>
-    <t>24.03.202552</t>
-  </si>
-  <si>
-    <t>24.03.202553</t>
-  </si>
-  <si>
-    <t>24.03.202554</t>
-  </si>
-  <si>
-    <t>24.03.202555</t>
-  </si>
-  <si>
-    <t>24.03.202556</t>
-  </si>
-  <si>
-    <t>24.03.202557</t>
-  </si>
-  <si>
-    <t>24.03.202558</t>
-  </si>
-  <si>
-    <t>24.03.202559</t>
-  </si>
-  <si>
-    <t>24.03.202560</t>
-  </si>
-  <si>
-    <t>24.03.202561</t>
-  </si>
-  <si>
-    <t>24.03.202562</t>
-  </si>
-  <si>
-    <t>24.03.202563</t>
-  </si>
-  <si>
-    <t>24.03.202564</t>
-  </si>
-  <si>
-    <t>24.03.202565</t>
-  </si>
-  <si>
-    <t>24.03.202566</t>
-  </si>
-  <si>
-    <t>24.03.202567</t>
-  </si>
-  <si>
-    <t>24.03.202568</t>
-  </si>
-  <si>
-    <t>24.03.202569</t>
-  </si>
-  <si>
-    <t>24.03.202570</t>
-  </si>
-  <si>
-    <t>24.03.202571</t>
-  </si>
-  <si>
-    <t>24.03.202572</t>
-  </si>
-  <si>
-    <t>24.03.202573</t>
-  </si>
-  <si>
-    <t>24.03.202574</t>
-  </si>
-  <si>
-    <t>24.03.202575</t>
-  </si>
-  <si>
-    <t>24.03.202576</t>
-  </si>
-  <si>
-    <t>24.03.202577</t>
-  </si>
-  <si>
-    <t>24.03.202578</t>
-  </si>
-  <si>
-    <t>24.03.202579</t>
-  </si>
-  <si>
-    <t>24.03.202580</t>
-  </si>
-  <si>
-    <t>24.03.202581</t>
-  </si>
-  <si>
-    <t>24.03.202582</t>
-  </si>
-  <si>
-    <t>24.03.202583</t>
-  </si>
-  <si>
-    <t>24.03.202584</t>
-  </si>
-  <si>
-    <t>24.03.202585</t>
-  </si>
-  <si>
-    <t>24.03.202586</t>
-  </si>
-  <si>
-    <t>24.03.202587</t>
-  </si>
-  <si>
-    <t>24.03.202588</t>
-  </si>
-  <si>
-    <t>24.03.202589</t>
-  </si>
-  <si>
-    <t>24.03.202590</t>
-  </si>
-  <si>
-    <t>24.03.202591</t>
-  </si>
-  <si>
-    <t>24.03.202592</t>
-  </si>
-  <si>
-    <t>24.03.202593</t>
-  </si>
-  <si>
-    <t>24.03.202594</t>
-  </si>
-  <si>
-    <t>24.03.202595</t>
-  </si>
-  <si>
-    <t>24.03.202596</t>
-  </si>
-  <si>
-    <t>25.03.20251</t>
-  </si>
-  <si>
-    <t>25.03.20252</t>
-  </si>
-  <si>
-    <t>25.03.20253</t>
-  </si>
-  <si>
-    <t>25.03.20254</t>
-  </si>
-  <si>
-    <t>25.03.20255</t>
-  </si>
-  <si>
-    <t>25.03.20256</t>
-  </si>
-  <si>
-    <t>25.03.20257</t>
-  </si>
-  <si>
-    <t>25.03.20258</t>
-  </si>
-  <si>
-    <t>25.03.20259</t>
-  </si>
-  <si>
-    <t>25.03.202510</t>
-  </si>
-  <si>
-    <t>25.03.202511</t>
-  </si>
-  <si>
-    <t>25.03.202512</t>
-  </si>
-  <si>
-    <t>25.03.202513</t>
-  </si>
-  <si>
-    <t>25.03.202514</t>
-  </si>
-  <si>
-    <t>25.03.202515</t>
-  </si>
-  <si>
-    <t>25.03.202516</t>
-  </si>
-  <si>
-    <t>25.03.202517</t>
-  </si>
-  <si>
-    <t>25.03.202518</t>
-  </si>
-  <si>
-    <t>25.03.202519</t>
-  </si>
-  <si>
-    <t>25.03.202520</t>
-  </si>
-  <si>
-    <t>25.03.202521</t>
-  </si>
-  <si>
-    <t>25.03.202522</t>
-  </si>
-  <si>
-    <t>25.03.202523</t>
-  </si>
-  <si>
-    <t>25.03.202524</t>
-  </si>
-  <si>
-    <t>25.03.202525</t>
-  </si>
-  <si>
-    <t>25.03.202526</t>
-  </si>
-  <si>
-    <t>25.03.202527</t>
-  </si>
-  <si>
-    <t>25.03.202528</t>
-  </si>
-  <si>
-    <t>25.03.202529</t>
-  </si>
-  <si>
-    <t>25.03.202530</t>
-  </si>
-  <si>
-    <t>25.03.202531</t>
-  </si>
-  <si>
-    <t>25.03.202532</t>
-  </si>
-  <si>
-    <t>25.03.202533</t>
-  </si>
-  <si>
-    <t>25.03.202534</t>
-  </si>
-  <si>
-    <t>25.03.202535</t>
-  </si>
-  <si>
-    <t>25.03.202536</t>
-  </si>
-  <si>
-    <t>25.03.202537</t>
-  </si>
-  <si>
-    <t>25.03.202538</t>
-  </si>
-  <si>
-    <t>25.03.202539</t>
-  </si>
-  <si>
-    <t>25.03.202540</t>
-  </si>
-  <si>
-    <t>25.03.202541</t>
-  </si>
-  <si>
-    <t>25.03.202542</t>
-  </si>
-  <si>
-    <t>25.03.202543</t>
-  </si>
-  <si>
-    <t>25.03.202544</t>
-  </si>
-  <si>
-    <t>25.03.202545</t>
-  </si>
-  <si>
-    <t>25.03.202546</t>
-  </si>
-  <si>
-    <t>25.03.202547</t>
-  </si>
-  <si>
-    <t>25.03.202548</t>
-  </si>
-  <si>
-    <t>25.03.202549</t>
-  </si>
-  <si>
-    <t>25.03.202550</t>
-  </si>
-  <si>
-    <t>25.03.202551</t>
-  </si>
-  <si>
-    <t>25.03.202552</t>
-  </si>
-  <si>
-    <t>25.03.202553</t>
-  </si>
-  <si>
-    <t>25.03.202554</t>
-  </si>
-  <si>
-    <t>25.03.202555</t>
-  </si>
-  <si>
-    <t>25.03.202556</t>
-  </si>
-  <si>
-    <t>25.03.202557</t>
-  </si>
-  <si>
-    <t>25.03.202558</t>
-  </si>
-  <si>
-    <t>25.03.202559</t>
-  </si>
-  <si>
-    <t>25.03.202560</t>
-  </si>
-  <si>
-    <t>25.03.202561</t>
-  </si>
-  <si>
-    <t>25.03.202562</t>
-  </si>
-  <si>
-    <t>25.03.202563</t>
-  </si>
-  <si>
-    <t>25.03.202564</t>
-  </si>
-  <si>
-    <t>25.03.202565</t>
-  </si>
-  <si>
-    <t>25.03.202566</t>
-  </si>
-  <si>
-    <t>25.03.202567</t>
-  </si>
-  <si>
-    <t>25.03.202568</t>
-  </si>
-  <si>
-    <t>25.03.202569</t>
-  </si>
-  <si>
-    <t>25.03.202570</t>
-  </si>
-  <si>
-    <t>25.03.202571</t>
-  </si>
-  <si>
-    <t>25.03.202572</t>
-  </si>
-  <si>
-    <t>25.03.202573</t>
-  </si>
-  <si>
-    <t>25.03.202574</t>
-  </si>
-  <si>
-    <t>25.03.202575</t>
-  </si>
-  <si>
-    <t>25.03.202576</t>
-  </si>
-  <si>
-    <t>25.03.202577</t>
-  </si>
-  <si>
-    <t>25.03.202578</t>
-  </si>
-  <si>
-    <t>25.03.202579</t>
-  </si>
-  <si>
-    <t>25.03.202580</t>
-  </si>
-  <si>
-    <t>25.03.202581</t>
-  </si>
-  <si>
-    <t>25.03.202582</t>
-  </si>
-  <si>
-    <t>25.03.202583</t>
-  </si>
-  <si>
-    <t>25.03.202584</t>
-  </si>
-  <si>
-    <t>25.03.202585</t>
-  </si>
-  <si>
-    <t>25.03.202586</t>
-  </si>
-  <si>
-    <t>25.03.202587</t>
-  </si>
-  <si>
-    <t>25.03.202588</t>
-  </si>
-  <si>
-    <t>25.03.202589</t>
-  </si>
-  <si>
-    <t>25.03.202590</t>
-  </si>
-  <si>
-    <t>25.03.202591</t>
-  </si>
-  <si>
-    <t>25.03.202592</t>
-  </si>
-  <si>
-    <t>25.03.202593</t>
-  </si>
-  <si>
-    <t>25.03.202594</t>
-  </si>
-  <si>
-    <t>25.03.202595</t>
-  </si>
-  <si>
-    <t>25.03.202596</t>
+    <t>27.03.20251</t>
+  </si>
+  <si>
+    <t>27.03.20252</t>
+  </si>
+  <si>
+    <t>27.03.20253</t>
+  </si>
+  <si>
+    <t>27.03.20254</t>
+  </si>
+  <si>
+    <t>27.03.20255</t>
+  </si>
+  <si>
+    <t>27.03.20256</t>
+  </si>
+  <si>
+    <t>27.03.20257</t>
+  </si>
+  <si>
+    <t>27.03.20258</t>
+  </si>
+  <si>
+    <t>27.03.20259</t>
+  </si>
+  <si>
+    <t>27.03.202510</t>
+  </si>
+  <si>
+    <t>27.03.202511</t>
+  </si>
+  <si>
+    <t>27.03.202512</t>
+  </si>
+  <si>
+    <t>27.03.202513</t>
+  </si>
+  <si>
+    <t>27.03.202514</t>
+  </si>
+  <si>
+    <t>27.03.202515</t>
+  </si>
+  <si>
+    <t>27.03.202516</t>
+  </si>
+  <si>
+    <t>27.03.202517</t>
+  </si>
+  <si>
+    <t>27.03.202518</t>
+  </si>
+  <si>
+    <t>27.03.202519</t>
+  </si>
+  <si>
+    <t>27.03.202520</t>
+  </si>
+  <si>
+    <t>27.03.202521</t>
+  </si>
+  <si>
+    <t>27.03.202522</t>
+  </si>
+  <si>
+    <t>27.03.202523</t>
+  </si>
+  <si>
+    <t>27.03.202524</t>
+  </si>
+  <si>
+    <t>27.03.202525</t>
+  </si>
+  <si>
+    <t>27.03.202526</t>
+  </si>
+  <si>
+    <t>27.03.202527</t>
+  </si>
+  <si>
+    <t>27.03.202528</t>
+  </si>
+  <si>
+    <t>27.03.202529</t>
+  </si>
+  <si>
+    <t>27.03.202530</t>
+  </si>
+  <si>
+    <t>27.03.202531</t>
+  </si>
+  <si>
+    <t>27.03.202532</t>
+  </si>
+  <si>
+    <t>27.03.202533</t>
+  </si>
+  <si>
+    <t>27.03.202534</t>
+  </si>
+  <si>
+    <t>27.03.202535</t>
+  </si>
+  <si>
+    <t>27.03.202536</t>
+  </si>
+  <si>
+    <t>27.03.202537</t>
+  </si>
+  <si>
+    <t>27.03.202538</t>
+  </si>
+  <si>
+    <t>27.03.202539</t>
+  </si>
+  <si>
+    <t>27.03.202540</t>
+  </si>
+  <si>
+    <t>27.03.202541</t>
+  </si>
+  <si>
+    <t>27.03.202542</t>
+  </si>
+  <si>
+    <t>27.03.202543</t>
+  </si>
+  <si>
+    <t>27.03.202544</t>
+  </si>
+  <si>
+    <t>27.03.202545</t>
+  </si>
+  <si>
+    <t>27.03.202546</t>
+  </si>
+  <si>
+    <t>27.03.202547</t>
+  </si>
+  <si>
+    <t>27.03.202548</t>
+  </si>
+  <si>
+    <t>27.03.202549</t>
+  </si>
+  <si>
+    <t>27.03.202550</t>
+  </si>
+  <si>
+    <t>27.03.202551</t>
+  </si>
+  <si>
+    <t>27.03.202552</t>
+  </si>
+  <si>
+    <t>27.03.202553</t>
+  </si>
+  <si>
+    <t>27.03.202554</t>
+  </si>
+  <si>
+    <t>27.03.202555</t>
+  </si>
+  <si>
+    <t>27.03.202556</t>
+  </si>
+  <si>
+    <t>27.03.202557</t>
+  </si>
+  <si>
+    <t>27.03.202558</t>
+  </si>
+  <si>
+    <t>27.03.202559</t>
+  </si>
+  <si>
+    <t>27.03.202560</t>
+  </si>
+  <si>
+    <t>27.03.202561</t>
+  </si>
+  <si>
+    <t>27.03.202562</t>
+  </si>
+  <si>
+    <t>27.03.202563</t>
+  </si>
+  <si>
+    <t>27.03.202564</t>
+  </si>
+  <si>
+    <t>27.03.202565</t>
+  </si>
+  <si>
+    <t>27.03.202566</t>
+  </si>
+  <si>
+    <t>27.03.202567</t>
+  </si>
+  <si>
+    <t>27.03.202568</t>
+  </si>
+  <si>
+    <t>27.03.202569</t>
+  </si>
+  <si>
+    <t>27.03.202570</t>
+  </si>
+  <si>
+    <t>27.03.202571</t>
+  </si>
+  <si>
+    <t>27.03.202572</t>
+  </si>
+  <si>
+    <t>27.03.202573</t>
+  </si>
+  <si>
+    <t>27.03.202574</t>
+  </si>
+  <si>
+    <t>27.03.202575</t>
+  </si>
+  <si>
+    <t>27.03.202576</t>
+  </si>
+  <si>
+    <t>27.03.202577</t>
+  </si>
+  <si>
+    <t>27.03.202578</t>
+  </si>
+  <si>
+    <t>27.03.202579</t>
+  </si>
+  <si>
+    <t>27.03.202580</t>
+  </si>
+  <si>
+    <t>27.03.202581</t>
+  </si>
+  <si>
+    <t>27.03.202582</t>
+  </si>
+  <si>
+    <t>27.03.202583</t>
+  </si>
+  <si>
+    <t>27.03.202584</t>
+  </si>
+  <si>
+    <t>27.03.202585</t>
+  </si>
+  <si>
+    <t>27.03.202586</t>
+  </si>
+  <si>
+    <t>27.03.202587</t>
+  </si>
+  <si>
+    <t>27.03.202588</t>
+  </si>
+  <si>
+    <t>27.03.202589</t>
+  </si>
+  <si>
+    <t>27.03.202590</t>
+  </si>
+  <si>
+    <t>27.03.202591</t>
+  </si>
+  <si>
+    <t>27.03.202592</t>
+  </si>
+  <si>
+    <t>27.03.202593</t>
+  </si>
+  <si>
+    <t>27.03.202594</t>
+  </si>
+  <si>
+    <t>27.03.202595</t>
+  </si>
+  <si>
+    <t>27.03.202596</t>
+  </si>
+  <si>
+    <t>28.03.20251</t>
+  </si>
+  <si>
+    <t>28.03.20252</t>
+  </si>
+  <si>
+    <t>28.03.20253</t>
+  </si>
+  <si>
+    <t>28.03.20254</t>
+  </si>
+  <si>
+    <t>28.03.20255</t>
+  </si>
+  <si>
+    <t>28.03.20256</t>
+  </si>
+  <si>
+    <t>28.03.20257</t>
+  </si>
+  <si>
+    <t>28.03.20258</t>
+  </si>
+  <si>
+    <t>28.03.20259</t>
+  </si>
+  <si>
+    <t>28.03.202510</t>
+  </si>
+  <si>
+    <t>28.03.202511</t>
+  </si>
+  <si>
+    <t>28.03.202512</t>
+  </si>
+  <si>
+    <t>28.03.202513</t>
+  </si>
+  <si>
+    <t>28.03.202514</t>
+  </si>
+  <si>
+    <t>28.03.202515</t>
+  </si>
+  <si>
+    <t>28.03.202516</t>
+  </si>
+  <si>
+    <t>28.03.202517</t>
+  </si>
+  <si>
+    <t>28.03.202518</t>
+  </si>
+  <si>
+    <t>28.03.202519</t>
+  </si>
+  <si>
+    <t>28.03.202520</t>
+  </si>
+  <si>
+    <t>28.03.202521</t>
+  </si>
+  <si>
+    <t>28.03.202522</t>
+  </si>
+  <si>
+    <t>28.03.202523</t>
+  </si>
+  <si>
+    <t>28.03.202524</t>
+  </si>
+  <si>
+    <t>28.03.202525</t>
+  </si>
+  <si>
+    <t>28.03.202526</t>
+  </si>
+  <si>
+    <t>28.03.202527</t>
+  </si>
+  <si>
+    <t>28.03.202528</t>
+  </si>
+  <si>
+    <t>28.03.202529</t>
+  </si>
+  <si>
+    <t>28.03.202530</t>
+  </si>
+  <si>
+    <t>28.03.202531</t>
+  </si>
+  <si>
+    <t>28.03.202532</t>
+  </si>
+  <si>
+    <t>28.03.202533</t>
+  </si>
+  <si>
+    <t>28.03.202534</t>
+  </si>
+  <si>
+    <t>28.03.202535</t>
+  </si>
+  <si>
+    <t>28.03.202536</t>
+  </si>
+  <si>
+    <t>28.03.202537</t>
+  </si>
+  <si>
+    <t>28.03.202538</t>
+  </si>
+  <si>
+    <t>28.03.202539</t>
+  </si>
+  <si>
+    <t>28.03.202540</t>
+  </si>
+  <si>
+    <t>28.03.202541</t>
+  </si>
+  <si>
+    <t>28.03.202542</t>
+  </si>
+  <si>
+    <t>28.03.202543</t>
+  </si>
+  <si>
+    <t>28.03.202544</t>
+  </si>
+  <si>
+    <t>28.03.202545</t>
+  </si>
+  <si>
+    <t>28.03.202546</t>
+  </si>
+  <si>
+    <t>28.03.202547</t>
+  </si>
+  <si>
+    <t>28.03.202548</t>
+  </si>
+  <si>
+    <t>28.03.202549</t>
+  </si>
+  <si>
+    <t>28.03.202550</t>
+  </si>
+  <si>
+    <t>28.03.202551</t>
+  </si>
+  <si>
+    <t>28.03.202552</t>
+  </si>
+  <si>
+    <t>28.03.202553</t>
+  </si>
+  <si>
+    <t>28.03.202554</t>
+  </si>
+  <si>
+    <t>28.03.202555</t>
+  </si>
+  <si>
+    <t>28.03.202556</t>
+  </si>
+  <si>
+    <t>28.03.202557</t>
+  </si>
+  <si>
+    <t>28.03.202558</t>
+  </si>
+  <si>
+    <t>28.03.202559</t>
+  </si>
+  <si>
+    <t>28.03.202560</t>
+  </si>
+  <si>
+    <t>28.03.202561</t>
+  </si>
+  <si>
+    <t>28.03.202562</t>
+  </si>
+  <si>
+    <t>28.03.202563</t>
+  </si>
+  <si>
+    <t>28.03.202564</t>
+  </si>
+  <si>
+    <t>28.03.202565</t>
+  </si>
+  <si>
+    <t>28.03.202566</t>
+  </si>
+  <si>
+    <t>28.03.202567</t>
+  </si>
+  <si>
+    <t>28.03.202568</t>
+  </si>
+  <si>
+    <t>28.03.202569</t>
+  </si>
+  <si>
+    <t>28.03.202570</t>
+  </si>
+  <si>
+    <t>28.03.202571</t>
+  </si>
+  <si>
+    <t>28.03.202572</t>
+  </si>
+  <si>
+    <t>28.03.202573</t>
+  </si>
+  <si>
+    <t>28.03.202574</t>
+  </si>
+  <si>
+    <t>28.03.202575</t>
+  </si>
+  <si>
+    <t>28.03.202576</t>
+  </si>
+  <si>
+    <t>28.03.202577</t>
+  </si>
+  <si>
+    <t>28.03.202578</t>
+  </si>
+  <si>
+    <t>28.03.202579</t>
+  </si>
+  <si>
+    <t>28.03.202580</t>
+  </si>
+  <si>
+    <t>28.03.202581</t>
+  </si>
+  <si>
+    <t>28.03.202582</t>
+  </si>
+  <si>
+    <t>28.03.202583</t>
+  </si>
+  <si>
+    <t>28.03.202584</t>
+  </si>
+  <si>
+    <t>28.03.202585</t>
+  </si>
+  <si>
+    <t>28.03.202586</t>
+  </si>
+  <si>
+    <t>28.03.202587</t>
+  </si>
+  <si>
+    <t>28.03.202588</t>
+  </si>
+  <si>
+    <t>28.03.202589</t>
+  </si>
+  <si>
+    <t>28.03.202590</t>
+  </si>
+  <si>
+    <t>28.03.202591</t>
+  </si>
+  <si>
+    <t>28.03.202592</t>
+  </si>
+  <si>
+    <t>28.03.202593</t>
+  </si>
+  <si>
+    <t>28.03.202594</t>
+  </si>
+  <si>
+    <t>28.03.202595</t>
+  </si>
+  <si>
+    <t>28.03.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>1751</v>
+        <v>985</v>
       </c>
       <c r="C2">
-        <v>1833</v>
+        <v>1082</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>1749</v>
+        <v>996</v>
       </c>
       <c r="C3">
-        <v>1818</v>
+        <v>1137</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>1744</v>
+        <v>1002</v>
       </c>
       <c r="C4">
-        <v>1775</v>
+        <v>1170</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>1730</v>
+        <v>1010</v>
       </c>
       <c r="C5">
-        <v>1650</v>
+        <v>1169</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>1536</v>
+        <v>1022</v>
       </c>
       <c r="C6">
-        <v>1571</v>
+        <v>1176</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>1531</v>
+        <v>1035</v>
       </c>
       <c r="C7">
-        <v>1494</v>
+        <v>1186</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>1527</v>
+        <v>1031</v>
       </c>
       <c r="C8">
-        <v>1381</v>
+        <v>1162</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
-        <v>1519</v>
+        <v>1047</v>
       </c>
       <c r="C9">
-        <v>1279</v>
+        <v>1116</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
-        <v>1305</v>
+        <v>1100</v>
       </c>
       <c r="C10">
-        <v>1149</v>
+        <v>1119</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
-        <v>1301</v>
+        <v>1106</v>
       </c>
       <c r="C11">
-        <v>1024</v>
+        <v>1124</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>1295</v>
+        <v>1113</v>
       </c>
       <c r="C12">
-        <v>907</v>
+        <v>1120</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>1285</v>
+        <v>1115</v>
       </c>
       <c r="C13">
-        <v>849</v>
+        <v>1159</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="C14">
-        <v>867</v>
+        <v>1161</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>1096</v>
+        <v>1185</v>
       </c>
       <c r="C15">
-        <v>837</v>
+        <v>1123</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>1079</v>
+        <v>1191</v>
       </c>
       <c r="C16">
-        <v>746</v>
+        <v>1092</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>1064</v>
+        <v>1184</v>
       </c>
       <c r="C17">
-        <v>732</v>
+        <v>1053</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>896</v>
+        <v>1187</v>
       </c>
       <c r="C18">
-        <v>789</v>
+        <v>1056</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
-        <v>890</v>
+        <v>1199</v>
       </c>
       <c r="C19">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
-        <v>888</v>
+        <v>1192</v>
       </c>
       <c r="C20">
-        <v>871</v>
+        <v>1087</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
-        <v>874</v>
+        <v>1182</v>
       </c>
       <c r="C21">
-        <v>868</v>
+        <v>1074</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
-        <v>814</v>
+        <v>1120</v>
       </c>
       <c r="C22">
-        <v>839</v>
+        <v>1066</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
-        <v>811</v>
+        <v>1116</v>
       </c>
       <c r="C23">
-        <v>845</v>
+        <v>1061</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
-        <v>816</v>
+        <v>1110</v>
       </c>
       <c r="C24">
-        <v>828</v>
+        <v>1079</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>811</v>
+        <v>1112</v>
       </c>
       <c r="C25">
-        <v>799</v>
+        <v>1045</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>667</v>
+        <v>1010</v>
       </c>
       <c r="C26">
-        <v>716</v>
+        <v>979</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>665</v>
+        <v>1008</v>
       </c>
       <c r="C27">
-        <v>674</v>
+        <v>941</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
-        <v>667</v>
+        <v>998</v>
       </c>
       <c r="C28">
-        <v>614</v>
+        <v>873</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
-        <v>662</v>
+        <v>991</v>
       </c>
       <c r="C29">
-        <v>552</v>
+        <v>830</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>531</v>
+        <v>808</v>
       </c>
       <c r="C30">
-        <v>467</v>
+        <v>801</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>527</v>
+        <v>801</v>
       </c>
       <c r="C31">
-        <v>448</v>
+        <v>823</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
-        <v>525</v>
+        <v>801</v>
       </c>
       <c r="C32">
-        <v>428</v>
+        <v>809</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>519</v>
+        <v>798</v>
       </c>
       <c r="C33">
-        <v>385</v>
+        <v>809</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>408</v>
+        <v>658</v>
       </c>
       <c r="C34">
-        <v>332</v>
+        <v>768</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>404</v>
+        <v>651</v>
       </c>
       <c r="C35">
-        <v>300</v>
+        <v>743</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>402</v>
+        <v>650</v>
       </c>
       <c r="C36">
-        <v>292</v>
+        <v>702</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>401</v>
+        <v>650</v>
       </c>
       <c r="C37">
-        <v>282</v>
+        <v>700</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>296</v>
+        <v>604</v>
       </c>
       <c r="C38">
-        <v>202</v>
+        <v>702</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>296</v>
+        <v>605</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>734</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>297</v>
+        <v>606</v>
       </c>
       <c r="C40">
-        <v>174</v>
+        <v>755</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>297</v>
+        <v>608</v>
       </c>
       <c r="C41">
-        <v>169</v>
+        <v>781</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>283</v>
+        <v>603</v>
       </c>
       <c r="C42">
-        <v>169</v>
+        <v>831</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>284</v>
+        <v>604</v>
       </c>
       <c r="C43">
-        <v>159</v>
+        <v>864</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
-        <v>285</v>
+        <v>605</v>
       </c>
       <c r="C44">
-        <v>148</v>
+        <v>875</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>286</v>
+        <v>606</v>
       </c>
       <c r="C45">
-        <v>152</v>
+        <v>857</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>292</v>
+        <v>676</v>
       </c>
       <c r="C46">
-        <v>169</v>
+        <v>870</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>293</v>
+        <v>678</v>
       </c>
       <c r="C47">
-        <v>168</v>
+        <v>884</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="C48">
-        <v>175</v>
+        <v>865</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>296</v>
+        <v>682</v>
       </c>
       <c r="C49">
-        <v>183</v>
+        <v>849</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>314</v>
+        <v>717</v>
       </c>
       <c r="C50">
-        <v>201</v>
+        <v>834</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>316</v>
+        <v>718</v>
       </c>
       <c r="C51">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>318</v>
+        <v>719</v>
       </c>
       <c r="C52">
-        <v>225</v>
+        <v>779</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="C53">
-        <v>230</v>
+        <v>769</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>355</v>
+        <v>786</v>
       </c>
       <c r="C54">
-        <v>237</v>
+        <v>750</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
-        <v>357</v>
+        <v>787</v>
       </c>
       <c r="C55">
-        <v>246</v>
+        <v>732</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>360</v>
+        <v>789</v>
       </c>
       <c r="C56">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>363</v>
+        <v>791</v>
       </c>
       <c r="C57">
-        <v>255</v>
+        <v>676</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>409</v>
+        <v>898</v>
       </c>
       <c r="C58">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>411</v>
+        <v>900</v>
       </c>
       <c r="C59">
-        <v>253</v>
+        <v>592</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>414</v>
+        <v>903</v>
       </c>
       <c r="C60">
-        <v>259</v>
+        <v>581</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
-        <v>417</v>
+        <v>905</v>
       </c>
       <c r="C61">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>477</v>
+        <v>1008</v>
       </c>
       <c r="C62">
-        <v>268</v>
+        <v>582</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>480</v>
+        <v>1011</v>
       </c>
       <c r="C63">
-        <v>295</v>
+        <v>664</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>483</v>
+        <v>1014</v>
       </c>
       <c r="C64">
-        <v>307</v>
+        <v>769</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>486</v>
+        <v>1017</v>
       </c>
       <c r="C65">
-        <v>301</v>
+        <v>889</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>615</v>
+        <v>1164</v>
       </c>
       <c r="C66">
-        <v>317</v>
+        <v>994</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>619</v>
+        <v>1167</v>
       </c>
       <c r="C67">
-        <v>351</v>
+        <v>1122</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>624</v>
+        <v>1170</v>
       </c>
       <c r="C68">
-        <v>425</v>
+        <v>1187</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
-        <v>629</v>
+        <v>1172</v>
       </c>
       <c r="C69">
-        <v>498</v>
+        <v>1235</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>808</v>
+        <v>1343</v>
       </c>
       <c r="C70">
-        <v>575</v>
+        <v>1313</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>814</v>
+        <v>1345</v>
       </c>
       <c r="C71">
-        <v>624</v>
+        <v>1348</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>821</v>
+        <v>1346</v>
       </c>
       <c r="C72">
-        <v>699</v>
+        <v>1377</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>827</v>
+        <v>1346</v>
       </c>
       <c r="C73">
-        <v>774</v>
+        <v>1407</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>957</v>
+        <v>1410</v>
       </c>
       <c r="C74">
-        <v>868</v>
+        <v>1486</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>960</v>
+        <v>1409</v>
       </c>
       <c r="C75">
-        <v>954</v>
+        <v>1525</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>963</v>
+        <v>1408</v>
       </c>
       <c r="C76">
-        <v>965</v>
+        <v>1621</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>965</v>
+        <v>1408</v>
       </c>
       <c r="C77">
-        <v>1000</v>
+        <v>1650</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>980</v>
+        <v>1439</v>
       </c>
       <c r="C78">
-        <v>1051</v>
+        <v>1721</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>981</v>
+        <v>1439</v>
       </c>
       <c r="C79">
-        <v>1069</v>
+        <v>1719</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>981</v>
+        <v>1438</v>
       </c>
       <c r="C80">
-        <v>1097</v>
+        <v>1706</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>982</v>
+        <v>1437</v>
       </c>
       <c r="C81">
-        <v>1082</v>
+        <v>1683</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
-        <v>911</v>
+        <v>1428</v>
       </c>
       <c r="C82">
-        <v>1025</v>
+        <v>1666</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
-        <v>911</v>
+        <v>1426</v>
       </c>
       <c r="C83">
-        <v>977</v>
+        <v>1616</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
-        <v>910</v>
+        <v>1424</v>
       </c>
       <c r="C84">
-        <v>974</v>
+        <v>1591</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
-        <v>910</v>
+        <v>1422</v>
       </c>
       <c r="C85">
-        <v>998</v>
+        <v>1573</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
-        <v>843</v>
+        <v>1384</v>
       </c>
       <c r="C86">
-        <v>968</v>
+        <v>1558</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>842</v>
+        <v>1385</v>
       </c>
       <c r="C87">
-        <v>951</v>
+        <v>1594</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>841</v>
+        <v>1385</v>
       </c>
       <c r="C88">
-        <v>956</v>
+        <v>1595</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
-        <v>840</v>
+        <v>1386</v>
       </c>
       <c r="C89">
-        <v>989</v>
+        <v>1587</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>788</v>
+        <v>1419</v>
       </c>
       <c r="C90">
-        <v>987</v>
+        <v>1522</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>785</v>
+        <v>1421</v>
       </c>
       <c r="C91">
-        <v>965</v>
+        <v>1456</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>783</v>
+        <v>1423</v>
       </c>
       <c r="C92">
-        <v>936</v>
+        <v>1425</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
-        <v>780</v>
+        <v>1425</v>
       </c>
       <c r="C93">
-        <v>923</v>
+        <v>1399</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>772</v>
+        <v>1421</v>
       </c>
       <c r="C94">
-        <v>934</v>
+        <v>1318</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>775</v>
+        <v>1426</v>
       </c>
       <c r="C95">
-        <v>944</v>
+        <v>1357</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>779</v>
+        <v>1431</v>
       </c>
       <c r="C96">
-        <v>940</v>
+        <v>1420</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
-        <v>776</v>
+        <v>1435</v>
       </c>
       <c r="C97">
-        <v>938</v>
+        <v>1457</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>915</v>
+        <v>1661</v>
       </c>
       <c r="C98">
-        <v>956</v>
+        <v>1491</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>920</v>
+        <v>1666</v>
       </c>
       <c r="C99">
-        <v>959</v>
+        <v>1546</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>917</v>
+        <v>1671</v>
       </c>
       <c r="C100">
-        <v>919</v>
+        <v>1625</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
-        <v>918</v>
+        <v>1676</v>
       </c>
       <c r="C101">
-        <v>907</v>
+        <v>1744</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
-        <v>973</v>
+        <v>1798</v>
       </c>
       <c r="C102">
-        <v>931</v>
+        <v>1868</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
-        <v>980</v>
+        <v>1802</v>
       </c>
       <c r="C103">
-        <v>1003</v>
+        <v>1975</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
-        <v>982</v>
+        <v>1805</v>
       </c>
       <c r="C104">
-        <v>999</v>
+        <v>2052</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
-        <v>982</v>
+        <v>1809</v>
       </c>
       <c r="C105">
-        <v>992</v>
+        <v>2027</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>1004</v>
+        <v>1977</v>
       </c>
       <c r="C106">
-        <v>982</v>
+        <v>2099</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>1003</v>
+        <v>1980</v>
       </c>
       <c r="C107">
-        <v>996</v>
+        <v>2153</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>1003</v>
+        <v>1983</v>
       </c>
       <c r="C108">
-        <v>1064</v>
+        <v>2213</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>1004</v>
+        <v>1986</v>
       </c>
       <c r="C109">
-        <v>1072</v>
+        <v>2250</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
-        <v>1106</v>
+        <v>2062</v>
       </c>
       <c r="C110">
-        <v>1061</v>
+        <v>2350</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>1108</v>
+        <v>2066</v>
       </c>
       <c r="C111">
-        <v>1050</v>
+        <v>2359</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>1111</v>
+        <v>2069</v>
       </c>
       <c r="C112">
-        <v>1014</v>
+        <v>2371</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>1114</v>
+        <v>2073</v>
       </c>
       <c r="C113">
-        <v>1045</v>
+        <v>2387</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>1138</v>
+        <v>2118</v>
       </c>
       <c r="C114">
-        <v>1061</v>
+        <v>2446</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>1130</v>
+        <v>2119</v>
       </c>
       <c r="C115">
-        <v>1044</v>
+        <v>2453</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>1138</v>
+        <v>2119</v>
       </c>
       <c r="C116">
-        <v>990</v>
+        <v>2439</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>1131</v>
+        <v>2120</v>
       </c>
       <c r="C117">
-        <v>910</v>
+        <v>2467</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>1190</v>
+        <v>2160</v>
       </c>
       <c r="C118">
-        <v>875</v>
+        <v>2481</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
-        <v>1187</v>
+        <v>2159</v>
       </c>
       <c r="C119">
-        <v>872</v>
+        <v>2486</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>1185</v>
+        <v>2157</v>
       </c>
       <c r="C120">
-        <v>822</v>
+        <v>2474</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
-        <v>1185</v>
+        <v>2156</v>
       </c>
       <c r="C121">
-        <v>829</v>
+        <v>2452</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>1179</v>
+        <v>2173</v>
       </c>
       <c r="C122">
-        <v>847</v>
+        <v>2430</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B123">
-        <v>1159</v>
+        <v>2173</v>
       </c>
       <c r="C123">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B124">
-        <v>1154</v>
+        <v>2173</v>
       </c>
       <c r="C124">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B125">
-        <v>1153</v>
+        <v>2174</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B126">
-        <v>1039</v>
+        <v>2231</v>
       </c>
       <c r="C126">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B127">
-        <v>1030</v>
+        <v>2231</v>
       </c>
       <c r="C127">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B128">
-        <v>1022</v>
+        <v>2233</v>
       </c>
       <c r="C128">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B129">
-        <v>1012</v>
+        <v>2234</v>
       </c>
       <c r="C129">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B130">
-        <v>855</v>
+        <v>2190</v>
       </c>
       <c r="C130">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B131">
-        <v>852</v>
+        <v>2192</v>
       </c>
       <c r="C131">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B132">
-        <v>849</v>
+        <v>2195</v>
       </c>
       <c r="C132">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B133">
-        <v>846</v>
+        <v>2197</v>
       </c>
       <c r="C133">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B134">
-        <v>933</v>
+        <v>2227</v>
       </c>
       <c r="C134">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B135">
-        <v>934</v>
+        <v>2229</v>
       </c>
       <c r="C135">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B136">
-        <v>935</v>
+        <v>2230</v>
       </c>
       <c r="C136">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B137">
-        <v>935</v>
+        <v>2232</v>
       </c>
       <c r="C137">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B138">
-        <v>922</v>
+        <v>2280</v>
       </c>
       <c r="C138">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B139">
-        <v>922</v>
+        <v>2282</v>
       </c>
       <c r="C139">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B140">
-        <v>923</v>
+        <v>2284</v>
       </c>
       <c r="C140">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B141">
-        <v>923</v>
+        <v>2285</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B142">
-        <v>907</v>
+        <v>2355</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B143">
-        <v>906</v>
+        <v>2356</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B144">
-        <v>904</v>
+        <v>2357</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B145">
-        <v>903</v>
+        <v>2358</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B146">
-        <v>909</v>
+        <v>2407</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B147">
-        <v>907</v>
+        <v>2408</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B148">
-        <v>906</v>
+        <v>2409</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B149">
-        <v>904</v>
+        <v>2409</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B150">
-        <v>831</v>
+        <v>2435</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B151">
-        <v>829</v>
+        <v>2434</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B152">
-        <v>827</v>
+        <v>2434</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B153">
-        <v>825</v>
+        <v>2434</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B154">
-        <v>722</v>
+        <v>2451</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B155">
-        <v>720</v>
+        <v>2450</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B156">
-        <v>717</v>
+        <v>2449</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B157">
-        <v>714</v>
+        <v>2448</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B158">
-        <v>559</v>
+        <v>2420</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B159">
-        <v>555</v>
+        <v>2417</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B160">
-        <v>552</v>
+        <v>2414</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B161">
-        <v>549</v>
+        <v>2411</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B162">
-        <v>379</v>
+        <v>2360</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B163">
-        <v>377</v>
+        <v>2358</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B164">
-        <v>375</v>
+        <v>2356</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B165">
-        <v>374</v>
+        <v>2354</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B166">
-        <v>312</v>
+        <v>2310</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B167">
-        <v>313</v>
+        <v>2309</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B168">
-        <v>314</v>
+        <v>2309</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B169">
-        <v>315</v>
+        <v>2308</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B170">
-        <v>283</v>
+        <v>2263</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B171">
-        <v>283</v>
+        <v>2259</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B172">
-        <v>284</v>
+        <v>2255</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B173">
-        <v>284</v>
+        <v>2251</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B174">
-        <v>267</v>
+        <v>2302</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B175">
-        <v>267</v>
+        <v>2299</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B176">
-        <v>267</v>
+        <v>2296</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B177">
-        <v>267</v>
+        <v>2293</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B178">
-        <v>257</v>
+        <v>2125</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B179">
-        <v>257</v>
+        <v>2122</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B180">
-        <v>258</v>
+        <v>2119</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B181">
-        <v>258</v>
+        <v>2116</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B182">
-        <v>227</v>
+        <v>2033</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B183">
-        <v>227</v>
+        <v>2031</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B184">
-        <v>227</v>
+        <v>2030</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B185">
-        <v>228</v>
+        <v>2028</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B186">
-        <v>199</v>
+        <v>2019</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B187">
-        <v>199</v>
+        <v>2020</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B188">
-        <v>199</v>
+        <v>2021</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B189">
-        <v>199</v>
+        <v>2022</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>27.03.20251</t>
-  </si>
-  <si>
-    <t>27.03.20252</t>
-  </si>
-  <si>
-    <t>27.03.20253</t>
-  </si>
-  <si>
-    <t>27.03.20254</t>
-  </si>
-  <si>
-    <t>27.03.20255</t>
-  </si>
-  <si>
-    <t>27.03.20256</t>
-  </si>
-  <si>
-    <t>27.03.20257</t>
-  </si>
-  <si>
-    <t>27.03.20258</t>
-  </si>
-  <si>
-    <t>27.03.20259</t>
-  </si>
-  <si>
-    <t>27.03.202510</t>
-  </si>
-  <si>
-    <t>27.03.202511</t>
-  </si>
-  <si>
-    <t>27.03.202512</t>
-  </si>
-  <si>
-    <t>27.03.202513</t>
-  </si>
-  <si>
-    <t>27.03.202514</t>
-  </si>
-  <si>
-    <t>27.03.202515</t>
-  </si>
-  <si>
-    <t>27.03.202516</t>
-  </si>
-  <si>
-    <t>27.03.202517</t>
-  </si>
-  <si>
-    <t>27.03.202518</t>
-  </si>
-  <si>
-    <t>27.03.202519</t>
-  </si>
-  <si>
-    <t>27.03.202520</t>
-  </si>
-  <si>
-    <t>27.03.202521</t>
-  </si>
-  <si>
-    <t>27.03.202522</t>
-  </si>
-  <si>
-    <t>27.03.202523</t>
-  </si>
-  <si>
-    <t>27.03.202524</t>
-  </si>
-  <si>
-    <t>27.03.202525</t>
-  </si>
-  <si>
-    <t>27.03.202526</t>
-  </si>
-  <si>
-    <t>27.03.202527</t>
-  </si>
-  <si>
-    <t>27.03.202528</t>
-  </si>
-  <si>
-    <t>27.03.202529</t>
-  </si>
-  <si>
-    <t>27.03.202530</t>
-  </si>
-  <si>
-    <t>27.03.202531</t>
-  </si>
-  <si>
-    <t>27.03.202532</t>
-  </si>
-  <si>
-    <t>27.03.202533</t>
-  </si>
-  <si>
-    <t>27.03.202534</t>
-  </si>
-  <si>
-    <t>27.03.202535</t>
-  </si>
-  <si>
-    <t>27.03.202536</t>
-  </si>
-  <si>
-    <t>27.03.202537</t>
-  </si>
-  <si>
-    <t>27.03.202538</t>
-  </si>
-  <si>
-    <t>27.03.202539</t>
-  </si>
-  <si>
-    <t>27.03.202540</t>
-  </si>
-  <si>
-    <t>27.03.202541</t>
-  </si>
-  <si>
-    <t>27.03.202542</t>
-  </si>
-  <si>
-    <t>27.03.202543</t>
-  </si>
-  <si>
-    <t>27.03.202544</t>
-  </si>
-  <si>
-    <t>27.03.202545</t>
-  </si>
-  <si>
-    <t>27.03.202546</t>
-  </si>
-  <si>
-    <t>27.03.202547</t>
-  </si>
-  <si>
-    <t>27.03.202548</t>
-  </si>
-  <si>
-    <t>27.03.202549</t>
-  </si>
-  <si>
-    <t>27.03.202550</t>
-  </si>
-  <si>
-    <t>27.03.202551</t>
-  </si>
-  <si>
-    <t>27.03.202552</t>
-  </si>
-  <si>
-    <t>27.03.202553</t>
-  </si>
-  <si>
-    <t>27.03.202554</t>
-  </si>
-  <si>
-    <t>27.03.202555</t>
-  </si>
-  <si>
-    <t>27.03.202556</t>
-  </si>
-  <si>
-    <t>27.03.202557</t>
-  </si>
-  <si>
-    <t>27.03.202558</t>
-  </si>
-  <si>
-    <t>27.03.202559</t>
-  </si>
-  <si>
-    <t>27.03.202560</t>
-  </si>
-  <si>
-    <t>27.03.202561</t>
-  </si>
-  <si>
-    <t>27.03.202562</t>
-  </si>
-  <si>
-    <t>27.03.202563</t>
-  </si>
-  <si>
-    <t>27.03.202564</t>
-  </si>
-  <si>
-    <t>27.03.202565</t>
-  </si>
-  <si>
-    <t>27.03.202566</t>
-  </si>
-  <si>
-    <t>27.03.202567</t>
-  </si>
-  <si>
-    <t>27.03.202568</t>
-  </si>
-  <si>
-    <t>27.03.202569</t>
-  </si>
-  <si>
-    <t>27.03.202570</t>
-  </si>
-  <si>
-    <t>27.03.202571</t>
-  </si>
-  <si>
-    <t>27.03.202572</t>
-  </si>
-  <si>
-    <t>27.03.202573</t>
-  </si>
-  <si>
-    <t>27.03.202574</t>
-  </si>
-  <si>
-    <t>27.03.202575</t>
-  </si>
-  <si>
-    <t>27.03.202576</t>
-  </si>
-  <si>
-    <t>27.03.202577</t>
-  </si>
-  <si>
-    <t>27.03.202578</t>
-  </si>
-  <si>
-    <t>27.03.202579</t>
-  </si>
-  <si>
-    <t>27.03.202580</t>
-  </si>
-  <si>
-    <t>27.03.202581</t>
-  </si>
-  <si>
-    <t>27.03.202582</t>
-  </si>
-  <si>
-    <t>27.03.202583</t>
-  </si>
-  <si>
-    <t>27.03.202584</t>
-  </si>
-  <si>
-    <t>27.03.202585</t>
-  </si>
-  <si>
-    <t>27.03.202586</t>
-  </si>
-  <si>
-    <t>27.03.202587</t>
-  </si>
-  <si>
-    <t>27.03.202588</t>
-  </si>
-  <si>
-    <t>27.03.202589</t>
-  </si>
-  <si>
-    <t>27.03.202590</t>
-  </si>
-  <si>
-    <t>27.03.202591</t>
-  </si>
-  <si>
-    <t>27.03.202592</t>
-  </si>
-  <si>
-    <t>27.03.202593</t>
-  </si>
-  <si>
-    <t>27.03.202594</t>
-  </si>
-  <si>
-    <t>27.03.202595</t>
-  </si>
-  <si>
-    <t>27.03.202596</t>
-  </si>
-  <si>
     <t>28.03.20251</t>
   </si>
   <si>
@@ -605,6 +317,858 @@
   </si>
   <si>
     <t>28.03.202596</t>
+  </si>
+  <si>
+    <t>29.03.20251</t>
+  </si>
+  <si>
+    <t>29.03.20252</t>
+  </si>
+  <si>
+    <t>29.03.20253</t>
+  </si>
+  <si>
+    <t>29.03.20254</t>
+  </si>
+  <si>
+    <t>29.03.20255</t>
+  </si>
+  <si>
+    <t>29.03.20256</t>
+  </si>
+  <si>
+    <t>29.03.20257</t>
+  </si>
+  <si>
+    <t>29.03.20258</t>
+  </si>
+  <si>
+    <t>29.03.20259</t>
+  </si>
+  <si>
+    <t>29.03.202510</t>
+  </si>
+  <si>
+    <t>29.03.202511</t>
+  </si>
+  <si>
+    <t>29.03.202512</t>
+  </si>
+  <si>
+    <t>29.03.202513</t>
+  </si>
+  <si>
+    <t>29.03.202514</t>
+  </si>
+  <si>
+    <t>29.03.202515</t>
+  </si>
+  <si>
+    <t>29.03.202516</t>
+  </si>
+  <si>
+    <t>29.03.202517</t>
+  </si>
+  <si>
+    <t>29.03.202518</t>
+  </si>
+  <si>
+    <t>29.03.202519</t>
+  </si>
+  <si>
+    <t>29.03.202520</t>
+  </si>
+  <si>
+    <t>29.03.202521</t>
+  </si>
+  <si>
+    <t>29.03.202522</t>
+  </si>
+  <si>
+    <t>29.03.202523</t>
+  </si>
+  <si>
+    <t>29.03.202524</t>
+  </si>
+  <si>
+    <t>29.03.202525</t>
+  </si>
+  <si>
+    <t>29.03.202526</t>
+  </si>
+  <si>
+    <t>29.03.202527</t>
+  </si>
+  <si>
+    <t>29.03.202528</t>
+  </si>
+  <si>
+    <t>29.03.202529</t>
+  </si>
+  <si>
+    <t>29.03.202530</t>
+  </si>
+  <si>
+    <t>29.03.202531</t>
+  </si>
+  <si>
+    <t>29.03.202532</t>
+  </si>
+  <si>
+    <t>29.03.202533</t>
+  </si>
+  <si>
+    <t>29.03.202534</t>
+  </si>
+  <si>
+    <t>29.03.202535</t>
+  </si>
+  <si>
+    <t>29.03.202536</t>
+  </si>
+  <si>
+    <t>29.03.202537</t>
+  </si>
+  <si>
+    <t>29.03.202538</t>
+  </si>
+  <si>
+    <t>29.03.202539</t>
+  </si>
+  <si>
+    <t>29.03.202540</t>
+  </si>
+  <si>
+    <t>29.03.202541</t>
+  </si>
+  <si>
+    <t>29.03.202542</t>
+  </si>
+  <si>
+    <t>29.03.202543</t>
+  </si>
+  <si>
+    <t>29.03.202544</t>
+  </si>
+  <si>
+    <t>29.03.202545</t>
+  </si>
+  <si>
+    <t>29.03.202546</t>
+  </si>
+  <si>
+    <t>29.03.202547</t>
+  </si>
+  <si>
+    <t>29.03.202548</t>
+  </si>
+  <si>
+    <t>29.03.202549</t>
+  </si>
+  <si>
+    <t>29.03.202550</t>
+  </si>
+  <si>
+    <t>29.03.202551</t>
+  </si>
+  <si>
+    <t>29.03.202552</t>
+  </si>
+  <si>
+    <t>29.03.202553</t>
+  </si>
+  <si>
+    <t>29.03.202554</t>
+  </si>
+  <si>
+    <t>29.03.202555</t>
+  </si>
+  <si>
+    <t>29.03.202556</t>
+  </si>
+  <si>
+    <t>29.03.202557</t>
+  </si>
+  <si>
+    <t>29.03.202558</t>
+  </si>
+  <si>
+    <t>29.03.202559</t>
+  </si>
+  <si>
+    <t>29.03.202560</t>
+  </si>
+  <si>
+    <t>29.03.202561</t>
+  </si>
+  <si>
+    <t>29.03.202562</t>
+  </si>
+  <si>
+    <t>29.03.202563</t>
+  </si>
+  <si>
+    <t>29.03.202564</t>
+  </si>
+  <si>
+    <t>29.03.202565</t>
+  </si>
+  <si>
+    <t>29.03.202566</t>
+  </si>
+  <si>
+    <t>29.03.202567</t>
+  </si>
+  <si>
+    <t>29.03.202568</t>
+  </si>
+  <si>
+    <t>29.03.202569</t>
+  </si>
+  <si>
+    <t>29.03.202570</t>
+  </si>
+  <si>
+    <t>29.03.202571</t>
+  </si>
+  <si>
+    <t>29.03.202572</t>
+  </si>
+  <si>
+    <t>29.03.202573</t>
+  </si>
+  <si>
+    <t>29.03.202574</t>
+  </si>
+  <si>
+    <t>29.03.202575</t>
+  </si>
+  <si>
+    <t>29.03.202576</t>
+  </si>
+  <si>
+    <t>29.03.202577</t>
+  </si>
+  <si>
+    <t>29.03.202578</t>
+  </si>
+  <si>
+    <t>29.03.202579</t>
+  </si>
+  <si>
+    <t>29.03.202580</t>
+  </si>
+  <si>
+    <t>29.03.202581</t>
+  </si>
+  <si>
+    <t>29.03.202582</t>
+  </si>
+  <si>
+    <t>29.03.202583</t>
+  </si>
+  <si>
+    <t>29.03.202584</t>
+  </si>
+  <si>
+    <t>29.03.202585</t>
+  </si>
+  <si>
+    <t>29.03.202586</t>
+  </si>
+  <si>
+    <t>29.03.202587</t>
+  </si>
+  <si>
+    <t>29.03.202588</t>
+  </si>
+  <si>
+    <t>29.03.202589</t>
+  </si>
+  <si>
+    <t>29.03.202590</t>
+  </si>
+  <si>
+    <t>29.03.202591</t>
+  </si>
+  <si>
+    <t>29.03.202592</t>
+  </si>
+  <si>
+    <t>29.03.202593</t>
+  </si>
+  <si>
+    <t>29.03.202594</t>
+  </si>
+  <si>
+    <t>29.03.202595</t>
+  </si>
+  <si>
+    <t>29.03.202596</t>
+  </si>
+  <si>
+    <t>30.03.20251</t>
+  </si>
+  <si>
+    <t>30.03.20252</t>
+  </si>
+  <si>
+    <t>30.03.20253</t>
+  </si>
+  <si>
+    <t>30.03.20254</t>
+  </si>
+  <si>
+    <t>30.03.20255</t>
+  </si>
+  <si>
+    <t>30.03.20256</t>
+  </si>
+  <si>
+    <t>30.03.20257</t>
+  </si>
+  <si>
+    <t>30.03.20258</t>
+  </si>
+  <si>
+    <t>30.03.20259</t>
+  </si>
+  <si>
+    <t>30.03.202510</t>
+  </si>
+  <si>
+    <t>30.03.202511</t>
+  </si>
+  <si>
+    <t>30.03.202512</t>
+  </si>
+  <si>
+    <t>30.03.202513</t>
+  </si>
+  <si>
+    <t>30.03.202514</t>
+  </si>
+  <si>
+    <t>30.03.202515</t>
+  </si>
+  <si>
+    <t>30.03.202516</t>
+  </si>
+  <si>
+    <t>30.03.202517</t>
+  </si>
+  <si>
+    <t>30.03.202518</t>
+  </si>
+  <si>
+    <t>30.03.202519</t>
+  </si>
+  <si>
+    <t>30.03.202520</t>
+  </si>
+  <si>
+    <t>30.03.202521</t>
+  </si>
+  <si>
+    <t>30.03.202522</t>
+  </si>
+  <si>
+    <t>30.03.202523</t>
+  </si>
+  <si>
+    <t>30.03.202524</t>
+  </si>
+  <si>
+    <t>30.03.202525</t>
+  </si>
+  <si>
+    <t>30.03.202526</t>
+  </si>
+  <si>
+    <t>30.03.202527</t>
+  </si>
+  <si>
+    <t>30.03.202528</t>
+  </si>
+  <si>
+    <t>30.03.202529</t>
+  </si>
+  <si>
+    <t>30.03.202530</t>
+  </si>
+  <si>
+    <t>30.03.202531</t>
+  </si>
+  <si>
+    <t>30.03.202532</t>
+  </si>
+  <si>
+    <t>30.03.202533</t>
+  </si>
+  <si>
+    <t>30.03.202534</t>
+  </si>
+  <si>
+    <t>30.03.202535</t>
+  </si>
+  <si>
+    <t>30.03.202536</t>
+  </si>
+  <si>
+    <t>30.03.202537</t>
+  </si>
+  <si>
+    <t>30.03.202538</t>
+  </si>
+  <si>
+    <t>30.03.202539</t>
+  </si>
+  <si>
+    <t>30.03.202540</t>
+  </si>
+  <si>
+    <t>30.03.202541</t>
+  </si>
+  <si>
+    <t>30.03.202542</t>
+  </si>
+  <si>
+    <t>30.03.202543</t>
+  </si>
+  <si>
+    <t>30.03.202544</t>
+  </si>
+  <si>
+    <t>30.03.202545</t>
+  </si>
+  <si>
+    <t>30.03.202546</t>
+  </si>
+  <si>
+    <t>30.03.202547</t>
+  </si>
+  <si>
+    <t>30.03.202548</t>
+  </si>
+  <si>
+    <t>30.03.202549</t>
+  </si>
+  <si>
+    <t>30.03.202550</t>
+  </si>
+  <si>
+    <t>30.03.202551</t>
+  </si>
+  <si>
+    <t>30.03.202552</t>
+  </si>
+  <si>
+    <t>30.03.202553</t>
+  </si>
+  <si>
+    <t>30.03.202554</t>
+  </si>
+  <si>
+    <t>30.03.202555</t>
+  </si>
+  <si>
+    <t>30.03.202556</t>
+  </si>
+  <si>
+    <t>30.03.202557</t>
+  </si>
+  <si>
+    <t>30.03.202558</t>
+  </si>
+  <si>
+    <t>30.03.202559</t>
+  </si>
+  <si>
+    <t>30.03.202560</t>
+  </si>
+  <si>
+    <t>30.03.202561</t>
+  </si>
+  <si>
+    <t>30.03.202562</t>
+  </si>
+  <si>
+    <t>30.03.202563</t>
+  </si>
+  <si>
+    <t>30.03.202564</t>
+  </si>
+  <si>
+    <t>30.03.202565</t>
+  </si>
+  <si>
+    <t>30.03.202566</t>
+  </si>
+  <si>
+    <t>30.03.202567</t>
+  </si>
+  <si>
+    <t>30.03.202568</t>
+  </si>
+  <si>
+    <t>30.03.202569</t>
+  </si>
+  <si>
+    <t>30.03.202570</t>
+  </si>
+  <si>
+    <t>30.03.202571</t>
+  </si>
+  <si>
+    <t>30.03.202572</t>
+  </si>
+  <si>
+    <t>30.03.202573</t>
+  </si>
+  <si>
+    <t>30.03.202574</t>
+  </si>
+  <si>
+    <t>30.03.202575</t>
+  </si>
+  <si>
+    <t>30.03.202576</t>
+  </si>
+  <si>
+    <t>30.03.202577</t>
+  </si>
+  <si>
+    <t>30.03.202578</t>
+  </si>
+  <si>
+    <t>30.03.202579</t>
+  </si>
+  <si>
+    <t>30.03.202580</t>
+  </si>
+  <si>
+    <t>30.03.202581</t>
+  </si>
+  <si>
+    <t>30.03.202582</t>
+  </si>
+  <si>
+    <t>30.03.202583</t>
+  </si>
+  <si>
+    <t>30.03.202584</t>
+  </si>
+  <si>
+    <t>30.03.202585</t>
+  </si>
+  <si>
+    <t>30.03.202586</t>
+  </si>
+  <si>
+    <t>30.03.202587</t>
+  </si>
+  <si>
+    <t>30.03.202588</t>
+  </si>
+  <si>
+    <t>30.03.202589</t>
+  </si>
+  <si>
+    <t>30.03.202590</t>
+  </si>
+  <si>
+    <t>30.03.202591</t>
+  </si>
+  <si>
+    <t>30.03.202592</t>
+  </si>
+  <si>
+    <t>31.03.202593</t>
+  </si>
+  <si>
+    <t>31.03.202594</t>
+  </si>
+  <si>
+    <t>31.03.202595</t>
+  </si>
+  <si>
+    <t>31.03.202596</t>
+  </si>
+  <si>
+    <t>31.03.20251</t>
+  </si>
+  <si>
+    <t>31.03.20252</t>
+  </si>
+  <si>
+    <t>31.03.20253</t>
+  </si>
+  <si>
+    <t>31.03.20254</t>
+  </si>
+  <si>
+    <t>31.03.20255</t>
+  </si>
+  <si>
+    <t>31.03.20256</t>
+  </si>
+  <si>
+    <t>31.03.20257</t>
+  </si>
+  <si>
+    <t>31.03.20258</t>
+  </si>
+  <si>
+    <t>31.03.20259</t>
+  </si>
+  <si>
+    <t>31.03.202510</t>
+  </si>
+  <si>
+    <t>31.03.202511</t>
+  </si>
+  <si>
+    <t>31.03.202512</t>
+  </si>
+  <si>
+    <t>31.03.202513</t>
+  </si>
+  <si>
+    <t>31.03.202514</t>
+  </si>
+  <si>
+    <t>31.03.202515</t>
+  </si>
+  <si>
+    <t>31.03.202516</t>
+  </si>
+  <si>
+    <t>31.03.202517</t>
+  </si>
+  <si>
+    <t>31.03.202518</t>
+  </si>
+  <si>
+    <t>31.03.202519</t>
+  </si>
+  <si>
+    <t>31.03.202520</t>
+  </si>
+  <si>
+    <t>31.03.202521</t>
+  </si>
+  <si>
+    <t>31.03.202522</t>
+  </si>
+  <si>
+    <t>31.03.202523</t>
+  </si>
+  <si>
+    <t>31.03.202524</t>
+  </si>
+  <si>
+    <t>31.03.202525</t>
+  </si>
+  <si>
+    <t>31.03.202526</t>
+  </si>
+  <si>
+    <t>31.03.202527</t>
+  </si>
+  <si>
+    <t>31.03.202528</t>
+  </si>
+  <si>
+    <t>31.03.202529</t>
+  </si>
+  <si>
+    <t>31.03.202530</t>
+  </si>
+  <si>
+    <t>31.03.202531</t>
+  </si>
+  <si>
+    <t>31.03.202532</t>
+  </si>
+  <si>
+    <t>31.03.202533</t>
+  </si>
+  <si>
+    <t>31.03.202534</t>
+  </si>
+  <si>
+    <t>31.03.202535</t>
+  </si>
+  <si>
+    <t>31.03.202536</t>
+  </si>
+  <si>
+    <t>31.03.202537</t>
+  </si>
+  <si>
+    <t>31.03.202538</t>
+  </si>
+  <si>
+    <t>31.03.202539</t>
+  </si>
+  <si>
+    <t>31.03.202540</t>
+  </si>
+  <si>
+    <t>31.03.202541</t>
+  </si>
+  <si>
+    <t>31.03.202542</t>
+  </si>
+  <si>
+    <t>31.03.202543</t>
+  </si>
+  <si>
+    <t>31.03.202544</t>
+  </si>
+  <si>
+    <t>31.03.202545</t>
+  </si>
+  <si>
+    <t>31.03.202546</t>
+  </si>
+  <si>
+    <t>31.03.202547</t>
+  </si>
+  <si>
+    <t>31.03.202548</t>
+  </si>
+  <si>
+    <t>31.03.202549</t>
+  </si>
+  <si>
+    <t>31.03.202550</t>
+  </si>
+  <si>
+    <t>31.03.202551</t>
+  </si>
+  <si>
+    <t>31.03.202552</t>
+  </si>
+  <si>
+    <t>31.03.202553</t>
+  </si>
+  <si>
+    <t>31.03.202554</t>
+  </si>
+  <si>
+    <t>31.03.202555</t>
+  </si>
+  <si>
+    <t>31.03.202556</t>
+  </si>
+  <si>
+    <t>31.03.202557</t>
+  </si>
+  <si>
+    <t>31.03.202558</t>
+  </si>
+  <si>
+    <t>31.03.202559</t>
+  </si>
+  <si>
+    <t>31.03.202560</t>
+  </si>
+  <si>
+    <t>31.03.202561</t>
+  </si>
+  <si>
+    <t>31.03.202562</t>
+  </si>
+  <si>
+    <t>31.03.202563</t>
+  </si>
+  <si>
+    <t>31.03.202564</t>
+  </si>
+  <si>
+    <t>31.03.202565</t>
+  </si>
+  <si>
+    <t>31.03.202566</t>
+  </si>
+  <si>
+    <t>31.03.202567</t>
+  </si>
+  <si>
+    <t>31.03.202568</t>
+  </si>
+  <si>
+    <t>31.03.202569</t>
+  </si>
+  <si>
+    <t>31.03.202570</t>
+  </si>
+  <si>
+    <t>31.03.202571</t>
+  </si>
+  <si>
+    <t>31.03.202572</t>
+  </si>
+  <si>
+    <t>31.03.202573</t>
+  </si>
+  <si>
+    <t>31.03.202574</t>
+  </si>
+  <si>
+    <t>31.03.202575</t>
+  </si>
+  <si>
+    <t>31.03.202576</t>
+  </si>
+  <si>
+    <t>31.03.202577</t>
+  </si>
+  <si>
+    <t>31.03.202578</t>
+  </si>
+  <si>
+    <t>31.03.202579</t>
+  </si>
+  <si>
+    <t>31.03.202580</t>
+  </si>
+  <si>
+    <t>31.03.202581</t>
+  </si>
+  <si>
+    <t>31.03.202582</t>
+  </si>
+  <si>
+    <t>31.03.202583</t>
+  </si>
+  <si>
+    <t>31.03.202584</t>
+  </si>
+  <si>
+    <t>31.03.202585</t>
+  </si>
+  <si>
+    <t>31.03.202586</t>
+  </si>
+  <si>
+    <t>31.03.202587</t>
+  </si>
+  <si>
+    <t>31.03.202588</t>
+  </si>
+  <si>
+    <t>31.03.202589</t>
+  </si>
+  <si>
+    <t>31.03.202590</t>
+  </si>
+  <si>
+    <t>31.03.202591</t>
+  </si>
+  <si>
+    <t>31.03.202592</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1555,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>985</v>
+        <v>1617</v>
       </c>
       <c r="C2">
-        <v>1082</v>
+        <v>1491</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1572,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>996</v>
+        <v>1641</v>
       </c>
       <c r="C3">
-        <v>1137</v>
+        <v>1546</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1589,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>1002</v>
+        <v>1643</v>
       </c>
       <c r="C4">
-        <v>1170</v>
+        <v>1625</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1606,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>1651</v>
       </c>
       <c r="C5">
-        <v>1169</v>
+        <v>1744</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1623,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>1022</v>
+        <v>1806</v>
       </c>
       <c r="C6">
-        <v>1176</v>
+        <v>1868</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1640,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>1035</v>
+        <v>1814</v>
       </c>
       <c r="C7">
-        <v>1186</v>
+        <v>1975</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1657,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>1031</v>
+        <v>1804</v>
       </c>
       <c r="C8">
-        <v>1162</v>
+        <v>2052</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1674,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>1047</v>
+        <v>1803</v>
       </c>
       <c r="C9">
-        <v>1116</v>
+        <v>2027</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1691,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>1100</v>
+        <v>2002</v>
       </c>
       <c r="C10">
-        <v>1119</v>
+        <v>2099</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1708,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>1106</v>
+        <v>2014</v>
       </c>
       <c r="C11">
-        <v>1124</v>
+        <v>2153</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1725,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>1113</v>
+        <v>2024</v>
       </c>
       <c r="C12">
-        <v>1120</v>
+        <v>2213</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1742,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>1115</v>
+        <v>2038</v>
       </c>
       <c r="C13">
-        <v>1159</v>
+        <v>2250</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1759,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>1199</v>
+        <v>2131</v>
       </c>
       <c r="C14">
-        <v>1161</v>
+        <v>2350</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1776,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>1185</v>
+        <v>2141</v>
       </c>
       <c r="C15">
-        <v>1123</v>
+        <v>2359</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1793,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>1191</v>
+        <v>2147</v>
       </c>
       <c r="C16">
-        <v>1092</v>
+        <v>2371</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1810,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>1184</v>
+        <v>2155</v>
       </c>
       <c r="C17">
-        <v>1053</v>
+        <v>2387</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1827,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>1187</v>
+        <v>2267</v>
       </c>
       <c r="C18">
-        <v>1056</v>
+        <v>2446</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1844,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>1199</v>
+        <v>2268</v>
       </c>
       <c r="C19">
-        <v>1060</v>
+        <v>2453</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1861,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>1192</v>
+        <v>2269</v>
       </c>
       <c r="C20">
-        <v>1087</v>
+        <v>2439</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1878,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>1182</v>
+        <v>2261</v>
       </c>
       <c r="C21">
-        <v>1074</v>
+        <v>2467</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1895,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>1120</v>
+        <v>2293</v>
       </c>
       <c r="C22">
-        <v>1066</v>
+        <v>2481</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1912,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>1116</v>
+        <v>2294</v>
       </c>
       <c r="C23">
-        <v>1061</v>
+        <v>2486</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1929,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>1110</v>
+        <v>2293</v>
       </c>
       <c r="C24">
-        <v>1079</v>
+        <v>2474</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1946,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>1112</v>
+        <v>2291</v>
       </c>
       <c r="C25">
-        <v>1045</v>
+        <v>2452</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1963,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>1010</v>
+        <v>2272</v>
       </c>
       <c r="C26">
-        <v>979</v>
+        <v>2430</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1980,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>1008</v>
+        <v>2265</v>
       </c>
       <c r="C27">
-        <v>941</v>
+        <v>2405</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1997,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>998</v>
+        <v>2265</v>
       </c>
       <c r="C28">
-        <v>873</v>
+        <v>2453</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +2014,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>991</v>
+        <v>2266</v>
       </c>
       <c r="C29">
-        <v>830</v>
+        <v>2466</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +2031,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>808</v>
+        <v>2299</v>
       </c>
       <c r="C30">
-        <v>801</v>
+        <v>2417</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +2048,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>801</v>
+        <v>2299</v>
       </c>
       <c r="C31">
-        <v>823</v>
+        <v>2389</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +2065,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
-        <v>801</v>
+        <v>2301</v>
       </c>
       <c r="C32">
-        <v>809</v>
+        <v>2363</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +2082,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>798</v>
+        <v>2302</v>
       </c>
       <c r="C33">
-        <v>809</v>
+        <v>2300</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +2099,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>658</v>
+        <v>2264</v>
       </c>
       <c r="C34">
-        <v>768</v>
+        <v>2299</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +2116,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>651</v>
+        <v>2267</v>
       </c>
       <c r="C35">
-        <v>743</v>
+        <v>2319</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +2133,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
-        <v>650</v>
+        <v>2269</v>
       </c>
       <c r="C36">
-        <v>702</v>
+        <v>2324</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +2150,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
-        <v>650</v>
+        <v>2273</v>
       </c>
       <c r="C37">
-        <v>700</v>
+        <v>2342</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +2167,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
-        <v>604</v>
+        <v>2264</v>
       </c>
       <c r="C38">
-        <v>702</v>
+        <v>2342</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +2184,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>605</v>
+        <v>2266</v>
       </c>
       <c r="C39">
-        <v>734</v>
+        <v>2339</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +2201,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>606</v>
+        <v>2268</v>
       </c>
       <c r="C40">
-        <v>755</v>
+        <v>2350</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +2218,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>608</v>
+        <v>2269</v>
       </c>
       <c r="C41">
-        <v>781</v>
+        <v>2334</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +2235,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>603</v>
+        <v>2306</v>
       </c>
       <c r="C42">
-        <v>831</v>
+        <v>2320</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +2252,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>604</v>
+        <v>2308</v>
       </c>
       <c r="C43">
-        <v>864</v>
+        <v>2327</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +2269,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>605</v>
+        <v>2309</v>
       </c>
       <c r="C44">
-        <v>875</v>
+        <v>2312</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +2286,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>606</v>
+        <v>2311</v>
       </c>
       <c r="C45">
-        <v>857</v>
+        <v>2327</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +2303,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>676</v>
+        <v>2374</v>
       </c>
       <c r="C46">
-        <v>870</v>
+        <v>2385</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +2320,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>678</v>
+        <v>2375</v>
       </c>
       <c r="C47">
-        <v>884</v>
+        <v>2398</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +2337,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>680</v>
+        <v>2376</v>
       </c>
       <c r="C48">
-        <v>865</v>
+        <v>2425</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +2354,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>682</v>
+        <v>2377</v>
       </c>
       <c r="C49">
-        <v>849</v>
+        <v>2417</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +2371,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>717</v>
+        <v>2412</v>
       </c>
       <c r="C50">
-        <v>834</v>
+        <v>2447</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +2388,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>718</v>
+        <v>2413</v>
       </c>
       <c r="C51">
-        <v>810</v>
+        <v>2427</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +2405,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>719</v>
+        <v>2414</v>
       </c>
       <c r="C52">
-        <v>779</v>
+        <v>2421</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +2422,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>720</v>
+        <v>2414</v>
       </c>
       <c r="C53">
-        <v>769</v>
+        <v>2411</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +2439,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
-        <v>786</v>
+        <v>2435</v>
       </c>
       <c r="C54">
-        <v>750</v>
+        <v>2422</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +2456,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
-        <v>787</v>
+        <v>2434</v>
       </c>
       <c r="C55">
-        <v>732</v>
+        <v>2432</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2473,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>789</v>
+        <v>2434</v>
       </c>
       <c r="C56">
-        <v>718</v>
+        <v>2465</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2490,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>791</v>
+        <v>2434</v>
       </c>
       <c r="C57">
-        <v>676</v>
+        <v>2485</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +2507,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
-        <v>898</v>
+        <v>2451</v>
       </c>
       <c r="C58">
-        <v>627</v>
+        <v>2506</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +2524,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
-        <v>900</v>
+        <v>2450</v>
       </c>
       <c r="C59">
-        <v>592</v>
+        <v>2515</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +2541,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
-        <v>903</v>
+        <v>2449</v>
       </c>
       <c r="C60">
-        <v>581</v>
+        <v>2538</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +2558,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
-        <v>905</v>
+        <v>2448</v>
       </c>
       <c r="C61">
-        <v>577</v>
+        <v>2548</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2575,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>1008</v>
+        <v>2420</v>
       </c>
       <c r="C62">
-        <v>582</v>
+        <v>2539</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2592,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>1011</v>
+        <v>2417</v>
       </c>
       <c r="C63">
-        <v>664</v>
+        <v>2544</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2609,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>1014</v>
+        <v>2415</v>
       </c>
       <c r="C64">
-        <v>769</v>
+        <v>2538</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2626,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>1017</v>
+        <v>2412</v>
       </c>
       <c r="C65">
-        <v>889</v>
+        <v>2552</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2643,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>1164</v>
+        <v>2360</v>
       </c>
       <c r="C66">
-        <v>994</v>
+        <v>2575</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2660,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>1167</v>
+        <v>2358</v>
       </c>
       <c r="C67">
-        <v>1122</v>
+        <v>2594</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2677,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>1170</v>
+        <v>2356</v>
       </c>
       <c r="C68">
-        <v>1187</v>
+        <v>2618</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2694,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
-        <v>1172</v>
+        <v>2353</v>
       </c>
       <c r="C69">
-        <v>1235</v>
+        <v>2618</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2711,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
-        <v>1343</v>
+        <v>2310</v>
       </c>
       <c r="C70">
-        <v>1313</v>
+        <v>2591</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2728,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>1345</v>
+        <v>2309</v>
       </c>
       <c r="C71">
-        <v>1348</v>
+        <v>2580</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2745,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>1346</v>
+        <v>2309</v>
       </c>
       <c r="C72">
-        <v>1377</v>
+        <v>2585</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2762,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>1346</v>
+        <v>2308</v>
       </c>
       <c r="C73">
-        <v>1407</v>
+        <v>2564</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2779,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>1410</v>
+        <v>2263</v>
       </c>
       <c r="C74">
-        <v>1486</v>
+        <v>2526</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2796,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>1409</v>
+        <v>2259</v>
       </c>
       <c r="C75">
-        <v>1525</v>
+        <v>2478</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2813,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>1408</v>
+        <v>2255</v>
       </c>
       <c r="C76">
-        <v>1621</v>
+        <v>2439</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2830,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>1408</v>
+        <v>2251</v>
       </c>
       <c r="C77">
-        <v>1650</v>
+        <v>2414</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2847,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>1439</v>
+        <v>2302</v>
       </c>
       <c r="C78">
-        <v>1721</v>
+        <v>2338</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2864,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>1439</v>
+        <v>2299</v>
       </c>
       <c r="C79">
-        <v>1719</v>
+        <v>2230</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2881,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>1438</v>
+        <v>2296</v>
       </c>
       <c r="C80">
-        <v>1706</v>
+        <v>2149</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2898,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>1437</v>
+        <v>2293</v>
       </c>
       <c r="C81">
-        <v>1683</v>
+        <v>2140</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2915,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
-        <v>1428</v>
+        <v>2125</v>
       </c>
       <c r="C82">
-        <v>1666</v>
+        <v>2112</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2932,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
-        <v>1426</v>
+        <v>2122</v>
       </c>
       <c r="C83">
-        <v>1616</v>
+        <v>2134</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2949,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>1424</v>
+        <v>2119</v>
       </c>
       <c r="C84">
-        <v>1591</v>
+        <v>2154</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2966,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>1422</v>
+        <v>2116</v>
       </c>
       <c r="C85">
-        <v>1573</v>
+        <v>2193</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2983,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>1384</v>
+        <v>2033</v>
       </c>
       <c r="C86">
-        <v>1558</v>
+        <v>2110</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +3000,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>1385</v>
+        <v>2031</v>
       </c>
       <c r="C87">
-        <v>1594</v>
+        <v>2101</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +3017,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>1385</v>
+        <v>2030</v>
       </c>
       <c r="C88">
-        <v>1595</v>
+        <v>2114</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +3034,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
-        <v>1386</v>
+        <v>2028</v>
       </c>
       <c r="C89">
-        <v>1587</v>
+        <v>2108</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +3051,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
-        <v>1419</v>
+        <v>2019</v>
       </c>
       <c r="C90">
-        <v>1522</v>
+        <v>2062</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +3068,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>1421</v>
+        <v>2020</v>
       </c>
       <c r="C91">
-        <v>1456</v>
+        <v>2071</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +3085,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
-        <v>1423</v>
+        <v>2021</v>
       </c>
       <c r="C92">
-        <v>1425</v>
+        <v>2044</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +3102,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>1425</v>
+        <v>2022</v>
       </c>
       <c r="C93">
-        <v>1399</v>
+        <v>2063</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +3119,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>1421</v>
+        <v>2024</v>
       </c>
       <c r="C94">
-        <v>1318</v>
+        <v>2109</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +3136,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>1426</v>
+        <v>2032</v>
       </c>
       <c r="C95">
-        <v>1357</v>
+        <v>2089</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +3153,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>1431</v>
+        <v>2036</v>
       </c>
       <c r="C96">
-        <v>1420</v>
+        <v>2035</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +3170,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
-        <v>1435</v>
+        <v>2032</v>
       </c>
       <c r="C97">
-        <v>1457</v>
+        <v>2093</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +3187,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
-        <v>1661</v>
+        <v>2270</v>
       </c>
       <c r="C98">
-        <v>1491</v>
+        <v>2136</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +3204,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>1666</v>
+        <v>2267</v>
       </c>
       <c r="C99">
-        <v>1546</v>
+        <v>2079</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +3221,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>1671</v>
+        <v>2266</v>
       </c>
       <c r="C100">
-        <v>1625</v>
+        <v>2048</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +3238,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>1676</v>
+        <v>2263</v>
       </c>
       <c r="C101">
-        <v>1744</v>
+        <v>2161</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +3255,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>1798</v>
+        <v>2274</v>
       </c>
       <c r="C102">
-        <v>1868</v>
+        <v>2251</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +3272,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>1802</v>
+        <v>2276</v>
       </c>
       <c r="C103">
-        <v>1975</v>
+        <v>2261</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3289,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>1805</v>
+        <v>2263</v>
       </c>
       <c r="C104">
-        <v>2052</v>
+        <v>2246</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3306,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>1809</v>
+        <v>2260</v>
       </c>
       <c r="C105">
-        <v>2027</v>
+        <v>2168</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3323,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>1977</v>
+        <v>2240</v>
       </c>
       <c r="C106">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3340,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>1980</v>
+        <v>2238</v>
       </c>
       <c r="C107">
-        <v>2153</v>
+        <v>2079</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3357,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>1983</v>
+        <v>2231</v>
       </c>
       <c r="C108">
-        <v>2213</v>
+        <v>2094</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3374,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>1986</v>
+        <v>2217</v>
       </c>
       <c r="C109">
-        <v>2250</v>
+        <v>2202</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3391,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>2062</v>
+        <v>2094</v>
       </c>
       <c r="C110">
-        <v>2350</v>
+        <v>2234</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3408,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>2066</v>
+        <v>2079</v>
       </c>
       <c r="C111">
-        <v>2359</v>
+        <v>2175</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3425,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
-        <v>2069</v>
+        <v>2092</v>
       </c>
       <c r="C112">
-        <v>2371</v>
+        <v>2151</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3442,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>2073</v>
+        <v>2090</v>
       </c>
       <c r="C113">
-        <v>2387</v>
+        <v>2113</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3459,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>2118</v>
+        <v>1945</v>
       </c>
       <c r="C114">
-        <v>2446</v>
+        <v>2050</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3476,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>2119</v>
+        <v>1965</v>
       </c>
       <c r="C115">
-        <v>2453</v>
+        <v>1989</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3493,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>2119</v>
+        <v>1959</v>
       </c>
       <c r="C116">
-        <v>2439</v>
+        <v>1866</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3510,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>2120</v>
+        <v>1935</v>
       </c>
       <c r="C117">
-        <v>2467</v>
+        <v>1827</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3527,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>2160</v>
+        <v>1775</v>
       </c>
       <c r="C118">
-        <v>2481</v>
+        <v>1686</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3544,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>2159</v>
+        <v>1768</v>
       </c>
       <c r="C119">
-        <v>2486</v>
+        <v>1426</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3561,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>2157</v>
+        <v>1762</v>
       </c>
       <c r="C120">
-        <v>2474</v>
+        <v>1325</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3578,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
-        <v>2156</v>
+        <v>1755</v>
       </c>
       <c r="C121">
-        <v>2452</v>
+        <v>1293</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3595,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
-        <v>2173</v>
+        <v>1650</v>
       </c>
       <c r="C122">
-        <v>2430</v>
+        <v>1259</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3612,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45744.26041666666</v>
+        <v>45745.26041666666</v>
       </c>
       <c r="B123">
-        <v>2173</v>
+        <v>1641</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3629,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45744.27083333334</v>
+        <v>45745.27083333334</v>
       </c>
       <c r="B124">
-        <v>2173</v>
+        <v>1630</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3646,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45744.28125</v>
+        <v>45745.28125</v>
       </c>
       <c r="B125">
-        <v>2174</v>
+        <v>1626</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3663,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45744.29166666666</v>
+        <v>45745.29166666666</v>
       </c>
       <c r="B126">
-        <v>2231</v>
+        <v>1211</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3680,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45744.30208333334</v>
+        <v>45745.30208333334</v>
       </c>
       <c r="B127">
-        <v>2231</v>
+        <v>1204</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3697,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45744.3125</v>
+        <v>45745.3125</v>
       </c>
       <c r="B128">
-        <v>2233</v>
+        <v>1195</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3714,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45744.32291666666</v>
+        <v>45745.32291666666</v>
       </c>
       <c r="B129">
-        <v>2234</v>
+        <v>1188</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3731,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45744.33333333334</v>
+        <v>45745.33333333334</v>
       </c>
       <c r="B130">
-        <v>2190</v>
+        <v>937</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3748,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45744.34375</v>
+        <v>45745.34375</v>
       </c>
       <c r="B131">
-        <v>2192</v>
+        <v>933</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3765,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45744.35416666666</v>
+        <v>45745.35416666666</v>
       </c>
       <c r="B132">
-        <v>2195</v>
+        <v>933</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3782,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45744.36458333334</v>
+        <v>45745.36458333334</v>
       </c>
       <c r="B133">
-        <v>2197</v>
+        <v>931</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3799,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45744.375</v>
+        <v>45745.375</v>
       </c>
       <c r="B134">
-        <v>2227</v>
+        <v>749</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3816,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45744.38541666666</v>
+        <v>45745.38541666666</v>
       </c>
       <c r="B135">
-        <v>2229</v>
+        <v>746</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3833,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45744.39583333334</v>
+        <v>45745.39583333334</v>
       </c>
       <c r="B136">
-        <v>2230</v>
+        <v>743</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3850,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45744.40625</v>
+        <v>45745.40625</v>
       </c>
       <c r="B137">
-        <v>2232</v>
+        <v>740</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3867,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45744.41666666666</v>
+        <v>45745.41666666666</v>
       </c>
       <c r="B138">
-        <v>2280</v>
+        <v>600</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3884,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45744.42708333334</v>
+        <v>45745.42708333334</v>
       </c>
       <c r="B139">
-        <v>2282</v>
+        <v>599</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3901,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45744.4375</v>
+        <v>45745.4375</v>
       </c>
       <c r="B140">
-        <v>2284</v>
+        <v>597</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3918,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45744.44791666666</v>
+        <v>45745.44791666666</v>
       </c>
       <c r="B141">
-        <v>2285</v>
+        <v>596</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3935,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45744.45833333334</v>
+        <v>45745.45833333334</v>
       </c>
       <c r="B142">
-        <v>2355</v>
+        <v>516</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3952,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45744.46875</v>
+        <v>45745.46875</v>
       </c>
       <c r="B143">
-        <v>2356</v>
+        <v>514</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3969,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45744.47916666666</v>
+        <v>45745.47916666666</v>
       </c>
       <c r="B144">
-        <v>2357</v>
+        <v>512</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3986,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45744.48958333334</v>
+        <v>45745.48958333334</v>
       </c>
       <c r="B145">
-        <v>2358</v>
+        <v>510</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +4003,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45744.5</v>
+        <v>45745.5</v>
       </c>
       <c r="B146">
-        <v>2407</v>
+        <v>443</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +4020,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45744.51041666666</v>
+        <v>45745.51041666666</v>
       </c>
       <c r="B147">
-        <v>2408</v>
+        <v>441</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +4037,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45744.52083333334</v>
+        <v>45745.52083333334</v>
       </c>
       <c r="B148">
-        <v>2409</v>
+        <v>440</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +4054,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45744.53125</v>
+        <v>45745.53125</v>
       </c>
       <c r="B149">
-        <v>2409</v>
+        <v>438</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +4071,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45744.54166666666</v>
+        <v>45745.54166666666</v>
       </c>
       <c r="B150">
-        <v>2435</v>
+        <v>393</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +4088,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45744.55208333334</v>
+        <v>45745.55208333334</v>
       </c>
       <c r="B151">
-        <v>2434</v>
+        <v>392</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +4105,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45744.5625</v>
+        <v>45745.5625</v>
       </c>
       <c r="B152">
-        <v>2434</v>
+        <v>391</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +4122,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45744.57291666666</v>
+        <v>45745.57291666666</v>
       </c>
       <c r="B153">
-        <v>2434</v>
+        <v>389</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +4139,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45744.58333333334</v>
+        <v>45745.58333333334</v>
       </c>
       <c r="B154">
-        <v>2451</v>
+        <v>363</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +4156,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45744.59375</v>
+        <v>45745.59375</v>
       </c>
       <c r="B155">
-        <v>2450</v>
+        <v>362</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +4173,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45744.60416666666</v>
+        <v>45745.60416666666</v>
       </c>
       <c r="B156">
-        <v>2449</v>
+        <v>361</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +4190,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45744.61458333334</v>
+        <v>45745.61458333334</v>
       </c>
       <c r="B157">
-        <v>2448</v>
+        <v>359</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +4207,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45744.625</v>
+        <v>45745.625</v>
       </c>
       <c r="B158">
-        <v>2420</v>
+        <v>358</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +4224,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45744.63541666666</v>
+        <v>45745.63541666666</v>
       </c>
       <c r="B159">
-        <v>2417</v>
+        <v>359</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,13 +4241,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45744.64583333334</v>
+        <v>45745.64583333334</v>
       </c>
       <c r="B160">
-        <v>2414</v>
+        <v>360</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3694,13 +4258,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45744.65625</v>
+        <v>45745.65625</v>
       </c>
       <c r="B161">
-        <v>2411</v>
+        <v>361</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3711,13 +4275,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45744.66666666666</v>
+        <v>45745.66666666666</v>
       </c>
       <c r="B162">
-        <v>2360</v>
+        <v>386</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4292,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45744.67708333334</v>
+        <v>45745.67708333334</v>
       </c>
       <c r="B163">
-        <v>2358</v>
+        <v>387</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4309,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45744.6875</v>
+        <v>45745.6875</v>
       </c>
       <c r="B164">
-        <v>2356</v>
+        <v>388</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4326,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45744.69791666666</v>
+        <v>45745.69791666666</v>
       </c>
       <c r="B165">
-        <v>2354</v>
+        <v>389</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4343,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45744.70833333334</v>
+        <v>45745.70833333334</v>
       </c>
       <c r="B166">
-        <v>2310</v>
+        <v>421</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4360,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45744.71875</v>
+        <v>45745.71875</v>
       </c>
       <c r="B167">
-        <v>2309</v>
+        <v>422</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4377,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45744.72916666666</v>
+        <v>45745.72916666666</v>
       </c>
       <c r="B168">
-        <v>2309</v>
+        <v>423</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4394,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45744.73958333334</v>
+        <v>45745.73958333334</v>
       </c>
       <c r="B169">
-        <v>2308</v>
+        <v>424</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4411,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45744.75</v>
+        <v>45745.75</v>
       </c>
       <c r="B170">
-        <v>2263</v>
+        <v>430</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,13 +4428,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45744.76041666666</v>
+        <v>45745.76041666666</v>
       </c>
       <c r="B171">
-        <v>2259</v>
+        <v>430</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -3881,13 +4445,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45744.77083333334</v>
+        <v>45745.77083333334</v>
       </c>
       <c r="B172">
-        <v>2255</v>
+        <v>430</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -3898,13 +4462,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45744.78125</v>
+        <v>45745.78125</v>
       </c>
       <c r="B173">
-        <v>2251</v>
+        <v>430</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -3915,13 +4479,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45744.79166666666</v>
+        <v>45745.79166666666</v>
       </c>
       <c r="B174">
-        <v>2302</v>
+        <v>402</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -3932,13 +4496,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45744.80208333334</v>
+        <v>45745.80208333334</v>
       </c>
       <c r="B175">
-        <v>2299</v>
+        <v>401</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -3949,13 +4513,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45744.8125</v>
+        <v>45745.8125</v>
       </c>
       <c r="B176">
-        <v>2296</v>
+        <v>401</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -3966,13 +4530,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45744.82291666666</v>
+        <v>45745.82291666666</v>
       </c>
       <c r="B177">
-        <v>2293</v>
+        <v>400</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -3983,13 +4547,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45744.83333333334</v>
+        <v>45745.83333333334</v>
       </c>
       <c r="B178">
-        <v>2125</v>
+        <v>377</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4000,13 +4564,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45744.84375</v>
+        <v>45745.84375</v>
       </c>
       <c r="B179">
-        <v>2122</v>
+        <v>375</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4017,13 +4581,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45744.85416666666</v>
+        <v>45745.85416666666</v>
       </c>
       <c r="B180">
-        <v>2119</v>
+        <v>374</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4034,13 +4598,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45744.86458333334</v>
+        <v>45745.86458333334</v>
       </c>
       <c r="B181">
-        <v>2116</v>
+        <v>373</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4051,13 +4615,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45744.875</v>
+        <v>45745.875</v>
       </c>
       <c r="B182">
-        <v>2033</v>
+        <v>353</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4068,13 +4632,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45744.88541666666</v>
+        <v>45745.88541666666</v>
       </c>
       <c r="B183">
-        <v>2031</v>
+        <v>353</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4085,13 +4649,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45744.89583333334</v>
+        <v>45745.89583333334</v>
       </c>
       <c r="B184">
-        <v>2030</v>
+        <v>353</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4102,13 +4666,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45744.90625</v>
+        <v>45745.90625</v>
       </c>
       <c r="B185">
-        <v>2028</v>
+        <v>354</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4119,13 +4683,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45744.91666666666</v>
+        <v>45745.91666666666</v>
       </c>
       <c r="B186">
-        <v>2019</v>
+        <v>333</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4136,13 +4700,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45744.92708333334</v>
+        <v>45745.92708333334</v>
       </c>
       <c r="B187">
-        <v>2020</v>
+        <v>332</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4153,13 +4717,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45744.9375</v>
+        <v>45745.9375</v>
       </c>
       <c r="B188">
-        <v>2021</v>
+        <v>332</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D188">
         <v>91</v>
@@ -4170,13 +4734,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45744.94791666666</v>
+        <v>45745.94791666666</v>
       </c>
       <c r="B189">
-        <v>2022</v>
+        <v>331</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4187,13 +4751,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45744.95833333334</v>
+        <v>45745.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4204,13 +4768,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45744.96875</v>
+        <v>45745.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4221,13 +4785,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45744.97916666666</v>
+        <v>45745.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4238,19 +4802,3215 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45744.98958333334</v>
+        <v>45745.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D193">
         <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>278</v>
+      </c>
+      <c r="C194">
+        <v>140</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>276</v>
+      </c>
+      <c r="C195">
+        <v>151</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>275</v>
+      </c>
+      <c r="C196">
+        <v>153</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>273</v>
+      </c>
+      <c r="C197">
+        <v>158</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>261</v>
+      </c>
+      <c r="C198">
+        <v>164</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>261</v>
+      </c>
+      <c r="C199">
+        <v>164</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>259</v>
+      </c>
+      <c r="C200">
+        <v>158</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45746.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>259</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B202">
+        <v>236</v>
+      </c>
+      <c r="C202">
+        <v>142</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>236</v>
+      </c>
+      <c r="C203">
+        <v>148</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>236</v>
+      </c>
+      <c r="C204">
+        <v>155</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B205">
+        <v>235</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>218</v>
+      </c>
+      <c r="C206">
+        <v>154</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>217</v>
+      </c>
+      <c r="C207">
+        <v>142</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B208">
+        <v>215</v>
+      </c>
+      <c r="C208">
+        <v>129</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>214</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>201</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B211">
+        <v>200</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>198</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>197</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B214">
+        <v>186</v>
+      </c>
+      <c r="C214">
+        <v>87</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>184</v>
+      </c>
+      <c r="C215">
+        <v>82</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>183</v>
+      </c>
+      <c r="C216">
+        <v>73</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B217">
+        <v>182</v>
+      </c>
+      <c r="C217">
+        <v>70</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>175</v>
+      </c>
+      <c r="C218">
+        <v>60</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>173</v>
+      </c>
+      <c r="C219">
+        <v>50</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B220">
+        <v>173</v>
+      </c>
+      <c r="C220">
+        <v>45</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>172</v>
+      </c>
+      <c r="C221">
+        <v>47</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>166</v>
+      </c>
+      <c r="C222">
+        <v>54</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B223">
+        <v>166</v>
+      </c>
+      <c r="C223">
+        <v>58</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>166</v>
+      </c>
+      <c r="C224">
+        <v>56</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>167</v>
+      </c>
+      <c r="C225">
+        <v>49</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B226">
+        <v>167</v>
+      </c>
+      <c r="C226">
+        <v>45</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>167</v>
+      </c>
+      <c r="C227">
+        <v>37</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>167</v>
+      </c>
+      <c r="C228">
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B229">
+        <v>168</v>
+      </c>
+      <c r="C229">
+        <v>31</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>164</v>
+      </c>
+      <c r="C230">
+        <v>33</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>164</v>
+      </c>
+      <c r="C231">
+        <v>35</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B232">
+        <v>164</v>
+      </c>
+      <c r="C232">
+        <v>38</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>165</v>
+      </c>
+      <c r="C233">
+        <v>42</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>140</v>
+      </c>
+      <c r="C234">
+        <v>38</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B235">
+        <v>140</v>
+      </c>
+      <c r="C235">
+        <v>47</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>140</v>
+      </c>
+      <c r="C236">
+        <v>56</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>140</v>
+      </c>
+      <c r="C237">
+        <v>71</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B238">
+        <v>128</v>
+      </c>
+      <c r="C238">
+        <v>105</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>128</v>
+      </c>
+      <c r="C239">
+        <v>132</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>127</v>
+      </c>
+      <c r="C240">
+        <v>139</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B241">
+        <v>127</v>
+      </c>
+      <c r="C241">
+        <v>130</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>133</v>
+      </c>
+      <c r="C242">
+        <v>134</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>132</v>
+      </c>
+      <c r="C243">
+        <v>140</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B244">
+        <v>132</v>
+      </c>
+      <c r="C244">
+        <v>133</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>132</v>
+      </c>
+      <c r="C245">
+        <v>122</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>132</v>
+      </c>
+      <c r="C246">
+        <v>113</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B247">
+        <v>131</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>131</v>
+      </c>
+      <c r="C248">
+        <v>87</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>130</v>
+      </c>
+      <c r="C249">
+        <v>83</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B250">
+        <v>126</v>
+      </c>
+      <c r="C250">
+        <v>80</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>125</v>
+      </c>
+      <c r="C251">
+        <v>71</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>124</v>
+      </c>
+      <c r="C252">
+        <v>65</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B253">
+        <v>124</v>
+      </c>
+      <c r="C253">
+        <v>63</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>121</v>
+      </c>
+      <c r="C254">
+        <v>57</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>121</v>
+      </c>
+      <c r="C255">
+        <v>54</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B256">
+        <v>120</v>
+      </c>
+      <c r="C256">
+        <v>62</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>119</v>
+      </c>
+      <c r="C257">
+        <v>72</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>103</v>
+      </c>
+      <c r="C258">
+        <v>77</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B259">
+        <v>102</v>
+      </c>
+      <c r="C259">
+        <v>75</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>101</v>
+      </c>
+      <c r="C260">
+        <v>75</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>100</v>
+      </c>
+      <c r="C261">
+        <v>61</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B262">
+        <v>100</v>
+      </c>
+      <c r="C262">
+        <v>46</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>100</v>
+      </c>
+      <c r="C263">
+        <v>31</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>100</v>
+      </c>
+      <c r="C264">
+        <v>26</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+      <c r="C265">
+        <v>22</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>102</v>
+      </c>
+      <c r="C266">
+        <v>8</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>102</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B268">
+        <v>102</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>103</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>83</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B271">
+        <v>83</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>82</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>82</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B274">
+        <v>68</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>67</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>66</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B277">
+        <v>66</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>61</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>61</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B280">
+        <v>61</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>60</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>40</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B283">
+        <v>40</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>39</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>39</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B286">
+        <v>26</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>26</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>26</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B289">
+        <v>26</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>25</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>25</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B292">
+        <v>25</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>25</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>24</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B295">
+        <v>24</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>24</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>23</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>23</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>23</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B301">
+        <v>23</v>
+      </c>
+      <c r="C301">
+        <v>13</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>35</v>
+      </c>
+      <c r="C302">
+        <v>16</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>34</v>
+      </c>
+      <c r="C303">
+        <v>15</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B304">
+        <v>35</v>
+      </c>
+      <c r="C304">
+        <v>21</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>35</v>
+      </c>
+      <c r="C305">
+        <v>26</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>32</v>
+      </c>
+      <c r="C306">
+        <v>27</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B307">
+        <v>31</v>
+      </c>
+      <c r="C307">
+        <v>36</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>30</v>
+      </c>
+      <c r="C308">
+        <v>41</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>30</v>
+      </c>
+      <c r="C309">
+        <v>47</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B310">
+        <v>25</v>
+      </c>
+      <c r="C310">
+        <v>54</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>25</v>
+      </c>
+      <c r="C311">
+        <v>56</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>25</v>
+      </c>
+      <c r="C312">
+        <v>55</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B313">
+        <v>25</v>
+      </c>
+      <c r="C313">
+        <v>51</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>56</v>
+      </c>
+      <c r="C314">
+        <v>61</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>56</v>
+      </c>
+      <c r="C315">
+        <v>70</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B316">
+        <v>56</v>
+      </c>
+      <c r="C316">
+        <v>74</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>57</v>
+      </c>
+      <c r="C317">
+        <v>74</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>66</v>
+      </c>
+      <c r="C318">
+        <v>58</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B319">
+        <v>66</v>
+      </c>
+      <c r="C319">
+        <v>50</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>67</v>
+      </c>
+      <c r="C320">
+        <v>41</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>69</v>
+      </c>
+      <c r="C321">
+        <v>34</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B322">
+        <v>56</v>
+      </c>
+      <c r="C322">
+        <v>37</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>57</v>
+      </c>
+      <c r="C323">
+        <v>36</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>58</v>
+      </c>
+      <c r="C324">
+        <v>38</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B325">
+        <v>61</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>45747.41666666666</v>
+      </c>
+      <c r="B326">
+        <v>87</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>45747.42708333334</v>
+      </c>
+      <c r="B327">
+        <v>88</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>45747.4375</v>
+      </c>
+      <c r="B328">
+        <v>90</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>45747.44791666666</v>
+      </c>
+      <c r="B329">
+        <v>90</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>45747.45833333334</v>
+      </c>
+      <c r="B330">
+        <v>85</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>41</v>
+      </c>
+      <c r="E330" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>45747.46875</v>
+      </c>
+      <c r="B331">
+        <v>86</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>42</v>
+      </c>
+      <c r="E331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>45747.47916666666</v>
+      </c>
+      <c r="B332">
+        <v>86</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>43</v>
+      </c>
+      <c r="E332" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>45747.48958333334</v>
+      </c>
+      <c r="B333">
+        <v>87</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>44</v>
+      </c>
+      <c r="E333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>45747.5</v>
+      </c>
+      <c r="B334">
+        <v>110</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>45</v>
+      </c>
+      <c r="E334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>45747.51041666666</v>
+      </c>
+      <c r="B335">
+        <v>110</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>46</v>
+      </c>
+      <c r="E335" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>45747.52083333334</v>
+      </c>
+      <c r="B336">
+        <v>111</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>45747.53125</v>
+      </c>
+      <c r="B337">
+        <v>112</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>48</v>
+      </c>
+      <c r="E337" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>45747.54166666666</v>
+      </c>
+      <c r="B338">
+        <v>140</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>49</v>
+      </c>
+      <c r="E338" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>45747.55208333334</v>
+      </c>
+      <c r="B339">
+        <v>141</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>45747.5625</v>
+      </c>
+      <c r="B340">
+        <v>142</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>45747.57291666666</v>
+      </c>
+      <c r="B341">
+        <v>142</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>52</v>
+      </c>
+      <c r="E341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>45747.58333333334</v>
+      </c>
+      <c r="B342">
+        <v>203</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>45747.59375</v>
+      </c>
+      <c r="B343">
+        <v>203</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>54</v>
+      </c>
+      <c r="E343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>45747.60416666666</v>
+      </c>
+      <c r="B344">
+        <v>203</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>45747.61458333334</v>
+      </c>
+      <c r="B345">
+        <v>204</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>56</v>
+      </c>
+      <c r="E345" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>45747.625</v>
+      </c>
+      <c r="B346">
+        <v>237</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>45747.63541666666</v>
+      </c>
+      <c r="B347">
+        <v>237</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>58</v>
+      </c>
+      <c r="E347" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>45747.64583333334</v>
+      </c>
+      <c r="B348">
+        <v>238</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>59</v>
+      </c>
+      <c r="E348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>45747.65625</v>
+      </c>
+      <c r="B349">
+        <v>239</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>60</v>
+      </c>
+      <c r="E349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>45747.66666666666</v>
+      </c>
+      <c r="B350">
+        <v>304</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>45747.67708333334</v>
+      </c>
+      <c r="B351">
+        <v>303</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>45747.6875</v>
+      </c>
+      <c r="B352">
+        <v>304</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>45747.69791666666</v>
+      </c>
+      <c r="B353">
+        <v>304</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>45747.70833333334</v>
+      </c>
+      <c r="B354">
+        <v>379</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>65</v>
+      </c>
+      <c r="E354" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>45747.71875</v>
+      </c>
+      <c r="B355">
+        <v>380</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>66</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>45747.72916666666</v>
+      </c>
+      <c r="B356">
+        <v>381</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>67</v>
+      </c>
+      <c r="E356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>45747.73958333334</v>
+      </c>
+      <c r="B357">
+        <v>382</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>45747.75</v>
+      </c>
+      <c r="B358">
+        <v>406</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>69</v>
+      </c>
+      <c r="E358" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>45747.76041666666</v>
+      </c>
+      <c r="B359">
+        <v>408</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>70</v>
+      </c>
+      <c r="E359" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>45747.77083333334</v>
+      </c>
+      <c r="B360">
+        <v>410</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>71</v>
+      </c>
+      <c r="E360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>45747.78125</v>
+      </c>
+      <c r="B361">
+        <v>411</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>45747.79166666666</v>
+      </c>
+      <c r="B362">
+        <v>391</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>73</v>
+      </c>
+      <c r="E362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>45747.80208333334</v>
+      </c>
+      <c r="B363">
+        <v>391</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>45747.8125</v>
+      </c>
+      <c r="B364">
+        <v>392</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>45747.82291666666</v>
+      </c>
+      <c r="B365">
+        <v>392</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>45747.83333333334</v>
+      </c>
+      <c r="B366">
+        <v>368</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>77</v>
+      </c>
+      <c r="E366" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>45747.84375</v>
+      </c>
+      <c r="B367">
+        <v>368</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>78</v>
+      </c>
+      <c r="E367" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>45747.85416666666</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>79</v>
+      </c>
+      <c r="E368" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>45747.86458333334</v>
+      </c>
+      <c r="B369">
+        <v>366</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>80</v>
+      </c>
+      <c r="E369" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>45747.875</v>
+      </c>
+      <c r="B370">
+        <v>333</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>45747.88541666666</v>
+      </c>
+      <c r="B371">
+        <v>332</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>82</v>
+      </c>
+      <c r="E371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>45747.89583333334</v>
+      </c>
+      <c r="B372">
+        <v>331</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>83</v>
+      </c>
+      <c r="E372" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>45747.90625</v>
+      </c>
+      <c r="B373">
+        <v>332</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>45747.91666666666</v>
+      </c>
+      <c r="B374">
+        <v>285</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>45747.92708333334</v>
+      </c>
+      <c r="B375">
+        <v>284</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>86</v>
+      </c>
+      <c r="E375" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>45747.9375</v>
+      </c>
+      <c r="B376">
+        <v>283</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>87</v>
+      </c>
+      <c r="E376" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>45747.94791666666</v>
+      </c>
+      <c r="B377">
+        <v>282</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>45747.95833333334</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>89</v>
+      </c>
+      <c r="E378" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>45747.96875</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>90</v>
+      </c>
+      <c r="E379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>45747.97916666666</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>45747.98958333334</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>92</v>
+      </c>
+      <c r="E381" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.04.20251</t>
-  </si>
-  <si>
-    <t>03.04.20252</t>
-  </si>
-  <si>
-    <t>03.04.20253</t>
-  </si>
-  <si>
-    <t>03.04.20254</t>
-  </si>
-  <si>
-    <t>03.04.20255</t>
-  </si>
-  <si>
-    <t>03.04.20256</t>
-  </si>
-  <si>
-    <t>03.04.20257</t>
-  </si>
-  <si>
-    <t>03.04.20258</t>
-  </si>
-  <si>
-    <t>03.04.20259</t>
-  </si>
-  <si>
-    <t>03.04.202510</t>
-  </si>
-  <si>
-    <t>03.04.202511</t>
-  </si>
-  <si>
-    <t>03.04.202512</t>
-  </si>
-  <si>
-    <t>03.04.202513</t>
-  </si>
-  <si>
-    <t>03.04.202514</t>
-  </si>
-  <si>
-    <t>03.04.202515</t>
-  </si>
-  <si>
-    <t>03.04.202516</t>
-  </si>
-  <si>
-    <t>03.04.202517</t>
-  </si>
-  <si>
-    <t>03.04.202518</t>
-  </si>
-  <si>
-    <t>03.04.202519</t>
-  </si>
-  <si>
-    <t>03.04.202520</t>
-  </si>
-  <si>
-    <t>03.04.202521</t>
-  </si>
-  <si>
-    <t>03.04.202522</t>
-  </si>
-  <si>
-    <t>03.04.202523</t>
-  </si>
-  <si>
-    <t>03.04.202524</t>
-  </si>
-  <si>
-    <t>03.04.202525</t>
-  </si>
-  <si>
-    <t>03.04.202526</t>
-  </si>
-  <si>
-    <t>03.04.202527</t>
-  </si>
-  <si>
-    <t>03.04.202528</t>
-  </si>
-  <si>
-    <t>03.04.202529</t>
-  </si>
-  <si>
-    <t>03.04.202530</t>
-  </si>
-  <si>
-    <t>03.04.202531</t>
-  </si>
-  <si>
-    <t>03.04.202532</t>
-  </si>
-  <si>
-    <t>03.04.202533</t>
-  </si>
-  <si>
-    <t>03.04.202534</t>
-  </si>
-  <si>
-    <t>03.04.202535</t>
-  </si>
-  <si>
-    <t>03.04.202536</t>
-  </si>
-  <si>
-    <t>03.04.202537</t>
-  </si>
-  <si>
-    <t>03.04.202538</t>
-  </si>
-  <si>
-    <t>03.04.202539</t>
-  </si>
-  <si>
-    <t>03.04.202540</t>
-  </si>
-  <si>
-    <t>03.04.202541</t>
-  </si>
-  <si>
-    <t>03.04.202542</t>
-  </si>
-  <si>
-    <t>03.04.202543</t>
-  </si>
-  <si>
-    <t>03.04.202544</t>
-  </si>
-  <si>
-    <t>03.04.202545</t>
-  </si>
-  <si>
-    <t>03.04.202546</t>
-  </si>
-  <si>
-    <t>03.04.202547</t>
-  </si>
-  <si>
-    <t>03.04.202548</t>
-  </si>
-  <si>
-    <t>03.04.202549</t>
-  </si>
-  <si>
-    <t>03.04.202550</t>
-  </si>
-  <si>
-    <t>03.04.202551</t>
-  </si>
-  <si>
-    <t>03.04.202552</t>
-  </si>
-  <si>
-    <t>03.04.202553</t>
-  </si>
-  <si>
-    <t>03.04.202554</t>
-  </si>
-  <si>
-    <t>03.04.202555</t>
-  </si>
-  <si>
-    <t>03.04.202556</t>
-  </si>
-  <si>
-    <t>03.04.202557</t>
-  </si>
-  <si>
-    <t>03.04.202558</t>
-  </si>
-  <si>
-    <t>03.04.202559</t>
-  </si>
-  <si>
-    <t>03.04.202560</t>
-  </si>
-  <si>
-    <t>03.04.202561</t>
-  </si>
-  <si>
-    <t>03.04.202562</t>
-  </si>
-  <si>
-    <t>03.04.202563</t>
-  </si>
-  <si>
-    <t>03.04.202564</t>
-  </si>
-  <si>
-    <t>03.04.202565</t>
-  </si>
-  <si>
-    <t>03.04.202566</t>
-  </si>
-  <si>
-    <t>03.04.202567</t>
-  </si>
-  <si>
-    <t>03.04.202568</t>
-  </si>
-  <si>
-    <t>03.04.202569</t>
-  </si>
-  <si>
-    <t>03.04.202570</t>
-  </si>
-  <si>
-    <t>03.04.202571</t>
-  </si>
-  <si>
-    <t>03.04.202572</t>
-  </si>
-  <si>
-    <t>03.04.202573</t>
-  </si>
-  <si>
-    <t>03.04.202574</t>
-  </si>
-  <si>
-    <t>03.04.202575</t>
-  </si>
-  <si>
-    <t>03.04.202576</t>
-  </si>
-  <si>
-    <t>03.04.202577</t>
-  </si>
-  <si>
-    <t>03.04.202578</t>
-  </si>
-  <si>
-    <t>03.04.202579</t>
-  </si>
-  <si>
-    <t>03.04.202580</t>
-  </si>
-  <si>
-    <t>03.04.202581</t>
-  </si>
-  <si>
-    <t>03.04.202582</t>
-  </si>
-  <si>
-    <t>03.04.202583</t>
-  </si>
-  <si>
-    <t>03.04.202584</t>
-  </si>
-  <si>
-    <t>03.04.202585</t>
-  </si>
-  <si>
-    <t>03.04.202586</t>
-  </si>
-  <si>
-    <t>03.04.202587</t>
-  </si>
-  <si>
-    <t>03.04.202588</t>
-  </si>
-  <si>
-    <t>03.04.202589</t>
-  </si>
-  <si>
-    <t>03.04.202590</t>
-  </si>
-  <si>
-    <t>03.04.202591</t>
-  </si>
-  <si>
-    <t>03.04.202592</t>
-  </si>
-  <si>
-    <t>03.04.202593</t>
-  </si>
-  <si>
-    <t>03.04.202594</t>
-  </si>
-  <si>
-    <t>03.04.202595</t>
-  </si>
-  <si>
-    <t>03.04.202596</t>
-  </si>
-  <si>
-    <t>04.04.20251</t>
-  </si>
-  <si>
-    <t>04.04.20252</t>
-  </si>
-  <si>
-    <t>04.04.20253</t>
-  </si>
-  <si>
-    <t>04.04.20254</t>
-  </si>
-  <si>
-    <t>04.04.20255</t>
-  </si>
-  <si>
-    <t>04.04.20256</t>
-  </si>
-  <si>
-    <t>04.04.20257</t>
-  </si>
-  <si>
-    <t>04.04.20258</t>
-  </si>
-  <si>
-    <t>04.04.20259</t>
-  </si>
-  <si>
-    <t>04.04.202510</t>
-  </si>
-  <si>
-    <t>04.04.202511</t>
-  </si>
-  <si>
-    <t>04.04.202512</t>
-  </si>
-  <si>
-    <t>04.04.202513</t>
-  </si>
-  <si>
-    <t>04.04.202514</t>
-  </si>
-  <si>
-    <t>04.04.202515</t>
-  </si>
-  <si>
-    <t>04.04.202516</t>
-  </si>
-  <si>
-    <t>04.04.202517</t>
-  </si>
-  <si>
-    <t>04.04.202518</t>
-  </si>
-  <si>
-    <t>04.04.202519</t>
-  </si>
-  <si>
-    <t>04.04.202520</t>
-  </si>
-  <si>
-    <t>04.04.202521</t>
-  </si>
-  <si>
-    <t>04.04.202522</t>
-  </si>
-  <si>
-    <t>04.04.202523</t>
-  </si>
-  <si>
-    <t>04.04.202524</t>
-  </si>
-  <si>
-    <t>04.04.202525</t>
-  </si>
-  <si>
-    <t>04.04.202526</t>
-  </si>
-  <si>
-    <t>04.04.202527</t>
-  </si>
-  <si>
-    <t>04.04.202528</t>
-  </si>
-  <si>
-    <t>04.04.202529</t>
-  </si>
-  <si>
-    <t>04.04.202530</t>
-  </si>
-  <si>
-    <t>04.04.202531</t>
-  </si>
-  <si>
-    <t>04.04.202532</t>
-  </si>
-  <si>
-    <t>04.04.202533</t>
-  </si>
-  <si>
-    <t>04.04.202534</t>
-  </si>
-  <si>
-    <t>04.04.202535</t>
-  </si>
-  <si>
-    <t>04.04.202536</t>
-  </si>
-  <si>
-    <t>04.04.202537</t>
-  </si>
-  <si>
-    <t>04.04.202538</t>
-  </si>
-  <si>
-    <t>04.04.202539</t>
-  </si>
-  <si>
-    <t>04.04.202540</t>
-  </si>
-  <si>
-    <t>04.04.202541</t>
-  </si>
-  <si>
-    <t>04.04.202542</t>
-  </si>
-  <si>
-    <t>04.04.202543</t>
-  </si>
-  <si>
-    <t>04.04.202544</t>
-  </si>
-  <si>
-    <t>04.04.202545</t>
-  </si>
-  <si>
-    <t>04.04.202546</t>
-  </si>
-  <si>
-    <t>04.04.202547</t>
-  </si>
-  <si>
-    <t>04.04.202548</t>
-  </si>
-  <si>
-    <t>04.04.202549</t>
-  </si>
-  <si>
-    <t>04.04.202550</t>
-  </si>
-  <si>
-    <t>04.04.202551</t>
-  </si>
-  <si>
-    <t>04.04.202552</t>
-  </si>
-  <si>
-    <t>04.04.202553</t>
-  </si>
-  <si>
-    <t>04.04.202554</t>
-  </si>
-  <si>
-    <t>04.04.202555</t>
-  </si>
-  <si>
-    <t>04.04.202556</t>
-  </si>
-  <si>
-    <t>04.04.202557</t>
-  </si>
-  <si>
-    <t>04.04.202558</t>
-  </si>
-  <si>
-    <t>04.04.202559</t>
-  </si>
-  <si>
-    <t>04.04.202560</t>
-  </si>
-  <si>
-    <t>04.04.202561</t>
-  </si>
-  <si>
-    <t>04.04.202562</t>
-  </si>
-  <si>
-    <t>04.04.202563</t>
-  </si>
-  <si>
-    <t>04.04.202564</t>
-  </si>
-  <si>
-    <t>04.04.202565</t>
-  </si>
-  <si>
-    <t>04.04.202566</t>
-  </si>
-  <si>
-    <t>04.04.202567</t>
-  </si>
-  <si>
-    <t>04.04.202568</t>
-  </si>
-  <si>
-    <t>04.04.202569</t>
-  </si>
-  <si>
-    <t>04.04.202570</t>
-  </si>
-  <si>
-    <t>04.04.202571</t>
-  </si>
-  <si>
-    <t>04.04.202572</t>
-  </si>
-  <si>
-    <t>04.04.202573</t>
-  </si>
-  <si>
-    <t>04.04.202574</t>
-  </si>
-  <si>
-    <t>04.04.202575</t>
-  </si>
-  <si>
-    <t>04.04.202576</t>
-  </si>
-  <si>
-    <t>04.04.202577</t>
-  </si>
-  <si>
-    <t>04.04.202578</t>
-  </si>
-  <si>
-    <t>04.04.202579</t>
-  </si>
-  <si>
-    <t>04.04.202580</t>
-  </si>
-  <si>
-    <t>04.04.202581</t>
-  </si>
-  <si>
-    <t>04.04.202582</t>
-  </si>
-  <si>
-    <t>04.04.202583</t>
-  </si>
-  <si>
-    <t>04.04.202584</t>
-  </si>
-  <si>
-    <t>04.04.202585</t>
-  </si>
-  <si>
-    <t>04.04.202586</t>
-  </si>
-  <si>
-    <t>04.04.202587</t>
-  </si>
-  <si>
-    <t>04.04.202588</t>
-  </si>
-  <si>
-    <t>04.04.202589</t>
-  </si>
-  <si>
-    <t>04.04.202590</t>
-  </si>
-  <si>
-    <t>04.04.202591</t>
-  </si>
-  <si>
-    <t>04.04.202592</t>
-  </si>
-  <si>
-    <t>04.04.202593</t>
-  </si>
-  <si>
-    <t>04.04.202594</t>
-  </si>
-  <si>
-    <t>04.04.202595</t>
-  </si>
-  <si>
-    <t>04.04.202596</t>
+    <t>10.04.20251</t>
+  </si>
+  <si>
+    <t>10.04.20252</t>
+  </si>
+  <si>
+    <t>10.04.20253</t>
+  </si>
+  <si>
+    <t>10.04.20254</t>
+  </si>
+  <si>
+    <t>10.04.20255</t>
+  </si>
+  <si>
+    <t>10.04.20256</t>
+  </si>
+  <si>
+    <t>10.04.20257</t>
+  </si>
+  <si>
+    <t>10.04.20258</t>
+  </si>
+  <si>
+    <t>10.04.20259</t>
+  </si>
+  <si>
+    <t>10.04.202510</t>
+  </si>
+  <si>
+    <t>10.04.202511</t>
+  </si>
+  <si>
+    <t>10.04.202512</t>
+  </si>
+  <si>
+    <t>10.04.202513</t>
+  </si>
+  <si>
+    <t>10.04.202514</t>
+  </si>
+  <si>
+    <t>10.04.202515</t>
+  </si>
+  <si>
+    <t>10.04.202516</t>
+  </si>
+  <si>
+    <t>10.04.202517</t>
+  </si>
+  <si>
+    <t>10.04.202518</t>
+  </si>
+  <si>
+    <t>10.04.202519</t>
+  </si>
+  <si>
+    <t>10.04.202520</t>
+  </si>
+  <si>
+    <t>10.04.202521</t>
+  </si>
+  <si>
+    <t>10.04.202522</t>
+  </si>
+  <si>
+    <t>10.04.202523</t>
+  </si>
+  <si>
+    <t>10.04.202524</t>
+  </si>
+  <si>
+    <t>10.04.202525</t>
+  </si>
+  <si>
+    <t>10.04.202526</t>
+  </si>
+  <si>
+    <t>10.04.202527</t>
+  </si>
+  <si>
+    <t>10.04.202528</t>
+  </si>
+  <si>
+    <t>10.04.202529</t>
+  </si>
+  <si>
+    <t>10.04.202530</t>
+  </si>
+  <si>
+    <t>10.04.202531</t>
+  </si>
+  <si>
+    <t>10.04.202532</t>
+  </si>
+  <si>
+    <t>10.04.202533</t>
+  </si>
+  <si>
+    <t>10.04.202534</t>
+  </si>
+  <si>
+    <t>10.04.202535</t>
+  </si>
+  <si>
+    <t>10.04.202536</t>
+  </si>
+  <si>
+    <t>10.04.202537</t>
+  </si>
+  <si>
+    <t>10.04.202538</t>
+  </si>
+  <si>
+    <t>10.04.202539</t>
+  </si>
+  <si>
+    <t>10.04.202540</t>
+  </si>
+  <si>
+    <t>10.04.202541</t>
+  </si>
+  <si>
+    <t>10.04.202542</t>
+  </si>
+  <si>
+    <t>10.04.202543</t>
+  </si>
+  <si>
+    <t>10.04.202544</t>
+  </si>
+  <si>
+    <t>10.04.202545</t>
+  </si>
+  <si>
+    <t>10.04.202546</t>
+  </si>
+  <si>
+    <t>10.04.202547</t>
+  </si>
+  <si>
+    <t>10.04.202548</t>
+  </si>
+  <si>
+    <t>10.04.202549</t>
+  </si>
+  <si>
+    <t>10.04.202550</t>
+  </si>
+  <si>
+    <t>10.04.202551</t>
+  </si>
+  <si>
+    <t>10.04.202552</t>
+  </si>
+  <si>
+    <t>10.04.202553</t>
+  </si>
+  <si>
+    <t>10.04.202554</t>
+  </si>
+  <si>
+    <t>10.04.202555</t>
+  </si>
+  <si>
+    <t>10.04.202556</t>
+  </si>
+  <si>
+    <t>10.04.202557</t>
+  </si>
+  <si>
+    <t>10.04.202558</t>
+  </si>
+  <si>
+    <t>10.04.202559</t>
+  </si>
+  <si>
+    <t>10.04.202560</t>
+  </si>
+  <si>
+    <t>10.04.202561</t>
+  </si>
+  <si>
+    <t>10.04.202562</t>
+  </si>
+  <si>
+    <t>10.04.202563</t>
+  </si>
+  <si>
+    <t>10.04.202564</t>
+  </si>
+  <si>
+    <t>10.04.202565</t>
+  </si>
+  <si>
+    <t>10.04.202566</t>
+  </si>
+  <si>
+    <t>10.04.202567</t>
+  </si>
+  <si>
+    <t>10.04.202568</t>
+  </si>
+  <si>
+    <t>10.04.202569</t>
+  </si>
+  <si>
+    <t>10.04.202570</t>
+  </si>
+  <si>
+    <t>10.04.202571</t>
+  </si>
+  <si>
+    <t>10.04.202572</t>
+  </si>
+  <si>
+    <t>10.04.202573</t>
+  </si>
+  <si>
+    <t>10.04.202574</t>
+  </si>
+  <si>
+    <t>10.04.202575</t>
+  </si>
+  <si>
+    <t>10.04.202576</t>
+  </si>
+  <si>
+    <t>10.04.202577</t>
+  </si>
+  <si>
+    <t>10.04.202578</t>
+  </si>
+  <si>
+    <t>10.04.202579</t>
+  </si>
+  <si>
+    <t>10.04.202580</t>
+  </si>
+  <si>
+    <t>10.04.202581</t>
+  </si>
+  <si>
+    <t>10.04.202582</t>
+  </si>
+  <si>
+    <t>10.04.202583</t>
+  </si>
+  <si>
+    <t>10.04.202584</t>
+  </si>
+  <si>
+    <t>10.04.202585</t>
+  </si>
+  <si>
+    <t>10.04.202586</t>
+  </si>
+  <si>
+    <t>10.04.202587</t>
+  </si>
+  <si>
+    <t>10.04.202588</t>
+  </si>
+  <si>
+    <t>10.04.202589</t>
+  </si>
+  <si>
+    <t>10.04.202590</t>
+  </si>
+  <si>
+    <t>10.04.202591</t>
+  </si>
+  <si>
+    <t>10.04.202592</t>
+  </si>
+  <si>
+    <t>10.04.202593</t>
+  </si>
+  <si>
+    <t>10.04.202594</t>
+  </si>
+  <si>
+    <t>10.04.202595</t>
+  </si>
+  <si>
+    <t>10.04.202596</t>
+  </si>
+  <si>
+    <t>11.04.20251</t>
+  </si>
+  <si>
+    <t>11.04.20252</t>
+  </si>
+  <si>
+    <t>11.04.20253</t>
+  </si>
+  <si>
+    <t>11.04.20254</t>
+  </si>
+  <si>
+    <t>11.04.20255</t>
+  </si>
+  <si>
+    <t>11.04.20256</t>
+  </si>
+  <si>
+    <t>11.04.20257</t>
+  </si>
+  <si>
+    <t>11.04.20258</t>
+  </si>
+  <si>
+    <t>11.04.20259</t>
+  </si>
+  <si>
+    <t>11.04.202510</t>
+  </si>
+  <si>
+    <t>11.04.202511</t>
+  </si>
+  <si>
+    <t>11.04.202512</t>
+  </si>
+  <si>
+    <t>11.04.202513</t>
+  </si>
+  <si>
+    <t>11.04.202514</t>
+  </si>
+  <si>
+    <t>11.04.202515</t>
+  </si>
+  <si>
+    <t>11.04.202516</t>
+  </si>
+  <si>
+    <t>11.04.202517</t>
+  </si>
+  <si>
+    <t>11.04.202518</t>
+  </si>
+  <si>
+    <t>11.04.202519</t>
+  </si>
+  <si>
+    <t>11.04.202520</t>
+  </si>
+  <si>
+    <t>11.04.202521</t>
+  </si>
+  <si>
+    <t>11.04.202522</t>
+  </si>
+  <si>
+    <t>11.04.202523</t>
+  </si>
+  <si>
+    <t>11.04.202524</t>
+  </si>
+  <si>
+    <t>11.04.202525</t>
+  </si>
+  <si>
+    <t>11.04.202526</t>
+  </si>
+  <si>
+    <t>11.04.202527</t>
+  </si>
+  <si>
+    <t>11.04.202528</t>
+  </si>
+  <si>
+    <t>11.04.202529</t>
+  </si>
+  <si>
+    <t>11.04.202530</t>
+  </si>
+  <si>
+    <t>11.04.202531</t>
+  </si>
+  <si>
+    <t>11.04.202532</t>
+  </si>
+  <si>
+    <t>11.04.202533</t>
+  </si>
+  <si>
+    <t>11.04.202534</t>
+  </si>
+  <si>
+    <t>11.04.202535</t>
+  </si>
+  <si>
+    <t>11.04.202536</t>
+  </si>
+  <si>
+    <t>11.04.202537</t>
+  </si>
+  <si>
+    <t>11.04.202538</t>
+  </si>
+  <si>
+    <t>11.04.202539</t>
+  </si>
+  <si>
+    <t>11.04.202540</t>
+  </si>
+  <si>
+    <t>11.04.202541</t>
+  </si>
+  <si>
+    <t>11.04.202542</t>
+  </si>
+  <si>
+    <t>11.04.202543</t>
+  </si>
+  <si>
+    <t>11.04.202544</t>
+  </si>
+  <si>
+    <t>11.04.202545</t>
+  </si>
+  <si>
+    <t>11.04.202546</t>
+  </si>
+  <si>
+    <t>11.04.202547</t>
+  </si>
+  <si>
+    <t>11.04.202548</t>
+  </si>
+  <si>
+    <t>11.04.202549</t>
+  </si>
+  <si>
+    <t>11.04.202550</t>
+  </si>
+  <si>
+    <t>11.04.202551</t>
+  </si>
+  <si>
+    <t>11.04.202552</t>
+  </si>
+  <si>
+    <t>11.04.202553</t>
+  </si>
+  <si>
+    <t>11.04.202554</t>
+  </si>
+  <si>
+    <t>11.04.202555</t>
+  </si>
+  <si>
+    <t>11.04.202556</t>
+  </si>
+  <si>
+    <t>11.04.202557</t>
+  </si>
+  <si>
+    <t>11.04.202558</t>
+  </si>
+  <si>
+    <t>11.04.202559</t>
+  </si>
+  <si>
+    <t>11.04.202560</t>
+  </si>
+  <si>
+    <t>11.04.202561</t>
+  </si>
+  <si>
+    <t>11.04.202562</t>
+  </si>
+  <si>
+    <t>11.04.202563</t>
+  </si>
+  <si>
+    <t>11.04.202564</t>
+  </si>
+  <si>
+    <t>11.04.202565</t>
+  </si>
+  <si>
+    <t>11.04.202566</t>
+  </si>
+  <si>
+    <t>11.04.202567</t>
+  </si>
+  <si>
+    <t>11.04.202568</t>
+  </si>
+  <si>
+    <t>11.04.202569</t>
+  </si>
+  <si>
+    <t>11.04.202570</t>
+  </si>
+  <si>
+    <t>11.04.202571</t>
+  </si>
+  <si>
+    <t>11.04.202572</t>
+  </si>
+  <si>
+    <t>11.04.202573</t>
+  </si>
+  <si>
+    <t>11.04.202574</t>
+  </si>
+  <si>
+    <t>11.04.202575</t>
+  </si>
+  <si>
+    <t>11.04.202576</t>
+  </si>
+  <si>
+    <t>11.04.202577</t>
+  </si>
+  <si>
+    <t>11.04.202578</t>
+  </si>
+  <si>
+    <t>11.04.202579</t>
+  </si>
+  <si>
+    <t>11.04.202580</t>
+  </si>
+  <si>
+    <t>11.04.202581</t>
+  </si>
+  <si>
+    <t>11.04.202582</t>
+  </si>
+  <si>
+    <t>11.04.202583</t>
+  </si>
+  <si>
+    <t>11.04.202584</t>
+  </si>
+  <si>
+    <t>11.04.202585</t>
+  </si>
+  <si>
+    <t>11.04.202586</t>
+  </si>
+  <si>
+    <t>11.04.202587</t>
+  </si>
+  <si>
+    <t>11.04.202588</t>
+  </si>
+  <si>
+    <t>11.04.202589</t>
+  </si>
+  <si>
+    <t>11.04.202590</t>
+  </si>
+  <si>
+    <t>11.04.202591</t>
+  </si>
+  <si>
+    <t>11.04.202592</t>
+  </si>
+  <si>
+    <t>11.04.202593</t>
+  </si>
+  <si>
+    <t>11.04.202594</t>
+  </si>
+  <si>
+    <t>11.04.202595</t>
+  </si>
+  <si>
+    <t>11.04.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B2">
-        <v>928</v>
+        <v>156</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>282</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45750.01041666666</v>
+        <v>45757.01041666666</v>
       </c>
       <c r="B3">
-        <v>927</v>
+        <v>164</v>
       </c>
       <c r="C3">
-        <v>738</v>
+        <v>285</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45750.02083333334</v>
+        <v>45757.02083333334</v>
       </c>
       <c r="B4">
-        <v>926</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>750</v>
+        <v>266</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45750.03125</v>
+        <v>45757.03125</v>
       </c>
       <c r="B5">
-        <v>925</v>
+        <v>174</v>
       </c>
       <c r="C5">
-        <v>739</v>
+        <v>254</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B6">
-        <v>916</v>
+        <v>198</v>
       </c>
       <c r="C6">
-        <v>723</v>
+        <v>247</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B7">
-        <v>916</v>
+        <v>199</v>
       </c>
       <c r="C7">
-        <v>707</v>
+        <v>251</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B8">
-        <v>907</v>
+        <v>208</v>
       </c>
       <c r="C8">
-        <v>704</v>
+        <v>247</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B9">
-        <v>918</v>
+        <v>210</v>
       </c>
       <c r="C9">
-        <v>721</v>
+        <v>250</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B10">
-        <v>921</v>
+        <v>228</v>
       </c>
       <c r="C10">
-        <v>707</v>
+        <v>275</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B11">
-        <v>914</v>
+        <v>226</v>
       </c>
       <c r="C11">
-        <v>711</v>
+        <v>317</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B12">
-        <v>914</v>
+        <v>225</v>
       </c>
       <c r="C12">
-        <v>721</v>
+        <v>328</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B13">
-        <v>916</v>
+        <v>224</v>
       </c>
       <c r="C13">
-        <v>746</v>
+        <v>355</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B14">
-        <v>916</v>
+        <v>260</v>
       </c>
       <c r="C14">
-        <v>755</v>
+        <v>392</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B15">
-        <v>916</v>
+        <v>266</v>
       </c>
       <c r="C15">
-        <v>776</v>
+        <v>423</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B16">
-        <v>917</v>
+        <v>271</v>
       </c>
       <c r="C16">
-        <v>795</v>
+        <v>450</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B17">
-        <v>919</v>
+        <v>274</v>
       </c>
       <c r="C17">
-        <v>805</v>
+        <v>491</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B18">
-        <v>936</v>
+        <v>372</v>
       </c>
       <c r="C18">
-        <v>814</v>
+        <v>537</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B19">
-        <v>936</v>
+        <v>378</v>
       </c>
       <c r="C19">
-        <v>862</v>
+        <v>543</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B20">
-        <v>936</v>
+        <v>376</v>
       </c>
       <c r="C20">
-        <v>899</v>
+        <v>549</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B21">
-        <v>936</v>
+        <v>383</v>
       </c>
       <c r="C21">
-        <v>920</v>
+        <v>546</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B22">
-        <v>948</v>
+        <v>541</v>
       </c>
       <c r="C22">
-        <v>961</v>
+        <v>581</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B23">
-        <v>948</v>
+        <v>549</v>
       </c>
       <c r="C23">
-        <v>977</v>
+        <v>604</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B24">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="C24">
-        <v>967</v>
+        <v>634</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B25">
-        <v>952</v>
+        <v>547</v>
       </c>
       <c r="C25">
-        <v>920</v>
+        <v>647</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B26">
-        <v>973</v>
+        <v>726</v>
       </c>
       <c r="C26">
-        <v>916</v>
+        <v>710</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B27">
-        <v>972</v>
+        <v>726</v>
       </c>
       <c r="C27">
-        <v>924</v>
+        <v>725</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B28">
-        <v>967</v>
+        <v>728</v>
       </c>
       <c r="C28">
-        <v>928</v>
+        <v>738</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B29">
-        <v>968</v>
+        <v>731</v>
       </c>
       <c r="C29">
-        <v>939</v>
+        <v>727</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B30">
-        <v>952</v>
+        <v>838</v>
       </c>
       <c r="C30">
-        <v>948</v>
+        <v>696</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B31">
-        <v>952</v>
+        <v>839</v>
       </c>
       <c r="C31">
-        <v>948</v>
+        <v>661</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B32">
-        <v>947</v>
+        <v>841</v>
       </c>
       <c r="C32">
-        <v>934</v>
+        <v>640</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B33">
-        <v>947</v>
+        <v>843</v>
       </c>
       <c r="C33">
-        <v>903</v>
+        <v>576</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B34">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C34">
-        <v>882</v>
+        <v>557</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B35">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C35">
-        <v>873</v>
+        <v>585</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B36">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C36">
-        <v>858</v>
+        <v>604</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B37">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C37">
-        <v>863</v>
+        <v>633</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B38">
-        <v>973</v>
+        <v>1223</v>
       </c>
       <c r="C38">
-        <v>872</v>
+        <v>663</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B39">
-        <v>975</v>
+        <v>1232</v>
       </c>
       <c r="C39">
-        <v>883</v>
+        <v>664</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B40">
-        <v>977</v>
+        <v>1241</v>
       </c>
       <c r="C40">
-        <v>887</v>
+        <v>754</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B41">
-        <v>978</v>
+        <v>1250</v>
       </c>
       <c r="C41">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B42">
-        <v>997</v>
+        <v>1683</v>
       </c>
       <c r="C42">
-        <v>849</v>
+        <v>1027</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B43">
-        <v>997</v>
+        <v>1688</v>
       </c>
       <c r="C43">
-        <v>834</v>
+        <v>1172</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B44">
-        <v>997</v>
+        <v>1693</v>
       </c>
       <c r="C44">
-        <v>818</v>
+        <v>1263</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B45">
-        <v>998</v>
+        <v>1699</v>
       </c>
       <c r="C45">
-        <v>797</v>
+        <v>1347</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B46">
-        <v>964</v>
+        <v>2011</v>
       </c>
       <c r="C46">
-        <v>754</v>
+        <v>1443</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B47">
-        <v>964</v>
+        <v>2016</v>
       </c>
       <c r="C47">
-        <v>719</v>
+        <v>1537</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B48">
-        <v>964</v>
+        <v>2021</v>
       </c>
       <c r="C48">
-        <v>697</v>
+        <v>1670</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B49">
-        <v>963</v>
+        <v>2026</v>
       </c>
       <c r="C49">
-        <v>705</v>
+        <v>1815</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B50">
-        <v>931</v>
+        <v>2256</v>
       </c>
       <c r="C50">
-        <v>694</v>
+        <v>1928</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B51">
-        <v>931</v>
+        <v>2260</v>
       </c>
       <c r="C51">
-        <v>656</v>
+        <v>1992</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B52">
-        <v>931</v>
+        <v>2264</v>
       </c>
       <c r="C52">
-        <v>659</v>
+        <v>2081</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B53">
-        <v>931</v>
+        <v>2267</v>
       </c>
       <c r="C53">
-        <v>650</v>
+        <v>2065</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B54">
-        <v>907</v>
+        <v>2325</v>
       </c>
       <c r="C54">
-        <v>616</v>
+        <v>2119</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B55">
-        <v>906</v>
+        <v>2327</v>
       </c>
       <c r="C55">
-        <v>586</v>
+        <v>2216</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B56">
-        <v>905</v>
+        <v>2329</v>
       </c>
       <c r="C56">
-        <v>592</v>
+        <v>2175</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B57">
-        <v>905</v>
+        <v>2331</v>
       </c>
       <c r="C57">
-        <v>611</v>
+        <v>2163</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B58">
-        <v>900</v>
+        <v>2333</v>
       </c>
       <c r="C58">
-        <v>603</v>
+        <v>2271</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B59">
-        <v>900</v>
+        <v>2333</v>
       </c>
       <c r="C59">
-        <v>628</v>
+        <v>2266</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B60">
-        <v>900</v>
+        <v>2333</v>
       </c>
       <c r="C60">
-        <v>634</v>
+        <v>2202</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B61">
-        <v>900</v>
+        <v>2332</v>
       </c>
       <c r="C61">
-        <v>642</v>
+        <v>2089</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B62">
-        <v>850</v>
+        <v>2311</v>
       </c>
       <c r="C62">
-        <v>641</v>
+        <v>2140</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B63">
-        <v>850</v>
+        <v>2312</v>
       </c>
       <c r="C63">
-        <v>647</v>
+        <v>2217</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B64">
-        <v>850</v>
+        <v>2314</v>
       </c>
       <c r="C64">
-        <v>662</v>
+        <v>2220</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B65">
-        <v>850</v>
+        <v>2316</v>
       </c>
       <c r="C65">
-        <v>658</v>
+        <v>2447</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B66">
-        <v>924</v>
+        <v>2460</v>
       </c>
       <c r="C66">
-        <v>687</v>
+        <v>2503</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B67">
-        <v>924</v>
+        <v>2460</v>
       </c>
       <c r="C67">
-        <v>700</v>
+        <v>2537</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B68">
-        <v>924</v>
+        <v>2462</v>
       </c>
       <c r="C68">
-        <v>676</v>
+        <v>2550</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B69">
-        <v>924</v>
+        <v>2463</v>
       </c>
       <c r="C69">
-        <v>690</v>
+        <v>2520</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B70">
-        <v>928</v>
+        <v>2519</v>
       </c>
       <c r="C70">
-        <v>680</v>
+        <v>2581</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B71">
-        <v>925</v>
+        <v>2521</v>
       </c>
       <c r="C71">
-        <v>644</v>
+        <v>2578</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B72">
-        <v>923</v>
+        <v>2521</v>
       </c>
       <c r="C72">
-        <v>623</v>
+        <v>2607</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B73">
-        <v>922</v>
+        <v>2522</v>
       </c>
       <c r="C73">
-        <v>618</v>
+        <v>2611</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B74">
-        <v>950</v>
+        <v>2506</v>
       </c>
       <c r="C74">
-        <v>619</v>
+        <v>2619</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B75">
-        <v>952</v>
+        <v>2507</v>
       </c>
       <c r="C75">
-        <v>655</v>
+        <v>2601</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B76">
-        <v>953</v>
+        <v>2508</v>
       </c>
       <c r="C76">
-        <v>701</v>
+        <v>2619</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B77">
-        <v>955</v>
+        <v>2509</v>
       </c>
       <c r="C77">
-        <v>699</v>
+        <v>2621</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B78">
-        <v>1021</v>
+        <v>2413</v>
       </c>
       <c r="C78">
-        <v>663</v>
+        <v>2581</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B79">
-        <v>1022</v>
+        <v>2411</v>
       </c>
       <c r="C79">
-        <v>652</v>
+        <v>2581</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B80">
-        <v>1024</v>
+        <v>2410</v>
       </c>
       <c r="C80">
-        <v>650</v>
+        <v>2483</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B81">
-        <v>1025</v>
+        <v>2408</v>
       </c>
       <c r="C81">
-        <v>631</v>
+        <v>2471</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B82">
-        <v>1092</v>
+        <v>2293</v>
       </c>
       <c r="C82">
-        <v>604</v>
+        <v>2380</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B83">
-        <v>1093</v>
+        <v>2292</v>
       </c>
       <c r="C83">
-        <v>593</v>
+        <v>2276</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B84">
-        <v>1094</v>
+        <v>2291</v>
       </c>
       <c r="C84">
-        <v>589</v>
+        <v>2262</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B85">
-        <v>1095</v>
+        <v>2290</v>
       </c>
       <c r="C85">
-        <v>608</v>
+        <v>2309</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B86">
-        <v>1121</v>
+        <v>2309</v>
       </c>
       <c r="C86">
-        <v>647</v>
+        <v>2388</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B87">
-        <v>1122</v>
+        <v>2310</v>
       </c>
       <c r="C87">
-        <v>662</v>
+        <v>2458</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B88">
-        <v>1123</v>
+        <v>2310</v>
       </c>
       <c r="C88">
-        <v>685</v>
+        <v>2489</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B89">
-        <v>1124</v>
+        <v>2310</v>
       </c>
       <c r="C89">
-        <v>681</v>
+        <v>2505</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B90">
-        <v>1108</v>
+        <v>2366</v>
       </c>
       <c r="C90">
-        <v>668</v>
+        <v>2508</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B91">
-        <v>1108</v>
+        <v>2367</v>
       </c>
       <c r="C91">
-        <v>627</v>
+        <v>2522</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B92">
-        <v>1108</v>
+        <v>2368</v>
       </c>
       <c r="C92">
-        <v>604</v>
+        <v>2513</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B93">
-        <v>1108</v>
+        <v>2369</v>
       </c>
       <c r="C93">
-        <v>581</v>
+        <v>2497</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B94">
-        <v>927</v>
+        <v>2308</v>
       </c>
       <c r="C94">
-        <v>571</v>
+        <v>2479</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B95">
-        <v>928</v>
+        <v>2314</v>
       </c>
       <c r="C95">
-        <v>559</v>
+        <v>2502</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B96">
-        <v>931</v>
+        <v>2314</v>
       </c>
       <c r="C96">
-        <v>523</v>
+        <v>2517</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B97">
-        <v>930</v>
+        <v>2313</v>
       </c>
       <c r="C97">
-        <v>511</v>
+        <v>2527</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B98">
-        <v>769</v>
+        <v>2385</v>
       </c>
       <c r="C98">
-        <v>501</v>
+        <v>2558</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B99">
-        <v>770</v>
+        <v>2384</v>
       </c>
       <c r="C99">
-        <v>510</v>
+        <v>2553</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B100">
-        <v>772</v>
+        <v>2384</v>
       </c>
       <c r="C100">
-        <v>500</v>
+        <v>2560</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B101">
-        <v>772</v>
+        <v>2379</v>
       </c>
       <c r="C101">
-        <v>501</v>
+        <v>2558</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B102">
-        <v>737</v>
+        <v>2377</v>
       </c>
       <c r="C102">
-        <v>505</v>
+        <v>2549</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B103">
-        <v>740</v>
+        <v>2379</v>
       </c>
       <c r="C103">
-        <v>506</v>
+        <v>2550</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B104">
-        <v>740</v>
+        <v>2359</v>
       </c>
       <c r="C104">
-        <v>535</v>
+        <v>2561</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B105">
-        <v>741</v>
+        <v>2357</v>
       </c>
       <c r="C105">
-        <v>570</v>
+        <v>2551</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B106">
-        <v>699</v>
+        <v>2337</v>
       </c>
       <c r="C106">
-        <v>590</v>
+        <v>2533</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B107">
-        <v>699</v>
+        <v>2335</v>
       </c>
       <c r="C107">
-        <v>604</v>
+        <v>2507</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B108">
-        <v>697</v>
+        <v>2330</v>
       </c>
       <c r="C108">
-        <v>611</v>
+        <v>2472</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B109">
-        <v>697</v>
+        <v>2328</v>
       </c>
       <c r="C109">
-        <v>611</v>
+        <v>2408</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B110">
-        <v>766</v>
+        <v>2203</v>
       </c>
       <c r="C110">
-        <v>650</v>
+        <v>2336</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B111">
-        <v>771</v>
+        <v>2203</v>
       </c>
       <c r="C111">
-        <v>661</v>
+        <v>2360</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B112">
-        <v>770</v>
+        <v>2199</v>
       </c>
       <c r="C112">
-        <v>662</v>
+        <v>2383</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B113">
-        <v>770</v>
+        <v>2196</v>
       </c>
       <c r="C113">
-        <v>683</v>
+        <v>2382</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B114">
-        <v>767</v>
+        <v>2134</v>
       </c>
       <c r="C114">
-        <v>710</v>
+        <v>2317</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B115">
-        <v>769</v>
+        <v>2130</v>
       </c>
       <c r="C115">
-        <v>752</v>
+        <v>2259</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B116">
-        <v>769</v>
+        <v>2139</v>
       </c>
       <c r="C116">
-        <v>799</v>
+        <v>2244</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B117">
-        <v>769</v>
+        <v>2138</v>
       </c>
       <c r="C117">
-        <v>830</v>
+        <v>2227</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B118">
-        <v>877</v>
+        <v>2027</v>
       </c>
       <c r="C118">
-        <v>842</v>
+        <v>2188</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B119">
-        <v>876</v>
+        <v>2028</v>
       </c>
       <c r="C119">
-        <v>864</v>
+        <v>2159</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B120">
-        <v>875</v>
+        <v>2030</v>
       </c>
       <c r="C120">
-        <v>872</v>
+        <v>2116</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B121">
-        <v>873</v>
+        <v>2027</v>
       </c>
       <c r="C121">
-        <v>877</v>
+        <v>2055</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B122">
-        <v>877</v>
+        <v>1911</v>
       </c>
       <c r="C122">
-        <v>909</v>
+        <v>1982</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B123">
-        <v>875</v>
+        <v>1923</v>
       </c>
       <c r="C123">
-        <v>915</v>
+        <v>1938</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B124">
-        <v>870</v>
+        <v>1918</v>
       </c>
       <c r="C124">
-        <v>908</v>
+        <v>1864</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B125">
-        <v>868</v>
+        <v>1917</v>
       </c>
       <c r="C125">
-        <v>907</v>
+        <v>1757</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B126">
-        <v>853</v>
+        <v>1808</v>
       </c>
       <c r="C126">
-        <v>878</v>
+        <v>1668</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B127">
-        <v>853</v>
+        <v>1808</v>
       </c>
       <c r="C127">
-        <v>823</v>
+        <v>1589</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B128">
-        <v>855</v>
+        <v>1807</v>
       </c>
       <c r="C128">
-        <v>763</v>
+        <v>1530</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B129">
-        <v>853</v>
+        <v>1808</v>
       </c>
       <c r="C129">
-        <v>698</v>
+        <v>1497</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B130">
-        <v>805</v>
+        <v>1841</v>
       </c>
       <c r="C130">
-        <v>663</v>
+        <v>1457</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B131">
-        <v>808</v>
+        <v>1847</v>
       </c>
       <c r="C131">
-        <v>633</v>
+        <v>1528</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B132">
-        <v>805</v>
+        <v>1853</v>
       </c>
       <c r="C132">
-        <v>621</v>
+        <v>1565</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B133">
-        <v>805</v>
+        <v>1860</v>
       </c>
       <c r="C133">
-        <v>586</v>
+        <v>1584</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B134">
-        <v>747</v>
+        <v>2083</v>
       </c>
       <c r="C134">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B135">
-        <v>747</v>
+        <v>2085</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B136">
-        <v>747</v>
+        <v>2086</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B137">
-        <v>748</v>
+        <v>2087</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B138">
-        <v>795</v>
+        <v>2174</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B139">
-        <v>796</v>
+        <v>2174</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B140">
-        <v>798</v>
+        <v>2173</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B141">
-        <v>799</v>
+        <v>2172</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B142">
-        <v>848</v>
+        <v>2209</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B143">
-        <v>849</v>
+        <v>2208</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B144">
-        <v>849</v>
+        <v>2207</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B145">
-        <v>849</v>
+        <v>2206</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B146">
-        <v>840</v>
+        <v>1807</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B147">
-        <v>840</v>
+        <v>1806</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B148">
-        <v>839</v>
+        <v>1804</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B149">
-        <v>839</v>
+        <v>1803</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B150">
-        <v>892</v>
+        <v>1794</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B151">
-        <v>891</v>
+        <v>1792</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B152">
-        <v>890</v>
+        <v>1790</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B153">
-        <v>889</v>
+        <v>1788</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B154">
-        <v>920</v>
+        <v>1817</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B155">
-        <v>916</v>
+        <v>1816</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B156">
-        <v>913</v>
+        <v>1814</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B157">
-        <v>910</v>
+        <v>1813</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B158">
-        <v>771</v>
+        <v>2061</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B159">
-        <v>768</v>
+        <v>2059</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B160">
-        <v>764</v>
+        <v>2056</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B161">
-        <v>761</v>
+        <v>2053</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B162">
-        <v>637</v>
+        <v>1969</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B163">
-        <v>633</v>
+        <v>1963</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B164">
-        <v>630</v>
+        <v>1957</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B165">
-        <v>627</v>
+        <v>1951</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B166">
-        <v>492</v>
+        <v>1596</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B167">
-        <v>488</v>
+        <v>1585</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B168">
-        <v>485</v>
+        <v>1573</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B169">
-        <v>481</v>
+        <v>1561</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B170">
-        <v>399</v>
+        <v>1214</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B171">
-        <v>397</v>
+        <v>1206</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B172">
-        <v>395</v>
+        <v>1198</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B173">
-        <v>393</v>
+        <v>1191</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B174">
-        <v>357</v>
+        <v>940</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B175">
-        <v>355</v>
+        <v>935</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B176">
-        <v>354</v>
+        <v>931</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B177">
-        <v>353</v>
+        <v>926</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B178">
-        <v>305</v>
+        <v>731</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B179">
-        <v>305</v>
+        <v>729</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B180">
-        <v>304</v>
+        <v>726</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B181">
-        <v>305</v>
+        <v>724</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B182">
-        <v>299</v>
+        <v>613</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B183">
-        <v>299</v>
+        <v>611</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B184">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B185">
-        <v>303</v>
+        <v>608</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B186">
-        <v>310</v>
+        <v>552</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B187">
-        <v>311</v>
+        <v>551</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B188">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B189">
-        <v>314</v>
+        <v>549</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.04.20251</t>
-  </si>
-  <si>
-    <t>10.04.20252</t>
-  </si>
-  <si>
-    <t>10.04.20253</t>
-  </si>
-  <si>
-    <t>10.04.20254</t>
-  </si>
-  <si>
-    <t>10.04.20255</t>
-  </si>
-  <si>
-    <t>10.04.20256</t>
-  </si>
-  <si>
-    <t>10.04.20257</t>
-  </si>
-  <si>
-    <t>10.04.20258</t>
-  </si>
-  <si>
-    <t>10.04.20259</t>
-  </si>
-  <si>
-    <t>10.04.202510</t>
-  </si>
-  <si>
-    <t>10.04.202511</t>
-  </si>
-  <si>
-    <t>10.04.202512</t>
-  </si>
-  <si>
-    <t>10.04.202513</t>
-  </si>
-  <si>
-    <t>10.04.202514</t>
-  </si>
-  <si>
-    <t>10.04.202515</t>
-  </si>
-  <si>
-    <t>10.04.202516</t>
-  </si>
-  <si>
-    <t>10.04.202517</t>
-  </si>
-  <si>
-    <t>10.04.202518</t>
-  </si>
-  <si>
-    <t>10.04.202519</t>
-  </si>
-  <si>
-    <t>10.04.202520</t>
-  </si>
-  <si>
-    <t>10.04.202521</t>
-  </si>
-  <si>
-    <t>10.04.202522</t>
-  </si>
-  <si>
-    <t>10.04.202523</t>
-  </si>
-  <si>
-    <t>10.04.202524</t>
-  </si>
-  <si>
-    <t>10.04.202525</t>
-  </si>
-  <si>
-    <t>10.04.202526</t>
-  </si>
-  <si>
-    <t>10.04.202527</t>
-  </si>
-  <si>
-    <t>10.04.202528</t>
-  </si>
-  <si>
-    <t>10.04.202529</t>
-  </si>
-  <si>
-    <t>10.04.202530</t>
-  </si>
-  <si>
-    <t>10.04.202531</t>
-  </si>
-  <si>
-    <t>10.04.202532</t>
-  </si>
-  <si>
-    <t>10.04.202533</t>
-  </si>
-  <si>
-    <t>10.04.202534</t>
-  </si>
-  <si>
-    <t>10.04.202535</t>
-  </si>
-  <si>
-    <t>10.04.202536</t>
-  </si>
-  <si>
-    <t>10.04.202537</t>
-  </si>
-  <si>
-    <t>10.04.202538</t>
-  </si>
-  <si>
-    <t>10.04.202539</t>
-  </si>
-  <si>
-    <t>10.04.202540</t>
-  </si>
-  <si>
-    <t>10.04.202541</t>
-  </si>
-  <si>
-    <t>10.04.202542</t>
-  </si>
-  <si>
-    <t>10.04.202543</t>
-  </si>
-  <si>
-    <t>10.04.202544</t>
-  </si>
-  <si>
-    <t>10.04.202545</t>
-  </si>
-  <si>
-    <t>10.04.202546</t>
-  </si>
-  <si>
-    <t>10.04.202547</t>
-  </si>
-  <si>
-    <t>10.04.202548</t>
-  </si>
-  <si>
-    <t>10.04.202549</t>
-  </si>
-  <si>
-    <t>10.04.202550</t>
-  </si>
-  <si>
-    <t>10.04.202551</t>
-  </si>
-  <si>
-    <t>10.04.202552</t>
-  </si>
-  <si>
-    <t>10.04.202553</t>
-  </si>
-  <si>
-    <t>10.04.202554</t>
-  </si>
-  <si>
-    <t>10.04.202555</t>
-  </si>
-  <si>
-    <t>10.04.202556</t>
-  </si>
-  <si>
-    <t>10.04.202557</t>
-  </si>
-  <si>
-    <t>10.04.202558</t>
-  </si>
-  <si>
-    <t>10.04.202559</t>
-  </si>
-  <si>
-    <t>10.04.202560</t>
-  </si>
-  <si>
-    <t>10.04.202561</t>
-  </si>
-  <si>
-    <t>10.04.202562</t>
-  </si>
-  <si>
-    <t>10.04.202563</t>
-  </si>
-  <si>
-    <t>10.04.202564</t>
-  </si>
-  <si>
-    <t>10.04.202565</t>
-  </si>
-  <si>
-    <t>10.04.202566</t>
-  </si>
-  <si>
-    <t>10.04.202567</t>
-  </si>
-  <si>
-    <t>10.04.202568</t>
-  </si>
-  <si>
-    <t>10.04.202569</t>
-  </si>
-  <si>
-    <t>10.04.202570</t>
-  </si>
-  <si>
-    <t>10.04.202571</t>
-  </si>
-  <si>
-    <t>10.04.202572</t>
-  </si>
-  <si>
-    <t>10.04.202573</t>
-  </si>
-  <si>
-    <t>10.04.202574</t>
-  </si>
-  <si>
-    <t>10.04.202575</t>
-  </si>
-  <si>
-    <t>10.04.202576</t>
-  </si>
-  <si>
-    <t>10.04.202577</t>
-  </si>
-  <si>
-    <t>10.04.202578</t>
-  </si>
-  <si>
-    <t>10.04.202579</t>
-  </si>
-  <si>
-    <t>10.04.202580</t>
-  </si>
-  <si>
-    <t>10.04.202581</t>
-  </si>
-  <si>
-    <t>10.04.202582</t>
-  </si>
-  <si>
-    <t>10.04.202583</t>
-  </si>
-  <si>
-    <t>10.04.202584</t>
-  </si>
-  <si>
-    <t>10.04.202585</t>
-  </si>
-  <si>
-    <t>10.04.202586</t>
-  </si>
-  <si>
-    <t>10.04.202587</t>
-  </si>
-  <si>
-    <t>10.04.202588</t>
-  </si>
-  <si>
-    <t>10.04.202589</t>
-  </si>
-  <si>
-    <t>10.04.202590</t>
-  </si>
-  <si>
-    <t>10.04.202591</t>
-  </si>
-  <si>
-    <t>10.04.202592</t>
-  </si>
-  <si>
-    <t>10.04.202593</t>
-  </si>
-  <si>
-    <t>10.04.202594</t>
-  </si>
-  <si>
-    <t>10.04.202595</t>
-  </si>
-  <si>
-    <t>10.04.202596</t>
-  </si>
-  <si>
-    <t>11.04.20251</t>
-  </si>
-  <si>
-    <t>11.04.20252</t>
-  </si>
-  <si>
-    <t>11.04.20253</t>
-  </si>
-  <si>
-    <t>11.04.20254</t>
-  </si>
-  <si>
-    <t>11.04.20255</t>
-  </si>
-  <si>
-    <t>11.04.20256</t>
-  </si>
-  <si>
-    <t>11.04.20257</t>
-  </si>
-  <si>
-    <t>11.04.20258</t>
-  </si>
-  <si>
-    <t>11.04.20259</t>
-  </si>
-  <si>
-    <t>11.04.202510</t>
-  </si>
-  <si>
-    <t>11.04.202511</t>
-  </si>
-  <si>
-    <t>11.04.202512</t>
-  </si>
-  <si>
-    <t>11.04.202513</t>
-  </si>
-  <si>
-    <t>11.04.202514</t>
-  </si>
-  <si>
-    <t>11.04.202515</t>
-  </si>
-  <si>
-    <t>11.04.202516</t>
-  </si>
-  <si>
-    <t>11.04.202517</t>
-  </si>
-  <si>
-    <t>11.04.202518</t>
-  </si>
-  <si>
-    <t>11.04.202519</t>
-  </si>
-  <si>
-    <t>11.04.202520</t>
-  </si>
-  <si>
-    <t>11.04.202521</t>
-  </si>
-  <si>
-    <t>11.04.202522</t>
-  </si>
-  <si>
-    <t>11.04.202523</t>
-  </si>
-  <si>
-    <t>11.04.202524</t>
-  </si>
-  <si>
-    <t>11.04.202525</t>
-  </si>
-  <si>
-    <t>11.04.202526</t>
-  </si>
-  <si>
-    <t>11.04.202527</t>
-  </si>
-  <si>
-    <t>11.04.202528</t>
-  </si>
-  <si>
-    <t>11.04.202529</t>
-  </si>
-  <si>
-    <t>11.04.202530</t>
-  </si>
-  <si>
-    <t>11.04.202531</t>
-  </si>
-  <si>
-    <t>11.04.202532</t>
-  </si>
-  <si>
-    <t>11.04.202533</t>
-  </si>
-  <si>
-    <t>11.04.202534</t>
-  </si>
-  <si>
-    <t>11.04.202535</t>
-  </si>
-  <si>
-    <t>11.04.202536</t>
-  </si>
-  <si>
-    <t>11.04.202537</t>
-  </si>
-  <si>
-    <t>11.04.202538</t>
-  </si>
-  <si>
-    <t>11.04.202539</t>
-  </si>
-  <si>
-    <t>11.04.202540</t>
-  </si>
-  <si>
-    <t>11.04.202541</t>
-  </si>
-  <si>
-    <t>11.04.202542</t>
-  </si>
-  <si>
-    <t>11.04.202543</t>
-  </si>
-  <si>
-    <t>11.04.202544</t>
-  </si>
-  <si>
-    <t>11.04.202545</t>
-  </si>
-  <si>
-    <t>11.04.202546</t>
-  </si>
-  <si>
-    <t>11.04.202547</t>
-  </si>
-  <si>
-    <t>11.04.202548</t>
-  </si>
-  <si>
-    <t>11.04.202549</t>
-  </si>
-  <si>
-    <t>11.04.202550</t>
-  </si>
-  <si>
-    <t>11.04.202551</t>
-  </si>
-  <si>
-    <t>11.04.202552</t>
-  </si>
-  <si>
-    <t>11.04.202553</t>
-  </si>
-  <si>
-    <t>11.04.202554</t>
-  </si>
-  <si>
-    <t>11.04.202555</t>
-  </si>
-  <si>
-    <t>11.04.202556</t>
-  </si>
-  <si>
-    <t>11.04.202557</t>
-  </si>
-  <si>
-    <t>11.04.202558</t>
-  </si>
-  <si>
-    <t>11.04.202559</t>
-  </si>
-  <si>
-    <t>11.04.202560</t>
-  </si>
-  <si>
-    <t>11.04.202561</t>
-  </si>
-  <si>
-    <t>11.04.202562</t>
-  </si>
-  <si>
-    <t>11.04.202563</t>
-  </si>
-  <si>
-    <t>11.04.202564</t>
-  </si>
-  <si>
-    <t>11.04.202565</t>
-  </si>
-  <si>
-    <t>11.04.202566</t>
-  </si>
-  <si>
-    <t>11.04.202567</t>
-  </si>
-  <si>
-    <t>11.04.202568</t>
-  </si>
-  <si>
-    <t>11.04.202569</t>
-  </si>
-  <si>
-    <t>11.04.202570</t>
-  </si>
-  <si>
-    <t>11.04.202571</t>
-  </si>
-  <si>
-    <t>11.04.202572</t>
-  </si>
-  <si>
-    <t>11.04.202573</t>
-  </si>
-  <si>
-    <t>11.04.202574</t>
-  </si>
-  <si>
-    <t>11.04.202575</t>
-  </si>
-  <si>
-    <t>11.04.202576</t>
-  </si>
-  <si>
-    <t>11.04.202577</t>
-  </si>
-  <si>
-    <t>11.04.202578</t>
-  </si>
-  <si>
-    <t>11.04.202579</t>
-  </si>
-  <si>
-    <t>11.04.202580</t>
-  </si>
-  <si>
-    <t>11.04.202581</t>
-  </si>
-  <si>
-    <t>11.04.202582</t>
-  </si>
-  <si>
-    <t>11.04.202583</t>
-  </si>
-  <si>
-    <t>11.04.202584</t>
-  </si>
-  <si>
-    <t>11.04.202585</t>
-  </si>
-  <si>
-    <t>11.04.202586</t>
-  </si>
-  <si>
-    <t>11.04.202587</t>
-  </si>
-  <si>
-    <t>11.04.202588</t>
-  </si>
-  <si>
-    <t>11.04.202589</t>
-  </si>
-  <si>
-    <t>11.04.202590</t>
-  </si>
-  <si>
-    <t>11.04.202591</t>
-  </si>
-  <si>
-    <t>11.04.202592</t>
-  </si>
-  <si>
-    <t>11.04.202593</t>
-  </si>
-  <si>
-    <t>11.04.202594</t>
-  </si>
-  <si>
-    <t>11.04.202595</t>
-  </si>
-  <si>
-    <t>11.04.202596</t>
+    <t>28.04.20251</t>
+  </si>
+  <si>
+    <t>28.04.20252</t>
+  </si>
+  <si>
+    <t>28.04.20253</t>
+  </si>
+  <si>
+    <t>28.04.20254</t>
+  </si>
+  <si>
+    <t>28.04.20255</t>
+  </si>
+  <si>
+    <t>28.04.20256</t>
+  </si>
+  <si>
+    <t>28.04.20257</t>
+  </si>
+  <si>
+    <t>28.04.20258</t>
+  </si>
+  <si>
+    <t>28.04.20259</t>
+  </si>
+  <si>
+    <t>28.04.202510</t>
+  </si>
+  <si>
+    <t>28.04.202511</t>
+  </si>
+  <si>
+    <t>28.04.202512</t>
+  </si>
+  <si>
+    <t>28.04.202513</t>
+  </si>
+  <si>
+    <t>28.04.202514</t>
+  </si>
+  <si>
+    <t>28.04.202515</t>
+  </si>
+  <si>
+    <t>28.04.202516</t>
+  </si>
+  <si>
+    <t>28.04.202517</t>
+  </si>
+  <si>
+    <t>28.04.202518</t>
+  </si>
+  <si>
+    <t>28.04.202519</t>
+  </si>
+  <si>
+    <t>28.04.202520</t>
+  </si>
+  <si>
+    <t>28.04.202521</t>
+  </si>
+  <si>
+    <t>28.04.202522</t>
+  </si>
+  <si>
+    <t>28.04.202523</t>
+  </si>
+  <si>
+    <t>28.04.202524</t>
+  </si>
+  <si>
+    <t>28.04.202525</t>
+  </si>
+  <si>
+    <t>28.04.202526</t>
+  </si>
+  <si>
+    <t>28.04.202527</t>
+  </si>
+  <si>
+    <t>28.04.202528</t>
+  </si>
+  <si>
+    <t>28.04.202529</t>
+  </si>
+  <si>
+    <t>28.04.202530</t>
+  </si>
+  <si>
+    <t>28.04.202531</t>
+  </si>
+  <si>
+    <t>28.04.202532</t>
+  </si>
+  <si>
+    <t>28.04.202533</t>
+  </si>
+  <si>
+    <t>28.04.202534</t>
+  </si>
+  <si>
+    <t>28.04.202535</t>
+  </si>
+  <si>
+    <t>28.04.202536</t>
+  </si>
+  <si>
+    <t>28.04.202537</t>
+  </si>
+  <si>
+    <t>28.04.202538</t>
+  </si>
+  <si>
+    <t>28.04.202539</t>
+  </si>
+  <si>
+    <t>28.04.202540</t>
+  </si>
+  <si>
+    <t>28.04.202541</t>
+  </si>
+  <si>
+    <t>28.04.202542</t>
+  </si>
+  <si>
+    <t>28.04.202543</t>
+  </si>
+  <si>
+    <t>28.04.202544</t>
+  </si>
+  <si>
+    <t>28.04.202545</t>
+  </si>
+  <si>
+    <t>28.04.202546</t>
+  </si>
+  <si>
+    <t>28.04.202547</t>
+  </si>
+  <si>
+    <t>28.04.202548</t>
+  </si>
+  <si>
+    <t>28.04.202549</t>
+  </si>
+  <si>
+    <t>28.04.202550</t>
+  </si>
+  <si>
+    <t>28.04.202551</t>
+  </si>
+  <si>
+    <t>28.04.202552</t>
+  </si>
+  <si>
+    <t>28.04.202553</t>
+  </si>
+  <si>
+    <t>28.04.202554</t>
+  </si>
+  <si>
+    <t>28.04.202555</t>
+  </si>
+  <si>
+    <t>28.04.202556</t>
+  </si>
+  <si>
+    <t>28.04.202557</t>
+  </si>
+  <si>
+    <t>28.04.202558</t>
+  </si>
+  <si>
+    <t>28.04.202559</t>
+  </si>
+  <si>
+    <t>28.04.202560</t>
+  </si>
+  <si>
+    <t>28.04.202561</t>
+  </si>
+  <si>
+    <t>28.04.202562</t>
+  </si>
+  <si>
+    <t>28.04.202563</t>
+  </si>
+  <si>
+    <t>28.04.202564</t>
+  </si>
+  <si>
+    <t>28.04.202565</t>
+  </si>
+  <si>
+    <t>28.04.202566</t>
+  </si>
+  <si>
+    <t>28.04.202567</t>
+  </si>
+  <si>
+    <t>28.04.202568</t>
+  </si>
+  <si>
+    <t>28.04.202569</t>
+  </si>
+  <si>
+    <t>28.04.202570</t>
+  </si>
+  <si>
+    <t>28.04.202571</t>
+  </si>
+  <si>
+    <t>28.04.202572</t>
+  </si>
+  <si>
+    <t>28.04.202573</t>
+  </si>
+  <si>
+    <t>28.04.202574</t>
+  </si>
+  <si>
+    <t>28.04.202575</t>
+  </si>
+  <si>
+    <t>28.04.202576</t>
+  </si>
+  <si>
+    <t>28.04.202577</t>
+  </si>
+  <si>
+    <t>28.04.202578</t>
+  </si>
+  <si>
+    <t>28.04.202579</t>
+  </si>
+  <si>
+    <t>28.04.202580</t>
+  </si>
+  <si>
+    <t>28.04.202581</t>
+  </si>
+  <si>
+    <t>28.04.202582</t>
+  </si>
+  <si>
+    <t>28.04.202583</t>
+  </si>
+  <si>
+    <t>28.04.202584</t>
+  </si>
+  <si>
+    <t>28.04.202585</t>
+  </si>
+  <si>
+    <t>28.04.202586</t>
+  </si>
+  <si>
+    <t>28.04.202587</t>
+  </si>
+  <si>
+    <t>28.04.202588</t>
+  </si>
+  <si>
+    <t>28.04.202589</t>
+  </si>
+  <si>
+    <t>28.04.202590</t>
+  </si>
+  <si>
+    <t>28.04.202591</t>
+  </si>
+  <si>
+    <t>28.04.202592</t>
+  </si>
+  <si>
+    <t>28.04.202593</t>
+  </si>
+  <si>
+    <t>28.04.202594</t>
+  </si>
+  <si>
+    <t>28.04.202595</t>
+  </si>
+  <si>
+    <t>28.04.202596</t>
+  </si>
+  <si>
+    <t>29.04.20251</t>
+  </si>
+  <si>
+    <t>29.04.20252</t>
+  </si>
+  <si>
+    <t>29.04.20253</t>
+  </si>
+  <si>
+    <t>29.04.20254</t>
+  </si>
+  <si>
+    <t>29.04.20255</t>
+  </si>
+  <si>
+    <t>29.04.20256</t>
+  </si>
+  <si>
+    <t>29.04.20257</t>
+  </si>
+  <si>
+    <t>29.04.20258</t>
+  </si>
+  <si>
+    <t>29.04.20259</t>
+  </si>
+  <si>
+    <t>29.04.202510</t>
+  </si>
+  <si>
+    <t>29.04.202511</t>
+  </si>
+  <si>
+    <t>29.04.202512</t>
+  </si>
+  <si>
+    <t>29.04.202513</t>
+  </si>
+  <si>
+    <t>29.04.202514</t>
+  </si>
+  <si>
+    <t>29.04.202515</t>
+  </si>
+  <si>
+    <t>29.04.202516</t>
+  </si>
+  <si>
+    <t>29.04.202517</t>
+  </si>
+  <si>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>29.04.202524</t>
+  </si>
+  <si>
+    <t>29.04.202525</t>
+  </si>
+  <si>
+    <t>29.04.202526</t>
+  </si>
+  <si>
+    <t>29.04.202527</t>
+  </si>
+  <si>
+    <t>29.04.202528</t>
+  </si>
+  <si>
+    <t>29.04.202529</t>
+  </si>
+  <si>
+    <t>29.04.202530</t>
+  </si>
+  <si>
+    <t>29.04.202531</t>
+  </si>
+  <si>
+    <t>29.04.202532</t>
+  </si>
+  <si>
+    <t>29.04.202533</t>
+  </si>
+  <si>
+    <t>29.04.202534</t>
+  </si>
+  <si>
+    <t>29.04.202535</t>
+  </si>
+  <si>
+    <t>29.04.202536</t>
+  </si>
+  <si>
+    <t>29.04.202537</t>
+  </si>
+  <si>
+    <t>29.04.202538</t>
+  </si>
+  <si>
+    <t>29.04.202539</t>
+  </si>
+  <si>
+    <t>29.04.202540</t>
+  </si>
+  <si>
+    <t>29.04.202541</t>
+  </si>
+  <si>
+    <t>29.04.202542</t>
+  </si>
+  <si>
+    <t>29.04.202543</t>
+  </si>
+  <si>
+    <t>29.04.202544</t>
+  </si>
+  <si>
+    <t>29.04.202545</t>
+  </si>
+  <si>
+    <t>29.04.202546</t>
+  </si>
+  <si>
+    <t>29.04.202547</t>
+  </si>
+  <si>
+    <t>29.04.202548</t>
+  </si>
+  <si>
+    <t>29.04.202549</t>
+  </si>
+  <si>
+    <t>29.04.202550</t>
+  </si>
+  <si>
+    <t>29.04.202551</t>
+  </si>
+  <si>
+    <t>29.04.202552</t>
+  </si>
+  <si>
+    <t>29.04.202553</t>
+  </si>
+  <si>
+    <t>29.04.202554</t>
+  </si>
+  <si>
+    <t>29.04.202555</t>
+  </si>
+  <si>
+    <t>29.04.202556</t>
+  </si>
+  <si>
+    <t>29.04.202557</t>
+  </si>
+  <si>
+    <t>29.04.202558</t>
+  </si>
+  <si>
+    <t>29.04.202559</t>
+  </si>
+  <si>
+    <t>29.04.202560</t>
+  </si>
+  <si>
+    <t>29.04.202561</t>
+  </si>
+  <si>
+    <t>29.04.202562</t>
+  </si>
+  <si>
+    <t>29.04.202563</t>
+  </si>
+  <si>
+    <t>29.04.202564</t>
+  </si>
+  <si>
+    <t>29.04.202565</t>
+  </si>
+  <si>
+    <t>29.04.202566</t>
+  </si>
+  <si>
+    <t>29.04.202567</t>
+  </si>
+  <si>
+    <t>29.04.202568</t>
+  </si>
+  <si>
+    <t>29.04.202569</t>
+  </si>
+  <si>
+    <t>29.04.202570</t>
+  </si>
+  <si>
+    <t>29.04.202571</t>
+  </si>
+  <si>
+    <t>29.04.202572</t>
+  </si>
+  <si>
+    <t>29.04.202573</t>
+  </si>
+  <si>
+    <t>29.04.202574</t>
+  </si>
+  <si>
+    <t>29.04.202575</t>
+  </si>
+  <si>
+    <t>29.04.202576</t>
+  </si>
+  <si>
+    <t>29.04.202577</t>
+  </si>
+  <si>
+    <t>29.04.202578</t>
+  </si>
+  <si>
+    <t>29.04.202579</t>
+  </si>
+  <si>
+    <t>29.04.202580</t>
+  </si>
+  <si>
+    <t>29.04.202581</t>
+  </si>
+  <si>
+    <t>29.04.202582</t>
+  </si>
+  <si>
+    <t>29.04.202583</t>
+  </si>
+  <si>
+    <t>29.04.202584</t>
+  </si>
+  <si>
+    <t>29.04.202585</t>
+  </si>
+  <si>
+    <t>29.04.202586</t>
+  </si>
+  <si>
+    <t>29.04.202587</t>
+  </si>
+  <si>
+    <t>29.04.202588</t>
+  </si>
+  <si>
+    <t>29.04.202589</t>
+  </si>
+  <si>
+    <t>29.04.202590</t>
+  </si>
+  <si>
+    <t>29.04.202591</t>
+  </si>
+  <si>
+    <t>29.04.202592</t>
+  </si>
+  <si>
+    <t>29.04.202593</t>
+  </si>
+  <si>
+    <t>29.04.202594</t>
+  </si>
+  <si>
+    <t>29.04.202595</t>
+  </si>
+  <si>
+    <t>29.04.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C2">
-        <v>282</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45757.01041666666</v>
+        <v>45775.01041666666</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45757.02083333334</v>
+        <v>45775.02083333334</v>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45757.03125</v>
+        <v>45775.03125</v>
       </c>
       <c r="B5">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B6">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C6">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B7">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B8">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="C8">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B9">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B10">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="C10">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B11">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B12">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B13">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>355</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B14">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B15">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B16">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="C16">
-        <v>450</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B17">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B18">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="C18">
-        <v>537</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B19">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C19">
-        <v>543</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B20">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="C20">
-        <v>549</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B21">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="C21">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B22">
-        <v>541</v>
+        <v>163</v>
       </c>
       <c r="C22">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B23">
-        <v>549</v>
+        <v>165</v>
       </c>
       <c r="C23">
-        <v>604</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B24">
-        <v>550</v>
+        <v>167</v>
       </c>
       <c r="C24">
-        <v>634</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B25">
-        <v>547</v>
+        <v>169</v>
       </c>
       <c r="C25">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B26">
-        <v>726</v>
+        <v>196</v>
       </c>
       <c r="C26">
-        <v>710</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B27">
-        <v>726</v>
+        <v>198</v>
       </c>
       <c r="C27">
-        <v>725</v>
+        <v>114</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B28">
-        <v>728</v>
+        <v>201</v>
       </c>
       <c r="C28">
-        <v>738</v>
+        <v>113</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B29">
-        <v>731</v>
+        <v>205</v>
       </c>
       <c r="C29">
-        <v>727</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B30">
-        <v>838</v>
+        <v>205</v>
       </c>
       <c r="C30">
-        <v>696</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B31">
-        <v>839</v>
+        <v>205</v>
       </c>
       <c r="C31">
-        <v>661</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B32">
-        <v>841</v>
+        <v>207</v>
       </c>
       <c r="C32">
-        <v>640</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B33">
-        <v>843</v>
+        <v>207</v>
       </c>
       <c r="C33">
-        <v>576</v>
+        <v>88</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B34">
-        <v>962</v>
+        <v>236</v>
       </c>
       <c r="C34">
-        <v>557</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B35">
-        <v>963</v>
+        <v>239</v>
       </c>
       <c r="C35">
-        <v>585</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B36">
-        <v>970</v>
+        <v>243</v>
       </c>
       <c r="C36">
-        <v>604</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B37">
-        <v>966</v>
+        <v>246</v>
       </c>
       <c r="C37">
-        <v>633</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B38">
-        <v>1223</v>
+        <v>293</v>
       </c>
       <c r="C38">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B39">
-        <v>1232</v>
+        <v>298</v>
       </c>
       <c r="C39">
-        <v>664</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B40">
-        <v>1241</v>
+        <v>299</v>
       </c>
       <c r="C40">
-        <v>754</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B41">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="C41">
-        <v>870</v>
+        <v>111</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B42">
-        <v>1683</v>
+        <v>367</v>
       </c>
       <c r="C42">
-        <v>1027</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B43">
-        <v>1688</v>
+        <v>369</v>
       </c>
       <c r="C43">
-        <v>1172</v>
+        <v>132</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B44">
-        <v>1693</v>
+        <v>371</v>
       </c>
       <c r="C44">
-        <v>1263</v>
+        <v>131</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B45">
-        <v>1699</v>
+        <v>373</v>
       </c>
       <c r="C45">
-        <v>1347</v>
+        <v>147</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B46">
-        <v>2011</v>
+        <v>412</v>
       </c>
       <c r="C46">
-        <v>1443</v>
+        <v>170</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B47">
-        <v>2016</v>
+        <v>413</v>
       </c>
       <c r="C47">
-        <v>1537</v>
+        <v>195</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B48">
-        <v>2021</v>
+        <v>414</v>
       </c>
       <c r="C48">
-        <v>1670</v>
+        <v>198</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B49">
-        <v>2026</v>
+        <v>415</v>
       </c>
       <c r="C49">
-        <v>1815</v>
+        <v>223</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B50">
-        <v>2256</v>
+        <v>460</v>
       </c>
       <c r="C50">
-        <v>1928</v>
+        <v>265</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B51">
-        <v>2260</v>
+        <v>461</v>
       </c>
       <c r="C51">
-        <v>1992</v>
+        <v>280</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B52">
-        <v>2264</v>
+        <v>461</v>
       </c>
       <c r="C52">
-        <v>2081</v>
+        <v>280</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B53">
-        <v>2267</v>
+        <v>461</v>
       </c>
       <c r="C53">
-        <v>2065</v>
+        <v>295</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B54">
-        <v>2325</v>
+        <v>469</v>
       </c>
       <c r="C54">
-        <v>2119</v>
+        <v>326</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B55">
-        <v>2327</v>
+        <v>469</v>
       </c>
       <c r="C55">
-        <v>2216</v>
+        <v>355</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B56">
-        <v>2329</v>
+        <v>469</v>
       </c>
       <c r="C56">
-        <v>2175</v>
+        <v>382</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B57">
-        <v>2331</v>
+        <v>469</v>
       </c>
       <c r="C57">
-        <v>2163</v>
+        <v>421</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B58">
-        <v>2333</v>
+        <v>505</v>
       </c>
       <c r="C58">
-        <v>2271</v>
+        <v>415</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B59">
-        <v>2333</v>
+        <v>505</v>
       </c>
       <c r="C59">
-        <v>2266</v>
+        <v>415</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B60">
-        <v>2333</v>
+        <v>504</v>
       </c>
       <c r="C60">
-        <v>2202</v>
+        <v>446</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B61">
-        <v>2332</v>
+        <v>504</v>
       </c>
       <c r="C61">
-        <v>2089</v>
+        <v>461</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B62">
-        <v>2311</v>
+        <v>543</v>
       </c>
       <c r="C62">
-        <v>2140</v>
+        <v>493</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B63">
-        <v>2312</v>
+        <v>543</v>
       </c>
       <c r="C63">
-        <v>2217</v>
+        <v>503</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B64">
-        <v>2314</v>
+        <v>543</v>
       </c>
       <c r="C64">
-        <v>2220</v>
+        <v>517</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B65">
-        <v>2316</v>
+        <v>543</v>
       </c>
       <c r="C65">
-        <v>2447</v>
+        <v>539</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B66">
-        <v>2460</v>
+        <v>614</v>
       </c>
       <c r="C66">
-        <v>2503</v>
+        <v>579</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B67">
-        <v>2460</v>
+        <v>614</v>
       </c>
       <c r="C67">
-        <v>2537</v>
+        <v>594</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B68">
-        <v>2462</v>
+        <v>614</v>
       </c>
       <c r="C68">
-        <v>2550</v>
+        <v>598</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B69">
-        <v>2463</v>
+        <v>614</v>
       </c>
       <c r="C69">
-        <v>2520</v>
+        <v>624</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B70">
-        <v>2519</v>
+        <v>665</v>
       </c>
       <c r="C70">
-        <v>2581</v>
+        <v>643</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B71">
-        <v>2521</v>
+        <v>666</v>
       </c>
       <c r="C71">
-        <v>2578</v>
+        <v>659</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B72">
-        <v>2521</v>
+        <v>667</v>
       </c>
       <c r="C72">
-        <v>2607</v>
+        <v>683</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B73">
-        <v>2522</v>
+        <v>669</v>
       </c>
       <c r="C73">
-        <v>2611</v>
+        <v>726</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B74">
-        <v>2506</v>
+        <v>726</v>
       </c>
       <c r="C74">
-        <v>2619</v>
+        <v>758</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B75">
-        <v>2507</v>
+        <v>730</v>
       </c>
       <c r="C75">
-        <v>2601</v>
+        <v>777</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B76">
-        <v>2508</v>
+        <v>734</v>
       </c>
       <c r="C76">
-        <v>2619</v>
+        <v>808</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B77">
-        <v>2509</v>
+        <v>738</v>
       </c>
       <c r="C77">
-        <v>2621</v>
+        <v>814</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B78">
-        <v>2413</v>
+        <v>806</v>
       </c>
       <c r="C78">
-        <v>2581</v>
+        <v>848</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B79">
-        <v>2411</v>
+        <v>813</v>
       </c>
       <c r="C79">
-        <v>2581</v>
+        <v>866</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B80">
-        <v>2410</v>
+        <v>820</v>
       </c>
       <c r="C80">
-        <v>2483</v>
+        <v>861</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B81">
-        <v>2408</v>
+        <v>827</v>
       </c>
       <c r="C81">
-        <v>2471</v>
+        <v>857</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B82">
-        <v>2293</v>
+        <v>832</v>
       </c>
       <c r="C82">
-        <v>2380</v>
+        <v>866</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B83">
-        <v>2292</v>
+        <v>833</v>
       </c>
       <c r="C83">
-        <v>2276</v>
+        <v>870</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B84">
-        <v>2291</v>
+        <v>834</v>
       </c>
       <c r="C84">
-        <v>2262</v>
+        <v>846</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B85">
-        <v>2290</v>
+        <v>835</v>
       </c>
       <c r="C85">
-        <v>2309</v>
+        <v>818</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B86">
-        <v>2309</v>
+        <v>759</v>
       </c>
       <c r="C86">
-        <v>2388</v>
+        <v>799</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B87">
-        <v>2310</v>
+        <v>753</v>
       </c>
       <c r="C87">
-        <v>2458</v>
+        <v>788</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B88">
-        <v>2310</v>
+        <v>748</v>
       </c>
       <c r="C88">
-        <v>2489</v>
+        <v>771</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B89">
-        <v>2310</v>
+        <v>742</v>
       </c>
       <c r="C89">
-        <v>2505</v>
+        <v>747</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B90">
-        <v>2366</v>
+        <v>625</v>
       </c>
       <c r="C90">
-        <v>2508</v>
+        <v>697</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B91">
-        <v>2367</v>
+        <v>619</v>
       </c>
       <c r="C91">
-        <v>2522</v>
+        <v>639</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B92">
-        <v>2368</v>
+        <v>613</v>
       </c>
       <c r="C92">
-        <v>2513</v>
+        <v>601</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B93">
-        <v>2369</v>
+        <v>607</v>
       </c>
       <c r="C93">
-        <v>2497</v>
+        <v>566</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B94">
-        <v>2308</v>
+        <v>462</v>
       </c>
       <c r="C94">
-        <v>2479</v>
+        <v>549</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B95">
-        <v>2314</v>
+        <v>459</v>
       </c>
       <c r="C95">
-        <v>2502</v>
+        <v>524</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B96">
-        <v>2314</v>
+        <v>457</v>
       </c>
       <c r="C96">
-        <v>2517</v>
+        <v>496</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B97">
-        <v>2313</v>
+        <v>456</v>
       </c>
       <c r="C97">
-        <v>2527</v>
+        <v>457</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>2385</v>
+        <v>331</v>
       </c>
       <c r="C98">
-        <v>2558</v>
+        <v>408</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B99">
-        <v>2384</v>
+        <v>341</v>
       </c>
       <c r="C99">
-        <v>2553</v>
+        <v>339</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B100">
-        <v>2384</v>
+        <v>333</v>
       </c>
       <c r="C100">
-        <v>2560</v>
+        <v>289</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B101">
-        <v>2379</v>
+        <v>330</v>
       </c>
       <c r="C101">
-        <v>2558</v>
+        <v>268</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B102">
-        <v>2377</v>
+        <v>237</v>
       </c>
       <c r="C102">
-        <v>2549</v>
+        <v>243</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B103">
-        <v>2379</v>
+        <v>235</v>
       </c>
       <c r="C103">
-        <v>2550</v>
+        <v>228</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B104">
-        <v>2359</v>
+        <v>240</v>
       </c>
       <c r="C104">
-        <v>2561</v>
+        <v>205</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B105">
-        <v>2357</v>
+        <v>228</v>
       </c>
       <c r="C105">
-        <v>2551</v>
+        <v>189</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B106">
-        <v>2337</v>
+        <v>176</v>
       </c>
       <c r="C106">
-        <v>2533</v>
+        <v>177</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B107">
-        <v>2335</v>
+        <v>175</v>
       </c>
       <c r="C107">
-        <v>2507</v>
+        <v>170</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B108">
-        <v>2330</v>
+        <v>179</v>
       </c>
       <c r="C108">
-        <v>2472</v>
+        <v>173</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B109">
-        <v>2328</v>
+        <v>173</v>
       </c>
       <c r="C109">
-        <v>2408</v>
+        <v>175</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B110">
-        <v>2203</v>
+        <v>155</v>
       </c>
       <c r="C110">
-        <v>2336</v>
+        <v>165</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B111">
-        <v>2203</v>
+        <v>155</v>
       </c>
       <c r="C111">
-        <v>2360</v>
+        <v>155</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B112">
-        <v>2199</v>
+        <v>164</v>
       </c>
       <c r="C112">
-        <v>2383</v>
+        <v>149</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B113">
-        <v>2196</v>
+        <v>153</v>
       </c>
       <c r="C113">
-        <v>2382</v>
+        <v>149</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B114">
-        <v>2134</v>
+        <v>133</v>
       </c>
       <c r="C114">
-        <v>2317</v>
+        <v>139</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B115">
-        <v>2130</v>
+        <v>132</v>
       </c>
       <c r="C115">
-        <v>2259</v>
+        <v>132</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B116">
-        <v>2139</v>
+        <v>140</v>
       </c>
       <c r="C116">
-        <v>2244</v>
+        <v>132</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B117">
-        <v>2138</v>
+        <v>129</v>
       </c>
       <c r="C117">
-        <v>2227</v>
+        <v>123</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B118">
-        <v>2027</v>
+        <v>121</v>
       </c>
       <c r="C118">
-        <v>2188</v>
+        <v>106</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B119">
-        <v>2028</v>
+        <v>118</v>
       </c>
       <c r="C119">
-        <v>2159</v>
+        <v>100</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B120">
-        <v>2030</v>
+        <v>130</v>
       </c>
       <c r="C120">
-        <v>2116</v>
+        <v>98</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B121">
-        <v>2027</v>
+        <v>117</v>
       </c>
       <c r="C121">
-        <v>2055</v>
+        <v>100</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B122">
-        <v>1911</v>
+        <v>96</v>
       </c>
       <c r="C122">
-        <v>1982</v>
+        <v>97</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B123">
-        <v>1923</v>
+        <v>115</v>
       </c>
       <c r="C123">
-        <v>1938</v>
+        <v>86</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B124">
-        <v>1918</v>
+        <v>96</v>
       </c>
       <c r="C124">
-        <v>1864</v>
+        <v>82</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B125">
-        <v>1917</v>
+        <v>100</v>
       </c>
       <c r="C125">
-        <v>1757</v>
+        <v>78</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B126">
-        <v>1808</v>
+        <v>133</v>
       </c>
       <c r="C126">
-        <v>1668</v>
+        <v>66</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B127">
-        <v>1808</v>
+        <v>134</v>
       </c>
       <c r="C127">
-        <v>1589</v>
+        <v>48</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B128">
-        <v>1807</v>
+        <v>138</v>
       </c>
       <c r="C128">
-        <v>1530</v>
+        <v>79</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B129">
-        <v>1808</v>
+        <v>142</v>
       </c>
       <c r="C129">
-        <v>1497</v>
+        <v>51</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B130">
-        <v>1841</v>
+        <v>178</v>
       </c>
       <c r="C130">
-        <v>1457</v>
+        <v>38</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B131">
-        <v>1847</v>
+        <v>184</v>
       </c>
       <c r="C131">
-        <v>1528</v>
+        <v>48</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B132">
-        <v>1853</v>
+        <v>190</v>
       </c>
       <c r="C132">
-        <v>1565</v>
+        <v>68</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B133">
-        <v>1860</v>
+        <v>185</v>
       </c>
       <c r="C133">
-        <v>1584</v>
+        <v>89</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B134">
-        <v>2083</v>
+        <v>195</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B135">
-        <v>2085</v>
+        <v>196</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B136">
-        <v>2086</v>
+        <v>200</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B137">
-        <v>2087</v>
+        <v>202</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B138">
-        <v>2174</v>
+        <v>195</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B139">
-        <v>2174</v>
+        <v>195</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B140">
-        <v>2173</v>
+        <v>196</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B141">
-        <v>2172</v>
+        <v>197</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B142">
-        <v>2209</v>
+        <v>215</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B143">
-        <v>2208</v>
+        <v>212</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B144">
-        <v>2207</v>
+        <v>212</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B145">
-        <v>2206</v>
+        <v>212</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B146">
-        <v>1807</v>
+        <v>200</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B147">
-        <v>1806</v>
+        <v>197</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B148">
-        <v>1804</v>
+        <v>197</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B149">
-        <v>1803</v>
+        <v>197</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B150">
-        <v>1794</v>
+        <v>207</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B151">
-        <v>1792</v>
+        <v>206</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B152">
-        <v>1790</v>
+        <v>206</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B153">
-        <v>1788</v>
+        <v>206</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B154">
-        <v>1817</v>
+        <v>186</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B155">
-        <v>1816</v>
+        <v>185</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B156">
-        <v>1814</v>
+        <v>185</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B157">
-        <v>1813</v>
+        <v>184</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B158">
-        <v>2061</v>
+        <v>181</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B159">
-        <v>2059</v>
+        <v>180</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B160">
-        <v>2056</v>
+        <v>179</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B161">
-        <v>2053</v>
+        <v>178</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B162">
-        <v>1969</v>
+        <v>195</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B163">
-        <v>1963</v>
+        <v>196</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B164">
-        <v>1957</v>
+        <v>197</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B165">
-        <v>1951</v>
+        <v>198</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B166">
-        <v>1596</v>
+        <v>249</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B167">
-        <v>1585</v>
+        <v>249</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B168">
-        <v>1573</v>
+        <v>248</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B169">
-        <v>1561</v>
+        <v>248</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B170">
-        <v>1214</v>
+        <v>318</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B171">
-        <v>1206</v>
+        <v>320</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B172">
-        <v>1198</v>
+        <v>322</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B173">
-        <v>1191</v>
+        <v>324</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B174">
-        <v>940</v>
+        <v>395</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B175">
-        <v>935</v>
+        <v>396</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B176">
-        <v>931</v>
+        <v>399</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B177">
-        <v>926</v>
+        <v>402</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B178">
-        <v>731</v>
+        <v>411</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B179">
-        <v>729</v>
+        <v>414</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B180">
-        <v>726</v>
+        <v>417</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B181">
-        <v>724</v>
+        <v>420</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B182">
-        <v>613</v>
+        <v>397</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B183">
-        <v>611</v>
+        <v>399</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B184">
-        <v>610</v>
+        <v>401</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B185">
-        <v>608</v>
+        <v>405</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B186">
-        <v>552</v>
+        <v>371</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B187">
-        <v>551</v>
+        <v>372</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B188">
-        <v>550</v>
+        <v>372</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B189">
-        <v>549</v>
+        <v>373</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>28.04.202593</t>
-  </si>
-  <si>
-    <t>28.04.202594</t>
-  </si>
-  <si>
-    <t>28.04.202595</t>
-  </si>
-  <si>
-    <t>28.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
-  </si>
-  <si>
-    <t>29.04.202535</t>
-  </si>
-  <si>
-    <t>29.04.202536</t>
-  </si>
-  <si>
-    <t>29.04.202537</t>
-  </si>
-  <si>
-    <t>29.04.202538</t>
-  </si>
-  <si>
-    <t>29.04.202539</t>
-  </si>
-  <si>
-    <t>29.04.202540</t>
-  </si>
-  <si>
-    <t>29.04.202541</t>
-  </si>
-  <si>
-    <t>29.04.202542</t>
-  </si>
-  <si>
-    <t>29.04.202543</t>
-  </si>
-  <si>
-    <t>29.04.202544</t>
-  </si>
-  <si>
-    <t>29.04.202545</t>
-  </si>
-  <si>
-    <t>29.04.202546</t>
-  </si>
-  <si>
-    <t>29.04.202547</t>
-  </si>
-  <si>
-    <t>29.04.202548</t>
-  </si>
-  <si>
-    <t>29.04.202549</t>
-  </si>
-  <si>
-    <t>29.04.202550</t>
-  </si>
-  <si>
-    <t>29.04.202551</t>
-  </si>
-  <si>
-    <t>29.04.202552</t>
-  </si>
-  <si>
-    <t>29.04.202553</t>
-  </si>
-  <si>
-    <t>29.04.202554</t>
-  </si>
-  <si>
-    <t>29.04.202555</t>
-  </si>
-  <si>
-    <t>29.04.202556</t>
-  </si>
-  <si>
-    <t>29.04.202557</t>
-  </si>
-  <si>
-    <t>29.04.202558</t>
-  </si>
-  <si>
-    <t>29.04.202559</t>
-  </si>
-  <si>
-    <t>29.04.202560</t>
-  </si>
-  <si>
-    <t>29.04.202561</t>
-  </si>
-  <si>
-    <t>29.04.202562</t>
-  </si>
-  <si>
-    <t>29.04.202563</t>
-  </si>
-  <si>
-    <t>29.04.202564</t>
-  </si>
-  <si>
-    <t>29.04.202565</t>
-  </si>
-  <si>
-    <t>29.04.202566</t>
-  </si>
-  <si>
-    <t>29.04.202567</t>
-  </si>
-  <si>
-    <t>29.04.202568</t>
-  </si>
-  <si>
-    <t>29.04.202569</t>
-  </si>
-  <si>
-    <t>29.04.202570</t>
-  </si>
-  <si>
-    <t>29.04.202571</t>
-  </si>
-  <si>
-    <t>29.04.202572</t>
-  </si>
-  <si>
-    <t>29.04.202573</t>
-  </si>
-  <si>
-    <t>29.04.202574</t>
-  </si>
-  <si>
-    <t>29.04.202575</t>
-  </si>
-  <si>
-    <t>29.04.202576</t>
-  </si>
-  <si>
-    <t>29.04.202577</t>
-  </si>
-  <si>
-    <t>29.04.202578</t>
-  </si>
-  <si>
-    <t>29.04.202579</t>
-  </si>
-  <si>
-    <t>29.04.202580</t>
-  </si>
-  <si>
-    <t>29.04.202581</t>
-  </si>
-  <si>
-    <t>29.04.202582</t>
-  </si>
-  <si>
-    <t>29.04.202583</t>
-  </si>
-  <si>
-    <t>29.04.202584</t>
-  </si>
-  <si>
-    <t>29.04.202585</t>
-  </si>
-  <si>
-    <t>29.04.202586</t>
-  </si>
-  <si>
-    <t>29.04.202587</t>
-  </si>
-  <si>
-    <t>29.04.202588</t>
-  </si>
-  <si>
-    <t>29.04.202589</t>
-  </si>
-  <si>
-    <t>29.04.202590</t>
-  </si>
-  <si>
-    <t>29.04.202591</t>
-  </si>
-  <si>
-    <t>29.04.202592</t>
-  </si>
-  <si>
-    <t>29.04.202593</t>
-  </si>
-  <si>
-    <t>29.04.202594</t>
-  </si>
-  <si>
-    <t>29.04.202595</t>
-  </si>
-  <si>
-    <t>29.04.202596</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>08.05.202593</t>
+  </si>
+  <si>
+    <t>08.05.202594</t>
+  </si>
+  <si>
+    <t>08.05.202595</t>
+  </si>
+  <si>
+    <t>08.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>09.05.202524</t>
+  </si>
+  <si>
+    <t>09.05.202525</t>
+  </si>
+  <si>
+    <t>09.05.202526</t>
+  </si>
+  <si>
+    <t>09.05.202527</t>
+  </si>
+  <si>
+    <t>09.05.202528</t>
+  </si>
+  <si>
+    <t>09.05.202529</t>
+  </si>
+  <si>
+    <t>09.05.202530</t>
+  </si>
+  <si>
+    <t>09.05.202531</t>
+  </si>
+  <si>
+    <t>09.05.202532</t>
+  </si>
+  <si>
+    <t>09.05.202533</t>
+  </si>
+  <si>
+    <t>09.05.202534</t>
+  </si>
+  <si>
+    <t>09.05.202535</t>
+  </si>
+  <si>
+    <t>09.05.202536</t>
+  </si>
+  <si>
+    <t>09.05.202537</t>
+  </si>
+  <si>
+    <t>09.05.202538</t>
+  </si>
+  <si>
+    <t>09.05.202539</t>
+  </si>
+  <si>
+    <t>09.05.202540</t>
+  </si>
+  <si>
+    <t>09.05.202541</t>
+  </si>
+  <si>
+    <t>09.05.202542</t>
+  </si>
+  <si>
+    <t>09.05.202543</t>
+  </si>
+  <si>
+    <t>09.05.202544</t>
+  </si>
+  <si>
+    <t>09.05.202545</t>
+  </si>
+  <si>
+    <t>09.05.202546</t>
+  </si>
+  <si>
+    <t>09.05.202547</t>
+  </si>
+  <si>
+    <t>09.05.202548</t>
+  </si>
+  <si>
+    <t>09.05.202549</t>
+  </si>
+  <si>
+    <t>09.05.202550</t>
+  </si>
+  <si>
+    <t>09.05.202551</t>
+  </si>
+  <si>
+    <t>09.05.202552</t>
+  </si>
+  <si>
+    <t>09.05.202553</t>
+  </si>
+  <si>
+    <t>09.05.202554</t>
+  </si>
+  <si>
+    <t>09.05.202555</t>
+  </si>
+  <si>
+    <t>09.05.202556</t>
+  </si>
+  <si>
+    <t>09.05.202557</t>
+  </si>
+  <si>
+    <t>09.05.202558</t>
+  </si>
+  <si>
+    <t>09.05.202559</t>
+  </si>
+  <si>
+    <t>09.05.202560</t>
+  </si>
+  <si>
+    <t>09.05.202561</t>
+  </si>
+  <si>
+    <t>09.05.202562</t>
+  </si>
+  <si>
+    <t>09.05.202563</t>
+  </si>
+  <si>
+    <t>09.05.202564</t>
+  </si>
+  <si>
+    <t>09.05.202565</t>
+  </si>
+  <si>
+    <t>09.05.202566</t>
+  </si>
+  <si>
+    <t>09.05.202567</t>
+  </si>
+  <si>
+    <t>09.05.202568</t>
+  </si>
+  <si>
+    <t>09.05.202569</t>
+  </si>
+  <si>
+    <t>09.05.202570</t>
+  </si>
+  <si>
+    <t>09.05.202571</t>
+  </si>
+  <si>
+    <t>09.05.202572</t>
+  </si>
+  <si>
+    <t>09.05.202573</t>
+  </si>
+  <si>
+    <t>09.05.202574</t>
+  </si>
+  <si>
+    <t>09.05.202575</t>
+  </si>
+  <si>
+    <t>09.05.202576</t>
+  </si>
+  <si>
+    <t>09.05.202577</t>
+  </si>
+  <si>
+    <t>09.05.202578</t>
+  </si>
+  <si>
+    <t>09.05.202579</t>
+  </si>
+  <si>
+    <t>09.05.202580</t>
+  </si>
+  <si>
+    <t>09.05.202581</t>
+  </si>
+  <si>
+    <t>09.05.202582</t>
+  </si>
+  <si>
+    <t>09.05.202583</t>
+  </si>
+  <si>
+    <t>09.05.202584</t>
+  </si>
+  <si>
+    <t>09.05.202585</t>
+  </si>
+  <si>
+    <t>09.05.202586</t>
+  </si>
+  <si>
+    <t>09.05.202587</t>
+  </si>
+  <si>
+    <t>09.05.202588</t>
+  </si>
+  <si>
+    <t>09.05.202589</t>
+  </si>
+  <si>
+    <t>09.05.202590</t>
+  </si>
+  <si>
+    <t>09.05.202591</t>
+  </si>
+  <si>
+    <t>09.05.202592</t>
+  </si>
+  <si>
+    <t>09.05.202593</t>
+  </si>
+  <si>
+    <t>09.05.202594</t>
+  </si>
+  <si>
+    <t>09.05.202595</t>
+  </si>
+  <si>
+    <t>09.05.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>682</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>662</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>678</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>624</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>682</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>628</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
-        <v>117</v>
+        <v>682</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>590</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
-        <v>107</v>
+        <v>594</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>589</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>547</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>586</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>582</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>498</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>503</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>469</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>500</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>464</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>108</v>
+        <v>498</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>445</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>124</v>
+        <v>442</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>125</v>
+        <v>441</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
+        <v>289</v>
+      </c>
+      <c r="C25">
         <v>169</v>
-      </c>
-      <c r="C25">
-        <v>107</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C27">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="C31">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="C34">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="C37">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>293</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="C39">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="C41">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>367</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>369</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>373</v>
+        <v>62</v>
       </c>
       <c r="C45">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>412</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>413</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>460</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>461</v>
+        <v>97</v>
       </c>
       <c r="C51">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>461</v>
+        <v>98</v>
       </c>
       <c r="C52">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>461</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>469</v>
+        <v>137</v>
       </c>
       <c r="C54">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>469</v>
+        <v>138</v>
       </c>
       <c r="C55">
-        <v>355</v>
+        <v>27</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>469</v>
+        <v>139</v>
       </c>
       <c r="C56">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="C57">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
-        <v>505</v>
+        <v>185</v>
       </c>
       <c r="C58">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>505</v>
+        <v>187</v>
       </c>
       <c r="C59">
-        <v>415</v>
+        <v>91</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
-        <v>504</v>
+        <v>188</v>
       </c>
       <c r="C60">
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>504</v>
+        <v>190</v>
       </c>
       <c r="C61">
-        <v>461</v>
+        <v>114</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
-        <v>543</v>
+        <v>256</v>
       </c>
       <c r="C62">
-        <v>493</v>
+        <v>121</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>543</v>
+        <v>258</v>
       </c>
       <c r="C63">
-        <v>503</v>
+        <v>144</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>543</v>
+        <v>260</v>
       </c>
       <c r="C64">
-        <v>517</v>
+        <v>161</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>543</v>
+        <v>262</v>
       </c>
       <c r="C65">
-        <v>539</v>
+        <v>192</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>614</v>
+        <v>341</v>
       </c>
       <c r="C66">
-        <v>579</v>
+        <v>254</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>614</v>
+        <v>342</v>
       </c>
       <c r="C67">
-        <v>594</v>
+        <v>321</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>614</v>
+        <v>344</v>
       </c>
       <c r="C68">
-        <v>598</v>
+        <v>347</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>614</v>
+        <v>346</v>
       </c>
       <c r="C69">
-        <v>624</v>
+        <v>339</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="C70">
-        <v>643</v>
+        <v>377</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>666</v>
+        <v>468</v>
       </c>
       <c r="C71">
-        <v>659</v>
+        <v>405</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>667</v>
+        <v>469</v>
       </c>
       <c r="C72">
-        <v>683</v>
+        <v>409</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>669</v>
+        <v>469</v>
       </c>
       <c r="C73">
-        <v>726</v>
+        <v>443</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>726</v>
+        <v>508</v>
       </c>
       <c r="C74">
-        <v>758</v>
+        <v>462</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>730</v>
+        <v>509</v>
       </c>
       <c r="C75">
-        <v>777</v>
+        <v>474</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>734</v>
+        <v>510</v>
       </c>
       <c r="C76">
-        <v>808</v>
+        <v>484</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>738</v>
+        <v>511</v>
       </c>
       <c r="C77">
-        <v>814</v>
+        <v>487</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>806</v>
+        <v>615</v>
       </c>
       <c r="C78">
-        <v>848</v>
+        <v>446</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>813</v>
+        <v>618</v>
       </c>
       <c r="C79">
-        <v>866</v>
+        <v>427</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="C80">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>827</v>
+        <v>623</v>
       </c>
       <c r="C81">
-        <v>857</v>
+        <v>726</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>832</v>
+        <v>657</v>
       </c>
       <c r="C82">
-        <v>866</v>
+        <v>771</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>833</v>
+        <v>658</v>
       </c>
       <c r="C83">
-        <v>870</v>
+        <v>788</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>834</v>
+        <v>660</v>
       </c>
       <c r="C84">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>835</v>
+        <v>662</v>
       </c>
       <c r="C85">
         <v>818</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="C86">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>753</v>
+        <v>698</v>
       </c>
       <c r="C87">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
-        <v>748</v>
+        <v>699</v>
       </c>
       <c r="C88">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
-        <v>742</v>
+        <v>700</v>
       </c>
       <c r="C89">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="C90">
-        <v>697</v>
+        <v>817</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="C91">
-        <v>639</v>
+        <v>841</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="C92">
-        <v>601</v>
+        <v>912</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="C93">
-        <v>566</v>
+        <v>953</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>462</v>
+        <v>713</v>
       </c>
       <c r="C94">
-        <v>549</v>
+        <v>888</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>459</v>
+        <v>712</v>
       </c>
       <c r="C95">
-        <v>524</v>
+        <v>883</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B96">
-        <v>457</v>
+        <v>712</v>
       </c>
       <c r="C96">
-        <v>496</v>
+        <v>893</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B97">
-        <v>456</v>
+        <v>712</v>
       </c>
       <c r="C97">
-        <v>457</v>
+        <v>885</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B98">
-        <v>331</v>
+        <v>1012</v>
       </c>
       <c r="C98">
-        <v>408</v>
+        <v>876</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B99">
-        <v>341</v>
+        <v>1011</v>
       </c>
       <c r="C99">
-        <v>339</v>
+        <v>834</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B100">
-        <v>333</v>
+        <v>1011</v>
       </c>
       <c r="C100">
-        <v>289</v>
+        <v>928</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B101">
-        <v>330</v>
+        <v>1010</v>
       </c>
       <c r="C101">
-        <v>268</v>
+        <v>1037</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B102">
-        <v>237</v>
+        <v>959</v>
       </c>
       <c r="C102">
-        <v>243</v>
+        <v>1166</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B103">
-        <v>235</v>
+        <v>957</v>
       </c>
       <c r="C103">
-        <v>228</v>
+        <v>1181</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B104">
-        <v>240</v>
+        <v>955</v>
       </c>
       <c r="C104">
-        <v>205</v>
+        <v>1128</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B105">
-        <v>228</v>
+        <v>953</v>
       </c>
       <c r="C105">
-        <v>189</v>
+        <v>1071</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B106">
-        <v>176</v>
+        <v>862</v>
       </c>
       <c r="C106">
-        <v>177</v>
+        <v>953</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B107">
-        <v>175</v>
+        <v>859</v>
       </c>
       <c r="C107">
-        <v>170</v>
+        <v>853</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B108">
-        <v>179</v>
+        <v>855</v>
       </c>
       <c r="C108">
-        <v>173</v>
+        <v>786</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B109">
-        <v>173</v>
+        <v>852</v>
       </c>
       <c r="C109">
-        <v>175</v>
+        <v>803</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B110">
-        <v>155</v>
+        <v>794</v>
       </c>
       <c r="C110">
-        <v>165</v>
+        <v>832</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B111">
-        <v>155</v>
+        <v>792</v>
       </c>
       <c r="C111">
-        <v>155</v>
+        <v>868</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B112">
-        <v>164</v>
+        <v>790</v>
       </c>
       <c r="C112">
-        <v>149</v>
+        <v>926</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B113">
-        <v>153</v>
+        <v>788</v>
       </c>
       <c r="C113">
-        <v>149</v>
+        <v>938</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B114">
-        <v>133</v>
+        <v>846</v>
       </c>
       <c r="C114">
-        <v>139</v>
+        <v>1001</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B115">
-        <v>132</v>
+        <v>848</v>
       </c>
       <c r="C115">
-        <v>132</v>
+        <v>1064</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B116">
-        <v>140</v>
+        <v>851</v>
       </c>
       <c r="C116">
-        <v>132</v>
+        <v>1104</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B117">
-        <v>129</v>
+        <v>854</v>
       </c>
       <c r="C117">
-        <v>123</v>
+        <v>1172</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B118">
-        <v>121</v>
+        <v>979</v>
       </c>
       <c r="C118">
-        <v>106</v>
+        <v>1279</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>985</v>
       </c>
       <c r="C119">
-        <v>100</v>
+        <v>1349</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B120">
-        <v>130</v>
+        <v>991</v>
       </c>
       <c r="C120">
-        <v>98</v>
+        <v>1379</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B121">
-        <v>117</v>
+        <v>997</v>
       </c>
       <c r="C121">
-        <v>100</v>
+        <v>1419</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B122">
-        <v>96</v>
+        <v>1229</v>
       </c>
       <c r="C122">
-        <v>97</v>
+        <v>1494</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B123">
-        <v>115</v>
+        <v>1240</v>
       </c>
       <c r="C123">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B124">
-        <v>96</v>
+        <v>1252</v>
       </c>
       <c r="C124">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B125">
-        <v>100</v>
+        <v>1264</v>
       </c>
       <c r="C125">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B126">
-        <v>133</v>
+        <v>1401</v>
       </c>
       <c r="C126">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B127">
-        <v>134</v>
+        <v>1407</v>
       </c>
       <c r="C127">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B128">
-        <v>138</v>
+        <v>1414</v>
       </c>
       <c r="C128">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B129">
-        <v>142</v>
+        <v>1421</v>
       </c>
       <c r="C129">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B130">
-        <v>178</v>
+        <v>1514</v>
       </c>
       <c r="C130">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B131">
-        <v>184</v>
+        <v>1518</v>
       </c>
       <c r="C131">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B132">
-        <v>190</v>
+        <v>1523</v>
       </c>
       <c r="C132">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B133">
-        <v>185</v>
+        <v>1527</v>
       </c>
       <c r="C133">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B134">
-        <v>195</v>
+        <v>1527</v>
       </c>
       <c r="C134">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B135">
-        <v>196</v>
+        <v>1527</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B136">
-        <v>200</v>
+        <v>1527</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B137">
-        <v>202</v>
+        <v>1526</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B138">
-        <v>195</v>
+        <v>1473</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B139">
-        <v>195</v>
+        <v>1472</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B140">
-        <v>196</v>
+        <v>1471</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B141">
-        <v>197</v>
+        <v>1470</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B142">
-        <v>215</v>
+        <v>1428</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B143">
-        <v>212</v>
+        <v>1426</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B144">
-        <v>212</v>
+        <v>1424</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B145">
-        <v>212</v>
+        <v>1422</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B146">
-        <v>200</v>
+        <v>1434</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B147">
-        <v>197</v>
+        <v>1432</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B148">
-        <v>197</v>
+        <v>1430</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B149">
-        <v>197</v>
+        <v>1429</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B150">
-        <v>207</v>
+        <v>1422</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B151">
-        <v>206</v>
+        <v>1418</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B152">
-        <v>206</v>
+        <v>1414</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B153">
-        <v>206</v>
+        <v>1410</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B154">
-        <v>186</v>
+        <v>1367</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B155">
-        <v>185</v>
+        <v>1364</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B156">
-        <v>185</v>
+        <v>1360</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B157">
-        <v>184</v>
+        <v>1356</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B158">
-        <v>181</v>
+        <v>1223</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B159">
-        <v>180</v>
+        <v>1219</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B160">
-        <v>179</v>
+        <v>1215</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B161">
-        <v>178</v>
+        <v>1211</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B162">
-        <v>195</v>
+        <v>1082</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B163">
-        <v>196</v>
+        <v>1075</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B164">
-        <v>197</v>
+        <v>1069</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B165">
-        <v>198</v>
+        <v>1063</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B166">
-        <v>249</v>
+        <v>923</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B167">
-        <v>249</v>
+        <v>918</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B168">
-        <v>248</v>
+        <v>912</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B169">
-        <v>248</v>
+        <v>907</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B170">
-        <v>318</v>
+        <v>830</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B171">
-        <v>320</v>
+        <v>826</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B172">
-        <v>322</v>
+        <v>822</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B173">
-        <v>324</v>
+        <v>818</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B174">
-        <v>395</v>
+        <v>796</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B175">
-        <v>396</v>
+        <v>795</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B176">
-        <v>399</v>
+        <v>794</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B177">
-        <v>402</v>
+        <v>794</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B178">
-        <v>411</v>
+        <v>769</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B179">
-        <v>414</v>
+        <v>769</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B180">
-        <v>417</v>
+        <v>768</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B181">
-        <v>420</v>
+        <v>767</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B182">
-        <v>397</v>
+        <v>714</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B183">
-        <v>399</v>
+        <v>712</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B184">
-        <v>401</v>
+        <v>710</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B185">
-        <v>405</v>
+        <v>708</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B186">
-        <v>371</v>
+        <v>625</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B187">
-        <v>372</v>
+        <v>623</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B188">
-        <v>372</v>
+        <v>620</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B189">
-        <v>373</v>
+        <v>618</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>08.05.202593</t>
-  </si>
-  <si>
-    <t>08.05.202594</t>
-  </si>
-  <si>
-    <t>08.05.202595</t>
-  </si>
-  <si>
-    <t>08.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>09.05.202524</t>
-  </si>
-  <si>
-    <t>09.05.202525</t>
-  </si>
-  <si>
-    <t>09.05.202526</t>
-  </si>
-  <si>
-    <t>09.05.202527</t>
-  </si>
-  <si>
-    <t>09.05.202528</t>
-  </si>
-  <si>
-    <t>09.05.202529</t>
-  </si>
-  <si>
-    <t>09.05.202530</t>
-  </si>
-  <si>
-    <t>09.05.202531</t>
-  </si>
-  <si>
-    <t>09.05.202532</t>
-  </si>
-  <si>
-    <t>09.05.202533</t>
-  </si>
-  <si>
-    <t>09.05.202534</t>
-  </si>
-  <si>
-    <t>09.05.202535</t>
-  </si>
-  <si>
-    <t>09.05.202536</t>
-  </si>
-  <si>
-    <t>09.05.202537</t>
-  </si>
-  <si>
-    <t>09.05.202538</t>
-  </si>
-  <si>
-    <t>09.05.202539</t>
-  </si>
-  <si>
-    <t>09.05.202540</t>
-  </si>
-  <si>
-    <t>09.05.202541</t>
-  </si>
-  <si>
-    <t>09.05.202542</t>
-  </si>
-  <si>
-    <t>09.05.202543</t>
-  </si>
-  <si>
-    <t>09.05.202544</t>
-  </si>
-  <si>
-    <t>09.05.202545</t>
-  </si>
-  <si>
-    <t>09.05.202546</t>
-  </si>
-  <si>
-    <t>09.05.202547</t>
-  </si>
-  <si>
-    <t>09.05.202548</t>
-  </si>
-  <si>
-    <t>09.05.202549</t>
-  </si>
-  <si>
-    <t>09.05.202550</t>
-  </si>
-  <si>
-    <t>09.05.202551</t>
-  </si>
-  <si>
-    <t>09.05.202552</t>
-  </si>
-  <si>
-    <t>09.05.202553</t>
-  </si>
-  <si>
-    <t>09.05.202554</t>
-  </si>
-  <si>
-    <t>09.05.202555</t>
-  </si>
-  <si>
-    <t>09.05.202556</t>
-  </si>
-  <si>
-    <t>09.05.202557</t>
-  </si>
-  <si>
-    <t>09.05.202558</t>
-  </si>
-  <si>
-    <t>09.05.202559</t>
-  </si>
-  <si>
-    <t>09.05.202560</t>
-  </si>
-  <si>
-    <t>09.05.202561</t>
-  </si>
-  <si>
-    <t>09.05.202562</t>
-  </si>
-  <si>
-    <t>09.05.202563</t>
-  </si>
-  <si>
-    <t>09.05.202564</t>
-  </si>
-  <si>
-    <t>09.05.202565</t>
-  </si>
-  <si>
-    <t>09.05.202566</t>
-  </si>
-  <si>
-    <t>09.05.202567</t>
-  </si>
-  <si>
-    <t>09.05.202568</t>
-  </si>
-  <si>
-    <t>09.05.202569</t>
-  </si>
-  <si>
-    <t>09.05.202570</t>
-  </si>
-  <si>
-    <t>09.05.202571</t>
-  </si>
-  <si>
-    <t>09.05.202572</t>
-  </si>
-  <si>
-    <t>09.05.202573</t>
-  </si>
-  <si>
-    <t>09.05.202574</t>
-  </si>
-  <si>
-    <t>09.05.202575</t>
-  </si>
-  <si>
-    <t>09.05.202576</t>
-  </si>
-  <si>
-    <t>09.05.202577</t>
-  </si>
-  <si>
-    <t>09.05.202578</t>
-  </si>
-  <si>
-    <t>09.05.202579</t>
-  </si>
-  <si>
-    <t>09.05.202580</t>
-  </si>
-  <si>
-    <t>09.05.202581</t>
-  </si>
-  <si>
-    <t>09.05.202582</t>
-  </si>
-  <si>
-    <t>09.05.202583</t>
-  </si>
-  <si>
-    <t>09.05.202584</t>
-  </si>
-  <si>
-    <t>09.05.202585</t>
-  </si>
-  <si>
-    <t>09.05.202586</t>
-  </si>
-  <si>
-    <t>09.05.202587</t>
-  </si>
-  <si>
-    <t>09.05.202588</t>
-  </si>
-  <si>
-    <t>09.05.202589</t>
-  </si>
-  <si>
-    <t>09.05.202590</t>
-  </si>
-  <si>
-    <t>09.05.202591</t>
-  </si>
-  <si>
-    <t>09.05.202592</t>
-  </si>
-  <si>
-    <t>09.05.202593</t>
-  </si>
-  <si>
-    <t>09.05.202594</t>
-  </si>
-  <si>
-    <t>09.05.202595</t>
-  </si>
-  <si>
-    <t>09.05.202596</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>19.05.202593</t>
+  </si>
+  <si>
+    <t>19.05.202594</t>
+  </si>
+  <si>
+    <t>19.05.202595</t>
+  </si>
+  <si>
+    <t>19.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
-        <v>682</v>
+        <v>1217</v>
       </c>
       <c r="C2">
-        <v>662</v>
+        <v>493</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
-        <v>678</v>
+        <v>1220</v>
       </c>
       <c r="C3">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
-        <v>682</v>
+        <v>1208</v>
       </c>
       <c r="C4">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
-        <v>682</v>
+        <v>1210</v>
       </c>
       <c r="C5">
-        <v>590</v>
+        <v>797</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>594</v>
+        <v>1233</v>
       </c>
       <c r="C6">
-        <v>547</v>
+        <v>865</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>589</v>
+        <v>1216</v>
       </c>
       <c r="C7">
-        <v>547</v>
+        <v>912</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>586</v>
+        <v>1215</v>
       </c>
       <c r="C8">
-        <v>525</v>
+        <v>915</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>582</v>
+        <v>1214</v>
       </c>
       <c r="C9">
-        <v>498</v>
+        <v>1031</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
-        <v>503</v>
+        <v>1247</v>
       </c>
       <c r="C10">
-        <v>469</v>
+        <v>1124</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>1247</v>
       </c>
       <c r="C11">
-        <v>464</v>
+        <v>1126</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
-        <v>498</v>
+        <v>1240</v>
       </c>
       <c r="C12">
-        <v>449</v>
+        <v>1128</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
-        <v>496</v>
+        <v>1236</v>
       </c>
       <c r="C13">
-        <v>428</v>
+        <v>1107</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>445</v>
+        <v>1215</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>1096</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>443</v>
+        <v>1221</v>
       </c>
       <c r="C15">
-        <v>337</v>
+        <v>1059</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>442</v>
+        <v>1215</v>
       </c>
       <c r="C16">
-        <v>295</v>
+        <v>1056</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>441</v>
+        <v>1218</v>
       </c>
       <c r="C17">
-        <v>303</v>
+        <v>1053</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>374</v>
+        <v>1278</v>
       </c>
       <c r="C18">
-        <v>286</v>
+        <v>1051</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>378</v>
+        <v>1277</v>
       </c>
       <c r="C19">
-        <v>290</v>
+        <v>1079</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>371</v>
+        <v>1273</v>
       </c>
       <c r="C20">
-        <v>302</v>
+        <v>1135</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>369</v>
+        <v>1273</v>
       </c>
       <c r="C21">
-        <v>273</v>
+        <v>1197</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
-        <v>296</v>
+        <v>1320</v>
       </c>
       <c r="C22">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
-        <v>294</v>
+        <v>1316</v>
       </c>
       <c r="C23">
-        <v>213</v>
+        <v>1271</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>291</v>
+        <v>1311</v>
       </c>
       <c r="C24">
-        <v>187</v>
+        <v>1287</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>289</v>
+        <v>1307</v>
       </c>
       <c r="C25">
-        <v>169</v>
+        <v>1341</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
-        <v>197</v>
+        <v>1179</v>
       </c>
       <c r="C26">
-        <v>128</v>
+        <v>1295</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
-        <v>195</v>
+        <v>1175</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>1245</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>193</v>
+        <v>1168</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>1192</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>191</v>
+        <v>1165</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>1140</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>1154</v>
       </c>
       <c r="C30">
-        <v>59</v>
+        <v>1125</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>1149</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>1108</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>1157</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>1118</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>1156</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>1149</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>1213</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>1205</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>1216</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>1274</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>1219</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>1336</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>1222</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>1362</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>1376</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1304</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>55</v>
+        <v>1383</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>1393</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>1400</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>1650</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>1658</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>62</v>
+        <v>1667</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
-        <v>62</v>
+        <v>1675</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
-        <v>71</v>
+        <v>1907</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
-        <v>72</v>
+        <v>1914</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1747</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>73</v>
+        <v>1920</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>73</v>
+        <v>1926</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>96</v>
+        <v>2085</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>97</v>
+        <v>2089</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>98</v>
+        <v>2093</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>99</v>
+        <v>2096</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>2081</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>137</v>
+        <v>2189</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>2103</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>138</v>
+        <v>2192</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>2138</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>139</v>
+        <v>2194</v>
       </c>
       <c r="C56">
-        <v>35</v>
+        <v>2185</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>140</v>
+        <v>2197</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>2181</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
-        <v>185</v>
+        <v>2259</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>2194</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>187</v>
+        <v>2260</v>
       </c>
       <c r="C59">
-        <v>91</v>
+        <v>2159</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>188</v>
+        <v>2261</v>
       </c>
       <c r="C60">
-        <v>98</v>
+        <v>2114</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>190</v>
+        <v>2262</v>
       </c>
       <c r="C61">
-        <v>114</v>
+        <v>2050</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>256</v>
+        <v>2271</v>
       </c>
       <c r="C62">
-        <v>121</v>
+        <v>2054</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>258</v>
+        <v>2268</v>
       </c>
       <c r="C63">
-        <v>144</v>
+        <v>2114</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>260</v>
+        <v>2265</v>
       </c>
       <c r="C64">
-        <v>161</v>
+        <v>2147</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>262</v>
+        <v>2261</v>
       </c>
       <c r="C65">
-        <v>192</v>
+        <v>2102</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>341</v>
+        <v>2159</v>
       </c>
       <c r="C66">
-        <v>254</v>
+        <v>2168</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>342</v>
+        <v>2153</v>
       </c>
       <c r="C67">
-        <v>321</v>
+        <v>2163</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>344</v>
+        <v>2147</v>
       </c>
       <c r="C68">
-        <v>347</v>
+        <v>2132</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>346</v>
+        <v>2142</v>
       </c>
       <c r="C69">
-        <v>339</v>
+        <v>2150</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>468</v>
+        <v>1977</v>
       </c>
       <c r="C70">
-        <v>377</v>
+        <v>2054</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>468</v>
+        <v>1974</v>
       </c>
       <c r="C71">
-        <v>405</v>
+        <v>1965</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>469</v>
+        <v>1971</v>
       </c>
       <c r="C72">
-        <v>409</v>
+        <v>1849</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>469</v>
+        <v>1968</v>
       </c>
       <c r="C73">
-        <v>443</v>
+        <v>1887</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
-        <v>508</v>
+        <v>1768</v>
       </c>
       <c r="C74">
-        <v>462</v>
+        <v>1799</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
-        <v>509</v>
+        <v>1765</v>
       </c>
       <c r="C75">
-        <v>474</v>
+        <v>1716</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>510</v>
+        <v>1763</v>
       </c>
       <c r="C76">
-        <v>484</v>
+        <v>1542</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>511</v>
+        <v>1761</v>
       </c>
       <c r="C77">
-        <v>487</v>
+        <v>1160</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>615</v>
+        <v>1544</v>
       </c>
       <c r="C78">
-        <v>446</v>
+        <v>939</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>618</v>
+        <v>1542</v>
       </c>
       <c r="C79">
-        <v>427</v>
+        <v>834</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>620</v>
+        <v>1540</v>
       </c>
       <c r="C80">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>623</v>
+        <v>1538</v>
       </c>
       <c r="C81">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>657</v>
+        <v>1321</v>
       </c>
       <c r="C82">
-        <v>771</v>
+        <v>845</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>658</v>
+        <v>1319</v>
       </c>
       <c r="C83">
-        <v>788</v>
+        <v>976</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
-        <v>660</v>
+        <v>1318</v>
       </c>
       <c r="C84">
-        <v>776</v>
+        <v>1136</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
-        <v>662</v>
+        <v>1317</v>
       </c>
       <c r="C85">
-        <v>818</v>
+        <v>1187</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>697</v>
+        <v>1178</v>
       </c>
       <c r="C86">
-        <v>826</v>
+        <v>1139</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>698</v>
+        <v>1174</v>
       </c>
       <c r="C87">
-        <v>804</v>
+        <v>999</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>699</v>
+        <v>1171</v>
       </c>
       <c r="C88">
-        <v>781</v>
+        <v>954</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="C89">
-        <v>816</v>
+        <v>942</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>702</v>
+        <v>1094</v>
       </c>
       <c r="C90">
-        <v>817</v>
+        <v>947</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>703</v>
+        <v>1094</v>
       </c>
       <c r="C91">
-        <v>841</v>
+        <v>1037</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>704</v>
+        <v>1093</v>
       </c>
       <c r="C92">
-        <v>912</v>
+        <v>1042</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>705</v>
+        <v>1093</v>
       </c>
       <c r="C93">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>713</v>
+        <v>959</v>
       </c>
       <c r="C94">
-        <v>888</v>
+        <v>947</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>712</v>
+        <v>961</v>
       </c>
       <c r="C95">
-        <v>883</v>
+        <v>1007</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B96">
-        <v>712</v>
+        <v>963</v>
       </c>
       <c r="C96">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B97">
-        <v>712</v>
+        <v>955</v>
       </c>
       <c r="C97">
-        <v>885</v>
+        <v>814</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B98">
-        <v>1012</v>
+        <v>867</v>
       </c>
       <c r="C98">
-        <v>876</v>
+        <v>766</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B99">
-        <v>1011</v>
+        <v>867</v>
       </c>
       <c r="C99">
-        <v>834</v>
+        <v>733</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B100">
-        <v>1011</v>
+        <v>872</v>
       </c>
       <c r="C100">
-        <v>928</v>
+        <v>762</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B101">
-        <v>1010</v>
+        <v>870</v>
       </c>
       <c r="C101">
-        <v>1037</v>
+        <v>809</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B102">
-        <v>959</v>
+        <v>815</v>
       </c>
       <c r="C102">
-        <v>1166</v>
+        <v>895</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B103">
-        <v>957</v>
+        <v>808</v>
       </c>
       <c r="C103">
-        <v>1181</v>
+        <v>950</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B104">
-        <v>955</v>
+        <v>804</v>
       </c>
       <c r="C104">
-        <v>1128</v>
+        <v>1003</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B105">
-        <v>953</v>
+        <v>799</v>
       </c>
       <c r="C105">
-        <v>1071</v>
+        <v>947</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B106">
-        <v>862</v>
+        <v>810</v>
       </c>
       <c r="C106">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B107">
-        <v>859</v>
+        <v>811</v>
       </c>
       <c r="C107">
-        <v>853</v>
+        <v>922</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B108">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="C108">
-        <v>786</v>
+        <v>933</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B109">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="C109">
-        <v>803</v>
+        <v>1050</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B110">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="C110">
-        <v>832</v>
+        <v>1078</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B111">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="C111">
-        <v>868</v>
+        <v>987</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B112">
-        <v>790</v>
+        <v>834</v>
       </c>
       <c r="C112">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B113">
-        <v>788</v>
+        <v>839</v>
       </c>
       <c r="C113">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B114">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="C114">
-        <v>1001</v>
+        <v>829</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B115">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="C115">
-        <v>1064</v>
+        <v>833</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B116">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C116">
-        <v>1104</v>
+        <v>830</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B117">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="C117">
-        <v>1172</v>
+        <v>804</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B118">
-        <v>979</v>
+        <v>834</v>
       </c>
       <c r="C118">
-        <v>1279</v>
+        <v>784</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B119">
-        <v>985</v>
+        <v>832</v>
       </c>
       <c r="C119">
-        <v>1349</v>
+        <v>698</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B120">
-        <v>991</v>
+        <v>829</v>
       </c>
       <c r="C120">
-        <v>1379</v>
+        <v>600</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B121">
-        <v>997</v>
+        <v>829</v>
       </c>
       <c r="C121">
-        <v>1419</v>
+        <v>484</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B122">
-        <v>1229</v>
+        <v>832</v>
       </c>
       <c r="C122">
-        <v>1494</v>
+        <v>440</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B123">
-        <v>1240</v>
+        <v>829</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B124">
-        <v>1252</v>
+        <v>828</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B125">
-        <v>1264</v>
+        <v>817</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B126">
-        <v>1401</v>
+        <v>848</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B127">
-        <v>1407</v>
+        <v>842</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B128">
-        <v>1414</v>
+        <v>849</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B129">
-        <v>1421</v>
+        <v>859</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B130">
-        <v>1514</v>
+        <v>1103</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B131">
-        <v>1518</v>
+        <v>1111</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B132">
-        <v>1523</v>
+        <v>1120</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B133">
-        <v>1527</v>
+        <v>1126</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B134">
-        <v>1527</v>
+        <v>1393</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B135">
-        <v>1527</v>
+        <v>1392</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B136">
-        <v>1527</v>
+        <v>1391</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B137">
-        <v>1526</v>
+        <v>1390</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B138">
-        <v>1473</v>
+        <v>1307</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B139">
-        <v>1472</v>
+        <v>1304</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B140">
-        <v>1471</v>
+        <v>1301</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B141">
-        <v>1470</v>
+        <v>1298</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B142">
-        <v>1428</v>
+        <v>1181</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B143">
-        <v>1426</v>
+        <v>1179</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B144">
-        <v>1424</v>
+        <v>1177</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B145">
-        <v>1422</v>
+        <v>1174</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B146">
-        <v>1434</v>
+        <v>1106</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B147">
-        <v>1432</v>
+        <v>1105</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B148">
-        <v>1430</v>
+        <v>1104</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B149">
-        <v>1429</v>
+        <v>1103</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B150">
-        <v>1422</v>
+        <v>1102</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B151">
-        <v>1418</v>
+        <v>1101</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B152">
-        <v>1414</v>
+        <v>1101</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B153">
-        <v>1410</v>
+        <v>1100</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B154">
-        <v>1367</v>
+        <v>1080</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B155">
-        <v>1364</v>
+        <v>1079</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B156">
-        <v>1360</v>
+        <v>1078</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B157">
-        <v>1356</v>
+        <v>1078</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B158">
-        <v>1223</v>
+        <v>895</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B159">
-        <v>1219</v>
+        <v>894</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B160">
-        <v>1215</v>
+        <v>893</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B161">
-        <v>1211</v>
+        <v>892</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B162">
-        <v>1082</v>
+        <v>805</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B163">
-        <v>1075</v>
+        <v>803</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B164">
-        <v>1069</v>
+        <v>802</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B165">
-        <v>1063</v>
+        <v>800</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B166">
-        <v>923</v>
+        <v>722</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B167">
-        <v>918</v>
+        <v>717</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B168">
-        <v>912</v>
+        <v>712</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B169">
-        <v>907</v>
+        <v>708</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B170">
-        <v>830</v>
+        <v>579</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B171">
-        <v>826</v>
+        <v>575</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B172">
-        <v>822</v>
+        <v>572</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B173">
-        <v>818</v>
+        <v>569</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B174">
-        <v>796</v>
+        <v>459</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B175">
-        <v>795</v>
+        <v>456</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B176">
-        <v>794</v>
+        <v>453</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B177">
-        <v>794</v>
+        <v>451</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B178">
-        <v>769</v>
+        <v>360</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B179">
-        <v>769</v>
+        <v>358</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B180">
-        <v>768</v>
+        <v>357</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B181">
-        <v>767</v>
+        <v>356</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B182">
-        <v>714</v>
+        <v>282</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B183">
-        <v>712</v>
+        <v>279</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B184">
-        <v>710</v>
+        <v>280</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B185">
-        <v>708</v>
+        <v>280</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B186">
-        <v>625</v>
+        <v>239</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B187">
-        <v>623</v>
+        <v>238</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B188">
-        <v>620</v>
+        <v>238</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B189">
-        <v>618</v>
+        <v>238</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>19.05.202593</t>
-  </si>
-  <si>
-    <t>19.05.202594</t>
-  </si>
-  <si>
-    <t>19.05.202595</t>
-  </si>
-  <si>
-    <t>19.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -605,6 +317,582 @@
   </si>
   <si>
     <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
+  </si>
+  <si>
+    <t>22.05.202540</t>
+  </si>
+  <si>
+    <t>22.05.202541</t>
+  </si>
+  <si>
+    <t>22.05.202542</t>
+  </si>
+  <si>
+    <t>22.05.202543</t>
+  </si>
+  <si>
+    <t>22.05.202544</t>
+  </si>
+  <si>
+    <t>22.05.202545</t>
+  </si>
+  <si>
+    <t>22.05.202546</t>
+  </si>
+  <si>
+    <t>22.05.202547</t>
+  </si>
+  <si>
+    <t>22.05.202548</t>
+  </si>
+  <si>
+    <t>22.05.202549</t>
+  </si>
+  <si>
+    <t>22.05.202550</t>
+  </si>
+  <si>
+    <t>22.05.202551</t>
+  </si>
+  <si>
+    <t>22.05.202552</t>
+  </si>
+  <si>
+    <t>22.05.202553</t>
+  </si>
+  <si>
+    <t>22.05.202554</t>
+  </si>
+  <si>
+    <t>22.05.202555</t>
+  </si>
+  <si>
+    <t>22.05.202556</t>
+  </si>
+  <si>
+    <t>22.05.202557</t>
+  </si>
+  <si>
+    <t>22.05.202558</t>
+  </si>
+  <si>
+    <t>22.05.202559</t>
+  </si>
+  <si>
+    <t>22.05.202560</t>
+  </si>
+  <si>
+    <t>22.05.202561</t>
+  </si>
+  <si>
+    <t>22.05.202562</t>
+  </si>
+  <si>
+    <t>22.05.202563</t>
+  </si>
+  <si>
+    <t>22.05.202564</t>
+  </si>
+  <si>
+    <t>22.05.202565</t>
+  </si>
+  <si>
+    <t>22.05.202566</t>
+  </si>
+  <si>
+    <t>22.05.202567</t>
+  </si>
+  <si>
+    <t>22.05.202568</t>
+  </si>
+  <si>
+    <t>22.05.202569</t>
+  </si>
+  <si>
+    <t>22.05.202570</t>
+  </si>
+  <si>
+    <t>22.05.202571</t>
+  </si>
+  <si>
+    <t>22.05.202572</t>
+  </si>
+  <si>
+    <t>22.05.202573</t>
+  </si>
+  <si>
+    <t>22.05.202574</t>
+  </si>
+  <si>
+    <t>22.05.202575</t>
+  </si>
+  <si>
+    <t>22.05.202576</t>
+  </si>
+  <si>
+    <t>22.05.202577</t>
+  </si>
+  <si>
+    <t>22.05.202578</t>
+  </si>
+  <si>
+    <t>22.05.202579</t>
+  </si>
+  <si>
+    <t>22.05.202580</t>
+  </si>
+  <si>
+    <t>22.05.202581</t>
+  </si>
+  <si>
+    <t>22.05.202582</t>
+  </si>
+  <si>
+    <t>22.05.202583</t>
+  </si>
+  <si>
+    <t>22.05.202584</t>
+  </si>
+  <si>
+    <t>22.05.202585</t>
+  </si>
+  <si>
+    <t>22.05.202586</t>
+  </si>
+  <si>
+    <t>22.05.202587</t>
+  </si>
+  <si>
+    <t>22.05.202588</t>
+  </si>
+  <si>
+    <t>22.05.202589</t>
+  </si>
+  <si>
+    <t>22.05.202590</t>
+  </si>
+  <si>
+    <t>22.05.202591</t>
+  </si>
+  <si>
+    <t>22.05.202592</t>
+  </si>
+  <si>
+    <t>22.05.202593</t>
+  </si>
+  <si>
+    <t>22.05.202594</t>
+  </si>
+  <si>
+    <t>22.05.202595</t>
+  </si>
+  <si>
+    <t>22.05.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1279,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>1217</v>
+        <v>867</v>
       </c>
       <c r="C2">
-        <v>493</v>
+        <v>766</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1296,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>1220</v>
+        <v>867</v>
       </c>
       <c r="C3">
-        <v>593</v>
+        <v>733</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1313,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>1208</v>
+        <v>872</v>
       </c>
       <c r="C4">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1330,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>1210</v>
+        <v>870</v>
       </c>
       <c r="C5">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1347,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>1233</v>
+        <v>815</v>
       </c>
       <c r="C6">
-        <v>865</v>
+        <v>895</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1364,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>1216</v>
+        <v>808</v>
       </c>
       <c r="C7">
-        <v>912</v>
+        <v>950</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1381,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>1215</v>
+        <v>804</v>
       </c>
       <c r="C8">
-        <v>915</v>
+        <v>1003</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1398,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>1214</v>
+        <v>799</v>
       </c>
       <c r="C9">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1415,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>1247</v>
+        <v>810</v>
       </c>
       <c r="C10">
-        <v>1124</v>
+        <v>932</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1432,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>1247</v>
+        <v>811</v>
       </c>
       <c r="C11">
-        <v>1126</v>
+        <v>922</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1449,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>1240</v>
+        <v>818</v>
       </c>
       <c r="C12">
-        <v>1128</v>
+        <v>933</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1466,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>1236</v>
+        <v>820</v>
       </c>
       <c r="C13">
-        <v>1107</v>
+        <v>1050</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1483,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>1215</v>
+        <v>837</v>
       </c>
       <c r="C14">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1500,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>1221</v>
+        <v>837</v>
       </c>
       <c r="C15">
-        <v>1059</v>
+        <v>987</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1517,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>1215</v>
+        <v>834</v>
       </c>
       <c r="C16">
-        <v>1056</v>
+        <v>936</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1534,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>1218</v>
+        <v>839</v>
       </c>
       <c r="C17">
-        <v>1053</v>
+        <v>903</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1551,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>1278</v>
+        <v>829</v>
       </c>
       <c r="C18">
-        <v>1051</v>
+        <v>829</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1568,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>1277</v>
+        <v>830</v>
       </c>
       <c r="C19">
-        <v>1079</v>
+        <v>833</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1585,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>1273</v>
+        <v>831</v>
       </c>
       <c r="C20">
-        <v>1135</v>
+        <v>830</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1602,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>1273</v>
+        <v>824</v>
       </c>
       <c r="C21">
-        <v>1197</v>
+        <v>804</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1619,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>1320</v>
+        <v>834</v>
       </c>
       <c r="C22">
-        <v>1236</v>
+        <v>784</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1636,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>1316</v>
+        <v>832</v>
       </c>
       <c r="C23">
-        <v>1271</v>
+        <v>698</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1653,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>1311</v>
+        <v>829</v>
       </c>
       <c r="C24">
-        <v>1287</v>
+        <v>600</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1670,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>1307</v>
+        <v>829</v>
       </c>
       <c r="C25">
-        <v>1341</v>
+        <v>484</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1687,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>1179</v>
+        <v>832</v>
       </c>
       <c r="C26">
-        <v>1295</v>
+        <v>440</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1704,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>1175</v>
+        <v>829</v>
       </c>
       <c r="C27">
-        <v>1245</v>
+        <v>432</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1721,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>1168</v>
+        <v>828</v>
       </c>
       <c r="C28">
-        <v>1192</v>
+        <v>441</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1738,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>1165</v>
+        <v>817</v>
       </c>
       <c r="C29">
-        <v>1140</v>
+        <v>443</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1755,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>1154</v>
+        <v>848</v>
       </c>
       <c r="C30">
-        <v>1125</v>
+        <v>396</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1772,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>1149</v>
+        <v>842</v>
       </c>
       <c r="C31">
-        <v>1108</v>
+        <v>407</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1789,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>1157</v>
+        <v>849</v>
       </c>
       <c r="C32">
-        <v>1118</v>
+        <v>467</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1806,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
-        <v>1156</v>
+        <v>859</v>
       </c>
       <c r="C33">
-        <v>1149</v>
+        <v>587</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1823,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
-        <v>1213</v>
+        <v>1103</v>
       </c>
       <c r="C34">
-        <v>1205</v>
+        <v>686</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1840,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>1216</v>
+        <v>1111</v>
       </c>
       <c r="C35">
-        <v>1274</v>
+        <v>783</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1857,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
-        <v>1219</v>
+        <v>1120</v>
       </c>
       <c r="C36">
-        <v>1336</v>
+        <v>979</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1874,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>1222</v>
+        <v>1126</v>
       </c>
       <c r="C37">
-        <v>1362</v>
+        <v>1148</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1891,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>1376</v>
+        <v>1393</v>
       </c>
       <c r="C38">
-        <v>1304</v>
+        <v>1359</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1908,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>1383</v>
+        <v>1392</v>
       </c>
       <c r="C39">
-        <v>1304</v>
+        <v>1536</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1925,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C40">
-        <v>1278</v>
+        <v>1593</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1942,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C41">
-        <v>1287</v>
+        <v>1574</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1959,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>1650</v>
+        <v>1307</v>
       </c>
       <c r="C42">
-        <v>1290</v>
+        <v>1604</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1976,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>1658</v>
+        <v>1304</v>
       </c>
       <c r="C43">
-        <v>1321</v>
+        <v>1558</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1993,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>1667</v>
+        <v>1301</v>
       </c>
       <c r="C44">
-        <v>1375</v>
+        <v>1499</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +2010,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>1675</v>
+        <v>1298</v>
       </c>
       <c r="C45">
-        <v>1426</v>
+        <v>1463</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +2027,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
-        <v>1907</v>
+        <v>1181</v>
       </c>
       <c r="C46">
-        <v>1604</v>
+        <v>1364</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +2044,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
-        <v>1914</v>
+        <v>1179</v>
       </c>
       <c r="C47">
-        <v>1747</v>
+        <v>1333</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +2061,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>1920</v>
+        <v>1177</v>
       </c>
       <c r="C48">
-        <v>1898</v>
+        <v>1284</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +2078,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>1926</v>
+        <v>1174</v>
       </c>
       <c r="C49">
-        <v>2010</v>
+        <v>1272</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +2095,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
-        <v>2085</v>
+        <v>1106</v>
       </c>
       <c r="C50">
-        <v>1998</v>
+        <v>1205</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +2112,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>2089</v>
+        <v>1105</v>
       </c>
       <c r="C51">
-        <v>2020</v>
+        <v>1178</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +2129,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>2093</v>
+        <v>1104</v>
       </c>
       <c r="C52">
-        <v>2062</v>
+        <v>1161</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +2146,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>2096</v>
+        <v>1103</v>
       </c>
       <c r="C53">
-        <v>2081</v>
+        <v>1117</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +2163,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>2189</v>
+        <v>1102</v>
       </c>
       <c r="C54">
-        <v>2103</v>
+        <v>1125</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +2180,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>2192</v>
+        <v>1101</v>
       </c>
       <c r="C55">
-        <v>2138</v>
+        <v>1065</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2197,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>2194</v>
+        <v>1101</v>
       </c>
       <c r="C56">
-        <v>2185</v>
+        <v>1044</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2214,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>2197</v>
+        <v>1100</v>
       </c>
       <c r="C57">
-        <v>2181</v>
+        <v>1017</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +2231,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>2259</v>
+        <v>1080</v>
       </c>
       <c r="C58">
-        <v>2194</v>
+        <v>1027</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +2248,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>2260</v>
+        <v>1079</v>
       </c>
       <c r="C59">
-        <v>2159</v>
+        <v>1069</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +2265,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>2261</v>
+        <v>1078</v>
       </c>
       <c r="C60">
-        <v>2114</v>
+        <v>1020</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +2282,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>2262</v>
+        <v>1078</v>
       </c>
       <c r="C61">
-        <v>2050</v>
+        <v>1050</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2299,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>2271</v>
+        <v>895</v>
       </c>
       <c r="C62">
-        <v>2054</v>
+        <v>1026</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2316,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>2268</v>
+        <v>894</v>
       </c>
       <c r="C63">
-        <v>2114</v>
+        <v>1011</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2333,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>2265</v>
+        <v>893</v>
       </c>
       <c r="C64">
-        <v>2147</v>
+        <v>987</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2350,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>2261</v>
+        <v>892</v>
       </c>
       <c r="C65">
-        <v>2102</v>
+        <v>1022</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2367,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>2159</v>
+        <v>805</v>
       </c>
       <c r="C66">
-        <v>2168</v>
+        <v>1004</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2384,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>2153</v>
+        <v>803</v>
       </c>
       <c r="C67">
-        <v>2163</v>
+        <v>990</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2401,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>2147</v>
+        <v>802</v>
       </c>
       <c r="C68">
-        <v>2132</v>
+        <v>946</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2418,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>2142</v>
+        <v>800</v>
       </c>
       <c r="C69">
-        <v>2150</v>
+        <v>868</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2435,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>1977</v>
+        <v>722</v>
       </c>
       <c r="C70">
-        <v>2054</v>
+        <v>762</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2452,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>1974</v>
+        <v>717</v>
       </c>
       <c r="C71">
-        <v>1965</v>
+        <v>768</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2469,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>1971</v>
+        <v>712</v>
       </c>
       <c r="C72">
-        <v>1849</v>
+        <v>728</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2486,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>1968</v>
+        <v>708</v>
       </c>
       <c r="C73">
-        <v>1887</v>
+        <v>633</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2503,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>1768</v>
+        <v>579</v>
       </c>
       <c r="C74">
-        <v>1799</v>
+        <v>529</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2520,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>1765</v>
+        <v>575</v>
       </c>
       <c r="C75">
-        <v>1716</v>
+        <v>450</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2537,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>1763</v>
+        <v>572</v>
       </c>
       <c r="C76">
-        <v>1542</v>
+        <v>381</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2554,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>1761</v>
+        <v>569</v>
       </c>
       <c r="C77">
-        <v>1160</v>
+        <v>334</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2571,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>1544</v>
+        <v>459</v>
       </c>
       <c r="C78">
-        <v>939</v>
+        <v>288</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2588,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>1542</v>
+        <v>456</v>
       </c>
       <c r="C79">
-        <v>834</v>
+        <v>262</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2605,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>1540</v>
+        <v>453</v>
       </c>
       <c r="C80">
-        <v>750</v>
+        <v>237</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2622,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>1538</v>
+        <v>451</v>
       </c>
       <c r="C81">
-        <v>761</v>
+        <v>220</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2639,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>1321</v>
+        <v>360</v>
       </c>
       <c r="C82">
-        <v>845</v>
+        <v>204</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2656,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>1319</v>
+        <v>358</v>
       </c>
       <c r="C83">
-        <v>976</v>
+        <v>178</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2673,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>1318</v>
+        <v>357</v>
       </c>
       <c r="C84">
-        <v>1136</v>
+        <v>162</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2690,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>1317</v>
+        <v>356</v>
       </c>
       <c r="C85">
-        <v>1187</v>
+        <v>147</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2707,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>1178</v>
+        <v>282</v>
       </c>
       <c r="C86">
-        <v>1139</v>
+        <v>132</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2724,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>1174</v>
+        <v>279</v>
       </c>
       <c r="C87">
-        <v>999</v>
+        <v>130</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2741,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>1171</v>
+        <v>280</v>
       </c>
       <c r="C88">
-        <v>954</v>
+        <v>126</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2758,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>1167</v>
+        <v>280</v>
       </c>
       <c r="C89">
-        <v>942</v>
+        <v>128</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2775,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>1094</v>
+        <v>239</v>
       </c>
       <c r="C90">
-        <v>947</v>
+        <v>124</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2792,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>1094</v>
+        <v>238</v>
       </c>
       <c r="C91">
-        <v>1037</v>
+        <v>116</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2809,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>1093</v>
+        <v>238</v>
       </c>
       <c r="C92">
-        <v>1042</v>
+        <v>101</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2826,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>1093</v>
+        <v>238</v>
       </c>
       <c r="C93">
-        <v>966</v>
+        <v>102</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2843,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>959</v>
+        <v>200</v>
       </c>
       <c r="C94">
-        <v>947</v>
+        <v>106</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2860,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>961</v>
+        <v>199</v>
       </c>
       <c r="C95">
-        <v>1007</v>
+        <v>107</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2877,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
-        <v>963</v>
+        <v>198</v>
       </c>
       <c r="C96">
-        <v>929</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2894,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
-        <v>955</v>
+        <v>196</v>
       </c>
       <c r="C97">
-        <v>814</v>
+        <v>100</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2911,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B98">
-        <v>867</v>
+        <v>181</v>
       </c>
       <c r="C98">
-        <v>766</v>
+        <v>103</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2928,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B99">
-        <v>867</v>
+        <v>178</v>
       </c>
       <c r="C99">
-        <v>733</v>
+        <v>100</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2945,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B100">
-        <v>872</v>
+        <v>175</v>
       </c>
       <c r="C100">
-        <v>762</v>
+        <v>88</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2962,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B101">
-        <v>870</v>
+        <v>172</v>
       </c>
       <c r="C101">
-        <v>809</v>
+        <v>68</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2979,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B102">
-        <v>815</v>
+        <v>143</v>
       </c>
       <c r="C102">
-        <v>895</v>
+        <v>55</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2996,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B103">
-        <v>808</v>
+        <v>136</v>
       </c>
       <c r="C103">
-        <v>950</v>
+        <v>63</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3013,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B104">
-        <v>804</v>
+        <v>133</v>
       </c>
       <c r="C104">
-        <v>1003</v>
+        <v>76</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3030,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B105">
-        <v>799</v>
+        <v>131</v>
       </c>
       <c r="C105">
-        <v>947</v>
+        <v>83</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3047,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B106">
-        <v>810</v>
+        <v>109</v>
       </c>
       <c r="C106">
-        <v>932</v>
+        <v>86</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3064,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B107">
-        <v>811</v>
+        <v>107</v>
       </c>
       <c r="C107">
-        <v>922</v>
+        <v>82</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3081,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B108">
-        <v>818</v>
+        <v>106</v>
       </c>
       <c r="C108">
-        <v>933</v>
+        <v>77</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3098,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B109">
-        <v>820</v>
+        <v>104</v>
       </c>
       <c r="C109">
-        <v>1050</v>
+        <v>75</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3115,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B110">
-        <v>837</v>
+        <v>99</v>
       </c>
       <c r="C110">
-        <v>1078</v>
+        <v>79</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3132,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B111">
-        <v>837</v>
+        <v>98</v>
       </c>
       <c r="C111">
-        <v>987</v>
+        <v>93</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3149,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B112">
-        <v>834</v>
+        <v>97</v>
       </c>
       <c r="C112">
-        <v>936</v>
+        <v>102</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3166,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B113">
-        <v>839</v>
+        <v>101</v>
       </c>
       <c r="C113">
-        <v>903</v>
+        <v>118</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3183,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B114">
-        <v>829</v>
+        <v>102</v>
       </c>
       <c r="C114">
-        <v>829</v>
+        <v>137</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3200,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B115">
-        <v>830</v>
+        <v>101</v>
       </c>
       <c r="C115">
-        <v>833</v>
+        <v>162</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3217,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B116">
-        <v>831</v>
+        <v>100</v>
       </c>
       <c r="C116">
-        <v>830</v>
+        <v>183</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3234,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B117">
-        <v>824</v>
+        <v>100</v>
       </c>
       <c r="C117">
-        <v>804</v>
+        <v>212</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3251,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B118">
-        <v>834</v>
+        <v>104</v>
       </c>
       <c r="C118">
-        <v>784</v>
+        <v>248</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3268,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B119">
-        <v>832</v>
+        <v>104</v>
       </c>
       <c r="C119">
-        <v>698</v>
+        <v>283</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3285,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B120">
-        <v>829</v>
+        <v>106</v>
       </c>
       <c r="C120">
-        <v>600</v>
+        <v>304</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3302,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B121">
-        <v>829</v>
+        <v>110</v>
       </c>
       <c r="C121">
-        <v>484</v>
+        <v>312</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3319,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B122">
-        <v>832</v>
+        <v>126</v>
       </c>
       <c r="C122">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3336,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B123">
-        <v>829</v>
+        <v>127</v>
       </c>
       <c r="C123">
-        <v>432</v>
+        <v>279</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3353,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B124">
-        <v>828</v>
+        <v>129</v>
       </c>
       <c r="C124">
-        <v>441</v>
+        <v>283</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3370,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B125">
-        <v>817</v>
+        <v>140</v>
       </c>
       <c r="C125">
-        <v>443</v>
+        <v>258</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3387,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B126">
-        <v>848</v>
+        <v>162</v>
       </c>
       <c r="C126">
-        <v>396</v>
+        <v>212</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3404,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B127">
-        <v>842</v>
+        <v>163</v>
       </c>
       <c r="C127">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3421,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B128">
-        <v>849</v>
+        <v>163</v>
       </c>
       <c r="C128">
-        <v>467</v>
+        <v>128</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3438,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B129">
-        <v>859</v>
+        <v>165</v>
       </c>
       <c r="C129">
-        <v>587</v>
+        <v>114</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3455,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B130">
-        <v>1103</v>
+        <v>152</v>
       </c>
       <c r="C130">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3472,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B131">
-        <v>1111</v>
+        <v>152</v>
       </c>
       <c r="C131">
-        <v>783</v>
+        <v>60</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3489,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B132">
-        <v>1120</v>
+        <v>153</v>
       </c>
       <c r="C132">
-        <v>979</v>
+        <v>40</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3506,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B133">
-        <v>1126</v>
+        <v>153</v>
       </c>
       <c r="C133">
-        <v>1148</v>
+        <v>37</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3523,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B134">
-        <v>1393</v>
+        <v>86</v>
       </c>
       <c r="C134">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3540,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B135">
-        <v>1392</v>
+        <v>86</v>
       </c>
       <c r="C135">
-        <v>1536</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3557,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B136">
-        <v>1391</v>
+        <v>87</v>
       </c>
       <c r="C136">
-        <v>1593</v>
+        <v>27</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3574,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B137">
-        <v>1390</v>
+        <v>87</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3591,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45797.41666666666</v>
+        <v>45798.41666666666</v>
       </c>
       <c r="B138">
-        <v>1307</v>
+        <v>97</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3608,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45797.42708333334</v>
+        <v>45798.42708333334</v>
       </c>
       <c r="B139">
-        <v>1304</v>
+        <v>98</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3625,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45797.4375</v>
+        <v>45798.4375</v>
       </c>
       <c r="B140">
-        <v>1301</v>
+        <v>98</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3642,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45797.44791666666</v>
+        <v>45798.44791666666</v>
       </c>
       <c r="B141">
-        <v>1298</v>
+        <v>99</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3659,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45797.45833333334</v>
+        <v>45798.45833333334</v>
       </c>
       <c r="B142">
-        <v>1181</v>
+        <v>114</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3676,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45797.46875</v>
+        <v>45798.46875</v>
       </c>
       <c r="B143">
-        <v>1179</v>
+        <v>115</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3693,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45797.47916666666</v>
+        <v>45798.47916666666</v>
       </c>
       <c r="B144">
-        <v>1177</v>
+        <v>115</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3710,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45797.48958333334</v>
+        <v>45798.48958333334</v>
       </c>
       <c r="B145">
-        <v>1174</v>
+        <v>116</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +3727,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45797.5</v>
+        <v>45798.5</v>
       </c>
       <c r="B146">
-        <v>1106</v>
+        <v>140</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +3744,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45797.51041666666</v>
+        <v>45798.51041666666</v>
       </c>
       <c r="B147">
-        <v>1105</v>
+        <v>141</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +3761,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45797.52083333334</v>
+        <v>45798.52083333334</v>
       </c>
       <c r="B148">
-        <v>1104</v>
+        <v>143</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +3778,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45797.53125</v>
+        <v>45798.53125</v>
       </c>
       <c r="B149">
-        <v>1103</v>
+        <v>144</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +3795,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45797.54166666666</v>
+        <v>45798.54166666666</v>
       </c>
       <c r="B150">
-        <v>1102</v>
+        <v>196</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +3812,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45797.55208333334</v>
+        <v>45798.55208333334</v>
       </c>
       <c r="B151">
-        <v>1101</v>
+        <v>197</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +3829,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45797.5625</v>
+        <v>45798.5625</v>
       </c>
       <c r="B152">
-        <v>1101</v>
+        <v>199</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +3846,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45797.57291666666</v>
+        <v>45798.57291666666</v>
       </c>
       <c r="B153">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +3863,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45797.58333333334</v>
+        <v>45798.58333333334</v>
       </c>
       <c r="B154">
-        <v>1080</v>
+        <v>262</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +3880,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45797.59375</v>
+        <v>45798.59375</v>
       </c>
       <c r="B155">
-        <v>1079</v>
+        <v>265</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +3897,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45797.60416666666</v>
+        <v>45798.60416666666</v>
       </c>
       <c r="B156">
-        <v>1078</v>
+        <v>267</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +3914,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45797.61458333334</v>
+        <v>45798.61458333334</v>
       </c>
       <c r="B157">
-        <v>1078</v>
+        <v>269</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +3931,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45797.625</v>
+        <v>45798.625</v>
       </c>
       <c r="B158">
-        <v>895</v>
+        <v>390</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +3948,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45797.63541666666</v>
+        <v>45798.63541666666</v>
       </c>
       <c r="B159">
-        <v>894</v>
+        <v>392</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,13 +3965,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45797.64583333334</v>
+        <v>45798.64583333334</v>
       </c>
       <c r="B160">
-        <v>893</v>
+        <v>395</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3694,13 +3982,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45797.65625</v>
+        <v>45798.65625</v>
       </c>
       <c r="B161">
-        <v>892</v>
+        <v>397</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3711,13 +3999,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45797.66666666666</v>
+        <v>45798.66666666666</v>
       </c>
       <c r="B162">
-        <v>805</v>
+        <v>491</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4016,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45797.67708333334</v>
+        <v>45798.67708333334</v>
       </c>
       <c r="B163">
-        <v>803</v>
+        <v>493</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4033,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45797.6875</v>
+        <v>45798.6875</v>
       </c>
       <c r="B164">
-        <v>802</v>
+        <v>495</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4050,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45797.69791666666</v>
+        <v>45798.69791666666</v>
       </c>
       <c r="B165">
-        <v>800</v>
+        <v>498</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4067,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45797.70833333334</v>
+        <v>45798.70833333334</v>
       </c>
       <c r="B166">
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4084,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45797.71875</v>
+        <v>45798.71875</v>
       </c>
       <c r="B167">
-        <v>717</v>
+        <v>611</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4101,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45797.72916666666</v>
+        <v>45798.72916666666</v>
       </c>
       <c r="B168">
-        <v>712</v>
+        <v>613</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4118,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45797.73958333334</v>
+        <v>45798.73958333334</v>
       </c>
       <c r="B169">
-        <v>708</v>
+        <v>615</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4135,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45797.75</v>
+        <v>45798.75</v>
       </c>
       <c r="B170">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,13 +4152,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45797.76041666666</v>
+        <v>45798.76041666666</v>
       </c>
       <c r="B171">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -3881,13 +4169,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45797.77083333334</v>
+        <v>45798.77083333334</v>
       </c>
       <c r="B172">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -3898,13 +4186,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45797.78125</v>
+        <v>45798.78125</v>
       </c>
       <c r="B173">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -3915,13 +4203,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45797.79166666666</v>
+        <v>45798.79166666666</v>
       </c>
       <c r="B174">
-        <v>459</v>
+        <v>813</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -3932,13 +4220,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45797.80208333334</v>
+        <v>45798.80208333334</v>
       </c>
       <c r="B175">
-        <v>456</v>
+        <v>819</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -3949,13 +4237,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45797.8125</v>
+        <v>45798.8125</v>
       </c>
       <c r="B176">
-        <v>453</v>
+        <v>825</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -3966,13 +4254,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45797.82291666666</v>
+        <v>45798.82291666666</v>
       </c>
       <c r="B177">
-        <v>451</v>
+        <v>830</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -3983,13 +4271,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45797.83333333334</v>
+        <v>45798.83333333334</v>
       </c>
       <c r="B178">
-        <v>360</v>
+        <v>981</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4000,13 +4288,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45797.84375</v>
+        <v>45798.84375</v>
       </c>
       <c r="B179">
-        <v>358</v>
+        <v>986</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4017,13 +4305,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45797.85416666666</v>
+        <v>45798.85416666666</v>
       </c>
       <c r="B180">
-        <v>357</v>
+        <v>991</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4034,13 +4322,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45797.86458333334</v>
+        <v>45798.86458333334</v>
       </c>
       <c r="B181">
-        <v>356</v>
+        <v>997</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4051,13 +4339,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45797.875</v>
+        <v>45798.875</v>
       </c>
       <c r="B182">
-        <v>282</v>
+        <v>1150</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4068,13 +4356,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45797.88541666666</v>
+        <v>45798.88541666666</v>
       </c>
       <c r="B183">
-        <v>279</v>
+        <v>1153</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4085,13 +4373,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45797.89583333334</v>
+        <v>45798.89583333334</v>
       </c>
       <c r="B184">
-        <v>280</v>
+        <v>1155</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4102,13 +4390,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45797.90625</v>
+        <v>45798.90625</v>
       </c>
       <c r="B185">
-        <v>280</v>
+        <v>1158</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4119,13 +4407,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45797.91666666666</v>
+        <v>45798.91666666666</v>
       </c>
       <c r="B186">
-        <v>239</v>
+        <v>1215</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4136,13 +4424,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45797.92708333334</v>
+        <v>45798.92708333334</v>
       </c>
       <c r="B187">
-        <v>238</v>
+        <v>1217</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4153,13 +4441,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45797.9375</v>
+        <v>45798.9375</v>
       </c>
       <c r="B188">
-        <v>238</v>
+        <v>1218</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="D188">
         <v>91</v>
@@ -4170,13 +4458,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45797.94791666666</v>
+        <v>45798.94791666666</v>
       </c>
       <c r="B189">
-        <v>238</v>
+        <v>1220</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4187,13 +4475,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45797.95833333334</v>
+        <v>45798.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4204,13 +4492,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45797.96875</v>
+        <v>45798.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4221,13 +4509,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45797.97916666666</v>
+        <v>45798.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4238,19 +4526,1651 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45797.98958333334</v>
+        <v>45798.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="D193">
         <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B194">
+        <v>1173</v>
+      </c>
+      <c r="C194">
+        <v>1141</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>1178</v>
+      </c>
+      <c r="C195">
+        <v>1137</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>1186</v>
+      </c>
+      <c r="C196">
+        <v>1154</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B197">
+        <v>1197</v>
+      </c>
+      <c r="C197">
+        <v>1175</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>1256</v>
+      </c>
+      <c r="C198">
+        <v>1156</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>1261</v>
+      </c>
+      <c r="C199">
+        <v>1168</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B200">
+        <v>1260</v>
+      </c>
+      <c r="C200">
+        <v>1172</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>1266</v>
+      </c>
+      <c r="C201">
+        <v>1180</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>1360</v>
+      </c>
+      <c r="C202">
+        <v>1189</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B203">
+        <v>1369</v>
+      </c>
+      <c r="C203">
+        <v>1177</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>1362</v>
+      </c>
+      <c r="C204">
+        <v>1149</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>1368</v>
+      </c>
+      <c r="C205">
+        <v>1070</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B206">
+        <v>1416</v>
+      </c>
+      <c r="C206">
+        <v>1013</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>1416</v>
+      </c>
+      <c r="C207">
+        <v>1009</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>1407</v>
+      </c>
+      <c r="C208">
+        <v>976</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B209">
+        <v>1407</v>
+      </c>
+      <c r="C209">
+        <v>931</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>1466</v>
+      </c>
+      <c r="C210">
+        <v>898</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>1467</v>
+      </c>
+      <c r="C211">
+        <v>829</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B212">
+        <v>1465</v>
+      </c>
+      <c r="C212">
+        <v>750</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>1463</v>
+      </c>
+      <c r="C213">
+        <v>705</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>1431</v>
+      </c>
+      <c r="C214">
+        <v>673</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B215">
+        <v>1427</v>
+      </c>
+      <c r="C215">
+        <v>646</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>1420</v>
+      </c>
+      <c r="C216">
+        <v>605</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>1419</v>
+      </c>
+      <c r="C217">
+        <v>563</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B218">
+        <v>1216</v>
+      </c>
+      <c r="C218">
+        <v>504</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>1210</v>
+      </c>
+      <c r="C219">
+        <v>429</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>1202</v>
+      </c>
+      <c r="C220">
+        <v>391</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B221">
+        <v>1196</v>
+      </c>
+      <c r="C221">
+        <v>381</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>1155</v>
+      </c>
+      <c r="C222">
+        <v>340</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>1163</v>
+      </c>
+      <c r="C223">
+        <v>321</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B224">
+        <v>1052</v>
+      </c>
+      <c r="C224">
+        <v>310</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>1044</v>
+      </c>
+      <c r="C225">
+        <v>300</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>982</v>
+      </c>
+      <c r="C226">
+        <v>296</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B227">
+        <v>984</v>
+      </c>
+      <c r="C227">
+        <v>323</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>986</v>
+      </c>
+      <c r="C228">
+        <v>353</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>983</v>
+      </c>
+      <c r="C229">
+        <v>371</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B230">
+        <v>1318</v>
+      </c>
+      <c r="C230">
+        <v>412</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>1320</v>
+      </c>
+      <c r="C231">
+        <v>429</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>1323</v>
+      </c>
+      <c r="C232">
+        <v>455</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B233">
+        <v>1325</v>
+      </c>
+      <c r="C233">
+        <v>453</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>1448</v>
+      </c>
+      <c r="C234">
+        <v>457</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>1451</v>
+      </c>
+      <c r="C235">
+        <v>464</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B236">
+        <v>1453</v>
+      </c>
+      <c r="C236">
+        <v>502</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45799.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>1456</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45799.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>1544</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45799.46875</v>
+      </c>
+      <c r="B239">
+        <v>1545</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>1547</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45799.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>1548</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="B242">
+        <v>1644</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45799.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>1645</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45799.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>1645</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45799.53125</v>
+      </c>
+      <c r="B245">
+        <v>1646</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45799.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>1675</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45799.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>1675</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45799.5625</v>
+      </c>
+      <c r="B248">
+        <v>1675</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45799.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>1675</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>1694</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45799.59375</v>
+      </c>
+      <c r="B251">
+        <v>1694</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45799.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>1693</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45799.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>1692</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45799.625</v>
+      </c>
+      <c r="B254">
+        <v>1677</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45799.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>1676</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>1676</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45799.65625</v>
+      </c>
+      <c r="B257">
+        <v>1675</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45799.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>1492</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45799.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>1489</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45799.6875</v>
+      </c>
+      <c r="B260">
+        <v>1486</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45799.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>1483</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45799.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>1451</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45799.71875</v>
+      </c>
+      <c r="B263">
+        <v>1447</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45799.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>1443</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45799.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>1440</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45799.75</v>
+      </c>
+      <c r="B266">
+        <v>1299</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45799.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>1297</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45799.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>1295</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45799.78125</v>
+      </c>
+      <c r="B269">
+        <v>1293</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45799.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>1293</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45799.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>1294</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45799.8125</v>
+      </c>
+      <c r="B272">
+        <v>1295</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45799.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>1295</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45799.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>1279</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45799.84375</v>
+      </c>
+      <c r="B275">
+        <v>1278</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45799.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>1277</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45799.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>1275</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45799.875</v>
+      </c>
+      <c r="B278">
+        <v>1200</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45799.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>1197</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45799.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>1194</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45799.90625</v>
+      </c>
+      <c r="B281">
+        <v>1191</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45799.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>1035</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45799.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>1031</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45799.9375</v>
+      </c>
+      <c r="B284">
+        <v>1027</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45799.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>1024</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45799.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45799.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45799.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45799.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>29.05.202593</t>
-  </si>
-  <si>
-    <t>29.05.202594</t>
-  </si>
-  <si>
-    <t>29.05.202595</t>
-  </si>
-  <si>
-    <t>29.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -605,6 +317,870 @@
   </si>
   <si>
     <t>30.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
+  </si>
+  <si>
+    <t>02.06.202537</t>
+  </si>
+  <si>
+    <t>02.06.202538</t>
+  </si>
+  <si>
+    <t>02.06.202539</t>
+  </si>
+  <si>
+    <t>02.06.202540</t>
+  </si>
+  <si>
+    <t>02.06.202541</t>
+  </si>
+  <si>
+    <t>02.06.202542</t>
+  </si>
+  <si>
+    <t>02.06.202543</t>
+  </si>
+  <si>
+    <t>02.06.202544</t>
+  </si>
+  <si>
+    <t>02.06.202545</t>
+  </si>
+  <si>
+    <t>02.06.202546</t>
+  </si>
+  <si>
+    <t>02.06.202547</t>
+  </si>
+  <si>
+    <t>02.06.202548</t>
+  </si>
+  <si>
+    <t>02.06.202549</t>
+  </si>
+  <si>
+    <t>02.06.202550</t>
+  </si>
+  <si>
+    <t>02.06.202551</t>
+  </si>
+  <si>
+    <t>02.06.202552</t>
+  </si>
+  <si>
+    <t>02.06.202553</t>
+  </si>
+  <si>
+    <t>02.06.202554</t>
+  </si>
+  <si>
+    <t>02.06.202555</t>
+  </si>
+  <si>
+    <t>02.06.202556</t>
+  </si>
+  <si>
+    <t>02.06.202557</t>
+  </si>
+  <si>
+    <t>02.06.202558</t>
+  </si>
+  <si>
+    <t>02.06.202559</t>
+  </si>
+  <si>
+    <t>02.06.202560</t>
+  </si>
+  <si>
+    <t>02.06.202561</t>
+  </si>
+  <si>
+    <t>02.06.202562</t>
+  </si>
+  <si>
+    <t>02.06.202563</t>
+  </si>
+  <si>
+    <t>02.06.202564</t>
+  </si>
+  <si>
+    <t>02.06.202565</t>
+  </si>
+  <si>
+    <t>02.06.202566</t>
+  </si>
+  <si>
+    <t>02.06.202567</t>
+  </si>
+  <si>
+    <t>02.06.202568</t>
+  </si>
+  <si>
+    <t>02.06.202569</t>
+  </si>
+  <si>
+    <t>02.06.202570</t>
+  </si>
+  <si>
+    <t>02.06.202571</t>
+  </si>
+  <si>
+    <t>02.06.202572</t>
+  </si>
+  <si>
+    <t>02.06.202573</t>
+  </si>
+  <si>
+    <t>02.06.202574</t>
+  </si>
+  <si>
+    <t>02.06.202575</t>
+  </si>
+  <si>
+    <t>02.06.202576</t>
+  </si>
+  <si>
+    <t>02.06.202577</t>
+  </si>
+  <si>
+    <t>02.06.202578</t>
+  </si>
+  <si>
+    <t>02.06.202579</t>
+  </si>
+  <si>
+    <t>02.06.202580</t>
+  </si>
+  <si>
+    <t>02.06.202581</t>
+  </si>
+  <si>
+    <t>02.06.202582</t>
+  </si>
+  <si>
+    <t>02.06.202583</t>
+  </si>
+  <si>
+    <t>02.06.202584</t>
+  </si>
+  <si>
+    <t>02.06.202585</t>
+  </si>
+  <si>
+    <t>02.06.202586</t>
+  </si>
+  <si>
+    <t>02.06.202587</t>
+  </si>
+  <si>
+    <t>02.06.202588</t>
+  </si>
+  <si>
+    <t>02.06.202589</t>
+  </si>
+  <si>
+    <t>02.06.202590</t>
+  </si>
+  <si>
+    <t>02.06.202591</t>
+  </si>
+  <si>
+    <t>02.06.202592</t>
+  </si>
+  <si>
+    <t>02.06.202593</t>
+  </si>
+  <si>
+    <t>02.06.202594</t>
+  </si>
+  <si>
+    <t>02.06.202595</t>
+  </si>
+  <si>
+    <t>02.06.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1567,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="C2">
-        <v>609</v>
+        <v>236</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1584,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="C3">
-        <v>527</v>
+        <v>246</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1601,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>460</v>
+        <v>329</v>
       </c>
       <c r="C4">
-        <v>486</v>
+        <v>275</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1618,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>304</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1635,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C6">
-        <v>408</v>
+        <v>337</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1652,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C7">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1669,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="C8">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1686,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="C9">
-        <v>396</v>
+        <v>571</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1703,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>321</v>
+        <v>615</v>
       </c>
       <c r="C10">
-        <v>362</v>
+        <v>712</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1720,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>319</v>
+        <v>614</v>
       </c>
       <c r="C11">
-        <v>325</v>
+        <v>796</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1737,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>315</v>
+        <v>623</v>
       </c>
       <c r="C12">
-        <v>288</v>
+        <v>1005</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1754,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="C13">
-        <v>254</v>
+        <v>1048</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1771,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>235</v>
+        <v>821</v>
       </c>
       <c r="C14">
-        <v>218</v>
+        <v>1095</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1788,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>235</v>
+        <v>841</v>
       </c>
       <c r="C15">
-        <v>185</v>
+        <v>1066</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1805,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>233</v>
+        <v>848</v>
       </c>
       <c r="C16">
-        <v>158</v>
+        <v>1055</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1822,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>228</v>
+        <v>833</v>
       </c>
       <c r="C17">
-        <v>147</v>
+        <v>1066</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1839,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>196</v>
+        <v>1073</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>1241</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1856,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>192</v>
+        <v>1078</v>
       </c>
       <c r="C19">
-        <v>122</v>
+        <v>1284</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1873,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>190</v>
+        <v>1082</v>
       </c>
       <c r="C20">
-        <v>104</v>
+        <v>1263</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1890,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>190</v>
+        <v>1106</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>1231</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1907,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>176</v>
+        <v>1218</v>
       </c>
       <c r="C22">
-        <v>105</v>
+        <v>1237</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1924,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>177</v>
+        <v>1221</v>
       </c>
       <c r="C23">
-        <v>108</v>
+        <v>1233</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1941,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>177</v>
+        <v>1233</v>
       </c>
       <c r="C24">
-        <v>110</v>
+        <v>1242</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1958,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>178</v>
+        <v>1235</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>1226</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1975,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>170</v>
+        <v>1227</v>
       </c>
       <c r="C26">
-        <v>108</v>
+        <v>1206</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1992,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>173</v>
+        <v>1227</v>
       </c>
       <c r="C27">
-        <v>107</v>
+        <v>1188</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +2009,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>170</v>
+        <v>1227</v>
       </c>
       <c r="C28">
-        <v>102</v>
+        <v>1147</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +2026,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>170</v>
+        <v>1238</v>
       </c>
       <c r="C29">
-        <v>97</v>
+        <v>1148</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +2043,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>153</v>
+        <v>1176</v>
       </c>
       <c r="C30">
-        <v>82</v>
+        <v>1126</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +2060,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>153</v>
+        <v>1178</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>1147</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +2077,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>154</v>
+        <v>1179</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>1154</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +2094,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
-        <v>155</v>
+        <v>1181</v>
       </c>
       <c r="C33">
-        <v>73</v>
+        <v>1178</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +2111,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>154</v>
+        <v>1147</v>
       </c>
       <c r="C34">
-        <v>74</v>
+        <v>1169</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +2128,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>157</v>
+        <v>1147</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>1133</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +2145,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>158</v>
+        <v>1150</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>1123</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +2162,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>159</v>
+        <v>1150</v>
       </c>
       <c r="C37">
-        <v>68</v>
+        <v>1111</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +2179,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>173</v>
+        <v>1200</v>
       </c>
       <c r="C38">
-        <v>83</v>
+        <v>1129</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +2196,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>174</v>
+        <v>1201</v>
       </c>
       <c r="C39">
-        <v>96</v>
+        <v>1115</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +2213,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>175</v>
+        <v>1201</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +2230,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
-        <v>176</v>
+        <v>1200</v>
       </c>
       <c r="C41">
-        <v>98</v>
+        <v>1106</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +2247,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>199</v>
+        <v>1161</v>
       </c>
       <c r="C42">
-        <v>103</v>
+        <v>1101</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +2264,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
-        <v>200</v>
+        <v>1162</v>
       </c>
       <c r="C43">
-        <v>105</v>
+        <v>1124</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +2281,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
-        <v>200</v>
+        <v>1163</v>
       </c>
       <c r="C44">
-        <v>111</v>
+        <v>1121</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +2298,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
-        <v>201</v>
+        <v>1164</v>
       </c>
       <c r="C45">
-        <v>106</v>
+        <v>1100</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +2315,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>211</v>
+        <v>1155</v>
       </c>
       <c r="C46">
-        <v>115</v>
+        <v>1100</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +2332,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
-        <v>211</v>
+        <v>1156</v>
       </c>
       <c r="C47">
-        <v>153</v>
+        <v>1096</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +2349,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>211</v>
+        <v>1156</v>
       </c>
       <c r="C48">
-        <v>192</v>
+        <v>1108</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +2366,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>211</v>
+        <v>1156</v>
       </c>
       <c r="C49">
-        <v>224</v>
+        <v>1099</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +2383,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>190</v>
+        <v>1170</v>
       </c>
       <c r="C50">
-        <v>242</v>
+        <v>1077</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +2400,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>190</v>
+        <v>1169</v>
       </c>
       <c r="C51">
-        <v>259</v>
+        <v>1087</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +2417,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>189</v>
+        <v>1168</v>
       </c>
       <c r="C52">
-        <v>239</v>
+        <v>1088</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +2434,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>188</v>
+        <v>1167</v>
       </c>
       <c r="C53">
-        <v>167</v>
+        <v>1058</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +2451,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>170</v>
+        <v>1194</v>
       </c>
       <c r="C54">
-        <v>163</v>
+        <v>1075</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +2468,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>170</v>
+        <v>1193</v>
       </c>
       <c r="C55">
-        <v>172</v>
+        <v>1077</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2485,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>169</v>
+        <v>1193</v>
       </c>
       <c r="C56">
-        <v>229</v>
+        <v>1045</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2502,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>169</v>
+        <v>1192</v>
       </c>
       <c r="C57">
-        <v>234</v>
+        <v>1028</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +2519,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>158</v>
+        <v>1213</v>
       </c>
       <c r="C58">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +2536,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>157</v>
+        <v>1213</v>
       </c>
       <c r="C59">
-        <v>224</v>
+        <v>954</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +2553,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>157</v>
+        <v>1213</v>
       </c>
       <c r="C60">
-        <v>244</v>
+        <v>914</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +2570,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>156</v>
+        <v>1213</v>
       </c>
       <c r="C61">
-        <v>238</v>
+        <v>906</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2587,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>150</v>
+        <v>1217</v>
       </c>
       <c r="C62">
-        <v>233</v>
+        <v>905</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2604,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
-        <v>149</v>
+        <v>1218</v>
       </c>
       <c r="C63">
-        <v>188</v>
+        <v>928</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2621,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>148</v>
+        <v>1218</v>
       </c>
       <c r="C64">
-        <v>171</v>
+        <v>985</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2638,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>147</v>
+        <v>1219</v>
       </c>
       <c r="C65">
-        <v>144</v>
+        <v>1036</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2655,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>139</v>
+        <v>1179</v>
       </c>
       <c r="C66">
-        <v>81</v>
+        <v>1049</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2672,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>138</v>
+        <v>1177</v>
       </c>
       <c r="C67">
-        <v>49</v>
+        <v>1035</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2689,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>137</v>
+        <v>1176</v>
       </c>
       <c r="C68">
-        <v>88</v>
+        <v>978</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2706,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>136</v>
+        <v>1175</v>
       </c>
       <c r="C69">
-        <v>126</v>
+        <v>945</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2723,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>112</v>
+        <v>1114</v>
       </c>
       <c r="C70">
-        <v>114</v>
+        <v>958</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2740,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>112</v>
+        <v>1110</v>
       </c>
       <c r="C71">
-        <v>92</v>
+        <v>920</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2757,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>111</v>
+        <v>1105</v>
       </c>
       <c r="C72">
-        <v>85</v>
+        <v>886</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2774,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>803</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2791,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>111</v>
+        <v>982</v>
       </c>
       <c r="C74">
-        <v>48</v>
+        <v>724</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2808,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>111</v>
+        <v>978</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>660</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2825,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>973</v>
       </c>
       <c r="C76">
-        <v>73</v>
+        <v>655</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2842,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>111</v>
+        <v>969</v>
       </c>
       <c r="C77">
-        <v>89</v>
+        <v>661</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2859,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>119</v>
+        <v>905</v>
       </c>
       <c r="C78">
-        <v>151</v>
+        <v>650</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2876,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>120</v>
+        <v>904</v>
       </c>
       <c r="C79">
-        <v>161</v>
+        <v>645</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2893,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>122</v>
+        <v>903</v>
       </c>
       <c r="C80">
-        <v>97</v>
+        <v>652</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2910,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>124</v>
+        <v>903</v>
       </c>
       <c r="C81">
-        <v>78</v>
+        <v>668</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2927,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>158</v>
+        <v>910</v>
       </c>
       <c r="C82">
-        <v>73</v>
+        <v>650</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2944,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>160</v>
+        <v>911</v>
       </c>
       <c r="C83">
-        <v>85</v>
+        <v>640</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2961,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>163</v>
+        <v>913</v>
       </c>
       <c r="C84">
-        <v>96</v>
+        <v>633</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2978,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>165</v>
+        <v>914</v>
       </c>
       <c r="C85">
-        <v>116</v>
+        <v>648</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2995,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>189</v>
+        <v>1008</v>
       </c>
       <c r="C86">
-        <v>124</v>
+        <v>647</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +3012,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>192</v>
+        <v>1010</v>
       </c>
       <c r="C87">
-        <v>132</v>
+        <v>661</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +3029,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>195</v>
+        <v>1012</v>
       </c>
       <c r="C88">
-        <v>121</v>
+        <v>707</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +3046,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>199</v>
+        <v>1015</v>
       </c>
       <c r="C89">
-        <v>110</v>
+        <v>760</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +3063,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>244</v>
+        <v>1054</v>
       </c>
       <c r="C90">
-        <v>111</v>
+        <v>780</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +3080,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>248</v>
+        <v>1056</v>
       </c>
       <c r="C91">
-        <v>118</v>
+        <v>778</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +3097,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>252</v>
+        <v>1058</v>
       </c>
       <c r="C92">
-        <v>126</v>
+        <v>772</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +3114,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>256</v>
+        <v>1060</v>
       </c>
       <c r="C93">
-        <v>142</v>
+        <v>777</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +3131,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>316</v>
+        <v>936</v>
       </c>
       <c r="C94">
-        <v>157</v>
+        <v>799</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +3148,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>318</v>
+        <v>949</v>
       </c>
       <c r="C95">
-        <v>173</v>
+        <v>829</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +3165,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
-        <v>321</v>
+        <v>942</v>
       </c>
       <c r="C96">
-        <v>186</v>
+        <v>832</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +3182,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
-        <v>323</v>
+        <v>945</v>
       </c>
       <c r="C97">
-        <v>207</v>
+        <v>861</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +3199,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B98">
-        <v>340</v>
+        <v>1048</v>
       </c>
       <c r="C98">
-        <v>236</v>
+        <v>935</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +3216,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B99">
-        <v>343</v>
+        <v>1051</v>
       </c>
       <c r="C99">
-        <v>246</v>
+        <v>981</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +3233,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B100">
-        <v>346</v>
+        <v>1048</v>
       </c>
       <c r="C100">
-        <v>275</v>
+        <v>1018</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +3250,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B101">
-        <v>348</v>
+        <v>1050</v>
       </c>
       <c r="C101">
-        <v>304</v>
+        <v>1031</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +3267,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B102">
-        <v>444</v>
+        <v>1136</v>
       </c>
       <c r="C102">
-        <v>337</v>
+        <v>1071</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +3284,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B103">
-        <v>448</v>
+        <v>1145</v>
       </c>
       <c r="C103">
-        <v>394</v>
+        <v>1054</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3301,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B104">
-        <v>451</v>
+        <v>1148</v>
       </c>
       <c r="C104">
-        <v>473</v>
+        <v>1061</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3318,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B105">
-        <v>455</v>
+        <v>1136</v>
       </c>
       <c r="C105">
-        <v>571</v>
+        <v>1075</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3335,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B106">
-        <v>627</v>
+        <v>1207</v>
       </c>
       <c r="C106">
-        <v>712</v>
+        <v>1070</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3352,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B107">
-        <v>632</v>
+        <v>1205</v>
       </c>
       <c r="C107">
-        <v>796</v>
+        <v>1066</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3369,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B108">
-        <v>636</v>
+        <v>1201</v>
       </c>
       <c r="C108">
-        <v>1005</v>
+        <v>1077</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3386,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B109">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="C109">
-        <v>1048</v>
+        <v>1072</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3403,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B110">
-        <v>811</v>
+        <v>1174</v>
       </c>
       <c r="C110">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3420,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B111">
-        <v>816</v>
+        <v>1175</v>
       </c>
       <c r="C111">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3437,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B112">
-        <v>821</v>
+        <v>1163</v>
       </c>
       <c r="C112">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3454,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B113">
-        <v>826</v>
+        <v>1164</v>
       </c>
       <c r="C113">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3471,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B114">
-        <v>1017</v>
+        <v>1170</v>
       </c>
       <c r="C114">
-        <v>1241</v>
+        <v>1060</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3488,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B115">
-        <v>1021</v>
+        <v>1168</v>
       </c>
       <c r="C115">
-        <v>1284</v>
+        <v>1040</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3505,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B116">
-        <v>1026</v>
+        <v>1163</v>
       </c>
       <c r="C116">
-        <v>1263</v>
+        <v>1011</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3522,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B117">
-        <v>1030</v>
+        <v>1161</v>
       </c>
       <c r="C117">
-        <v>1231</v>
+        <v>991</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3539,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B118">
-        <v>1152</v>
+        <v>1047</v>
       </c>
       <c r="C118">
-        <v>1237</v>
+        <v>1016</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3556,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B119">
-        <v>1153</v>
+        <v>1043</v>
       </c>
       <c r="C119">
-        <v>1233</v>
+        <v>1006</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3573,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B120">
-        <v>1155</v>
+        <v>1039</v>
       </c>
       <c r="C120">
-        <v>1242</v>
+        <v>1002</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3590,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B121">
-        <v>1158</v>
+        <v>1035</v>
       </c>
       <c r="C121">
-        <v>1226</v>
+        <v>1006</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3607,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B122">
-        <v>1166</v>
+        <v>929</v>
       </c>
       <c r="C122">
-        <v>1206</v>
+        <v>956</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3624,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B123">
-        <v>1166</v>
+        <v>923</v>
       </c>
       <c r="C123">
-        <v>1188</v>
+        <v>872</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3641,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B124">
-        <v>1165</v>
+        <v>947</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3658,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45807.28125</v>
+        <v>45808.28125</v>
       </c>
       <c r="B125">
-        <v>1165</v>
+        <v>946</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3675,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45807.29166666666</v>
+        <v>45808.29166666666</v>
       </c>
       <c r="B126">
-        <v>1123</v>
+        <v>770</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3692,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45807.30208333334</v>
+        <v>45808.30208333334</v>
       </c>
       <c r="B127">
-        <v>1124</v>
+        <v>767</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3709,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45807.3125</v>
+        <v>45808.3125</v>
       </c>
       <c r="B128">
-        <v>1126</v>
+        <v>765</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3726,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45807.32291666666</v>
+        <v>45808.32291666666</v>
       </c>
       <c r="B129">
-        <v>1128</v>
+        <v>762</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3743,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45807.33333333334</v>
+        <v>45808.33333333334</v>
       </c>
       <c r="B130">
-        <v>1140</v>
+        <v>704</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3760,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45807.34375</v>
+        <v>45808.34375</v>
       </c>
       <c r="B131">
-        <v>1140</v>
+        <v>703</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3777,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45807.35416666666</v>
+        <v>45808.35416666666</v>
       </c>
       <c r="B132">
-        <v>1141</v>
+        <v>721</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3794,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45807.36458333334</v>
+        <v>45808.36458333334</v>
       </c>
       <c r="B133">
-        <v>1141</v>
+        <v>723</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3811,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45807.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B134">
-        <v>1188</v>
+        <v>760</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3828,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45807.38541666666</v>
+        <v>45808.38541666666</v>
       </c>
       <c r="B135">
-        <v>1188</v>
+        <v>762</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3845,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45807.39583333334</v>
+        <v>45808.39583333334</v>
       </c>
       <c r="B136">
-        <v>1188</v>
+        <v>764</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3862,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45807.40625</v>
+        <v>45808.40625</v>
       </c>
       <c r="B137">
-        <v>1187</v>
+        <v>765</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3879,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45807.41666666666</v>
+        <v>45808.41666666666</v>
       </c>
       <c r="B138">
-        <v>1158</v>
+        <v>763</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3896,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45807.42708333334</v>
+        <v>45808.42708333334</v>
       </c>
       <c r="B139">
-        <v>1159</v>
+        <v>762</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3913,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45807.4375</v>
+        <v>45808.4375</v>
       </c>
       <c r="B140">
-        <v>1160</v>
+        <v>762</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3930,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45807.44791666666</v>
+        <v>45808.44791666666</v>
       </c>
       <c r="B141">
-        <v>1161</v>
+        <v>761</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3947,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45807.45833333334</v>
+        <v>45808.45833333334</v>
       </c>
       <c r="B142">
-        <v>1152</v>
+        <v>739</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3964,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45807.46875</v>
+        <v>45808.46875</v>
       </c>
       <c r="B143">
-        <v>1153</v>
+        <v>737</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3981,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45807.47916666666</v>
+        <v>45808.47916666666</v>
       </c>
       <c r="B144">
-        <v>1153</v>
+        <v>735</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3998,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45807.48958333334</v>
+        <v>45808.48958333334</v>
       </c>
       <c r="B145">
-        <v>1153</v>
+        <v>734</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +4015,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45807.5</v>
+        <v>45808.5</v>
       </c>
       <c r="B146">
-        <v>1167</v>
+        <v>707</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +4032,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45807.51041666666</v>
+        <v>45808.51041666666</v>
       </c>
       <c r="B147">
-        <v>1166</v>
+        <v>706</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +4049,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45807.52083333334</v>
+        <v>45808.52083333334</v>
       </c>
       <c r="B148">
-        <v>1165</v>
+        <v>705</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +4066,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45807.53125</v>
+        <v>45808.53125</v>
       </c>
       <c r="B149">
-        <v>1164</v>
+        <v>704</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +4083,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45807.54166666666</v>
+        <v>45808.54166666666</v>
       </c>
       <c r="B150">
-        <v>1192</v>
+        <v>685</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +4100,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45807.55208333334</v>
+        <v>45808.55208333334</v>
       </c>
       <c r="B151">
-        <v>1191</v>
+        <v>684</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +4117,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45807.5625</v>
+        <v>45808.5625</v>
       </c>
       <c r="B152">
-        <v>1191</v>
+        <v>683</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +4134,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45807.57291666666</v>
+        <v>45808.57291666666</v>
       </c>
       <c r="B153">
-        <v>1190</v>
+        <v>682</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +4151,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45807.58333333334</v>
+        <v>45808.58333333334</v>
       </c>
       <c r="B154">
-        <v>1210</v>
+        <v>660</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +4168,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45807.59375</v>
+        <v>45808.59375</v>
       </c>
       <c r="B155">
-        <v>1210</v>
+        <v>659</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +4185,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45807.60416666666</v>
+        <v>45808.60416666666</v>
       </c>
       <c r="B156">
-        <v>1210</v>
+        <v>658</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +4202,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45807.61458333334</v>
+        <v>45808.61458333334</v>
       </c>
       <c r="B157">
-        <v>1210</v>
+        <v>658</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +4219,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45807.625</v>
+        <v>45808.625</v>
       </c>
       <c r="B158">
-        <v>1214</v>
+        <v>631</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +4236,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45807.63541666666</v>
+        <v>45808.63541666666</v>
       </c>
       <c r="B159">
-        <v>1215</v>
+        <v>630</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,13 +4253,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45807.64583333334</v>
+        <v>45808.64583333334</v>
       </c>
       <c r="B160">
-        <v>1216</v>
+        <v>628</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3694,13 +4270,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45807.65625</v>
+        <v>45808.65625</v>
       </c>
       <c r="B161">
-        <v>1216</v>
+        <v>627</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3711,13 +4287,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45807.66666666666</v>
+        <v>45808.66666666666</v>
       </c>
       <c r="B162">
-        <v>1176</v>
+        <v>599</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4304,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45807.67708333334</v>
+        <v>45808.67708333334</v>
       </c>
       <c r="B163">
-        <v>1175</v>
+        <v>597</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4321,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45807.6875</v>
+        <v>45808.6875</v>
       </c>
       <c r="B164">
-        <v>1174</v>
+        <v>594</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4338,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45807.69791666666</v>
+        <v>45808.69791666666</v>
       </c>
       <c r="B165">
-        <v>1172</v>
+        <v>592</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4355,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45807.70833333334</v>
+        <v>45808.70833333334</v>
       </c>
       <c r="B166">
-        <v>1114</v>
+        <v>516</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4372,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45807.71875</v>
+        <v>45808.71875</v>
       </c>
       <c r="B167">
-        <v>1110</v>
+        <v>512</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4389,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45807.72916666666</v>
+        <v>45808.72916666666</v>
       </c>
       <c r="B168">
-        <v>1105</v>
+        <v>508</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4406,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45807.73958333334</v>
+        <v>45808.73958333334</v>
       </c>
       <c r="B169">
-        <v>1100</v>
+        <v>505</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4423,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45807.75</v>
+        <v>45808.75</v>
       </c>
       <c r="B170">
-        <v>982</v>
+        <v>392</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,13 +4440,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45807.76041666666</v>
+        <v>45808.76041666666</v>
       </c>
       <c r="B171">
-        <v>978</v>
+        <v>389</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -3881,13 +4457,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45807.77083333334</v>
+        <v>45808.77083333334</v>
       </c>
       <c r="B172">
-        <v>973</v>
+        <v>386</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -3898,13 +4474,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45807.78125</v>
+        <v>45808.78125</v>
       </c>
       <c r="B173">
-        <v>969</v>
+        <v>383</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -3915,13 +4491,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45807.79166666666</v>
+        <v>45808.79166666666</v>
       </c>
       <c r="B174">
-        <v>907</v>
+        <v>308</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -3932,13 +4508,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45807.80208333334</v>
+        <v>45808.80208333334</v>
       </c>
       <c r="B175">
-        <v>906</v>
+        <v>307</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -3949,13 +4525,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45807.8125</v>
+        <v>45808.8125</v>
       </c>
       <c r="B176">
-        <v>905</v>
+        <v>306</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -3966,13 +4542,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45807.82291666666</v>
+        <v>45808.82291666666</v>
       </c>
       <c r="B177">
-        <v>905</v>
+        <v>305</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -3983,13 +4559,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45807.83333333334</v>
+        <v>45808.83333333334</v>
       </c>
       <c r="B178">
-        <v>912</v>
+        <v>260</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4000,13 +4576,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45807.84375</v>
+        <v>45808.84375</v>
       </c>
       <c r="B179">
-        <v>913</v>
+        <v>259</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4017,13 +4593,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45807.85416666666</v>
+        <v>45808.85416666666</v>
       </c>
       <c r="B180">
-        <v>915</v>
+        <v>259</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4034,13 +4610,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45807.86458333334</v>
+        <v>45808.86458333334</v>
       </c>
       <c r="B181">
-        <v>916</v>
+        <v>258</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4051,13 +4627,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45807.875</v>
+        <v>45808.875</v>
       </c>
       <c r="B182">
-        <v>1008</v>
+        <v>241</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4068,13 +4644,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45807.88541666666</v>
+        <v>45808.88541666666</v>
       </c>
       <c r="B183">
-        <v>1010</v>
+        <v>239</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4085,13 +4661,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45807.89583333334</v>
+        <v>45808.89583333334</v>
       </c>
       <c r="B184">
-        <v>1012</v>
+        <v>238</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4102,13 +4678,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45807.90625</v>
+        <v>45808.90625</v>
       </c>
       <c r="B185">
-        <v>1015</v>
+        <v>236</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4119,13 +4695,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45807.91666666666</v>
+        <v>45808.91666666666</v>
       </c>
       <c r="B186">
-        <v>1054</v>
+        <v>228</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4136,13 +4712,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45807.92708333334</v>
+        <v>45808.92708333334</v>
       </c>
       <c r="B187">
-        <v>1056</v>
+        <v>227</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4153,13 +4729,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45807.9375</v>
+        <v>45808.9375</v>
       </c>
       <c r="B188">
-        <v>1058</v>
+        <v>226</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D188">
         <v>91</v>
@@ -4170,13 +4746,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45807.94791666666</v>
+        <v>45808.94791666666</v>
       </c>
       <c r="B189">
-        <v>1060</v>
+        <v>225</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4187,13 +4763,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45807.95833333334</v>
+        <v>45808.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4204,13 +4780,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45807.96875</v>
+        <v>45808.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4221,13 +4797,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45807.97916666666</v>
+        <v>45808.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4238,19 +4814,3283 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45807.98958333334</v>
+        <v>45808.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D193">
         <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B194">
+        <v>285</v>
+      </c>
+      <c r="C194">
+        <v>202</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>288</v>
+      </c>
+      <c r="C195">
+        <v>207</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>288</v>
+      </c>
+      <c r="C196">
+        <v>214</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B197">
+        <v>290</v>
+      </c>
+      <c r="C197">
+        <v>223</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>331</v>
+      </c>
+      <c r="C198">
+        <v>223</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>332</v>
+      </c>
+      <c r="C199">
+        <v>229</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B200">
+        <v>335</v>
+      </c>
+      <c r="C200">
+        <v>248</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>339</v>
+      </c>
+      <c r="C201">
+        <v>260</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>386</v>
+      </c>
+      <c r="C202">
+        <v>276</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B203">
+        <v>392</v>
+      </c>
+      <c r="C203">
+        <v>277</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>391</v>
+      </c>
+      <c r="C204">
+        <v>286</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>399</v>
+      </c>
+      <c r="C205">
+        <v>296</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B206">
+        <v>418</v>
+      </c>
+      <c r="C206">
+        <v>312</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>421</v>
+      </c>
+      <c r="C207">
+        <v>333</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>425</v>
+      </c>
+      <c r="C208">
+        <v>355</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B209">
+        <v>427</v>
+      </c>
+      <c r="C209">
+        <v>376</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>418</v>
+      </c>
+      <c r="C210">
+        <v>399</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>414</v>
+      </c>
+      <c r="C211">
+        <v>403</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B212">
+        <v>416</v>
+      </c>
+      <c r="C212">
+        <v>388</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>415</v>
+      </c>
+      <c r="C213">
+        <v>365</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>400</v>
+      </c>
+      <c r="C214">
+        <v>352</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B215">
+        <v>404</v>
+      </c>
+      <c r="C215">
+        <v>352</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>404</v>
+      </c>
+      <c r="C216">
+        <v>349</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>403</v>
+      </c>
+      <c r="C217">
+        <v>365</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B218">
+        <v>358</v>
+      </c>
+      <c r="C218">
+        <v>340</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>359</v>
+      </c>
+      <c r="C219">
+        <v>341</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>361</v>
+      </c>
+      <c r="C220">
+        <v>244</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B221">
+        <v>359</v>
+      </c>
+      <c r="C221">
+        <v>216</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>251</v>
+      </c>
+      <c r="C222">
+        <v>242</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>253</v>
+      </c>
+      <c r="C223">
+        <v>150</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B224">
+        <v>252</v>
+      </c>
+      <c r="C224">
+        <v>127</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>250</v>
+      </c>
+      <c r="C225">
+        <v>108</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>182</v>
+      </c>
+      <c r="C226">
+        <v>106</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B227">
+        <v>183</v>
+      </c>
+      <c r="C227">
+        <v>112</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>187</v>
+      </c>
+      <c r="C228">
+        <v>113</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>188</v>
+      </c>
+      <c r="C229">
+        <v>113</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B230">
+        <v>134</v>
+      </c>
+      <c r="C230">
+        <v>97</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>135</v>
+      </c>
+      <c r="C231">
+        <v>90</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>139</v>
+      </c>
+      <c r="C232">
+        <v>82</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B233">
+        <v>141</v>
+      </c>
+      <c r="C233">
+        <v>72</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>119</v>
+      </c>
+      <c r="C234">
+        <v>61</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>119</v>
+      </c>
+      <c r="C235">
+        <v>57</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B236">
+        <v>120</v>
+      </c>
+      <c r="C236">
+        <v>53</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>120</v>
+      </c>
+      <c r="C237">
+        <v>71</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>122</v>
+      </c>
+      <c r="C238">
+        <v>72</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B239">
+        <v>122</v>
+      </c>
+      <c r="C239">
+        <v>68</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>122</v>
+      </c>
+      <c r="C240">
+        <v>64</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>122</v>
+      </c>
+      <c r="C241">
+        <v>55</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B242">
+        <v>121</v>
+      </c>
+      <c r="C242">
+        <v>50</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>121</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>120</v>
+      </c>
+      <c r="C244">
+        <v>34</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B245">
+        <v>120</v>
+      </c>
+      <c r="C245">
+        <v>26</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>118</v>
+      </c>
+      <c r="C246">
+        <v>47</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>117</v>
+      </c>
+      <c r="C247">
+        <v>30</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B248">
+        <v>117</v>
+      </c>
+      <c r="C248">
+        <v>38</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>116</v>
+      </c>
+      <c r="C249">
+        <v>52</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>93</v>
+      </c>
+      <c r="C250">
+        <v>57</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B251">
+        <v>91</v>
+      </c>
+      <c r="C251">
+        <v>65</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>90</v>
+      </c>
+      <c r="C252">
+        <v>58</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>89</v>
+      </c>
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B254">
+        <v>87</v>
+      </c>
+      <c r="C254">
+        <v>46</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>85</v>
+      </c>
+      <c r="C255">
+        <v>46</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>84</v>
+      </c>
+      <c r="C256">
+        <v>36</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B257">
+        <v>83</v>
+      </c>
+      <c r="C257">
+        <v>32</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>62</v>
+      </c>
+      <c r="C258">
+        <v>42</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>61</v>
+      </c>
+      <c r="C259">
+        <v>52</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B260">
+        <v>59</v>
+      </c>
+      <c r="C260">
+        <v>57</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>58</v>
+      </c>
+      <c r="C261">
+        <v>55</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>66</v>
+      </c>
+      <c r="C262">
+        <v>50</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B263">
+        <v>65</v>
+      </c>
+      <c r="C263">
+        <v>50</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>64</v>
+      </c>
+      <c r="C264">
+        <v>48</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>63</v>
+      </c>
+      <c r="C265">
+        <v>46</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B266">
+        <v>58</v>
+      </c>
+      <c r="C266">
+        <v>42</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>57</v>
+      </c>
+      <c r="C267">
+        <v>29</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>57</v>
+      </c>
+      <c r="C268">
+        <v>22</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B269">
+        <v>57</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>61</v>
+      </c>
+      <c r="C270">
+        <v>13</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>62</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B272">
+        <v>62</v>
+      </c>
+      <c r="C272">
+        <v>8</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>63</v>
+      </c>
+      <c r="C273">
+        <v>13</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>70</v>
+      </c>
+      <c r="C274">
+        <v>21</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B275">
+        <v>70</v>
+      </c>
+      <c r="C275">
+        <v>23</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>70</v>
+      </c>
+      <c r="C276">
+        <v>27</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>70</v>
+      </c>
+      <c r="C277">
+        <v>30</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B278">
+        <v>78</v>
+      </c>
+      <c r="C278">
+        <v>38</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>79</v>
+      </c>
+      <c r="C279">
+        <v>48</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>79</v>
+      </c>
+      <c r="C280">
+        <v>59</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B281">
+        <v>79</v>
+      </c>
+      <c r="C281">
+        <v>84</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>93</v>
+      </c>
+      <c r="C282">
+        <v>94</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>93</v>
+      </c>
+      <c r="C283">
+        <v>97</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B284">
+        <v>94</v>
+      </c>
+      <c r="C284">
+        <v>101</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>94</v>
+      </c>
+      <c r="C285">
+        <v>101</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>114</v>
+      </c>
+      <c r="C286">
+        <v>114</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B287">
+        <v>114</v>
+      </c>
+      <c r="C287">
+        <v>117</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>122</v>
+      </c>
+      <c r="C288">
+        <v>122</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>130</v>
+      </c>
+      <c r="C289">
+        <v>127</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B290">
+        <v>95</v>
+      </c>
+      <c r="C290">
+        <v>135</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>100</v>
+      </c>
+      <c r="C291">
+        <v>145</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>100</v>
+      </c>
+      <c r="C292">
+        <v>164</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B293">
+        <v>101</v>
+      </c>
+      <c r="C293">
+        <v>169</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>113</v>
+      </c>
+      <c r="C294">
+        <v>164</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>115</v>
+      </c>
+      <c r="C295">
+        <v>153</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B296">
+        <v>117</v>
+      </c>
+      <c r="C296">
+        <v>144</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>120</v>
+      </c>
+      <c r="C297">
+        <v>150</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>148</v>
+      </c>
+      <c r="C298">
+        <v>166</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B299">
+        <v>148</v>
+      </c>
+      <c r="C299">
+        <v>166</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>149</v>
+      </c>
+      <c r="C300">
+        <v>165</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>150</v>
+      </c>
+      <c r="C301">
+        <v>161</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B302">
+        <v>167</v>
+      </c>
+      <c r="C302">
+        <v>160</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>163</v>
+      </c>
+      <c r="C303">
+        <v>153</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>164</v>
+      </c>
+      <c r="C304">
+        <v>153</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B305">
+        <v>165</v>
+      </c>
+      <c r="C305">
+        <v>144</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>159</v>
+      </c>
+      <c r="C306">
+        <v>134</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>160</v>
+      </c>
+      <c r="C307">
+        <v>126</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B308">
+        <v>160</v>
+      </c>
+      <c r="C308">
+        <v>117</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>155</v>
+      </c>
+      <c r="C309">
+        <v>120</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>150</v>
+      </c>
+      <c r="C310">
+        <v>122</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B311">
+        <v>147</v>
+      </c>
+      <c r="C311">
+        <v>125</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>146</v>
+      </c>
+      <c r="C312">
+        <v>132</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>146</v>
+      </c>
+      <c r="C313">
+        <v>136</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B314">
+        <v>105</v>
+      </c>
+      <c r="C314">
+        <v>118</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>106</v>
+      </c>
+      <c r="C315">
+        <v>97</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>106</v>
+      </c>
+      <c r="C316">
+        <v>89</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B317">
+        <v>107</v>
+      </c>
+      <c r="C317">
+        <v>81</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>75</v>
+      </c>
+      <c r="C318">
+        <v>58</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>76</v>
+      </c>
+      <c r="C319">
+        <v>44</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B320">
+        <v>77</v>
+      </c>
+      <c r="C320">
+        <v>30</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>74</v>
+      </c>
+      <c r="C321">
+        <v>31</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>57</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B323">
+        <v>59</v>
+      </c>
+      <c r="C323">
+        <v>9</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>61</v>
+      </c>
+      <c r="C324">
+        <v>8</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>57</v>
+      </c>
+      <c r="C325">
+        <v>10</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B326">
+        <v>47</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>47</v>
+      </c>
+      <c r="C327">
+        <v>13</v>
+      </c>
+      <c r="D327">
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>47</v>
+      </c>
+      <c r="C328">
+        <v>10</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B329">
+        <v>47</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>45810.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>45</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>41</v>
+      </c>
+      <c r="E330" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>45810.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>45</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>42</v>
+      </c>
+      <c r="E331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>45810.4375</v>
+      </c>
+      <c r="B332">
+        <v>45</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>43</v>
+      </c>
+      <c r="E332" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>45810.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>46</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>44</v>
+      </c>
+      <c r="E333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>45810.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>54</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>45</v>
+      </c>
+      <c r="E334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>45810.46875</v>
+      </c>
+      <c r="B335">
+        <v>55</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>46</v>
+      </c>
+      <c r="E335" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>55</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>45810.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>55</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>48</v>
+      </c>
+      <c r="E337" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>45810.5</v>
+      </c>
+      <c r="B338">
+        <v>79</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>49</v>
+      </c>
+      <c r="E338" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>45810.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>80</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>45810.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>81</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>45810.53125</v>
+      </c>
+      <c r="B341">
+        <v>81</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>52</v>
+      </c>
+      <c r="E341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>45810.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>108</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>45810.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>108</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>54</v>
+      </c>
+      <c r="E343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>45810.5625</v>
+      </c>
+      <c r="B344">
+        <v>109</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>45810.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>109</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>56</v>
+      </c>
+      <c r="E345" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>45810.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>141</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>45810.59375</v>
+      </c>
+      <c r="B347">
+        <v>142</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>58</v>
+      </c>
+      <c r="E347" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>45810.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>142</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>59</v>
+      </c>
+      <c r="E348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>45810.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>142</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>60</v>
+      </c>
+      <c r="E349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>45810.625</v>
+      </c>
+      <c r="B350">
+        <v>162</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>45810.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>162</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>45810.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>162</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>45810.65625</v>
+      </c>
+      <c r="B353">
+        <v>162</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>45810.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>178</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>65</v>
+      </c>
+      <c r="E354" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>45810.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>178</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>66</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>45810.6875</v>
+      </c>
+      <c r="B356">
+        <v>178</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>67</v>
+      </c>
+      <c r="E356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>45810.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>179</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>45810.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>201</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>69</v>
+      </c>
+      <c r="E358" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>45810.71875</v>
+      </c>
+      <c r="B359">
+        <v>202</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>70</v>
+      </c>
+      <c r="E359" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>45810.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>203</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>71</v>
+      </c>
+      <c r="E360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>45810.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>204</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>45810.75</v>
+      </c>
+      <c r="B362">
+        <v>250</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>73</v>
+      </c>
+      <c r="E362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>45810.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>251</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>45810.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>253</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>45810.78125</v>
+      </c>
+      <c r="B365">
+        <v>256</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>315</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>77</v>
+      </c>
+      <c r="E366" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>45810.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>318</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>78</v>
+      </c>
+      <c r="E367" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>45810.8125</v>
+      </c>
+      <c r="B368">
+        <v>322</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>79</v>
+      </c>
+      <c r="E368" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>45810.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>325</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>80</v>
+      </c>
+      <c r="E369" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>45810.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>379</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>45810.84375</v>
+      </c>
+      <c r="B371">
+        <v>381</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>82</v>
+      </c>
+      <c r="E371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>45810.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>383</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>83</v>
+      </c>
+      <c r="E372" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>45810.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>385</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>45810.875</v>
+      </c>
+      <c r="B374">
+        <v>422</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>45810.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>423</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>86</v>
+      </c>
+      <c r="E375" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>45810.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>425</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>87</v>
+      </c>
+      <c r="E376" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>45810.90625</v>
+      </c>
+      <c r="B377">
+        <v>427</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>45810.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>436</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>89</v>
+      </c>
+      <c r="E378" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>45810.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>437</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>90</v>
+      </c>
+      <c r="E379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>45810.9375</v>
+      </c>
+      <c r="B380">
+        <v>438</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>45810.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>439</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>92</v>
+      </c>
+      <c r="E381" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>45810.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>93</v>
+      </c>
+      <c r="E382" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>45810.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>94</v>
+      </c>
+      <c r="E383" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>45810.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>95</v>
+      </c>
+      <c r="E384" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>45810.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>96</v>
+      </c>
+      <c r="E385" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>12.06.202593</t>
-  </si>
-  <si>
-    <t>12.06.202594</t>
-  </si>
-  <si>
-    <t>12.06.202595</t>
-  </si>
-  <si>
-    <t>12.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
-  </si>
-  <si>
-    <t>13.06.202522</t>
-  </si>
-  <si>
-    <t>13.06.202523</t>
-  </si>
-  <si>
-    <t>13.06.202524</t>
-  </si>
-  <si>
-    <t>13.06.202525</t>
-  </si>
-  <si>
-    <t>13.06.202526</t>
-  </si>
-  <si>
-    <t>13.06.202527</t>
-  </si>
-  <si>
-    <t>13.06.202528</t>
-  </si>
-  <si>
-    <t>13.06.202529</t>
-  </si>
-  <si>
-    <t>13.06.202530</t>
-  </si>
-  <si>
-    <t>13.06.202531</t>
-  </si>
-  <si>
-    <t>13.06.202532</t>
-  </si>
-  <si>
-    <t>13.06.202533</t>
-  </si>
-  <si>
-    <t>13.06.202534</t>
-  </si>
-  <si>
-    <t>13.06.202535</t>
-  </si>
-  <si>
-    <t>13.06.202536</t>
-  </si>
-  <si>
-    <t>13.06.202537</t>
-  </si>
-  <si>
-    <t>13.06.202538</t>
-  </si>
-  <si>
-    <t>13.06.202539</t>
-  </si>
-  <si>
-    <t>13.06.202540</t>
-  </si>
-  <si>
-    <t>13.06.202541</t>
-  </si>
-  <si>
-    <t>13.06.202542</t>
-  </si>
-  <si>
-    <t>13.06.202543</t>
-  </si>
-  <si>
-    <t>13.06.202544</t>
-  </si>
-  <si>
-    <t>13.06.202545</t>
-  </si>
-  <si>
-    <t>13.06.202546</t>
-  </si>
-  <si>
-    <t>13.06.202547</t>
-  </si>
-  <si>
-    <t>13.06.202548</t>
-  </si>
-  <si>
-    <t>13.06.202549</t>
-  </si>
-  <si>
-    <t>13.06.202550</t>
-  </si>
-  <si>
-    <t>13.06.202551</t>
-  </si>
-  <si>
-    <t>13.06.202552</t>
-  </si>
-  <si>
-    <t>13.06.202553</t>
-  </si>
-  <si>
-    <t>13.06.202554</t>
-  </si>
-  <si>
-    <t>13.06.202555</t>
-  </si>
-  <si>
-    <t>13.06.202556</t>
-  </si>
-  <si>
-    <t>13.06.202557</t>
-  </si>
-  <si>
-    <t>13.06.202558</t>
-  </si>
-  <si>
-    <t>13.06.202559</t>
-  </si>
-  <si>
-    <t>13.06.202560</t>
-  </si>
-  <si>
-    <t>13.06.202561</t>
-  </si>
-  <si>
-    <t>13.06.202562</t>
-  </si>
-  <si>
-    <t>13.06.202563</t>
-  </si>
-  <si>
-    <t>13.06.202564</t>
-  </si>
-  <si>
-    <t>13.06.202565</t>
-  </si>
-  <si>
-    <t>13.06.202566</t>
-  </si>
-  <si>
-    <t>13.06.202567</t>
-  </si>
-  <si>
-    <t>13.06.202568</t>
-  </si>
-  <si>
-    <t>13.06.202569</t>
-  </si>
-  <si>
-    <t>13.06.202570</t>
-  </si>
-  <si>
-    <t>13.06.202571</t>
-  </si>
-  <si>
-    <t>13.06.202572</t>
-  </si>
-  <si>
-    <t>13.06.202573</t>
-  </si>
-  <si>
-    <t>13.06.202574</t>
-  </si>
-  <si>
-    <t>13.06.202575</t>
-  </si>
-  <si>
-    <t>13.06.202576</t>
-  </si>
-  <si>
-    <t>13.06.202577</t>
-  </si>
-  <si>
-    <t>13.06.202578</t>
-  </si>
-  <si>
-    <t>13.06.202579</t>
-  </si>
-  <si>
-    <t>13.06.202580</t>
-  </si>
-  <si>
-    <t>13.06.202581</t>
-  </si>
-  <si>
-    <t>13.06.202582</t>
-  </si>
-  <si>
-    <t>13.06.202583</t>
-  </si>
-  <si>
-    <t>13.06.202584</t>
-  </si>
-  <si>
-    <t>13.06.202585</t>
-  </si>
-  <si>
-    <t>13.06.202586</t>
-  </si>
-  <si>
-    <t>13.06.202587</t>
-  </si>
-  <si>
-    <t>13.06.202588</t>
-  </si>
-  <si>
-    <t>13.06.202589</t>
-  </si>
-  <si>
-    <t>13.06.202590</t>
-  </si>
-  <si>
-    <t>13.06.202591</t>
-  </si>
-  <si>
-    <t>13.06.202592</t>
-  </si>
-  <si>
-    <t>13.06.202593</t>
-  </si>
-  <si>
-    <t>13.06.202594</t>
-  </si>
-  <si>
-    <t>13.06.202595</t>
-  </si>
-  <si>
-    <t>13.06.202596</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>16.06.202593</t>
+  </si>
+  <si>
+    <t>16.06.202594</t>
+  </si>
+  <si>
+    <t>16.06.202595</t>
+  </si>
+  <si>
+    <t>16.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202550</t>
+  </si>
+  <si>
+    <t>17.06.202551</t>
+  </si>
+  <si>
+    <t>17.06.202552</t>
+  </si>
+  <si>
+    <t>17.06.202553</t>
+  </si>
+  <si>
+    <t>17.06.202554</t>
+  </si>
+  <si>
+    <t>17.06.202555</t>
+  </si>
+  <si>
+    <t>17.06.202556</t>
+  </si>
+  <si>
+    <t>17.06.202557</t>
+  </si>
+  <si>
+    <t>17.06.202558</t>
+  </si>
+  <si>
+    <t>17.06.202559</t>
+  </si>
+  <si>
+    <t>17.06.202560</t>
+  </si>
+  <si>
+    <t>17.06.202561</t>
+  </si>
+  <si>
+    <t>17.06.202562</t>
+  </si>
+  <si>
+    <t>17.06.202563</t>
+  </si>
+  <si>
+    <t>17.06.202564</t>
+  </si>
+  <si>
+    <t>17.06.202565</t>
+  </si>
+  <si>
+    <t>17.06.202566</t>
+  </si>
+  <si>
+    <t>17.06.202567</t>
+  </si>
+  <si>
+    <t>17.06.202568</t>
+  </si>
+  <si>
+    <t>17.06.202569</t>
+  </si>
+  <si>
+    <t>17.06.202570</t>
+  </si>
+  <si>
+    <t>17.06.202571</t>
+  </si>
+  <si>
+    <t>17.06.202572</t>
+  </si>
+  <si>
+    <t>17.06.202573</t>
+  </si>
+  <si>
+    <t>17.06.202574</t>
+  </si>
+  <si>
+    <t>17.06.202575</t>
+  </si>
+  <si>
+    <t>17.06.202576</t>
+  </si>
+  <si>
+    <t>17.06.202577</t>
+  </si>
+  <si>
+    <t>17.06.202578</t>
+  </si>
+  <si>
+    <t>17.06.202579</t>
+  </si>
+  <si>
+    <t>17.06.202580</t>
+  </si>
+  <si>
+    <t>17.06.202581</t>
+  </si>
+  <si>
+    <t>17.06.202582</t>
+  </si>
+  <si>
+    <t>17.06.202583</t>
+  </si>
+  <si>
+    <t>17.06.202584</t>
+  </si>
+  <si>
+    <t>17.06.202585</t>
+  </si>
+  <si>
+    <t>17.06.202586</t>
+  </si>
+  <si>
+    <t>17.06.202587</t>
+  </si>
+  <si>
+    <t>17.06.202588</t>
+  </si>
+  <si>
+    <t>17.06.202589</t>
+  </si>
+  <si>
+    <t>17.06.202590</t>
+  </si>
+  <si>
+    <t>17.06.202591</t>
+  </si>
+  <si>
+    <t>17.06.202592</t>
+  </si>
+  <si>
+    <t>17.06.202593</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
-        <v>807</v>
+        <v>674</v>
       </c>
       <c r="C2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
-        <v>814</v>
+        <v>678</v>
       </c>
       <c r="C3">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
-        <v>812</v>
+        <v>682</v>
       </c>
       <c r="C4">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
-        <v>806</v>
+        <v>683</v>
       </c>
       <c r="C5">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>867</v>
+        <v>790</v>
       </c>
       <c r="C6">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>856</v>
+        <v>790</v>
       </c>
       <c r="C7">
-        <v>525</v>
+        <v>652</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>843</v>
+        <v>795</v>
       </c>
       <c r="C8">
-        <v>538</v>
+        <v>689</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="C9">
-        <v>609</v>
+        <v>693</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
-        <v>1173</v>
+        <v>865</v>
       </c>
       <c r="C10">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
-        <v>1142</v>
+        <v>866</v>
       </c>
       <c r="C11">
-        <v>869</v>
+        <v>760</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
-        <v>1151</v>
+        <v>871</v>
       </c>
       <c r="C12">
-        <v>1008</v>
+        <v>790</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
-        <v>1189</v>
+        <v>876</v>
       </c>
       <c r="C13">
-        <v>1152</v>
+        <v>810</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
-        <v>1424</v>
+        <v>884</v>
       </c>
       <c r="C14">
-        <v>1293</v>
+        <v>809</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
-        <v>1428</v>
+        <v>884</v>
       </c>
       <c r="C15">
-        <v>1409</v>
+        <v>780</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
-        <v>1431</v>
+        <v>884</v>
       </c>
       <c r="C16">
-        <v>1534</v>
+        <v>758</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
-        <v>1474</v>
+        <v>885</v>
       </c>
       <c r="C17">
-        <v>1577</v>
+        <v>721</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
-        <v>1601</v>
+        <v>838</v>
       </c>
       <c r="C18">
-        <v>1635</v>
+        <v>675</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
-        <v>1606</v>
+        <v>837</v>
       </c>
       <c r="C19">
-        <v>1663</v>
+        <v>672</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
-        <v>1592</v>
+        <v>835</v>
       </c>
       <c r="C20">
-        <v>1684</v>
+        <v>664</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
-        <v>1590</v>
+        <v>834</v>
       </c>
       <c r="C21">
-        <v>1638</v>
+        <v>638</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
-        <v>1458</v>
+        <v>745</v>
       </c>
       <c r="C22">
-        <v>1574</v>
+        <v>632</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
-        <v>1452</v>
+        <v>736</v>
       </c>
       <c r="C23">
-        <v>1516</v>
+        <v>633</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>1448</v>
+        <v>731</v>
       </c>
       <c r="C24">
-        <v>1446</v>
+        <v>640</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>1442</v>
+        <v>724</v>
       </c>
       <c r="C25">
-        <v>1348</v>
+        <v>623</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>1210</v>
+        <v>590</v>
       </c>
       <c r="C26">
-        <v>1214</v>
+        <v>618</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>1205</v>
+        <v>583</v>
       </c>
       <c r="C27">
-        <v>1172</v>
+        <v>585</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>1207</v>
+        <v>578</v>
       </c>
       <c r="C28">
-        <v>1123</v>
+        <v>517</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>1203</v>
+        <v>575</v>
       </c>
       <c r="C29">
-        <v>1104</v>
+        <v>418</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>1014</v>
+        <v>434</v>
       </c>
       <c r="C30">
-        <v>1045</v>
+        <v>336</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>1016</v>
+        <v>431</v>
       </c>
       <c r="C31">
-        <v>1048</v>
+        <v>311</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
-        <v>1013</v>
+        <v>430</v>
       </c>
       <c r="C32">
-        <v>1041</v>
+        <v>300</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
-        <v>1014</v>
+        <v>422</v>
       </c>
       <c r="C33">
-        <v>1011</v>
+        <v>301</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
-        <v>848</v>
+        <v>383</v>
       </c>
       <c r="C34">
-        <v>834</v>
+        <v>289</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
-        <v>827</v>
+        <v>386</v>
       </c>
       <c r="C35">
-        <v>801</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>824</v>
+        <v>388</v>
       </c>
       <c r="C36">
-        <v>769</v>
+        <v>330</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>821</v>
+        <v>389</v>
       </c>
       <c r="C37">
-        <v>747</v>
+        <v>367</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C38">
-        <v>701</v>
+        <v>413</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>652</v>
+        <v>460</v>
       </c>
       <c r="C39">
-        <v>662</v>
+        <v>440</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
-        <v>649</v>
+        <v>464</v>
       </c>
       <c r="C40">
-        <v>614</v>
+        <v>459</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
-        <v>644</v>
+        <v>466</v>
       </c>
       <c r="C41">
-        <v>562</v>
+        <v>486</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="C42">
-        <v>467</v>
+        <v>569</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="C43">
-        <v>448</v>
+        <v>591</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="C44">
-        <v>406</v>
+        <v>584</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="C45">
-        <v>368</v>
+        <v>580</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
-        <v>382</v>
+        <v>516</v>
       </c>
       <c r="C46">
-        <v>318</v>
+        <v>558</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>379</v>
+        <v>515</v>
       </c>
       <c r="C47">
-        <v>279</v>
+        <v>537</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>377</v>
+        <v>514</v>
       </c>
       <c r="C48">
-        <v>245</v>
+        <v>513</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="C49">
-        <v>202</v>
+        <v>487</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="C50">
-        <v>186</v>
+        <v>449</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>348</v>
+        <v>452</v>
       </c>
       <c r="C51">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>346</v>
+        <v>451</v>
       </c>
       <c r="C52">
-        <v>172</v>
+        <v>440</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="C53">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="C54">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="C55">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="C56">
-        <v>170</v>
+        <v>402</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="C57">
-        <v>191</v>
+        <v>403</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="C58">
-        <v>206</v>
+        <v>413</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="C59">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="C60">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="C61">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="C62">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>345</v>
+        <v>452</v>
       </c>
       <c r="C63">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="C64">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="C65">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="C66">
-        <v>149</v>
+        <v>421</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="C67">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="C68">
-        <v>153</v>
+        <v>439</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="C69">
-        <v>151</v>
+        <v>462</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
-        <v>258</v>
+        <v>409</v>
       </c>
       <c r="C70">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
-        <v>257</v>
+        <v>405</v>
       </c>
       <c r="C71">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="C72">
-        <v>103</v>
+        <v>450</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>253</v>
+        <v>398</v>
       </c>
       <c r="C73">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="C74">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="C75">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="C76">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="C77">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C78">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C79">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C80">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C81">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C83">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C84">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="C85">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C86">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="C88">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="C89">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>355</v>
+        <v>230</v>
       </c>
       <c r="C90">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="C91">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>357</v>
+        <v>230</v>
       </c>
       <c r="C92">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="C93">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="C94">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="C95">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B96">
-        <v>357</v>
+        <v>216</v>
       </c>
       <c r="C96">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B97">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="C97">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B98">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="C98">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B99">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B100">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="C100">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B101">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="C101">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B102">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C102">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B103">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="C103">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B104">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="C104">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B105">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="C105">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B106">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C106">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B107">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="C107">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B108">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C108">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B109">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="C109">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B110">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="C110">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B111">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="C111">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B112">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="C112">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B113">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="C113">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B114">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="C114">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B115">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C115">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B116">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="C116">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B117">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="C117">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B118">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C118">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B119">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C119">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B120">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C120">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B121">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C121">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B122">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B123">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B124">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B125">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B126">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B127">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B128">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B129">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B130">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B131">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B132">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B133">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B134">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B135">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B136">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B137">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B138">
-        <v>264</v>
+        <v>392</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B139">
-        <v>265</v>
+        <v>393</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B140">
-        <v>266</v>
+        <v>395</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B141">
-        <v>266</v>
+        <v>396</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B142">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B143">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B144">
-        <v>299</v>
+        <v>430</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B145">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B146">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B147">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B148">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B149">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B150">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B151">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B152">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B153">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B154">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B155">
-        <v>495</v>
+        <v>388</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B156">
-        <v>497</v>
+        <v>387</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B157">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B158">
-        <v>583</v>
+        <v>384</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B159">
-        <v>585</v>
+        <v>383</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B160">
-        <v>586</v>
+        <v>382</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B161">
-        <v>588</v>
+        <v>380</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B162">
-        <v>621</v>
+        <v>389</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B163">
-        <v>623</v>
+        <v>388</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B164">
-        <v>625</v>
+        <v>386</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B165">
-        <v>626</v>
+        <v>385</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B166">
-        <v>676</v>
+        <v>369</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B167">
-        <v>676</v>
+        <v>368</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B168">
-        <v>676</v>
+        <v>367</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B169">
-        <v>675</v>
+        <v>366</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B170">
-        <v>709</v>
+        <v>363</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B171">
-        <v>708</v>
+        <v>364</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B172">
-        <v>707</v>
+        <v>364</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B173">
-        <v>707</v>
+        <v>365</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B174">
-        <v>758</v>
+        <v>378</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B175">
-        <v>759</v>
+        <v>381</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B176">
-        <v>761</v>
+        <v>385</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B177">
-        <v>762</v>
+        <v>388</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B178">
-        <v>806</v>
+        <v>395</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B179">
-        <v>807</v>
+        <v>398</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B180">
-        <v>807</v>
+        <v>401</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B181">
-        <v>807</v>
+        <v>405</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B182">
-        <v>818</v>
+        <v>458</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B183">
-        <v>818</v>
+        <v>460</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B184">
-        <v>819</v>
+        <v>462</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B185">
-        <v>820</v>
+        <v>464</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B186">
-        <v>851</v>
+        <v>590</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B187">
-        <v>851</v>
+        <v>593</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B188">
-        <v>850</v>
+        <v>595</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B189">
-        <v>850</v>
+        <v>598</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>16.06.202593</t>
-  </si>
-  <si>
-    <t>16.06.202594</t>
-  </si>
-  <si>
-    <t>16.06.202595</t>
-  </si>
-  <si>
-    <t>16.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -605,6 +317,870 @@
   </si>
   <si>
     <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
+  </si>
+  <si>
+    <t>20.06.202526</t>
+  </si>
+  <si>
+    <t>20.06.202527</t>
+  </si>
+  <si>
+    <t>20.06.202528</t>
+  </si>
+  <si>
+    <t>20.06.202529</t>
+  </si>
+  <si>
+    <t>20.06.202530</t>
+  </si>
+  <si>
+    <t>20.06.202531</t>
+  </si>
+  <si>
+    <t>20.06.202532</t>
+  </si>
+  <si>
+    <t>20.06.202533</t>
+  </si>
+  <si>
+    <t>20.06.202534</t>
+  </si>
+  <si>
+    <t>20.06.202535</t>
+  </si>
+  <si>
+    <t>20.06.202536</t>
+  </si>
+  <si>
+    <t>20.06.202537</t>
+  </si>
+  <si>
+    <t>20.06.202538</t>
+  </si>
+  <si>
+    <t>20.06.202539</t>
+  </si>
+  <si>
+    <t>20.06.202540</t>
+  </si>
+  <si>
+    <t>20.06.202541</t>
+  </si>
+  <si>
+    <t>20.06.202542</t>
+  </si>
+  <si>
+    <t>20.06.202543</t>
+  </si>
+  <si>
+    <t>20.06.202544</t>
+  </si>
+  <si>
+    <t>20.06.202545</t>
+  </si>
+  <si>
+    <t>20.06.202546</t>
+  </si>
+  <si>
+    <t>20.06.202547</t>
+  </si>
+  <si>
+    <t>20.06.202548</t>
+  </si>
+  <si>
+    <t>20.06.202549</t>
+  </si>
+  <si>
+    <t>20.06.202550</t>
+  </si>
+  <si>
+    <t>20.06.202551</t>
+  </si>
+  <si>
+    <t>20.06.202552</t>
+  </si>
+  <si>
+    <t>20.06.202553</t>
+  </si>
+  <si>
+    <t>20.06.202554</t>
+  </si>
+  <si>
+    <t>20.06.202555</t>
+  </si>
+  <si>
+    <t>20.06.202556</t>
+  </si>
+  <si>
+    <t>20.06.202557</t>
+  </si>
+  <si>
+    <t>20.06.202558</t>
+  </si>
+  <si>
+    <t>20.06.202559</t>
+  </si>
+  <si>
+    <t>20.06.202560</t>
+  </si>
+  <si>
+    <t>20.06.202561</t>
+  </si>
+  <si>
+    <t>20.06.202562</t>
+  </si>
+  <si>
+    <t>20.06.202563</t>
+  </si>
+  <si>
+    <t>20.06.202564</t>
+  </si>
+  <si>
+    <t>20.06.202565</t>
+  </si>
+  <si>
+    <t>20.06.202566</t>
+  </si>
+  <si>
+    <t>20.06.202567</t>
+  </si>
+  <si>
+    <t>20.06.202568</t>
+  </si>
+  <si>
+    <t>20.06.202569</t>
+  </si>
+  <si>
+    <t>20.06.202570</t>
+  </si>
+  <si>
+    <t>20.06.202571</t>
+  </si>
+  <si>
+    <t>20.06.202572</t>
+  </si>
+  <si>
+    <t>20.06.202573</t>
+  </si>
+  <si>
+    <t>20.06.202574</t>
+  </si>
+  <si>
+    <t>20.06.202575</t>
+  </si>
+  <si>
+    <t>20.06.202576</t>
+  </si>
+  <si>
+    <t>20.06.202577</t>
+  </si>
+  <si>
+    <t>20.06.202578</t>
+  </si>
+  <si>
+    <t>20.06.202579</t>
+  </si>
+  <si>
+    <t>20.06.202580</t>
+  </si>
+  <si>
+    <t>20.06.202581</t>
+  </si>
+  <si>
+    <t>20.06.202582</t>
+  </si>
+  <si>
+    <t>20.06.202583</t>
+  </si>
+  <si>
+    <t>20.06.202584</t>
+  </si>
+  <si>
+    <t>20.06.202585</t>
+  </si>
+  <si>
+    <t>20.06.202586</t>
+  </si>
+  <si>
+    <t>20.06.202587</t>
+  </si>
+  <si>
+    <t>20.06.202588</t>
+  </si>
+  <si>
+    <t>20.06.202589</t>
+  </si>
+  <si>
+    <t>20.06.202590</t>
+  </si>
+  <si>
+    <t>20.06.202591</t>
+  </si>
+  <si>
+    <t>20.06.202592</t>
+  </si>
+  <si>
+    <t>20.06.202593</t>
+  </si>
+  <si>
+    <t>20.06.202594</t>
+  </si>
+  <si>
+    <t>20.06.202595</t>
+  </si>
+  <si>
+    <t>20.06.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1567,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>674</v>
+        <v>243</v>
       </c>
       <c r="C2">
-        <v>523</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1584,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>678</v>
+        <v>244</v>
       </c>
       <c r="C3">
-        <v>518</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1601,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>682</v>
+        <v>244</v>
       </c>
       <c r="C4">
-        <v>545</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1618,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>683</v>
+        <v>246</v>
       </c>
       <c r="C5">
-        <v>585</v>
+        <v>157</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1635,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="C6">
-        <v>622</v>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1652,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>790</v>
+        <v>262</v>
       </c>
       <c r="C7">
-        <v>652</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1669,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>795</v>
+        <v>263</v>
       </c>
       <c r="C8">
-        <v>689</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1686,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>265</v>
       </c>
       <c r="C9">
-        <v>693</v>
+        <v>169</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1703,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>865</v>
+        <v>287</v>
       </c>
       <c r="C10">
-        <v>725</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1720,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>866</v>
+        <v>289</v>
       </c>
       <c r="C11">
-        <v>760</v>
+        <v>134</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1737,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>871</v>
+        <v>291</v>
       </c>
       <c r="C12">
-        <v>790</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1754,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>876</v>
+        <v>293</v>
       </c>
       <c r="C13">
-        <v>810</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1771,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>884</v>
+        <v>304</v>
       </c>
       <c r="C14">
-        <v>809</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1788,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>884</v>
+        <v>306</v>
       </c>
       <c r="C15">
-        <v>780</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1805,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>884</v>
+        <v>308</v>
       </c>
       <c r="C16">
-        <v>758</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1822,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>885</v>
+        <v>309</v>
       </c>
       <c r="C17">
-        <v>721</v>
+        <v>216</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1839,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>838</v>
+        <v>331</v>
       </c>
       <c r="C18">
-        <v>675</v>
+        <v>217</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1856,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>837</v>
+        <v>331</v>
       </c>
       <c r="C19">
-        <v>672</v>
+        <v>238</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1873,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>835</v>
+        <v>331</v>
       </c>
       <c r="C20">
-        <v>664</v>
+        <v>240</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1890,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>834</v>
+        <v>333</v>
       </c>
       <c r="C21">
-        <v>638</v>
+        <v>247</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1907,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>745</v>
+        <v>369</v>
       </c>
       <c r="C22">
-        <v>632</v>
+        <v>255</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1924,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>736</v>
+        <v>369</v>
       </c>
       <c r="C23">
-        <v>633</v>
+        <v>276</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1941,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>731</v>
+        <v>369</v>
       </c>
       <c r="C24">
-        <v>640</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1958,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>724</v>
+        <v>370</v>
       </c>
       <c r="C25">
-        <v>623</v>
+        <v>307</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1975,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>590</v>
+        <v>386</v>
       </c>
       <c r="C26">
-        <v>618</v>
+        <v>327</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1992,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>583</v>
+        <v>385</v>
       </c>
       <c r="C27">
-        <v>585</v>
+        <v>363</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +2009,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
-        <v>578</v>
+        <v>383</v>
       </c>
       <c r="C28">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +2026,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
-        <v>575</v>
+        <v>383</v>
       </c>
       <c r="C29">
-        <v>418</v>
+        <v>302</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +2043,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>434</v>
+        <v>316</v>
       </c>
       <c r="C30">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +2060,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="C31">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +2077,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +2094,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="C33">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +2111,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="C34">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +2128,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="C35">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +2145,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C36">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +2162,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="C37">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +2179,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>458</v>
+        <v>310</v>
       </c>
       <c r="C38">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +2196,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="C39">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +2213,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
-        <v>464</v>
+        <v>317</v>
       </c>
       <c r="C40">
-        <v>459</v>
+        <v>367</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +2230,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
-        <v>466</v>
+        <v>319</v>
       </c>
       <c r="C41">
-        <v>486</v>
+        <v>373</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +2247,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
-        <v>527</v>
+        <v>392</v>
       </c>
       <c r="C42">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +2264,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
-        <v>527</v>
+        <v>393</v>
       </c>
       <c r="C43">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +2281,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
-        <v>528</v>
+        <v>395</v>
       </c>
       <c r="C44">
-        <v>584</v>
+        <v>459</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +2298,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>527</v>
+        <v>396</v>
       </c>
       <c r="C45">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +2315,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="C46">
-        <v>558</v>
+        <v>472</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +2332,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>515</v>
+        <v>431</v>
       </c>
       <c r="C47">
-        <v>537</v>
+        <v>437</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +2349,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>514</v>
+        <v>430</v>
       </c>
       <c r="C48">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +2366,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="C49">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +2383,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="C50">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +2400,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="C51">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +2417,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C52">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +2434,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="C53">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +2451,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C54">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +2468,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C55">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2485,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C56">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2502,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C57">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +2519,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="C58">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +2536,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="C59">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +2553,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C60">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +2570,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="C61">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2587,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="C62">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,10 +2604,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="C63">
         <v>402</v>
@@ -2045,13 +2621,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="C64">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2638,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="C65">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2655,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="C66">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2672,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="C67">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2689,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="C68">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2706,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="C69">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2723,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="C70">
-        <v>463</v>
+        <v>364</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2740,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="C71">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2757,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C72">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2774,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C73">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2791,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="C74">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2808,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="C75">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2825,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="C76">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2842,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="C77">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2859,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="C78">
-        <v>181</v>
+        <v>388</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2876,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="C79">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2893,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="C80">
-        <v>164</v>
+        <v>393</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2910,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="C81">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2927,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="C82">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2944,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>412</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2961,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="C84">
-        <v>157</v>
+        <v>413</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2978,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
-        <v>210</v>
+        <v>405</v>
       </c>
       <c r="C85">
-        <v>172</v>
+        <v>426</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2995,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="C86">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +3012,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="C87">
-        <v>184</v>
+        <v>577</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +3029,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="C88">
-        <v>191</v>
+        <v>677</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +3046,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>757</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +3063,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
-        <v>230</v>
+        <v>590</v>
       </c>
       <c r="C90">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +3080,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
-        <v>230</v>
+        <v>593</v>
       </c>
       <c r="C91">
-        <v>216</v>
+        <v>932</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +3097,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
-        <v>230</v>
+        <v>595</v>
       </c>
       <c r="C92">
-        <v>211</v>
+        <v>961</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +3114,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
-        <v>230</v>
+        <v>598</v>
       </c>
       <c r="C93">
-        <v>192</v>
+        <v>944</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +3131,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
-        <v>216</v>
+        <v>867</v>
       </c>
       <c r="C94">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +3148,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
-        <v>216</v>
+        <v>877</v>
       </c>
       <c r="C95">
-        <v>175</v>
+        <v>928</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +3165,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45824.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
-        <v>216</v>
+        <v>879</v>
       </c>
       <c r="C96">
-        <v>179</v>
+        <v>935</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +3182,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45824.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
-        <v>216</v>
+        <v>881</v>
       </c>
       <c r="C97">
-        <v>195</v>
+        <v>969</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +3199,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B98">
-        <v>243</v>
+        <v>1163</v>
       </c>
       <c r="C98">
-        <v>186</v>
+        <v>1030</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +3216,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B99">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="C99">
-        <v>163</v>
+        <v>1077</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +3233,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B100">
-        <v>244</v>
+        <v>1164</v>
       </c>
       <c r="C100">
-        <v>158</v>
+        <v>1108</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +3250,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B101">
-        <v>246</v>
+        <v>1158</v>
       </c>
       <c r="C101">
-        <v>157</v>
+        <v>1140</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +3267,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B102">
-        <v>260</v>
+        <v>1201</v>
       </c>
       <c r="C102">
-        <v>172</v>
+        <v>1189</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +3284,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B103">
-        <v>262</v>
+        <v>1196</v>
       </c>
       <c r="C103">
-        <v>180</v>
+        <v>1185</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3301,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B104">
-        <v>263</v>
+        <v>1206</v>
       </c>
       <c r="C104">
-        <v>179</v>
+        <v>1186</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3318,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B105">
-        <v>265</v>
+        <v>1204</v>
       </c>
       <c r="C105">
-        <v>169</v>
+        <v>1206</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3335,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B106">
-        <v>287</v>
+        <v>1120</v>
       </c>
       <c r="C106">
-        <v>150</v>
+        <v>1133</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3352,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45825.09375</v>
+        <v>45826.09375</v>
       </c>
       <c r="B107">
-        <v>289</v>
+        <v>1118</v>
       </c>
       <c r="C107">
-        <v>134</v>
+        <v>1079</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3369,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B108">
-        <v>291</v>
+        <v>1111</v>
       </c>
       <c r="C108">
-        <v>132</v>
+        <v>1055</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3386,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B109">
-        <v>293</v>
+        <v>1103</v>
       </c>
       <c r="C109">
-        <v>139</v>
+        <v>1028</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3403,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45825.125</v>
+        <v>45826.125</v>
       </c>
       <c r="B110">
-        <v>304</v>
+        <v>932</v>
       </c>
       <c r="C110">
-        <v>154</v>
+        <v>960</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3420,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B111">
-        <v>306</v>
+        <v>923</v>
       </c>
       <c r="C111">
-        <v>169</v>
+        <v>918</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3437,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B112">
-        <v>308</v>
+        <v>919</v>
       </c>
       <c r="C112">
-        <v>180</v>
+        <v>865</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3454,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45825.15625</v>
+        <v>45826.15625</v>
       </c>
       <c r="B113">
-        <v>309</v>
+        <v>915</v>
       </c>
       <c r="C113">
-        <v>216</v>
+        <v>832</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3471,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B114">
-        <v>331</v>
+        <v>739</v>
       </c>
       <c r="C114">
-        <v>217</v>
+        <v>764</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3488,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B115">
-        <v>331</v>
+        <v>726</v>
       </c>
       <c r="C115">
-        <v>238</v>
+        <v>723</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3505,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45825.1875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B116">
-        <v>331</v>
+        <v>722</v>
       </c>
       <c r="C116">
-        <v>240</v>
+        <v>678</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3522,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B117">
-        <v>333</v>
+        <v>714</v>
       </c>
       <c r="C117">
-        <v>247</v>
+        <v>634</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3539,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B118">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="C118">
-        <v>255</v>
+        <v>573</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3556,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45825.21875</v>
+        <v>45826.21875</v>
       </c>
       <c r="B119">
-        <v>369</v>
+        <v>561</v>
       </c>
       <c r="C119">
-        <v>276</v>
+        <v>515</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3573,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B120">
-        <v>369</v>
+        <v>557</v>
       </c>
       <c r="C120">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3590,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B121">
-        <v>370</v>
+        <v>553</v>
       </c>
       <c r="C121">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3607,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45825.25</v>
+        <v>45826.25</v>
       </c>
       <c r="B122">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C122">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3624,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B123">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C123">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3641,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B124">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C124">
-        <v>342</v>
+        <v>233</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3658,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45825.28125</v>
+        <v>45826.28125</v>
       </c>
       <c r="B125">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C125">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3675,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B126">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C126">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3692,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B127">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C127">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3709,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45825.3125</v>
+        <v>45826.3125</v>
       </c>
       <c r="B128">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C128">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3726,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B129">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C129">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3743,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B130">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="C130">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3760,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45825.34375</v>
+        <v>45826.34375</v>
       </c>
       <c r="B131">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="C131">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3777,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B132">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="C132">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3794,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B133">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="C133">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3811,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45825.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B134">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="C134">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3828,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B135">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="C135">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3845,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B136">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="C136">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3862,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45825.40625</v>
+        <v>45826.40625</v>
       </c>
       <c r="B137">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="C137">
-        <v>373</v>
+        <v>142</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3879,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B138">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3896,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45825.42708333334</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B139">
-        <v>393</v>
+        <v>231</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3913,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45825.4375</v>
+        <v>45826.4375</v>
       </c>
       <c r="B140">
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3930,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45825.44791666666</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B141">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3947,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45825.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B142">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3964,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45825.46875</v>
+        <v>45826.46875</v>
       </c>
       <c r="B143">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3981,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45825.47916666666</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B144">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3998,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45825.48958333334</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B145">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +4015,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45825.5</v>
+        <v>45826.5</v>
       </c>
       <c r="B146">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +4032,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45825.51041666666</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B147">
-        <v>398</v>
+        <v>255</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +4049,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45825.52083333334</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B148">
-        <v>397</v>
+        <v>255</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +4066,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45825.53125</v>
+        <v>45826.53125</v>
       </c>
       <c r="B149">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +4083,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45825.54166666666</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B150">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +4100,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45825.55208333334</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B151">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +4117,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45825.5625</v>
+        <v>45826.5625</v>
       </c>
       <c r="B152">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +4134,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45825.57291666666</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B153">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +4151,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45825.58333333334</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B154">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +4168,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45825.59375</v>
+        <v>45826.59375</v>
       </c>
       <c r="B155">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +4185,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45825.60416666666</v>
+        <v>45826.60416666666</v>
       </c>
       <c r="B156">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +4202,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45825.61458333334</v>
+        <v>45826.61458333334</v>
       </c>
       <c r="B157">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +4219,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45825.625</v>
+        <v>45826.625</v>
       </c>
       <c r="B158">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +4236,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45825.63541666666</v>
+        <v>45826.63541666666</v>
       </c>
       <c r="B159">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,13 +4253,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45825.64583333334</v>
+        <v>45826.64583333334</v>
       </c>
       <c r="B160">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3694,13 +4270,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45825.65625</v>
+        <v>45826.65625</v>
       </c>
       <c r="B161">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3711,13 +4287,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45825.66666666666</v>
+        <v>45826.66666666666</v>
       </c>
       <c r="B162">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4304,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45825.67708333334</v>
+        <v>45826.67708333334</v>
       </c>
       <c r="B163">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4321,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45825.6875</v>
+        <v>45826.6875</v>
       </c>
       <c r="B164">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4338,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45825.69791666666</v>
+        <v>45826.69791666666</v>
       </c>
       <c r="B165">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4355,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45825.70833333334</v>
+        <v>45826.70833333334</v>
       </c>
       <c r="B166">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4372,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45825.71875</v>
+        <v>45826.71875</v>
       </c>
       <c r="B167">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4389,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45825.72916666666</v>
+        <v>45826.72916666666</v>
       </c>
       <c r="B168">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4406,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45825.73958333334</v>
+        <v>45826.73958333334</v>
       </c>
       <c r="B169">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4423,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45825.75</v>
+        <v>45826.75</v>
       </c>
       <c r="B170">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,13 +4440,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45825.76041666666</v>
+        <v>45826.76041666666</v>
       </c>
       <c r="B171">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -3881,13 +4457,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45825.77083333334</v>
+        <v>45826.77083333334</v>
       </c>
       <c r="B172">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -3898,13 +4474,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45825.78125</v>
+        <v>45826.78125</v>
       </c>
       <c r="B173">
-        <v>365</v>
+        <v>234</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -3915,13 +4491,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45825.79166666666</v>
+        <v>45826.79166666666</v>
       </c>
       <c r="B174">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -3932,13 +4508,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45825.80208333334</v>
+        <v>45826.80208333334</v>
       </c>
       <c r="B175">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -3949,13 +4525,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45825.8125</v>
+        <v>45826.8125</v>
       </c>
       <c r="B176">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -3966,13 +4542,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45825.82291666666</v>
+        <v>45826.82291666666</v>
       </c>
       <c r="B177">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -3983,13 +4559,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45825.83333333334</v>
+        <v>45826.83333333334</v>
       </c>
       <c r="B178">
-        <v>395</v>
+        <v>177</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4000,13 +4576,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45825.84375</v>
+        <v>45826.84375</v>
       </c>
       <c r="B179">
-        <v>398</v>
+        <v>177</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4017,13 +4593,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45825.85416666666</v>
+        <v>45826.85416666666</v>
       </c>
       <c r="B180">
-        <v>401</v>
+        <v>177</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4034,13 +4610,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45825.86458333334</v>
+        <v>45826.86458333334</v>
       </c>
       <c r="B181">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4051,13 +4627,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45825.875</v>
+        <v>45826.875</v>
       </c>
       <c r="B182">
-        <v>458</v>
+        <v>163</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4068,13 +4644,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45825.88541666666</v>
+        <v>45826.88541666666</v>
       </c>
       <c r="B183">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4085,13 +4661,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45825.89583333334</v>
+        <v>45826.89583333334</v>
       </c>
       <c r="B184">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4102,13 +4678,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45825.90625</v>
+        <v>45826.90625</v>
       </c>
       <c r="B185">
-        <v>464</v>
+        <v>163</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4119,13 +4695,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45825.91666666666</v>
+        <v>45826.91666666666</v>
       </c>
       <c r="B186">
-        <v>590</v>
+        <v>136</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4136,13 +4712,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45825.92708333334</v>
+        <v>45826.92708333334</v>
       </c>
       <c r="B187">
-        <v>593</v>
+        <v>136</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4153,13 +4729,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45825.9375</v>
+        <v>45826.9375</v>
       </c>
       <c r="B188">
-        <v>595</v>
+        <v>135</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D188">
         <v>91</v>
@@ -4170,13 +4746,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45825.94791666666</v>
+        <v>45826.94791666666</v>
       </c>
       <c r="B189">
-        <v>598</v>
+        <v>135</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4187,13 +4763,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45825.95833333334</v>
+        <v>45826.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4204,13 +4780,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45825.96875</v>
+        <v>45826.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4221,13 +4797,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45825.97916666666</v>
+        <v>45826.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4238,19 +4814,3283 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45825.98958333334</v>
+        <v>45826.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D193">
         <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B194">
+        <v>87</v>
+      </c>
+      <c r="C194">
+        <v>75</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>77</v>
+      </c>
+      <c r="C195">
+        <v>89</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>77</v>
+      </c>
+      <c r="C196">
+        <v>110</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B197">
+        <v>77</v>
+      </c>
+      <c r="C197">
+        <v>131</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>78</v>
+      </c>
+      <c r="C198">
+        <v>137</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>78</v>
+      </c>
+      <c r="C199">
+        <v>148</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B200">
+        <v>78</v>
+      </c>
+      <c r="C200">
+        <v>142</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>79</v>
+      </c>
+      <c r="C201">
+        <v>144</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>92</v>
+      </c>
+      <c r="C202">
+        <v>136</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B203">
+        <v>93</v>
+      </c>
+      <c r="C203">
+        <v>128</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>93</v>
+      </c>
+      <c r="C204">
+        <v>131</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>94</v>
+      </c>
+      <c r="C205">
+        <v>129</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B206">
+        <v>110</v>
+      </c>
+      <c r="C206">
+        <v>127</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>111</v>
+      </c>
+      <c r="C207">
+        <v>129</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>111</v>
+      </c>
+      <c r="C208">
+        <v>134</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B209">
+        <v>112</v>
+      </c>
+      <c r="C209">
+        <v>142</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>104</v>
+      </c>
+      <c r="C210">
+        <v>145</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>105</v>
+      </c>
+      <c r="C211">
+        <v>149</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B212">
+        <v>105</v>
+      </c>
+      <c r="C212">
+        <v>152</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>108</v>
+      </c>
+      <c r="C213">
+        <v>160</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>108</v>
+      </c>
+      <c r="C214">
+        <v>168</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B215">
+        <v>107</v>
+      </c>
+      <c r="C215">
+        <v>177</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>107</v>
+      </c>
+      <c r="C216">
+        <v>188</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>108</v>
+      </c>
+      <c r="C217">
+        <v>194</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B218">
+        <v>106</v>
+      </c>
+      <c r="C218">
+        <v>204</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>111</v>
+      </c>
+      <c r="C219">
+        <v>190</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>113</v>
+      </c>
+      <c r="C220">
+        <v>176</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B221">
+        <v>110</v>
+      </c>
+      <c r="C221">
+        <v>148</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>107</v>
+      </c>
+      <c r="C222">
+        <v>120</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>107</v>
+      </c>
+      <c r="C223">
+        <v>97</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B224">
+        <v>110</v>
+      </c>
+      <c r="C224">
+        <v>92</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>111</v>
+      </c>
+      <c r="C225">
+        <v>106</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>143</v>
+      </c>
+      <c r="C226">
+        <v>126</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B227">
+        <v>144</v>
+      </c>
+      <c r="C227">
+        <v>148</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>149</v>
+      </c>
+      <c r="C228">
+        <v>153</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>151</v>
+      </c>
+      <c r="C229">
+        <v>163</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B230">
+        <v>186</v>
+      </c>
+      <c r="C230">
+        <v>185</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>186</v>
+      </c>
+      <c r="C231">
+        <v>189</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>187</v>
+      </c>
+      <c r="C232">
+        <v>206</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B233">
+        <v>187</v>
+      </c>
+      <c r="C233">
+        <v>190</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>225</v>
+      </c>
+      <c r="C234">
+        <v>188</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>226</v>
+      </c>
+      <c r="C235">
+        <v>159</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B236">
+        <v>227</v>
+      </c>
+      <c r="C236">
+        <v>154</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>227</v>
+      </c>
+      <c r="C237">
+        <v>169</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>281</v>
+      </c>
+      <c r="C238">
+        <v>191</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B239">
+        <v>282</v>
+      </c>
+      <c r="C239">
+        <v>230</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>283</v>
+      </c>
+      <c r="C240">
+        <v>262</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>284</v>
+      </c>
+      <c r="C241">
+        <v>300</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B242">
+        <v>349</v>
+      </c>
+      <c r="C242">
+        <v>331</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>351</v>
+      </c>
+      <c r="C243">
+        <v>354</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>352</v>
+      </c>
+      <c r="C244">
+        <v>378</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B245">
+        <v>354</v>
+      </c>
+      <c r="C245">
+        <v>401</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>432</v>
+      </c>
+      <c r="C246">
+        <v>456</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>434</v>
+      </c>
+      <c r="C247">
+        <v>511</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B248">
+        <v>436</v>
+      </c>
+      <c r="C248">
+        <v>501</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>438</v>
+      </c>
+      <c r="C249">
+        <v>518</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>487</v>
+      </c>
+      <c r="C250">
+        <v>530</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B251">
+        <v>487</v>
+      </c>
+      <c r="C251">
+        <v>552</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>488</v>
+      </c>
+      <c r="C252">
+        <v>541</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>489</v>
+      </c>
+      <c r="C253">
+        <v>550</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B254">
+        <v>475</v>
+      </c>
+      <c r="C254">
+        <v>503</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>475</v>
+      </c>
+      <c r="C255">
+        <v>520</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>475</v>
+      </c>
+      <c r="C256">
+        <v>514</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B257">
+        <v>475</v>
+      </c>
+      <c r="C257">
+        <v>522</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>477</v>
+      </c>
+      <c r="C258">
+        <v>537</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>476</v>
+      </c>
+      <c r="C259">
+        <v>542</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B260">
+        <v>475</v>
+      </c>
+      <c r="C260">
+        <v>542</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>474</v>
+      </c>
+      <c r="C261">
+        <v>554</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>441</v>
+      </c>
+      <c r="C262">
+        <v>514</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B263">
+        <v>440</v>
+      </c>
+      <c r="C263">
+        <v>505</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>439</v>
+      </c>
+      <c r="C264">
+        <v>481</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>438</v>
+      </c>
+      <c r="C265">
+        <v>464</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B266">
+        <v>401</v>
+      </c>
+      <c r="C266">
+        <v>433</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>401</v>
+      </c>
+      <c r="C267">
+        <v>427</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>401</v>
+      </c>
+      <c r="C268">
+        <v>403</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B269">
+        <v>401</v>
+      </c>
+      <c r="C269">
+        <v>367</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>386</v>
+      </c>
+      <c r="C270">
+        <v>336</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>388</v>
+      </c>
+      <c r="C271">
+        <v>310</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B272">
+        <v>390</v>
+      </c>
+      <c r="C272">
+        <v>311</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>392</v>
+      </c>
+      <c r="C273">
+        <v>319</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>372</v>
+      </c>
+      <c r="C274">
+        <v>320</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B275">
+        <v>374</v>
+      </c>
+      <c r="C275">
+        <v>329</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>376</v>
+      </c>
+      <c r="C276">
+        <v>336</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>378</v>
+      </c>
+      <c r="C277">
+        <v>306</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B278">
+        <v>381</v>
+      </c>
+      <c r="C278">
+        <v>303</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>383</v>
+      </c>
+      <c r="C279">
+        <v>309</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>385</v>
+      </c>
+      <c r="C280">
+        <v>321</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B281">
+        <v>386</v>
+      </c>
+      <c r="C281">
+        <v>325</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>405</v>
+      </c>
+      <c r="C282">
+        <v>319</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>406</v>
+      </c>
+      <c r="C283">
+        <v>315</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B284">
+        <v>408</v>
+      </c>
+      <c r="C284">
+        <v>311</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>409</v>
+      </c>
+      <c r="C285">
+        <v>295</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>446</v>
+      </c>
+      <c r="C286">
+        <v>307</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B287">
+        <v>448</v>
+      </c>
+      <c r="C287">
+        <v>343</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>449</v>
+      </c>
+      <c r="C288">
+        <v>393</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>437</v>
+      </c>
+      <c r="C289">
+        <v>437</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B290">
+        <v>531</v>
+      </c>
+      <c r="C290">
+        <v>445</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>535</v>
+      </c>
+      <c r="C291">
+        <v>453</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>542</v>
+      </c>
+      <c r="C292">
+        <v>495</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B293">
+        <v>548</v>
+      </c>
+      <c r="C293">
+        <v>486</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>617</v>
+      </c>
+      <c r="C294">
+        <v>487</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>621</v>
+      </c>
+      <c r="C295">
+        <v>528</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B296">
+        <v>615</v>
+      </c>
+      <c r="C296">
+        <v>559</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>617</v>
+      </c>
+      <c r="C297">
+        <v>627</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>736</v>
+      </c>
+      <c r="C298">
+        <v>811</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B299">
+        <v>730</v>
+      </c>
+      <c r="C299">
+        <v>1028</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>738</v>
+      </c>
+      <c r="C300">
+        <v>1137</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>750</v>
+      </c>
+      <c r="C301">
+        <v>1219</v>
+      </c>
+      <c r="D301">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B302">
+        <v>1072</v>
+      </c>
+      <c r="C302">
+        <v>1396</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>1083</v>
+      </c>
+      <c r="C303">
+        <v>1444</v>
+      </c>
+      <c r="D303">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>1100</v>
+      </c>
+      <c r="C304">
+        <v>1481</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B305">
+        <v>1116</v>
+      </c>
+      <c r="C305">
+        <v>1520</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>1602</v>
+      </c>
+      <c r="C306">
+        <v>1768</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+      <c r="E306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>1615</v>
+      </c>
+      <c r="C307">
+        <v>1863</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+      <c r="E307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B308">
+        <v>1629</v>
+      </c>
+      <c r="C308">
+        <v>1919</v>
+      </c>
+      <c r="D308">
+        <v>19</v>
+      </c>
+      <c r="E308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>1639</v>
+      </c>
+      <c r="C309">
+        <v>1841</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>1948</v>
+      </c>
+      <c r="C310">
+        <v>1969</v>
+      </c>
+      <c r="D310">
+        <v>21</v>
+      </c>
+      <c r="E310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B311">
+        <v>1965</v>
+      </c>
+      <c r="C311">
+        <v>2014</v>
+      </c>
+      <c r="D311">
+        <v>22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>1963</v>
+      </c>
+      <c r="C312">
+        <v>1991</v>
+      </c>
+      <c r="D312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>1969</v>
+      </c>
+      <c r="C313">
+        <v>1938</v>
+      </c>
+      <c r="D313">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B314">
+        <v>2042</v>
+      </c>
+      <c r="C314">
+        <v>1950</v>
+      </c>
+      <c r="D314">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>2070</v>
+      </c>
+      <c r="C315">
+        <v>1950</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>2068</v>
+      </c>
+      <c r="C316">
+        <v>2002</v>
+      </c>
+      <c r="D316">
+        <v>27</v>
+      </c>
+      <c r="E316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B317">
+        <v>2057</v>
+      </c>
+      <c r="C317">
+        <v>2027</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+      <c r="E317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>2029</v>
+      </c>
+      <c r="C318">
+        <v>2013</v>
+      </c>
+      <c r="D318">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>2031</v>
+      </c>
+      <c r="C319">
+        <v>2043</v>
+      </c>
+      <c r="D319">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B320">
+        <v>2035</v>
+      </c>
+      <c r="C320">
+        <v>2063</v>
+      </c>
+      <c r="D320">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>2033</v>
+      </c>
+      <c r="C321">
+        <v>2020</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>1905</v>
+      </c>
+      <c r="C322">
+        <v>1910</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="E322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B323">
+        <v>1902</v>
+      </c>
+      <c r="C323">
+        <v>1864</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>1899</v>
+      </c>
+      <c r="C324">
+        <v>1867</v>
+      </c>
+      <c r="D324">
+        <v>35</v>
+      </c>
+      <c r="E324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>1896</v>
+      </c>
+      <c r="C325">
+        <v>1871</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B326">
+        <v>1774</v>
+      </c>
+      <c r="C326">
+        <v>1817</v>
+      </c>
+      <c r="D326">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>1770</v>
+      </c>
+      <c r="C327">
+        <v>1834</v>
+      </c>
+      <c r="D327">
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>1767</v>
+      </c>
+      <c r="C328">
+        <v>1821</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B329">
+        <v>1763</v>
+      </c>
+      <c r="C329">
+        <v>1827</v>
+      </c>
+      <c r="D329">
+        <v>40</v>
+      </c>
+      <c r="E329" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>1595</v>
+      </c>
+      <c r="C330">
+        <v>1686</v>
+      </c>
+      <c r="D330">
+        <v>41</v>
+      </c>
+      <c r="E330" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>1591</v>
+      </c>
+      <c r="C331">
+        <v>1644</v>
+      </c>
+      <c r="D331">
+        <v>42</v>
+      </c>
+      <c r="E331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B332">
+        <v>1586</v>
+      </c>
+      <c r="C332">
+        <v>1539</v>
+      </c>
+      <c r="D332">
+        <v>43</v>
+      </c>
+      <c r="E332" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>1580</v>
+      </c>
+      <c r="C333">
+        <v>1465</v>
+      </c>
+      <c r="D333">
+        <v>44</v>
+      </c>
+      <c r="E333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>1333</v>
+      </c>
+      <c r="C334">
+        <v>1329</v>
+      </c>
+      <c r="D334">
+        <v>45</v>
+      </c>
+      <c r="E334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B335">
+        <v>1326</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>46</v>
+      </c>
+      <c r="E335" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>1320</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>45828.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>1313</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>48</v>
+      </c>
+      <c r="E337" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>45828.5</v>
+      </c>
+      <c r="B338">
+        <v>1018</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>49</v>
+      </c>
+      <c r="E338" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>45828.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>1013</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>45828.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>1007</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>45828.53125</v>
+      </c>
+      <c r="B341">
+        <v>1000</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>52</v>
+      </c>
+      <c r="E341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>45828.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>815</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>45828.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>810</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>54</v>
+      </c>
+      <c r="E343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>45828.5625</v>
+      </c>
+      <c r="B344">
+        <v>806</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>45828.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>801</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>56</v>
+      </c>
+      <c r="E345" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>45828.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>706</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>45828.59375</v>
+      </c>
+      <c r="B347">
+        <v>703</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>58</v>
+      </c>
+      <c r="E347" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>45828.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>700</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>59</v>
+      </c>
+      <c r="E348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>45828.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>695</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>60</v>
+      </c>
+      <c r="E349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>45828.625</v>
+      </c>
+      <c r="B350">
+        <v>617</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>61</v>
+      </c>
+      <c r="E350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>45828.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>615</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>45828.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>613</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>45828.65625</v>
+      </c>
+      <c r="B353">
+        <v>610</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>45828.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>597</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>65</v>
+      </c>
+      <c r="E354" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>45828.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>595</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>66</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>45828.6875</v>
+      </c>
+      <c r="B356">
+        <v>593</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>67</v>
+      </c>
+      <c r="E356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>45828.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>591</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>68</v>
+      </c>
+      <c r="E357" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>45828.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>561</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>69</v>
+      </c>
+      <c r="E358" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>45828.71875</v>
+      </c>
+      <c r="B359">
+        <v>559</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>70</v>
+      </c>
+      <c r="E359" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>45828.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>557</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>71</v>
+      </c>
+      <c r="E360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>45828.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>555</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>72</v>
+      </c>
+      <c r="E361" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>45828.75</v>
+      </c>
+      <c r="B362">
+        <v>553</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>73</v>
+      </c>
+      <c r="E362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>45828.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>551</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>45828.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>549</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>75</v>
+      </c>
+      <c r="E364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>45828.78125</v>
+      </c>
+      <c r="B365">
+        <v>548</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>76</v>
+      </c>
+      <c r="E365" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>45828.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>576</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>77</v>
+      </c>
+      <c r="E366" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>45828.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>576</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>78</v>
+      </c>
+      <c r="E367" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>45828.8125</v>
+      </c>
+      <c r="B368">
+        <v>576</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>79</v>
+      </c>
+      <c r="E368" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>45828.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>577</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>80</v>
+      </c>
+      <c r="E369" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>45828.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>675</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>45828.84375</v>
+      </c>
+      <c r="B371">
+        <v>675</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>82</v>
+      </c>
+      <c r="E371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>45828.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>675</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>83</v>
+      </c>
+      <c r="E372" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>45828.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>676</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>45828.875</v>
+      </c>
+      <c r="B374">
+        <v>752</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>45828.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>752</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>86</v>
+      </c>
+      <c r="E375" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>45828.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>753</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>87</v>
+      </c>
+      <c r="E376" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>45828.90625</v>
+      </c>
+      <c r="B377">
+        <v>754</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>45828.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>781</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>89</v>
+      </c>
+      <c r="E378" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>45828.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>781</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>90</v>
+      </c>
+      <c r="E379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>45828.9375</v>
+      </c>
+      <c r="B380">
+        <v>782</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>45828.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>783</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>92</v>
+      </c>
+      <c r="E381" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>45828.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>93</v>
+      </c>
+      <c r="E382" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>45828.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>94</v>
+      </c>
+      <c r="E383" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>45828.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>95</v>
+      </c>
+      <c r="E384" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>45828.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>96</v>
+      </c>
+      <c r="E385" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>20.08.202593</t>
-  </si>
-  <si>
-    <t>20.08.202594</t>
-  </si>
-  <si>
-    <t>20.08.202595</t>
-  </si>
-  <si>
-    <t>20.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
-  </si>
-  <si>
-    <t>21.08.202537</t>
-  </si>
-  <si>
-    <t>21.08.202538</t>
-  </si>
-  <si>
-    <t>21.08.202539</t>
-  </si>
-  <si>
-    <t>21.08.202540</t>
-  </si>
-  <si>
-    <t>21.08.202541</t>
-  </si>
-  <si>
-    <t>21.08.202542</t>
-  </si>
-  <si>
-    <t>21.08.202543</t>
-  </si>
-  <si>
-    <t>21.08.202544</t>
-  </si>
-  <si>
-    <t>21.08.202545</t>
-  </si>
-  <si>
-    <t>21.08.202546</t>
-  </si>
-  <si>
-    <t>21.08.202547</t>
-  </si>
-  <si>
-    <t>21.08.202548</t>
-  </si>
-  <si>
-    <t>21.08.202549</t>
-  </si>
-  <si>
-    <t>21.08.202550</t>
-  </si>
-  <si>
-    <t>21.08.202551</t>
-  </si>
-  <si>
-    <t>21.08.202552</t>
-  </si>
-  <si>
-    <t>21.08.202553</t>
-  </si>
-  <si>
-    <t>21.08.202554</t>
-  </si>
-  <si>
-    <t>21.08.202555</t>
-  </si>
-  <si>
-    <t>21.08.202556</t>
-  </si>
-  <si>
-    <t>21.08.202557</t>
-  </si>
-  <si>
-    <t>21.08.202558</t>
-  </si>
-  <si>
-    <t>21.08.202559</t>
-  </si>
-  <si>
-    <t>21.08.202560</t>
-  </si>
-  <si>
-    <t>21.08.202561</t>
-  </si>
-  <si>
-    <t>21.08.202562</t>
-  </si>
-  <si>
-    <t>21.08.202563</t>
-  </si>
-  <si>
-    <t>21.08.202564</t>
-  </si>
-  <si>
-    <t>21.08.202565</t>
-  </si>
-  <si>
-    <t>21.08.202566</t>
-  </si>
-  <si>
-    <t>21.08.202567</t>
-  </si>
-  <si>
-    <t>21.08.202568</t>
-  </si>
-  <si>
-    <t>21.08.202569</t>
-  </si>
-  <si>
-    <t>21.08.202570</t>
-  </si>
-  <si>
-    <t>21.08.202571</t>
-  </si>
-  <si>
-    <t>21.08.202572</t>
-  </si>
-  <si>
-    <t>21.08.202573</t>
-  </si>
-  <si>
-    <t>21.08.202574</t>
-  </si>
-  <si>
-    <t>21.08.202575</t>
-  </si>
-  <si>
-    <t>21.08.202576</t>
-  </si>
-  <si>
-    <t>21.08.202577</t>
-  </si>
-  <si>
-    <t>21.08.202578</t>
-  </si>
-  <si>
-    <t>21.08.202579</t>
-  </si>
-  <si>
-    <t>21.08.202580</t>
-  </si>
-  <si>
-    <t>21.08.202581</t>
-  </si>
-  <si>
-    <t>21.08.202582</t>
-  </si>
-  <si>
-    <t>21.08.202583</t>
-  </si>
-  <si>
-    <t>21.08.202584</t>
-  </si>
-  <si>
-    <t>21.08.202585</t>
-  </si>
-  <si>
-    <t>21.08.202586</t>
-  </si>
-  <si>
-    <t>21.08.202587</t>
-  </si>
-  <si>
-    <t>21.08.202588</t>
-  </si>
-  <si>
-    <t>21.08.202589</t>
-  </si>
-  <si>
-    <t>21.08.202590</t>
-  </si>
-  <si>
-    <t>21.08.202591</t>
-  </si>
-  <si>
-    <t>21.08.202592</t>
-  </si>
-  <si>
-    <t>21.08.202593</t>
-  </si>
-  <si>
-    <t>21.08.202594</t>
-  </si>
-  <si>
-    <t>21.08.202595</t>
-  </si>
-  <si>
-    <t>21.08.202596</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>17.09.202593</t>
+  </si>
+  <si>
+    <t>17.09.202594</t>
+  </si>
+  <si>
+    <t>17.09.202595</t>
+  </si>
+  <si>
+    <t>17.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
-        <v>292</v>
+        <v>797</v>
       </c>
       <c r="C2">
-        <v>226</v>
+        <v>801</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
-        <v>289</v>
+        <v>799</v>
       </c>
       <c r="C3">
-        <v>262</v>
+        <v>788</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
-        <v>287</v>
+        <v>801</v>
       </c>
       <c r="C4">
-        <v>301</v>
+        <v>787</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
-        <v>284</v>
+        <v>803</v>
       </c>
       <c r="C5">
-        <v>370</v>
+        <v>820</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>804</v>
       </c>
       <c r="C6">
-        <v>465</v>
+        <v>890</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>288</v>
+        <v>806</v>
       </c>
       <c r="C7">
-        <v>523</v>
+        <v>925</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
-        <v>286</v>
+        <v>804</v>
       </c>
       <c r="C8">
-        <v>548</v>
+        <v>922</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
-        <v>289</v>
+        <v>807</v>
       </c>
       <c r="C9">
-        <v>589</v>
+        <v>885</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
-        <v>304</v>
+        <v>798</v>
       </c>
       <c r="C10">
-        <v>582</v>
+        <v>847</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="C11">
-        <v>575</v>
+        <v>851</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>306</v>
+        <v>819</v>
       </c>
       <c r="C12">
-        <v>583</v>
+        <v>885</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>308</v>
+        <v>824</v>
       </c>
       <c r="C13">
-        <v>583</v>
+        <v>864</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>801</v>
       </c>
       <c r="C14">
-        <v>568</v>
+        <v>838</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>333</v>
+        <v>798</v>
       </c>
       <c r="C15">
-        <v>546</v>
+        <v>812</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>335</v>
+        <v>795</v>
       </c>
       <c r="C16">
-        <v>527</v>
+        <v>767</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>337</v>
+        <v>794</v>
       </c>
       <c r="C17">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>299</v>
+        <v>743</v>
       </c>
       <c r="C18">
-        <v>440</v>
+        <v>713</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>297</v>
+        <v>739</v>
       </c>
       <c r="C19">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>295</v>
+        <v>724</v>
       </c>
       <c r="C20">
-        <v>399</v>
+        <v>672</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>293</v>
+        <v>714</v>
       </c>
       <c r="C21">
-        <v>371</v>
+        <v>656</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>245</v>
+        <v>669</v>
       </c>
       <c r="C22">
-        <v>333</v>
+        <v>624</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>244</v>
+        <v>662</v>
       </c>
       <c r="C23">
-        <v>307</v>
+        <v>602</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>240</v>
+        <v>665</v>
       </c>
       <c r="C24">
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>240</v>
+        <v>661</v>
       </c>
       <c r="C25">
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>187</v>
+        <v>709</v>
       </c>
       <c r="C26">
-        <v>256</v>
+        <v>561</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>187</v>
+        <v>703</v>
       </c>
       <c r="C27">
-        <v>238</v>
+        <v>562</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="C28">
-        <v>232</v>
+        <v>546</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>178</v>
+        <v>698</v>
       </c>
       <c r="C29">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>134</v>
+        <v>627</v>
       </c>
       <c r="C30">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>135</v>
+        <v>620</v>
       </c>
       <c r="C31">
-        <v>141</v>
+        <v>394</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>137</v>
+        <v>615</v>
       </c>
       <c r="C32">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>142</v>
+        <v>612</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>132</v>
+        <v>443</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>428</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>437</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>540</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>542</v>
       </c>
       <c r="C43">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>545</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>547</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>793</v>
       </c>
       <c r="C46">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>800</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>435</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>128</v>
+        <v>806</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>813</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>628</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>148</v>
+        <v>1051</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>937</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>149</v>
+        <v>1055</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>1230</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>150</v>
+        <v>1061</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>1058</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>152</v>
+        <v>1066</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>1067</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
-        <v>178</v>
+        <v>1164</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>1219</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
-        <v>178</v>
+        <v>1164</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>1236</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
-        <v>178</v>
+        <v>1164</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1339</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
-        <v>178</v>
+        <v>1165</v>
       </c>
       <c r="C57">
-        <v>47</v>
+        <v>1339</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
-        <v>201</v>
+        <v>1148</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>1426</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>201</v>
+        <v>1146</v>
       </c>
       <c r="C59">
-        <v>61</v>
+        <v>1433</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>201</v>
+        <v>1145</v>
       </c>
       <c r="C60">
-        <v>70</v>
+        <v>1412</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>201</v>
+        <v>1143</v>
       </c>
       <c r="C61">
-        <v>72</v>
+        <v>1410</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="C62">
-        <v>85</v>
+        <v>1492</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>236</v>
+        <v>1068</v>
       </c>
       <c r="C63">
-        <v>108</v>
+        <v>1467</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>235</v>
+        <v>1067</v>
       </c>
       <c r="C64">
-        <v>143</v>
+        <v>1387</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>235</v>
+        <v>1065</v>
       </c>
       <c r="C65">
-        <v>144</v>
+        <v>1320</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>272</v>
+        <v>1042</v>
       </c>
       <c r="C66">
-        <v>183</v>
+        <v>1297</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>267</v>
+        <v>1038</v>
       </c>
       <c r="C67">
-        <v>193</v>
+        <v>1247</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
-        <v>266</v>
+        <v>1033</v>
       </c>
       <c r="C68">
-        <v>219</v>
+        <v>1174</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
-        <v>266</v>
+        <v>1029</v>
       </c>
       <c r="C69">
-        <v>244</v>
+        <v>1186</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
-        <v>301</v>
+        <v>1007</v>
       </c>
       <c r="C70">
-        <v>266</v>
+        <v>1140</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>300</v>
+        <v>1005</v>
       </c>
       <c r="C71">
-        <v>286</v>
+        <v>1079</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>295</v>
+        <v>1003</v>
       </c>
       <c r="C72">
-        <v>347</v>
+        <v>1100</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>294</v>
+        <v>1002</v>
       </c>
       <c r="C73">
-        <v>398</v>
+        <v>1180</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
-        <v>343</v>
+        <v>923</v>
       </c>
       <c r="C74">
-        <v>480</v>
+        <v>1077</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>345</v>
+        <v>922</v>
       </c>
       <c r="C75">
-        <v>511</v>
+        <v>1050</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>343</v>
+        <v>922</v>
       </c>
       <c r="C76">
-        <v>535</v>
+        <v>1089</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>347</v>
+        <v>922</v>
       </c>
       <c r="C77">
-        <v>571</v>
+        <v>1098</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>490</v>
+        <v>906</v>
       </c>
       <c r="C78">
-        <v>650</v>
+        <v>1047</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>496</v>
+        <v>907</v>
       </c>
       <c r="C79">
-        <v>700</v>
+        <v>963</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>503</v>
+        <v>907</v>
       </c>
       <c r="C80">
-        <v>759</v>
+        <v>886</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>510</v>
+        <v>908</v>
       </c>
       <c r="C81">
-        <v>854</v>
+        <v>809</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>664</v>
+        <v>999</v>
       </c>
       <c r="C82">
-        <v>939</v>
+        <v>819</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>668</v>
+        <v>1002</v>
       </c>
       <c r="C83">
-        <v>998</v>
+        <v>876</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="C84">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
-        <v>677</v>
+        <v>1007</v>
       </c>
       <c r="C85">
-        <v>1114</v>
+        <v>1091</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>711</v>
+        <v>1141</v>
       </c>
       <c r="C86">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
-        <v>713</v>
+        <v>1146</v>
       </c>
       <c r="C87">
-        <v>1196</v>
+        <v>1226</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
-        <v>716</v>
+        <v>1150</v>
       </c>
       <c r="C88">
-        <v>1214</v>
+        <v>1233</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
-        <v>718</v>
+        <v>1155</v>
       </c>
       <c r="C89">
-        <v>1178</v>
+        <v>1270</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>720</v>
+        <v>1324</v>
       </c>
       <c r="C90">
-        <v>1144</v>
+        <v>1288</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
-        <v>720</v>
+        <v>1330</v>
       </c>
       <c r="C91">
-        <v>1124</v>
+        <v>1304</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
-        <v>720</v>
+        <v>1336</v>
       </c>
       <c r="C92">
-        <v>1126</v>
+        <v>1340</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
-        <v>720</v>
+        <v>1342</v>
       </c>
       <c r="C93">
-        <v>1114</v>
+        <v>1363</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>850</v>
+        <v>1564</v>
       </c>
       <c r="C94">
-        <v>1086</v>
+        <v>1420</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>839</v>
+        <v>1572</v>
       </c>
       <c r="C95">
-        <v>1035</v>
+        <v>1442</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B96">
-        <v>835</v>
+        <v>1580</v>
       </c>
       <c r="C96">
-        <v>1000</v>
+        <v>1511</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B97">
-        <v>833</v>
+        <v>1582</v>
       </c>
       <c r="C97">
-        <v>959</v>
+        <v>1605</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B98">
-        <v>761</v>
+        <v>1683</v>
       </c>
       <c r="C98">
-        <v>894</v>
+        <v>1730</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B99">
-        <v>755</v>
+        <v>1693</v>
       </c>
       <c r="C99">
-        <v>838</v>
+        <v>1777</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B100">
-        <v>751</v>
+        <v>1697</v>
       </c>
       <c r="C100">
-        <v>818</v>
+        <v>1834</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B101">
-        <v>745</v>
+        <v>1703</v>
       </c>
       <c r="C101">
-        <v>797</v>
+        <v>1872</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B102">
-        <v>688</v>
+        <v>1845</v>
       </c>
       <c r="C102">
-        <v>744</v>
+        <v>1947</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B103">
-        <v>685</v>
+        <v>1871</v>
       </c>
       <c r="C103">
-        <v>692</v>
+        <v>1991</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B104">
-        <v>684</v>
+        <v>1883</v>
       </c>
       <c r="C104">
-        <v>650</v>
+        <v>2040</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B105">
-        <v>677</v>
+        <v>1898</v>
       </c>
       <c r="C105">
-        <v>612</v>
+        <v>2049</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B106">
-        <v>643</v>
+        <v>2004</v>
       </c>
       <c r="C106">
-        <v>586</v>
+        <v>2094</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B107">
-        <v>640</v>
+        <v>2007</v>
       </c>
       <c r="C107">
-        <v>547</v>
+        <v>2098</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B108">
-        <v>635</v>
+        <v>2007</v>
       </c>
       <c r="C108">
-        <v>500</v>
+        <v>2099</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B109">
-        <v>632</v>
+        <v>2031</v>
       </c>
       <c r="C109">
-        <v>454</v>
+        <v>2104</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B110">
-        <v>570</v>
+        <v>2048</v>
       </c>
       <c r="C110">
-        <v>423</v>
+        <v>2096</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B111">
-        <v>565</v>
+        <v>2051</v>
       </c>
       <c r="C111">
-        <v>391</v>
+        <v>2095</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B112">
-        <v>562</v>
+        <v>2045</v>
       </c>
       <c r="C112">
-        <v>373</v>
+        <v>2069</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B113">
-        <v>555</v>
+        <v>2041</v>
       </c>
       <c r="C113">
-        <v>373</v>
+        <v>2083</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B114">
-        <v>488</v>
+        <v>2059</v>
       </c>
       <c r="C114">
-        <v>379</v>
+        <v>2089</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B115">
-        <v>484</v>
+        <v>2059</v>
       </c>
       <c r="C115">
-        <v>396</v>
+        <v>2084</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B116">
-        <v>480</v>
+        <v>2061</v>
       </c>
       <c r="C116">
-        <v>405</v>
+        <v>2028</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B117">
-        <v>477</v>
+        <v>2065</v>
       </c>
       <c r="C117">
-        <v>378</v>
+        <v>2060</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B118">
-        <v>382</v>
+        <v>2074</v>
       </c>
       <c r="C118">
-        <v>359</v>
+        <v>2169</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B119">
-        <v>374</v>
+        <v>2077</v>
       </c>
       <c r="C119">
-        <v>345</v>
+        <v>2155</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B120">
-        <v>378</v>
+        <v>2068</v>
       </c>
       <c r="C120">
-        <v>346</v>
+        <v>2135</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B121">
-        <v>377</v>
+        <v>2070</v>
       </c>
       <c r="C121">
-        <v>335</v>
+        <v>2157</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B122">
-        <v>331</v>
+        <v>2084</v>
       </c>
       <c r="C122">
-        <v>331</v>
+        <v>2166</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B123">
-        <v>328</v>
+        <v>2089</v>
       </c>
       <c r="C123">
-        <v>314</v>
+        <v>2164</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B124">
-        <v>324</v>
+        <v>2091</v>
       </c>
       <c r="C124">
-        <v>292</v>
+        <v>2189</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B125">
-        <v>326</v>
+        <v>2080</v>
       </c>
       <c r="C125">
-        <v>260</v>
+        <v>2126</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B126">
-        <v>255</v>
+        <v>2030</v>
       </c>
       <c r="C126">
-        <v>223</v>
+        <v>2151</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B127">
-        <v>248</v>
+        <v>2034</v>
       </c>
       <c r="C127">
-        <v>177</v>
+        <v>2196</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B128">
-        <v>244</v>
+        <v>2035</v>
       </c>
       <c r="C128">
-        <v>150</v>
+        <v>2245</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B129">
-        <v>241</v>
+        <v>2038</v>
       </c>
       <c r="C129">
-        <v>128</v>
+        <v>2255</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B130">
-        <v>164</v>
+        <v>2213</v>
       </c>
       <c r="C130">
-        <v>107</v>
+        <v>2231</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B131">
-        <v>164</v>
+        <v>2223</v>
       </c>
       <c r="C131">
-        <v>108</v>
+        <v>2292</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B132">
-        <v>162</v>
+        <v>2230</v>
       </c>
       <c r="C132">
-        <v>111</v>
+        <v>2327</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B133">
-        <v>160</v>
+        <v>2240</v>
       </c>
       <c r="C133">
-        <v>107</v>
+        <v>2346</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B134">
-        <v>167</v>
+        <v>2351</v>
       </c>
       <c r="C134">
-        <v>107</v>
+        <v>2391</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B135">
-        <v>167</v>
+        <v>2355</v>
       </c>
       <c r="C135">
-        <v>113</v>
+        <v>2334</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B136">
-        <v>168</v>
+        <v>2358</v>
       </c>
       <c r="C136">
-        <v>96</v>
+        <v>2350</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B137">
-        <v>169</v>
+        <v>2361</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2372</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B138">
-        <v>174</v>
+        <v>2346</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>2377</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B139">
-        <v>175</v>
+        <v>2347</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B140">
-        <v>176</v>
+        <v>2347</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B141">
-        <v>177</v>
+        <v>2348</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B142">
-        <v>221</v>
+        <v>2363</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B143">
-        <v>223</v>
+        <v>2362</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B144">
-        <v>224</v>
+        <v>2362</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B145">
-        <v>226</v>
+        <v>2361</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B146">
-        <v>323</v>
+        <v>2352</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B147">
-        <v>325</v>
+        <v>2351</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B148">
-        <v>327</v>
+        <v>2351</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B149">
-        <v>329</v>
+        <v>2350</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B150">
-        <v>481</v>
+        <v>2220</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B151">
-        <v>485</v>
+        <v>2219</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B152">
-        <v>488</v>
+        <v>2219</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B153">
-        <v>491</v>
+        <v>2219</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B154">
-        <v>699</v>
+        <v>2149</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B155">
-        <v>702</v>
+        <v>2147</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B156">
-        <v>705</v>
+        <v>2145</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B157">
-        <v>708</v>
+        <v>2143</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B158">
-        <v>913</v>
+        <v>2237</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B159">
-        <v>918</v>
+        <v>2233</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B160">
-        <v>922</v>
+        <v>2229</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B161">
-        <v>926</v>
+        <v>2225</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B162">
-        <v>1114</v>
+        <v>1971</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B163">
-        <v>1120</v>
+        <v>1962</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B164">
-        <v>1125</v>
+        <v>1952</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B165">
-        <v>1131</v>
+        <v>1942</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B166">
-        <v>1302</v>
+        <v>1556</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B167">
-        <v>1308</v>
+        <v>1540</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B168">
-        <v>1314</v>
+        <v>1525</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B169">
-        <v>1321</v>
+        <v>1509</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B170">
-        <v>1498</v>
+        <v>1246</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B171">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B172">
-        <v>1504</v>
+        <v>1234</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B173">
-        <v>1507</v>
+        <v>1228</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B174">
-        <v>1664</v>
+        <v>1068</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B175">
-        <v>1669</v>
+        <v>1065</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B176">
-        <v>1674</v>
+        <v>1063</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B177">
-        <v>1679</v>
+        <v>1061</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B178">
-        <v>1759</v>
+        <v>995</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B179">
-        <v>1765</v>
+        <v>994</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B180">
-        <v>1771</v>
+        <v>993</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B181">
-        <v>1777</v>
+        <v>993</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B182">
-        <v>1823</v>
+        <v>987</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B183">
-        <v>1826</v>
+        <v>987</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B184">
-        <v>1830</v>
+        <v>987</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B185">
-        <v>1833</v>
+        <v>988</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B186">
-        <v>1842</v>
+        <v>1038</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B187">
-        <v>1842</v>
+        <v>1039</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B188">
-        <v>1843</v>
+        <v>1041</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B189">
-        <v>1844</v>
+        <v>1044</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>17.09.202593</t>
-  </si>
-  <si>
-    <t>17.09.202594</t>
-  </si>
-  <si>
-    <t>17.09.202595</t>
-  </si>
-  <si>
-    <t>17.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
+  </si>
+  <si>
+    <t>19.09.202537</t>
+  </si>
+  <si>
+    <t>19.09.202538</t>
+  </si>
+  <si>
+    <t>19.09.202539</t>
+  </si>
+  <si>
+    <t>19.09.202540</t>
+  </si>
+  <si>
+    <t>19.09.202541</t>
+  </si>
+  <si>
+    <t>19.09.202542</t>
+  </si>
+  <si>
+    <t>19.09.202543</t>
+  </si>
+  <si>
+    <t>19.09.202544</t>
+  </si>
+  <si>
+    <t>19.09.202545</t>
+  </si>
+  <si>
+    <t>19.09.202546</t>
+  </si>
+  <si>
+    <t>19.09.202547</t>
+  </si>
+  <si>
+    <t>19.09.202548</t>
+  </si>
+  <si>
+    <t>19.09.202549</t>
+  </si>
+  <si>
+    <t>19.09.202550</t>
+  </si>
+  <si>
+    <t>19.09.202551</t>
+  </si>
+  <si>
+    <t>19.09.202552</t>
+  </si>
+  <si>
+    <t>19.09.202553</t>
+  </si>
+  <si>
+    <t>19.09.202554</t>
+  </si>
+  <si>
+    <t>19.09.202555</t>
+  </si>
+  <si>
+    <t>19.09.202556</t>
+  </si>
+  <si>
+    <t>19.09.202557</t>
+  </si>
+  <si>
+    <t>19.09.202558</t>
+  </si>
+  <si>
+    <t>19.09.202559</t>
+  </si>
+  <si>
+    <t>19.09.202560</t>
+  </si>
+  <si>
+    <t>19.09.202561</t>
+  </si>
+  <si>
+    <t>19.09.202562</t>
+  </si>
+  <si>
+    <t>19.09.202563</t>
+  </si>
+  <si>
+    <t>19.09.202564</t>
+  </si>
+  <si>
+    <t>19.09.202565</t>
+  </si>
+  <si>
+    <t>19.09.202566</t>
+  </si>
+  <si>
+    <t>19.09.202567</t>
+  </si>
+  <si>
+    <t>19.09.202568</t>
+  </si>
+  <si>
+    <t>19.09.202569</t>
+  </si>
+  <si>
+    <t>19.09.202570</t>
+  </si>
+  <si>
+    <t>19.09.202571</t>
+  </si>
+  <si>
+    <t>19.09.202572</t>
+  </si>
+  <si>
+    <t>19.09.202573</t>
+  </si>
+  <si>
+    <t>19.09.202574</t>
+  </si>
+  <si>
+    <t>19.09.202575</t>
+  </si>
+  <si>
+    <t>19.09.202576</t>
+  </si>
+  <si>
+    <t>19.09.202577</t>
+  </si>
+  <si>
+    <t>19.09.202578</t>
+  </si>
+  <si>
+    <t>19.09.202579</t>
+  </si>
+  <si>
+    <t>19.09.202580</t>
+  </si>
+  <si>
+    <t>19.09.202581</t>
+  </si>
+  <si>
+    <t>19.09.202582</t>
+  </si>
+  <si>
+    <t>19.09.202583</t>
+  </si>
+  <si>
+    <t>19.09.202584</t>
+  </si>
+  <si>
+    <t>19.09.202585</t>
+  </si>
+  <si>
+    <t>19.09.202586</t>
+  </si>
+  <si>
+    <t>19.09.202587</t>
+  </si>
+  <si>
+    <t>19.09.202588</t>
+  </si>
+  <si>
+    <t>19.09.202589</t>
+  </si>
+  <si>
+    <t>19.09.202590</t>
+  </si>
+  <si>
+    <t>19.09.202591</t>
+  </si>
+  <si>
+    <t>19.09.202592</t>
+  </si>
+  <si>
+    <t>19.09.202593</t>
+  </si>
+  <si>
+    <t>19.09.202594</t>
+  </si>
+  <si>
+    <t>19.09.202595</t>
+  </si>
+  <si>
+    <t>19.09.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>797</v>
+        <v>1683</v>
       </c>
       <c r="C2">
-        <v>801</v>
+        <v>1730</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>799</v>
+        <v>1693</v>
       </c>
       <c r="C3">
-        <v>788</v>
+        <v>1777</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>801</v>
+        <v>1697</v>
       </c>
       <c r="C4">
-        <v>787</v>
+        <v>1834</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>803</v>
+        <v>1703</v>
       </c>
       <c r="C5">
-        <v>820</v>
+        <v>1872</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>804</v>
+        <v>1845</v>
       </c>
       <c r="C6">
-        <v>890</v>
+        <v>1947</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>806</v>
+        <v>1871</v>
       </c>
       <c r="C7">
-        <v>925</v>
+        <v>1991</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>804</v>
+        <v>1883</v>
       </c>
       <c r="C8">
-        <v>922</v>
+        <v>2040</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>807</v>
+        <v>1898</v>
       </c>
       <c r="C9">
-        <v>885</v>
+        <v>2049</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>798</v>
+        <v>2004</v>
       </c>
       <c r="C10">
-        <v>847</v>
+        <v>2094</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>802</v>
+        <v>2007</v>
       </c>
       <c r="C11">
-        <v>851</v>
+        <v>2098</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>819</v>
+        <v>2007</v>
       </c>
       <c r="C12">
-        <v>885</v>
+        <v>2099</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>824</v>
+        <v>2031</v>
       </c>
       <c r="C13">
-        <v>864</v>
+        <v>2104</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>801</v>
+        <v>2048</v>
       </c>
       <c r="C14">
-        <v>838</v>
+        <v>2096</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>798</v>
+        <v>2051</v>
       </c>
       <c r="C15">
-        <v>812</v>
+        <v>2095</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>795</v>
+        <v>2045</v>
       </c>
       <c r="C16">
-        <v>767</v>
+        <v>2069</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>794</v>
+        <v>2041</v>
       </c>
       <c r="C17">
-        <v>739</v>
+        <v>2083</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>743</v>
+        <v>2059</v>
       </c>
       <c r="C18">
-        <v>713</v>
+        <v>2089</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>739</v>
+        <v>2059</v>
       </c>
       <c r="C19">
-        <v>688</v>
+        <v>2084</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>724</v>
+        <v>2061</v>
       </c>
       <c r="C20">
-        <v>672</v>
+        <v>2028</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>714</v>
+        <v>2065</v>
       </c>
       <c r="C21">
-        <v>656</v>
+        <v>2060</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>669</v>
+        <v>2074</v>
       </c>
       <c r="C22">
-        <v>624</v>
+        <v>2169</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>662</v>
+        <v>2077</v>
       </c>
       <c r="C23">
-        <v>602</v>
+        <v>2155</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>665</v>
+        <v>2068</v>
       </c>
       <c r="C24">
-        <v>588</v>
+        <v>2135</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>661</v>
+        <v>2070</v>
       </c>
       <c r="C25">
-        <v>575</v>
+        <v>2157</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>709</v>
+        <v>2084</v>
       </c>
       <c r="C26">
-        <v>561</v>
+        <v>2166</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>703</v>
+        <v>2089</v>
       </c>
       <c r="C27">
-        <v>562</v>
+        <v>2164</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>700</v>
+        <v>2091</v>
       </c>
       <c r="C28">
-        <v>546</v>
+        <v>2189</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>698</v>
+        <v>2080</v>
       </c>
       <c r="C29">
-        <v>501</v>
+        <v>2126</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>627</v>
+        <v>2030</v>
       </c>
       <c r="C30">
-        <v>446</v>
+        <v>2151</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>620</v>
+        <v>2034</v>
       </c>
       <c r="C31">
-        <v>394</v>
+        <v>2196</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>615</v>
+        <v>2035</v>
       </c>
       <c r="C32">
-        <v>324</v>
+        <v>2245</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>612</v>
+        <v>2038</v>
       </c>
       <c r="C33">
-        <v>308</v>
+        <v>2255</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>444</v>
+        <v>2213</v>
       </c>
       <c r="C34">
-        <v>309</v>
+        <v>2231</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>443</v>
+        <v>2223</v>
       </c>
       <c r="C35">
-        <v>312</v>
+        <v>2292</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>443</v>
+        <v>2230</v>
       </c>
       <c r="C36">
-        <v>305</v>
+        <v>2327</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>442</v>
+        <v>2240</v>
       </c>
       <c r="C37">
-        <v>293</v>
+        <v>2346</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
-        <v>428</v>
+        <v>2351</v>
       </c>
       <c r="C38">
-        <v>288</v>
+        <v>2391</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>430</v>
+        <v>2355</v>
       </c>
       <c r="C39">
-        <v>313</v>
+        <v>2334</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>431</v>
+        <v>2358</v>
       </c>
       <c r="C40">
-        <v>322</v>
+        <v>2350</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
-        <v>437</v>
+        <v>2361</v>
       </c>
       <c r="C41">
-        <v>282</v>
+        <v>2372</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>540</v>
+        <v>2346</v>
       </c>
       <c r="C42">
-        <v>267</v>
+        <v>2377</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>542</v>
+        <v>2347</v>
       </c>
       <c r="C43">
-        <v>274</v>
+        <v>2389</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
-        <v>545</v>
+        <v>2347</v>
       </c>
       <c r="C44">
-        <v>306</v>
+        <v>2366</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
-        <v>547</v>
+        <v>2348</v>
       </c>
       <c r="C45">
-        <v>325</v>
+        <v>2378</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>793</v>
+        <v>2363</v>
       </c>
       <c r="C46">
-        <v>381</v>
+        <v>2369</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>800</v>
+        <v>2362</v>
       </c>
       <c r="C47">
-        <v>435</v>
+        <v>2322</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>806</v>
+        <v>2362</v>
       </c>
       <c r="C48">
-        <v>490</v>
+        <v>2320</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>813</v>
+        <v>2361</v>
       </c>
       <c r="C49">
-        <v>628</v>
+        <v>2289</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
-        <v>1051</v>
+        <v>2352</v>
       </c>
       <c r="C50">
-        <v>937</v>
+        <v>2286</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>1055</v>
+        <v>2351</v>
       </c>
       <c r="C51">
-        <v>1230</v>
+        <v>2308</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>1061</v>
+        <v>2351</v>
       </c>
       <c r="C52">
-        <v>1058</v>
+        <v>2266</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>1066</v>
+        <v>2350</v>
       </c>
       <c r="C53">
-        <v>1067</v>
+        <v>2266</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>1164</v>
+        <v>2220</v>
       </c>
       <c r="C54">
-        <v>1219</v>
+        <v>2167</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
-        <v>1164</v>
+        <v>2219</v>
       </c>
       <c r="C55">
-        <v>1236</v>
+        <v>2179</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>1164</v>
+        <v>2219</v>
       </c>
       <c r="C56">
-        <v>1339</v>
+        <v>2206</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
-        <v>1165</v>
+        <v>2219</v>
       </c>
       <c r="C57">
-        <v>1339</v>
+        <v>2209</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
-        <v>1148</v>
+        <v>2149</v>
       </c>
       <c r="C58">
-        <v>1426</v>
+        <v>2200</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>1146</v>
+        <v>2147</v>
       </c>
       <c r="C59">
-        <v>1433</v>
+        <v>2103</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>1145</v>
+        <v>2145</v>
       </c>
       <c r="C60">
-        <v>1412</v>
+        <v>2091</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="C61">
-        <v>1410</v>
+        <v>2153</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
-        <v>1070</v>
+        <v>2237</v>
       </c>
       <c r="C62">
-        <v>1492</v>
+        <v>2202</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
-        <v>1068</v>
+        <v>2233</v>
       </c>
       <c r="C63">
-        <v>1467</v>
+        <v>2212</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>1067</v>
+        <v>2229</v>
       </c>
       <c r="C64">
-        <v>1387</v>
+        <v>2191</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>1065</v>
+        <v>2225</v>
       </c>
       <c r="C65">
-        <v>1320</v>
+        <v>2072</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>1042</v>
+        <v>1971</v>
       </c>
       <c r="C66">
-        <v>1297</v>
+        <v>2006</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>1038</v>
+        <v>1962</v>
       </c>
       <c r="C67">
-        <v>1247</v>
+        <v>1997</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
-        <v>1033</v>
+        <v>1952</v>
       </c>
       <c r="C68">
-        <v>1174</v>
+        <v>1967</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>1029</v>
+        <v>1942</v>
       </c>
       <c r="C69">
-        <v>1186</v>
+        <v>1885</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
-        <v>1007</v>
+        <v>1556</v>
       </c>
       <c r="C70">
-        <v>1140</v>
+        <v>1775</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>1005</v>
+        <v>1540</v>
       </c>
       <c r="C71">
-        <v>1079</v>
+        <v>1753</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>1003</v>
+        <v>1525</v>
       </c>
       <c r="C72">
-        <v>1100</v>
+        <v>1756</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>1002</v>
+        <v>1509</v>
       </c>
       <c r="C73">
-        <v>1180</v>
+        <v>1727</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
-        <v>923</v>
+        <v>1246</v>
       </c>
       <c r="C74">
-        <v>1077</v>
+        <v>1588</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
-        <v>922</v>
+        <v>1240</v>
       </c>
       <c r="C75">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>922</v>
+        <v>1234</v>
       </c>
       <c r="C76">
-        <v>1089</v>
+        <v>1430</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>922</v>
+        <v>1228</v>
       </c>
       <c r="C77">
-        <v>1098</v>
+        <v>1395</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>906</v>
+        <v>1068</v>
       </c>
       <c r="C78">
-        <v>1047</v>
+        <v>1311</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>907</v>
+        <v>1065</v>
       </c>
       <c r="C79">
-        <v>963</v>
+        <v>1313</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>907</v>
+        <v>1063</v>
       </c>
       <c r="C80">
-        <v>886</v>
+        <v>1325</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>908</v>
+        <v>1061</v>
       </c>
       <c r="C81">
-        <v>809</v>
+        <v>1328</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C82">
-        <v>819</v>
+        <v>1289</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C83">
-        <v>876</v>
+        <v>1274</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="C84">
-        <v>984</v>
+        <v>1268</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="C85">
-        <v>1091</v>
+        <v>1238</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>1141</v>
+        <v>987</v>
       </c>
       <c r="C86">
-        <v>1162</v>
+        <v>1226</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
-        <v>1146</v>
+        <v>987</v>
       </c>
       <c r="C87">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
-        <v>1150</v>
+        <v>987</v>
       </c>
       <c r="C88">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
-        <v>1155</v>
+        <v>988</v>
       </c>
       <c r="C89">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>1324</v>
+        <v>1038</v>
       </c>
       <c r="C90">
-        <v>1288</v>
+        <v>1237</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
-        <v>1330</v>
+        <v>1039</v>
       </c>
       <c r="C91">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
-        <v>1336</v>
+        <v>1041</v>
       </c>
       <c r="C92">
-        <v>1340</v>
+        <v>1248</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
-        <v>1342</v>
+        <v>1044</v>
       </c>
       <c r="C93">
-        <v>1363</v>
+        <v>1202</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>1564</v>
+        <v>1216</v>
       </c>
       <c r="C94">
-        <v>1420</v>
+        <v>1216</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>1572</v>
+        <v>1221</v>
       </c>
       <c r="C95">
-        <v>1442</v>
+        <v>1238</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
-        <v>1580</v>
+        <v>1222</v>
       </c>
       <c r="C96">
-        <v>1511</v>
+        <v>1251</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
-        <v>1582</v>
+        <v>1223</v>
       </c>
       <c r="C97">
-        <v>1605</v>
+        <v>1270</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B98">
-        <v>1683</v>
+        <v>1180</v>
       </c>
       <c r="C98">
-        <v>1730</v>
+        <v>1312</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B99">
-        <v>1693</v>
+        <v>1179</v>
       </c>
       <c r="C99">
-        <v>1777</v>
+        <v>1333</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B100">
-        <v>1697</v>
+        <v>1183</v>
       </c>
       <c r="C100">
-        <v>1834</v>
+        <v>1349</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B101">
-        <v>1703</v>
+        <v>1176</v>
       </c>
       <c r="C101">
-        <v>1872</v>
+        <v>1383</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B102">
-        <v>1845</v>
+        <v>1232</v>
       </c>
       <c r="C102">
-        <v>1947</v>
+        <v>1401</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B103">
-        <v>1871</v>
+        <v>1236</v>
       </c>
       <c r="C103">
-        <v>1991</v>
+        <v>1428</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B104">
-        <v>1883</v>
+        <v>1244</v>
       </c>
       <c r="C104">
-        <v>2040</v>
+        <v>1421</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B105">
-        <v>1898</v>
+        <v>1244</v>
       </c>
       <c r="C105">
-        <v>2049</v>
+        <v>1438</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B106">
-        <v>2004</v>
+        <v>1237</v>
       </c>
       <c r="C106">
-        <v>2094</v>
+        <v>1400</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B107">
-        <v>2007</v>
+        <v>1229</v>
       </c>
       <c r="C107">
-        <v>2098</v>
+        <v>1355</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B108">
-        <v>2007</v>
+        <v>1234</v>
       </c>
       <c r="C108">
-        <v>2099</v>
+        <v>1333</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B109">
-        <v>2031</v>
+        <v>1238</v>
       </c>
       <c r="C109">
-        <v>2104</v>
+        <v>1341</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B110">
-        <v>2048</v>
+        <v>1191</v>
       </c>
       <c r="C110">
-        <v>2096</v>
+        <v>1312</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B111">
-        <v>2051</v>
+        <v>1187</v>
       </c>
       <c r="C111">
-        <v>2095</v>
+        <v>1273</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B112">
-        <v>2045</v>
+        <v>1181</v>
       </c>
       <c r="C112">
-        <v>2069</v>
+        <v>1245</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B113">
-        <v>2041</v>
+        <v>1176</v>
       </c>
       <c r="C113">
-        <v>2083</v>
+        <v>1240</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B114">
-        <v>2059</v>
+        <v>1064</v>
       </c>
       <c r="C114">
-        <v>2089</v>
+        <v>1203</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B115">
-        <v>2059</v>
+        <v>1061</v>
       </c>
       <c r="C115">
-        <v>2084</v>
+        <v>1198</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B116">
-        <v>2061</v>
+        <v>1058</v>
       </c>
       <c r="C116">
-        <v>2028</v>
+        <v>1190</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B117">
-        <v>2065</v>
+        <v>1057</v>
       </c>
       <c r="C117">
-        <v>2060</v>
+        <v>1173</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B118">
-        <v>2074</v>
+        <v>882</v>
       </c>
       <c r="C118">
-        <v>2169</v>
+        <v>1108</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B119">
-        <v>2077</v>
+        <v>883</v>
       </c>
       <c r="C119">
-        <v>2155</v>
+        <v>1036</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B120">
-        <v>2068</v>
+        <v>885</v>
       </c>
       <c r="C120">
-        <v>2135</v>
+        <v>1017</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B121">
-        <v>2070</v>
+        <v>886</v>
       </c>
       <c r="C121">
-        <v>2157</v>
+        <v>1009</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B122">
-        <v>2084</v>
+        <v>758</v>
       </c>
       <c r="C122">
-        <v>2166</v>
+        <v>960</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B123">
-        <v>2089</v>
+        <v>763</v>
       </c>
       <c r="C123">
-        <v>2164</v>
+        <v>971</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B124">
-        <v>2091</v>
+        <v>761</v>
       </c>
       <c r="C124">
-        <v>2189</v>
+        <v>978</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B125">
-        <v>2080</v>
+        <v>759</v>
       </c>
       <c r="C125">
-        <v>2126</v>
+        <v>931</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B126">
-        <v>2030</v>
+        <v>682</v>
       </c>
       <c r="C126">
-        <v>2151</v>
+        <v>836</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B127">
-        <v>2034</v>
+        <v>682</v>
       </c>
       <c r="C127">
-        <v>2196</v>
+        <v>794</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B128">
-        <v>2035</v>
+        <v>683</v>
       </c>
       <c r="C128">
-        <v>2245</v>
+        <v>731</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B129">
-        <v>2038</v>
+        <v>681</v>
       </c>
       <c r="C129">
-        <v>2255</v>
+        <v>641</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B130">
-        <v>2213</v>
+        <v>560</v>
       </c>
       <c r="C130">
-        <v>2231</v>
+        <v>546</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B131">
-        <v>2223</v>
+        <v>561</v>
       </c>
       <c r="C131">
-        <v>2292</v>
+        <v>486</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B132">
-        <v>2230</v>
+        <v>563</v>
       </c>
       <c r="C132">
-        <v>2327</v>
+        <v>429</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B133">
-        <v>2240</v>
+        <v>562</v>
       </c>
       <c r="C133">
-        <v>2346</v>
+        <v>425</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B134">
-        <v>2351</v>
+        <v>537</v>
       </c>
       <c r="C134">
-        <v>2391</v>
+        <v>438</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B135">
-        <v>2355</v>
+        <v>541</v>
       </c>
       <c r="C135">
-        <v>2334</v>
+        <v>452</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B136">
-        <v>2358</v>
+        <v>545</v>
       </c>
       <c r="C136">
-        <v>2350</v>
+        <v>466</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B137">
-        <v>2361</v>
+        <v>549</v>
       </c>
       <c r="C137">
-        <v>2372</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B138">
-        <v>2346</v>
+        <v>639</v>
       </c>
       <c r="C138">
-        <v>2377</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B139">
-        <v>2347</v>
+        <v>642</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B140">
-        <v>2347</v>
+        <v>645</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B141">
-        <v>2348</v>
+        <v>647</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B142">
-        <v>2363</v>
+        <v>730</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B143">
-        <v>2362</v>
+        <v>730</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B144">
-        <v>2362</v>
+        <v>731</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B145">
-        <v>2361</v>
+        <v>732</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B146">
-        <v>2352</v>
+        <v>717</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B147">
-        <v>2351</v>
+        <v>717</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B148">
-        <v>2351</v>
+        <v>716</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B149">
-        <v>2350</v>
+        <v>715</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B150">
-        <v>2220</v>
+        <v>700</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B151">
-        <v>2219</v>
+        <v>701</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B152">
-        <v>2219</v>
+        <v>701</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B153">
-        <v>2219</v>
+        <v>701</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B154">
-        <v>2149</v>
+        <v>785</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B155">
-        <v>2147</v>
+        <v>785</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B156">
-        <v>2145</v>
+        <v>784</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B157">
-        <v>2143</v>
+        <v>784</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B158">
-        <v>2237</v>
+        <v>767</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B159">
-        <v>2233</v>
+        <v>765</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B160">
-        <v>2229</v>
+        <v>764</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B161">
-        <v>2225</v>
+        <v>763</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B162">
-        <v>1971</v>
+        <v>671</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B163">
-        <v>1962</v>
+        <v>666</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B164">
-        <v>1952</v>
+        <v>665</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B165">
-        <v>1942</v>
+        <v>660</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B166">
-        <v>1556</v>
+        <v>480</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B167">
-        <v>1540</v>
+        <v>474</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B168">
-        <v>1525</v>
+        <v>463</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B169">
-        <v>1509</v>
+        <v>457</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B170">
-        <v>1246</v>
+        <v>298</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B171">
-        <v>1240</v>
+        <v>291</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B172">
-        <v>1234</v>
+        <v>290</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B173">
-        <v>1228</v>
+        <v>289</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B174">
-        <v>1068</v>
+        <v>260</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B175">
-        <v>1065</v>
+        <v>259</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B176">
-        <v>1063</v>
+        <v>259</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B177">
-        <v>1061</v>
+        <v>258</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B178">
-        <v>995</v>
+        <v>267</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B179">
-        <v>994</v>
+        <v>267</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B180">
-        <v>993</v>
+        <v>267</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B181">
-        <v>993</v>
+        <v>267</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B182">
-        <v>987</v>
+        <v>314</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B183">
-        <v>987</v>
+        <v>315</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B184">
-        <v>987</v>
+        <v>315</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B185">
-        <v>988</v>
+        <v>315</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B186">
-        <v>1038</v>
+        <v>375</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B187">
-        <v>1039</v>
+        <v>376</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B188">
-        <v>1041</v>
+        <v>377</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B189">
-        <v>1044</v>
+        <v>378</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
-  </si>
-  <si>
-    <t>19.09.202537</t>
-  </si>
-  <si>
-    <t>19.09.202538</t>
-  </si>
-  <si>
-    <t>19.09.202539</t>
-  </si>
-  <si>
-    <t>19.09.202540</t>
-  </si>
-  <si>
-    <t>19.09.202541</t>
-  </si>
-  <si>
-    <t>19.09.202542</t>
-  </si>
-  <si>
-    <t>19.09.202543</t>
-  </si>
-  <si>
-    <t>19.09.202544</t>
-  </si>
-  <si>
-    <t>19.09.202545</t>
-  </si>
-  <si>
-    <t>19.09.202546</t>
-  </si>
-  <si>
-    <t>19.09.202547</t>
-  </si>
-  <si>
-    <t>19.09.202548</t>
-  </si>
-  <si>
-    <t>19.09.202549</t>
-  </si>
-  <si>
-    <t>19.09.202550</t>
-  </si>
-  <si>
-    <t>19.09.202551</t>
-  </si>
-  <si>
-    <t>19.09.202552</t>
-  </si>
-  <si>
-    <t>19.09.202553</t>
-  </si>
-  <si>
-    <t>19.09.202554</t>
-  </si>
-  <si>
-    <t>19.09.202555</t>
-  </si>
-  <si>
-    <t>19.09.202556</t>
-  </si>
-  <si>
-    <t>19.09.202557</t>
-  </si>
-  <si>
-    <t>19.09.202558</t>
-  </si>
-  <si>
-    <t>19.09.202559</t>
-  </si>
-  <si>
-    <t>19.09.202560</t>
-  </si>
-  <si>
-    <t>19.09.202561</t>
-  </si>
-  <si>
-    <t>19.09.202562</t>
-  </si>
-  <si>
-    <t>19.09.202563</t>
-  </si>
-  <si>
-    <t>19.09.202564</t>
-  </si>
-  <si>
-    <t>19.09.202565</t>
-  </si>
-  <si>
-    <t>19.09.202566</t>
-  </si>
-  <si>
-    <t>19.09.202567</t>
-  </si>
-  <si>
-    <t>19.09.202568</t>
-  </si>
-  <si>
-    <t>19.09.202569</t>
-  </si>
-  <si>
-    <t>19.09.202570</t>
-  </si>
-  <si>
-    <t>19.09.202571</t>
-  </si>
-  <si>
-    <t>19.09.202572</t>
-  </si>
-  <si>
-    <t>19.09.202573</t>
-  </si>
-  <si>
-    <t>19.09.202574</t>
-  </si>
-  <si>
-    <t>19.09.202575</t>
-  </si>
-  <si>
-    <t>19.09.202576</t>
-  </si>
-  <si>
-    <t>19.09.202577</t>
-  </si>
-  <si>
-    <t>19.09.202578</t>
-  </si>
-  <si>
-    <t>19.09.202579</t>
-  </si>
-  <si>
-    <t>19.09.202580</t>
-  </si>
-  <si>
-    <t>19.09.202581</t>
-  </si>
-  <si>
-    <t>19.09.202582</t>
-  </si>
-  <si>
-    <t>19.09.202583</t>
-  </si>
-  <si>
-    <t>19.09.202584</t>
-  </si>
-  <si>
-    <t>19.09.202585</t>
-  </si>
-  <si>
-    <t>19.09.202586</t>
-  </si>
-  <si>
-    <t>19.09.202587</t>
-  </si>
-  <si>
-    <t>19.09.202588</t>
-  </si>
-  <si>
-    <t>19.09.202589</t>
-  </si>
-  <si>
-    <t>19.09.202590</t>
-  </si>
-  <si>
-    <t>19.09.202591</t>
-  </si>
-  <si>
-    <t>19.09.202592</t>
-  </si>
-  <si>
-    <t>19.09.202593</t>
-  </si>
-  <si>
-    <t>19.09.202594</t>
-  </si>
-  <si>
-    <t>19.09.202595</t>
-  </si>
-  <si>
-    <t>19.09.202596</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>22.09.202593</t>
+  </si>
+  <si>
+    <t>22.09.202594</t>
+  </si>
+  <si>
+    <t>22.09.202595</t>
+  </si>
+  <si>
+    <t>22.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.202525</t>
+  </si>
+  <si>
+    <t>23.09.202526</t>
+  </si>
+  <si>
+    <t>23.09.202527</t>
+  </si>
+  <si>
+    <t>23.09.202528</t>
+  </si>
+  <si>
+    <t>23.09.202529</t>
+  </si>
+  <si>
+    <t>23.09.202530</t>
+  </si>
+  <si>
+    <t>23.09.202531</t>
+  </si>
+  <si>
+    <t>23.09.202532</t>
+  </si>
+  <si>
+    <t>23.09.202533</t>
+  </si>
+  <si>
+    <t>23.09.202534</t>
+  </si>
+  <si>
+    <t>23.09.202535</t>
+  </si>
+  <si>
+    <t>23.09.202536</t>
+  </si>
+  <si>
+    <t>23.09.202537</t>
+  </si>
+  <si>
+    <t>23.09.202538</t>
+  </si>
+  <si>
+    <t>23.09.202539</t>
+  </si>
+  <si>
+    <t>23.09.202540</t>
+  </si>
+  <si>
+    <t>23.09.202541</t>
+  </si>
+  <si>
+    <t>23.09.202542</t>
+  </si>
+  <si>
+    <t>23.09.202543</t>
+  </si>
+  <si>
+    <t>23.09.202544</t>
+  </si>
+  <si>
+    <t>23.09.202545</t>
+  </si>
+  <si>
+    <t>23.09.202546</t>
+  </si>
+  <si>
+    <t>23.09.202547</t>
+  </si>
+  <si>
+    <t>23.09.202548</t>
+  </si>
+  <si>
+    <t>23.09.202549</t>
+  </si>
+  <si>
+    <t>23.09.202550</t>
+  </si>
+  <si>
+    <t>23.09.202551</t>
+  </si>
+  <si>
+    <t>23.09.202552</t>
+  </si>
+  <si>
+    <t>23.09.202553</t>
+  </si>
+  <si>
+    <t>23.09.202554</t>
+  </si>
+  <si>
+    <t>23.09.202555</t>
+  </si>
+  <si>
+    <t>23.09.202556</t>
+  </si>
+  <si>
+    <t>23.09.202557</t>
+  </si>
+  <si>
+    <t>23.09.202558</t>
+  </si>
+  <si>
+    <t>23.09.202559</t>
+  </si>
+  <si>
+    <t>23.09.202560</t>
+  </si>
+  <si>
+    <t>23.09.202561</t>
+  </si>
+  <si>
+    <t>23.09.202562</t>
+  </si>
+  <si>
+    <t>23.09.202563</t>
+  </si>
+  <si>
+    <t>23.09.202564</t>
+  </si>
+  <si>
+    <t>23.09.202565</t>
+  </si>
+  <si>
+    <t>23.09.202566</t>
+  </si>
+  <si>
+    <t>23.09.202567</t>
+  </si>
+  <si>
+    <t>23.09.202568</t>
+  </si>
+  <si>
+    <t>23.09.202569</t>
+  </si>
+  <si>
+    <t>23.09.202570</t>
+  </si>
+  <si>
+    <t>23.09.202571</t>
+  </si>
+  <si>
+    <t>23.09.202572</t>
+  </si>
+  <si>
+    <t>23.09.202573</t>
+  </si>
+  <si>
+    <t>23.09.202574</t>
+  </si>
+  <si>
+    <t>23.09.202575</t>
+  </si>
+  <si>
+    <t>23.09.202576</t>
+  </si>
+  <si>
+    <t>23.09.202577</t>
+  </si>
+  <si>
+    <t>23.09.202578</t>
+  </si>
+  <si>
+    <t>23.09.202579</t>
+  </si>
+  <si>
+    <t>23.09.202580</t>
+  </si>
+  <si>
+    <t>23.09.202581</t>
+  </si>
+  <si>
+    <t>23.09.202582</t>
+  </si>
+  <si>
+    <t>23.09.202583</t>
+  </si>
+  <si>
+    <t>23.09.202584</t>
+  </si>
+  <si>
+    <t>23.09.202585</t>
+  </si>
+  <si>
+    <t>23.09.202586</t>
+  </si>
+  <si>
+    <t>23.09.202587</t>
+  </si>
+  <si>
+    <t>23.09.202588</t>
+  </si>
+  <si>
+    <t>23.09.202589</t>
+  </si>
+  <si>
+    <t>23.09.202590</t>
+  </si>
+  <si>
+    <t>23.09.202591</t>
+  </si>
+  <si>
+    <t>23.09.202592</t>
+  </si>
+  <si>
+    <t>23.09.202593</t>
+  </si>
+  <si>
+    <t>23.09.202594</t>
+  </si>
+  <si>
+    <t>23.09.202595</t>
+  </si>
+  <si>
+    <t>23.09.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
-        <v>1683</v>
+        <v>525</v>
       </c>
       <c r="C2">
-        <v>1730</v>
+        <v>661</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
-        <v>1693</v>
+        <v>522</v>
       </c>
       <c r="C3">
-        <v>1777</v>
+        <v>620</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
-        <v>1697</v>
+        <v>520</v>
       </c>
       <c r="C4">
-        <v>1834</v>
+        <v>591</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
-        <v>1703</v>
+        <v>517</v>
       </c>
       <c r="C5">
-        <v>1872</v>
+        <v>575</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
-        <v>1845</v>
+        <v>432</v>
       </c>
       <c r="C6">
-        <v>1947</v>
+        <v>550</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
-        <v>1871</v>
+        <v>429</v>
       </c>
       <c r="C7">
-        <v>1991</v>
+        <v>538</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
-        <v>1883</v>
+        <v>426</v>
       </c>
       <c r="C8">
-        <v>2040</v>
+        <v>523</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
-        <v>1898</v>
+        <v>422</v>
       </c>
       <c r="C9">
-        <v>2049</v>
+        <v>508</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>2004</v>
+        <v>378</v>
       </c>
       <c r="C10">
-        <v>2094</v>
+        <v>473</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
-        <v>2007</v>
+        <v>375</v>
       </c>
       <c r="C11">
-        <v>2098</v>
+        <v>458</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
-        <v>2007</v>
+        <v>374</v>
       </c>
       <c r="C12">
-        <v>2099</v>
+        <v>448</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
-        <v>2031</v>
+        <v>375</v>
       </c>
       <c r="C13">
-        <v>2104</v>
+        <v>434</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
-        <v>2048</v>
+        <v>347</v>
       </c>
       <c r="C14">
-        <v>2096</v>
+        <v>411</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
-        <v>2051</v>
+        <v>347</v>
       </c>
       <c r="C15">
-        <v>2095</v>
+        <v>382</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>2045</v>
+        <v>347</v>
       </c>
       <c r="C16">
-        <v>2069</v>
+        <v>363</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>2041</v>
+        <v>347</v>
       </c>
       <c r="C17">
-        <v>2083</v>
+        <v>368</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>2059</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>2089</v>
+        <v>375</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
-        <v>2059</v>
+        <v>352</v>
       </c>
       <c r="C19">
-        <v>2084</v>
+        <v>368</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>2061</v>
+        <v>351</v>
       </c>
       <c r="C20">
-        <v>2028</v>
+        <v>356</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>2065</v>
+        <v>347</v>
       </c>
       <c r="C21">
-        <v>2060</v>
+        <v>346</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>2074</v>
+        <v>362</v>
       </c>
       <c r="C22">
-        <v>2169</v>
+        <v>340</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>2077</v>
+        <v>356</v>
       </c>
       <c r="C23">
-        <v>2155</v>
+        <v>328</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>2068</v>
+        <v>359</v>
       </c>
       <c r="C24">
-        <v>2135</v>
+        <v>311</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>2070</v>
+        <v>356</v>
       </c>
       <c r="C25">
-        <v>2157</v>
+        <v>309</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>2084</v>
+        <v>361</v>
       </c>
       <c r="C26">
-        <v>2166</v>
+        <v>312</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>2089</v>
+        <v>357</v>
       </c>
       <c r="C27">
-        <v>2164</v>
+        <v>318</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>2091</v>
+        <v>362</v>
       </c>
       <c r="C28">
-        <v>2189</v>
+        <v>325</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>2080</v>
+        <v>364</v>
       </c>
       <c r="C29">
-        <v>2126</v>
+        <v>321</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>2030</v>
+        <v>353</v>
       </c>
       <c r="C30">
-        <v>2151</v>
+        <v>318</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>2034</v>
+        <v>349</v>
       </c>
       <c r="C31">
-        <v>2196</v>
+        <v>322</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
-        <v>2035</v>
+        <v>344</v>
       </c>
       <c r="C32">
-        <v>2245</v>
+        <v>300</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
-        <v>2038</v>
+        <v>347</v>
       </c>
       <c r="C33">
-        <v>2255</v>
+        <v>260</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>2213</v>
+        <v>363</v>
       </c>
       <c r="C34">
-        <v>2231</v>
+        <v>241</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>2223</v>
+        <v>369</v>
       </c>
       <c r="C35">
-        <v>2292</v>
+        <v>258</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
-        <v>2230</v>
+        <v>375</v>
       </c>
       <c r="C36">
-        <v>2327</v>
+        <v>308</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
-        <v>2240</v>
+        <v>382</v>
       </c>
       <c r="C37">
-        <v>2346</v>
+        <v>362</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>2351</v>
+        <v>506</v>
       </c>
       <c r="C38">
-        <v>2391</v>
+        <v>463</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>2355</v>
+        <v>511</v>
       </c>
       <c r="C39">
-        <v>2334</v>
+        <v>531</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
-        <v>2358</v>
+        <v>515</v>
       </c>
       <c r="C40">
-        <v>2350</v>
+        <v>531</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>2361</v>
+        <v>519</v>
       </c>
       <c r="C41">
-        <v>2372</v>
+        <v>536</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>2346</v>
+        <v>628</v>
       </c>
       <c r="C42">
-        <v>2377</v>
+        <v>553</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>2347</v>
+        <v>630</v>
       </c>
       <c r="C43">
-        <v>2389</v>
+        <v>546</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>2347</v>
+        <v>632</v>
       </c>
       <c r="C44">
-        <v>2366</v>
+        <v>548</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
-        <v>2348</v>
+        <v>635</v>
       </c>
       <c r="C45">
-        <v>2378</v>
+        <v>576</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
-        <v>2363</v>
+        <v>718</v>
       </c>
       <c r="C46">
-        <v>2369</v>
+        <v>607</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>2362</v>
+        <v>720</v>
       </c>
       <c r="C47">
-        <v>2322</v>
+        <v>612</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>2362</v>
+        <v>721</v>
       </c>
       <c r="C48">
-        <v>2320</v>
+        <v>617</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>2361</v>
+        <v>723</v>
       </c>
       <c r="C49">
-        <v>2289</v>
+        <v>627</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
-        <v>2352</v>
+        <v>790</v>
       </c>
       <c r="C50">
-        <v>2286</v>
+        <v>647</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
-        <v>2351</v>
+        <v>791</v>
       </c>
       <c r="C51">
-        <v>2308</v>
+        <v>657</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>2351</v>
+        <v>792</v>
       </c>
       <c r="C52">
-        <v>2266</v>
+        <v>673</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>2350</v>
+        <v>794</v>
       </c>
       <c r="C53">
-        <v>2266</v>
+        <v>703</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>2220</v>
+        <v>851</v>
       </c>
       <c r="C54">
-        <v>2167</v>
+        <v>737</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
-        <v>2219</v>
+        <v>851</v>
       </c>
       <c r="C55">
-        <v>2179</v>
+        <v>769</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>2219</v>
+        <v>851</v>
       </c>
       <c r="C56">
-        <v>2206</v>
+        <v>784</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
-        <v>2219</v>
+        <v>852</v>
       </c>
       <c r="C57">
-        <v>2209</v>
+        <v>778</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>2149</v>
+        <v>893</v>
       </c>
       <c r="C58">
-        <v>2200</v>
+        <v>782</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>2147</v>
+        <v>894</v>
       </c>
       <c r="C59">
-        <v>2103</v>
+        <v>801</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>2145</v>
+        <v>894</v>
       </c>
       <c r="C60">
-        <v>2091</v>
+        <v>816</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>2143</v>
+        <v>894</v>
       </c>
       <c r="C61">
-        <v>2153</v>
+        <v>814</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
-        <v>2237</v>
+        <v>909</v>
       </c>
       <c r="C62">
-        <v>2202</v>
+        <v>821</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>2233</v>
+        <v>908</v>
       </c>
       <c r="C63">
-        <v>2212</v>
+        <v>822</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>2229</v>
+        <v>907</v>
       </c>
       <c r="C64">
-        <v>2191</v>
+        <v>816</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>2225</v>
+        <v>907</v>
       </c>
       <c r="C65">
-        <v>2072</v>
+        <v>834</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
-        <v>1971</v>
+        <v>962</v>
       </c>
       <c r="C66">
-        <v>2006</v>
+        <v>849</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>1962</v>
+        <v>962</v>
       </c>
       <c r="C67">
-        <v>1997</v>
+        <v>852</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>1952</v>
+        <v>961</v>
       </c>
       <c r="C68">
-        <v>1967</v>
+        <v>907</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>1942</v>
+        <v>961</v>
       </c>
       <c r="C69">
-        <v>1885</v>
+        <v>955</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>1556</v>
+        <v>937</v>
       </c>
       <c r="C70">
-        <v>1775</v>
+        <v>955</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>1540</v>
+        <v>937</v>
       </c>
       <c r="C71">
-        <v>1753</v>
+        <v>970</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>1525</v>
+        <v>936</v>
       </c>
       <c r="C72">
-        <v>1756</v>
+        <v>993</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>1509</v>
+        <v>936</v>
       </c>
       <c r="C73">
-        <v>1727</v>
+        <v>981</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>1246</v>
+        <v>923</v>
       </c>
       <c r="C74">
-        <v>1588</v>
+        <v>964</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>1240</v>
+        <v>926</v>
       </c>
       <c r="C75">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>1234</v>
+        <v>929</v>
       </c>
       <c r="C76">
-        <v>1430</v>
+        <v>990</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>1228</v>
+        <v>932</v>
       </c>
       <c r="C77">
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>1068</v>
+        <v>922</v>
       </c>
       <c r="C78">
-        <v>1311</v>
+        <v>1014</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>1065</v>
+        <v>922</v>
       </c>
       <c r="C79">
-        <v>1313</v>
+        <v>1041</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>1063</v>
+        <v>923</v>
       </c>
       <c r="C80">
-        <v>1325</v>
+        <v>1030</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>1061</v>
+        <v>924</v>
       </c>
       <c r="C81">
-        <v>1328</v>
+        <v>981</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>995</v>
+        <v>877</v>
       </c>
       <c r="C82">
-        <v>1289</v>
+        <v>945</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
-        <v>994</v>
+        <v>875</v>
       </c>
       <c r="C83">
-        <v>1274</v>
+        <v>935</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
-        <v>993</v>
+        <v>873</v>
       </c>
       <c r="C84">
-        <v>1268</v>
+        <v>914</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
-        <v>993</v>
+        <v>871</v>
       </c>
       <c r="C85">
-        <v>1238</v>
+        <v>879</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>987</v>
+        <v>805</v>
       </c>
       <c r="C86">
-        <v>1226</v>
+        <v>828</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>987</v>
+        <v>801</v>
       </c>
       <c r="C87">
-        <v>1241</v>
+        <v>810</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
-        <v>987</v>
+        <v>798</v>
       </c>
       <c r="C88">
-        <v>1218</v>
+        <v>848</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
-        <v>988</v>
+        <v>795</v>
       </c>
       <c r="C89">
-        <v>1200</v>
+        <v>862</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>1038</v>
+        <v>730</v>
       </c>
       <c r="C90">
-        <v>1237</v>
+        <v>835</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
-        <v>1039</v>
+        <v>726</v>
       </c>
       <c r="C91">
-        <v>1261</v>
+        <v>842</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
-        <v>1041</v>
+        <v>723</v>
       </c>
       <c r="C92">
-        <v>1248</v>
+        <v>850</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
-        <v>1044</v>
+        <v>719</v>
       </c>
       <c r="C93">
-        <v>1202</v>
+        <v>837</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
-        <v>1216</v>
+        <v>647</v>
       </c>
       <c r="C94">
-        <v>1216</v>
+        <v>824</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>1221</v>
+        <v>644</v>
       </c>
       <c r="C95">
-        <v>1238</v>
+        <v>786</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B96">
-        <v>1222</v>
+        <v>640</v>
       </c>
       <c r="C96">
-        <v>1251</v>
+        <v>747</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B97">
-        <v>1223</v>
+        <v>637</v>
       </c>
       <c r="C97">
-        <v>1270</v>
+        <v>695</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B98">
-        <v>1180</v>
+        <v>605</v>
       </c>
       <c r="C98">
-        <v>1312</v>
+        <v>652</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B99">
-        <v>1179</v>
+        <v>602</v>
       </c>
       <c r="C99">
-        <v>1333</v>
+        <v>620</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B100">
-        <v>1183</v>
+        <v>599</v>
       </c>
       <c r="C100">
-        <v>1349</v>
+        <v>574</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B101">
-        <v>1176</v>
+        <v>595</v>
       </c>
       <c r="C101">
-        <v>1383</v>
+        <v>553</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B102">
-        <v>1232</v>
+        <v>467</v>
       </c>
       <c r="C102">
-        <v>1401</v>
+        <v>523</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B103">
-        <v>1236</v>
+        <v>464</v>
       </c>
       <c r="C103">
-        <v>1428</v>
+        <v>491</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B104">
-        <v>1244</v>
+        <v>461</v>
       </c>
       <c r="C104">
-        <v>1421</v>
+        <v>468</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B105">
-        <v>1244</v>
+        <v>459</v>
       </c>
       <c r="C105">
-        <v>1438</v>
+        <v>442</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B106">
-        <v>1237</v>
+        <v>382</v>
       </c>
       <c r="C106">
-        <v>1400</v>
+        <v>417</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B107">
-        <v>1229</v>
+        <v>380</v>
       </c>
       <c r="C107">
-        <v>1355</v>
+        <v>410</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B108">
-        <v>1234</v>
+        <v>379</v>
       </c>
       <c r="C108">
-        <v>1333</v>
+        <v>388</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B109">
-        <v>1238</v>
+        <v>378</v>
       </c>
       <c r="C109">
-        <v>1341</v>
+        <v>349</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B110">
-        <v>1191</v>
+        <v>307</v>
       </c>
       <c r="C110">
-        <v>1312</v>
+        <v>300</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B111">
-        <v>1187</v>
+        <v>306</v>
       </c>
       <c r="C111">
-        <v>1273</v>
+        <v>273</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B112">
-        <v>1181</v>
+        <v>306</v>
       </c>
       <c r="C112">
-        <v>1245</v>
+        <v>242</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B113">
-        <v>1176</v>
+        <v>305</v>
       </c>
       <c r="C113">
-        <v>1240</v>
+        <v>223</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B114">
-        <v>1064</v>
+        <v>265</v>
       </c>
       <c r="C114">
-        <v>1203</v>
+        <v>196</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B115">
-        <v>1061</v>
+        <v>264</v>
       </c>
       <c r="C115">
-        <v>1198</v>
+        <v>179</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B116">
-        <v>1058</v>
+        <v>264</v>
       </c>
       <c r="C116">
-        <v>1190</v>
+        <v>177</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B117">
-        <v>1057</v>
+        <v>264</v>
       </c>
       <c r="C117">
-        <v>1173</v>
+        <v>162</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B118">
-        <v>882</v>
+        <v>236</v>
       </c>
       <c r="C118">
-        <v>1108</v>
+        <v>172</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B119">
-        <v>883</v>
+        <v>236</v>
       </c>
       <c r="C119">
-        <v>1036</v>
+        <v>175</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B120">
-        <v>885</v>
+        <v>236</v>
       </c>
       <c r="C120">
-        <v>1017</v>
+        <v>169</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B121">
-        <v>886</v>
+        <v>235</v>
       </c>
       <c r="C121">
-        <v>1009</v>
+        <v>166</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B122">
-        <v>758</v>
+        <v>225</v>
       </c>
       <c r="C122">
-        <v>960</v>
+        <v>172</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B123">
-        <v>763</v>
+        <v>225</v>
       </c>
       <c r="C123">
-        <v>971</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B124">
-        <v>761</v>
+        <v>225</v>
       </c>
       <c r="C124">
-        <v>978</v>
+        <v>181</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B125">
-        <v>759</v>
+        <v>225</v>
       </c>
       <c r="C125">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B126">
-        <v>682</v>
+        <v>212</v>
       </c>
       <c r="C126">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B127">
-        <v>682</v>
+        <v>212</v>
       </c>
       <c r="C127">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B128">
-        <v>683</v>
+        <v>212</v>
       </c>
       <c r="C128">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B129">
-        <v>681</v>
+        <v>212</v>
       </c>
       <c r="C129">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B130">
-        <v>560</v>
+        <v>195</v>
       </c>
       <c r="C130">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B131">
-        <v>561</v>
+        <v>197</v>
       </c>
       <c r="C131">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B132">
-        <v>563</v>
+        <v>198</v>
       </c>
       <c r="C132">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B133">
-        <v>562</v>
+        <v>200</v>
       </c>
       <c r="C133">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B134">
-        <v>537</v>
+        <v>205</v>
       </c>
       <c r="C134">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B135">
-        <v>541</v>
+        <v>206</v>
       </c>
       <c r="C135">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B136">
-        <v>545</v>
+        <v>207</v>
       </c>
       <c r="C136">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B137">
-        <v>549</v>
+        <v>209</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B138">
-        <v>639</v>
+        <v>207</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B139">
-        <v>642</v>
+        <v>207</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B140">
-        <v>645</v>
+        <v>207</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B141">
-        <v>647</v>
+        <v>207</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B142">
-        <v>730</v>
+        <v>197</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B143">
-        <v>730</v>
+        <v>197</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B144">
-        <v>731</v>
+        <v>197</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B145">
-        <v>732</v>
+        <v>196</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B146">
-        <v>717</v>
+        <v>194</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B147">
-        <v>717</v>
+        <v>194</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B148">
-        <v>716</v>
+        <v>193</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B149">
-        <v>715</v>
+        <v>193</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B150">
-        <v>700</v>
+        <v>193</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B151">
-        <v>701</v>
+        <v>193</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B152">
-        <v>701</v>
+        <v>193</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B153">
-        <v>701</v>
+        <v>193</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B154">
-        <v>785</v>
+        <v>208</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B155">
-        <v>785</v>
+        <v>208</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B156">
-        <v>784</v>
+        <v>208</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B157">
-        <v>784</v>
+        <v>208</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B158">
-        <v>767</v>
+        <v>227</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B159">
-        <v>765</v>
+        <v>227</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B160">
-        <v>764</v>
+        <v>226</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B161">
-        <v>763</v>
+        <v>225</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B162">
-        <v>671</v>
+        <v>279</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B163">
-        <v>666</v>
+        <v>279</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B164">
-        <v>665</v>
+        <v>279</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B165">
-        <v>660</v>
+        <v>279</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B166">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B167">
-        <v>474</v>
+        <v>363</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B168">
-        <v>463</v>
+        <v>364</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B169">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B170">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B171">
-        <v>291</v>
+        <v>448</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B172">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B173">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B174">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B175">
-        <v>259</v>
+        <v>460</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B176">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B177">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B178">
-        <v>267</v>
+        <v>408</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B179">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B180">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B181">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B182">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B183">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B184">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B185">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B186">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B187">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B188">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B189">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>22.09.202593</t>
-  </si>
-  <si>
-    <t>22.09.202594</t>
-  </si>
-  <si>
-    <t>22.09.202595</t>
-  </si>
-  <si>
-    <t>22.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.202525</t>
-  </si>
-  <si>
-    <t>23.09.202526</t>
-  </si>
-  <si>
-    <t>23.09.202527</t>
-  </si>
-  <si>
-    <t>23.09.202528</t>
-  </si>
-  <si>
-    <t>23.09.202529</t>
-  </si>
-  <si>
-    <t>23.09.202530</t>
-  </si>
-  <si>
-    <t>23.09.202531</t>
-  </si>
-  <si>
-    <t>23.09.202532</t>
-  </si>
-  <si>
-    <t>23.09.202533</t>
-  </si>
-  <si>
-    <t>23.09.202534</t>
-  </si>
-  <si>
-    <t>23.09.202535</t>
-  </si>
-  <si>
-    <t>23.09.202536</t>
-  </si>
-  <si>
-    <t>23.09.202537</t>
-  </si>
-  <si>
-    <t>23.09.202538</t>
-  </si>
-  <si>
-    <t>23.09.202539</t>
-  </si>
-  <si>
-    <t>23.09.202540</t>
-  </si>
-  <si>
-    <t>23.09.202541</t>
-  </si>
-  <si>
-    <t>23.09.202542</t>
-  </si>
-  <si>
-    <t>23.09.202543</t>
-  </si>
-  <si>
-    <t>23.09.202544</t>
-  </si>
-  <si>
-    <t>23.09.202545</t>
-  </si>
-  <si>
-    <t>23.09.202546</t>
-  </si>
-  <si>
-    <t>23.09.202547</t>
-  </si>
-  <si>
-    <t>23.09.202548</t>
-  </si>
-  <si>
-    <t>23.09.202549</t>
-  </si>
-  <si>
-    <t>23.09.202550</t>
-  </si>
-  <si>
-    <t>23.09.202551</t>
-  </si>
-  <si>
-    <t>23.09.202552</t>
-  </si>
-  <si>
-    <t>23.09.202553</t>
-  </si>
-  <si>
-    <t>23.09.202554</t>
-  </si>
-  <si>
-    <t>23.09.202555</t>
-  </si>
-  <si>
-    <t>23.09.202556</t>
-  </si>
-  <si>
-    <t>23.09.202557</t>
-  </si>
-  <si>
-    <t>23.09.202558</t>
-  </si>
-  <si>
-    <t>23.09.202559</t>
-  </si>
-  <si>
-    <t>23.09.202560</t>
-  </si>
-  <si>
-    <t>23.09.202561</t>
-  </si>
-  <si>
-    <t>23.09.202562</t>
-  </si>
-  <si>
-    <t>23.09.202563</t>
-  </si>
-  <si>
-    <t>23.09.202564</t>
-  </si>
-  <si>
-    <t>23.09.202565</t>
-  </si>
-  <si>
-    <t>23.09.202566</t>
-  </si>
-  <si>
-    <t>23.09.202567</t>
-  </si>
-  <si>
-    <t>23.09.202568</t>
-  </si>
-  <si>
-    <t>23.09.202569</t>
-  </si>
-  <si>
-    <t>23.09.202570</t>
-  </si>
-  <si>
-    <t>23.09.202571</t>
-  </si>
-  <si>
-    <t>23.09.202572</t>
-  </si>
-  <si>
-    <t>23.09.202573</t>
-  </si>
-  <si>
-    <t>23.09.202574</t>
-  </si>
-  <si>
-    <t>23.09.202575</t>
-  </si>
-  <si>
-    <t>23.09.202576</t>
-  </si>
-  <si>
-    <t>23.09.202577</t>
-  </si>
-  <si>
-    <t>23.09.202578</t>
-  </si>
-  <si>
-    <t>23.09.202579</t>
-  </si>
-  <si>
-    <t>23.09.202580</t>
-  </si>
-  <si>
-    <t>23.09.202581</t>
-  </si>
-  <si>
-    <t>23.09.202582</t>
-  </si>
-  <si>
-    <t>23.09.202583</t>
-  </si>
-  <si>
-    <t>23.09.202584</t>
-  </si>
-  <si>
-    <t>23.09.202585</t>
-  </si>
-  <si>
-    <t>23.09.202586</t>
-  </si>
-  <si>
-    <t>23.09.202587</t>
-  </si>
-  <si>
-    <t>23.09.202588</t>
-  </si>
-  <si>
-    <t>23.09.202589</t>
-  </si>
-  <si>
-    <t>23.09.202590</t>
-  </si>
-  <si>
-    <t>23.09.202591</t>
-  </si>
-  <si>
-    <t>23.09.202592</t>
-  </si>
-  <si>
-    <t>23.09.202593</t>
-  </si>
-  <si>
-    <t>23.09.202594</t>
-  </si>
-  <si>
-    <t>23.09.202595</t>
-  </si>
-  <si>
-    <t>23.09.202596</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>01.10.202593</t>
+  </si>
+  <si>
+    <t>01.10.202594</t>
+  </si>
+  <si>
+    <t>01.10.202595</t>
+  </si>
+  <si>
+    <t>01.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
+  </si>
+  <si>
+    <t>02.10.202537</t>
+  </si>
+  <si>
+    <t>02.10.202538</t>
+  </si>
+  <si>
+    <t>02.10.202539</t>
+  </si>
+  <si>
+    <t>02.10.202540</t>
+  </si>
+  <si>
+    <t>02.10.202541</t>
+  </si>
+  <si>
+    <t>02.10.202542</t>
+  </si>
+  <si>
+    <t>02.10.202543</t>
+  </si>
+  <si>
+    <t>02.10.202544</t>
+  </si>
+  <si>
+    <t>02.10.202545</t>
+  </si>
+  <si>
+    <t>02.10.202546</t>
+  </si>
+  <si>
+    <t>02.10.202547</t>
+  </si>
+  <si>
+    <t>02.10.202548</t>
+  </si>
+  <si>
+    <t>02.10.202549</t>
+  </si>
+  <si>
+    <t>02.10.202550</t>
+  </si>
+  <si>
+    <t>02.10.202551</t>
+  </si>
+  <si>
+    <t>02.10.202552</t>
+  </si>
+  <si>
+    <t>02.10.202553</t>
+  </si>
+  <si>
+    <t>02.10.202554</t>
+  </si>
+  <si>
+    <t>02.10.202555</t>
+  </si>
+  <si>
+    <t>02.10.202556</t>
+  </si>
+  <si>
+    <t>02.10.202557</t>
+  </si>
+  <si>
+    <t>02.10.202558</t>
+  </si>
+  <si>
+    <t>02.10.202559</t>
+  </si>
+  <si>
+    <t>02.10.202560</t>
+  </si>
+  <si>
+    <t>02.10.202561</t>
+  </si>
+  <si>
+    <t>02.10.202562</t>
+  </si>
+  <si>
+    <t>02.10.202563</t>
+  </si>
+  <si>
+    <t>02.10.202564</t>
+  </si>
+  <si>
+    <t>02.10.202565</t>
+  </si>
+  <si>
+    <t>02.10.202566</t>
+  </si>
+  <si>
+    <t>02.10.202567</t>
+  </si>
+  <si>
+    <t>02.10.202568</t>
+  </si>
+  <si>
+    <t>02.10.202569</t>
+  </si>
+  <si>
+    <t>02.10.202570</t>
+  </si>
+  <si>
+    <t>02.10.202571</t>
+  </si>
+  <si>
+    <t>02.10.202572</t>
+  </si>
+  <si>
+    <t>02.10.202573</t>
+  </si>
+  <si>
+    <t>02.10.202574</t>
+  </si>
+  <si>
+    <t>02.10.202575</t>
+  </si>
+  <si>
+    <t>02.10.202576</t>
+  </si>
+  <si>
+    <t>02.10.202577</t>
+  </si>
+  <si>
+    <t>02.10.202578</t>
+  </si>
+  <si>
+    <t>02.10.202579</t>
+  </si>
+  <si>
+    <t>02.10.202580</t>
+  </si>
+  <si>
+    <t>02.10.202581</t>
+  </si>
+  <si>
+    <t>02.10.202582</t>
+  </si>
+  <si>
+    <t>02.10.202583</t>
+  </si>
+  <si>
+    <t>02.10.202584</t>
+  </si>
+  <si>
+    <t>02.10.202585</t>
+  </si>
+  <si>
+    <t>02.10.202586</t>
+  </si>
+  <si>
+    <t>02.10.202587</t>
+  </si>
+  <si>
+    <t>02.10.202588</t>
+  </si>
+  <si>
+    <t>02.10.202589</t>
+  </si>
+  <si>
+    <t>02.10.202590</t>
+  </si>
+  <si>
+    <t>02.10.202591</t>
+  </si>
+  <si>
+    <t>02.10.202592</t>
+  </si>
+  <si>
+    <t>02.10.202593</t>
+  </si>
+  <si>
+    <t>02.10.202594</t>
+  </si>
+  <si>
+    <t>02.10.202595</t>
+  </si>
+  <si>
+    <t>02.10.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="C2">
-        <v>661</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>522</v>
+        <v>342</v>
       </c>
       <c r="C3">
-        <v>620</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>520</v>
+        <v>345</v>
       </c>
       <c r="C4">
-        <v>591</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>517</v>
+        <v>347</v>
       </c>
       <c r="C5">
-        <v>575</v>
+        <v>206</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>432</v>
+        <v>325</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>214</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="C7">
-        <v>538</v>
+        <v>238</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="C8">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="C9">
-        <v>508</v>
+        <v>299</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C10">
-        <v>473</v>
+        <v>349</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C11">
-        <v>458</v>
+        <v>346</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C12">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C13">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="C14">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C15">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C16">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C17">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C18">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="C19">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="C20">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="C21">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C22">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C23">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C24">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C25">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C26">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>357</v>
+        <v>266</v>
       </c>
       <c r="C27">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="C28">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="C29">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="C30">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="C31">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="C33">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="C35">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="C36">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="C37">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>506</v>
+        <v>197</v>
       </c>
       <c r="C38">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
-        <v>511</v>
+        <v>201</v>
       </c>
       <c r="C39">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
-        <v>515</v>
+        <v>207</v>
       </c>
       <c r="C40">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>519</v>
+        <v>212</v>
       </c>
       <c r="C41">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>628</v>
+        <v>251</v>
       </c>
       <c r="C42">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
-        <v>630</v>
+        <v>258</v>
       </c>
       <c r="C43">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>632</v>
+        <v>262</v>
       </c>
       <c r="C44">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
-        <v>635</v>
+        <v>265</v>
       </c>
       <c r="C45">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
-        <v>718</v>
+        <v>282</v>
       </c>
       <c r="C46">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
-        <v>720</v>
+        <v>282</v>
       </c>
       <c r="C47">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
-        <v>721</v>
+        <v>284</v>
       </c>
       <c r="C48">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
-        <v>723</v>
+        <v>286</v>
       </c>
       <c r="C49">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
-        <v>790</v>
+        <v>299</v>
       </c>
       <c r="C50">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>792</v>
+        <v>300</v>
       </c>
       <c r="C52">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>794</v>
+        <v>299</v>
       </c>
       <c r="C53">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>851</v>
+        <v>303</v>
       </c>
       <c r="C54">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>851</v>
+        <v>301</v>
       </c>
       <c r="C55">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>851</v>
+        <v>300</v>
       </c>
       <c r="C56">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>852</v>
+        <v>300</v>
       </c>
       <c r="C57">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>893</v>
+        <v>303</v>
       </c>
       <c r="C58">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>894</v>
+        <v>305</v>
       </c>
       <c r="C59">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>894</v>
+        <v>308</v>
       </c>
       <c r="C60">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>894</v>
+        <v>310</v>
       </c>
       <c r="C61">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>909</v>
+        <v>309</v>
       </c>
       <c r="C62">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>908</v>
+        <v>310</v>
       </c>
       <c r="C63">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>907</v>
+        <v>312</v>
       </c>
       <c r="C64">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>907</v>
+        <v>314</v>
       </c>
       <c r="C65">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
-        <v>962</v>
+        <v>293</v>
       </c>
       <c r="C66">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>962</v>
+        <v>297</v>
       </c>
       <c r="C67">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>961</v>
+        <v>303</v>
       </c>
       <c r="C68">
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>961</v>
+        <v>310</v>
       </c>
       <c r="C69">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>937</v>
+        <v>373</v>
       </c>
       <c r="C70">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>937</v>
+        <v>394</v>
       </c>
       <c r="C71">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>936</v>
+        <v>415</v>
       </c>
       <c r="C72">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>936</v>
+        <v>445</v>
       </c>
       <c r="C73">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>923</v>
+        <v>626</v>
       </c>
       <c r="C74">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>926</v>
+        <v>659</v>
       </c>
       <c r="C75">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>929</v>
+        <v>688</v>
       </c>
       <c r="C76">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>932</v>
+        <v>717</v>
       </c>
       <c r="C77">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>922</v>
+        <v>836</v>
       </c>
       <c r="C78">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>922</v>
+        <v>844</v>
       </c>
       <c r="C79">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>923</v>
+        <v>856</v>
       </c>
       <c r="C80">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>924</v>
+        <v>868</v>
       </c>
       <c r="C81">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>877</v>
+        <v>942</v>
       </c>
       <c r="C82">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="C83">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>873</v>
+        <v>949</v>
       </c>
       <c r="C84">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>871</v>
+        <v>952</v>
       </c>
       <c r="C85">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>805</v>
+        <v>972</v>
       </c>
       <c r="C86">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>801</v>
+        <v>970</v>
       </c>
       <c r="C87">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>798</v>
+        <v>970</v>
       </c>
       <c r="C88">
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>795</v>
+        <v>973</v>
       </c>
       <c r="C89">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>730</v>
+        <v>973</v>
       </c>
       <c r="C90">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
-        <v>726</v>
+        <v>972</v>
       </c>
       <c r="C91">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>723</v>
+        <v>971</v>
       </c>
       <c r="C92">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>719</v>
+        <v>971</v>
       </c>
       <c r="C93">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B98">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B99">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B100">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B101">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B102">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B103">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B104">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B105">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B106">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B107">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B108">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B109">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B110">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B111">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B112">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B113">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B114">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B115">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B116">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B117">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B118">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B119">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B120">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B121">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B122">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B123">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B124">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B125">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B126">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B127">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B128">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B129">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B130">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B131">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B132">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B133">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B134">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B135">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B136">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B137">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B138">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B139">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B140">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B141">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B142">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B143">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B144">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B145">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B146">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B147">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B148">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B149">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B150">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B151">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B152">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B153">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B154">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B155">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B156">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B157">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B158">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B159">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B160">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B161">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B162">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B163">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B164">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B165">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B166">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B167">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B168">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B169">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B170">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B171">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B172">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B173">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B174">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B175">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B176">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B177">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B178">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B179">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B180">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B181">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B182">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B183">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B184">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B185">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B186">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B187">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B188">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B189">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,580 +31,868 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>01.10.202593</t>
-  </si>
-  <si>
-    <t>01.10.202594</t>
-  </si>
-  <si>
-    <t>01.10.202595</t>
-  </si>
-  <si>
-    <t>01.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
-  </si>
-  <si>
-    <t>02.10.202537</t>
-  </si>
-  <si>
-    <t>02.10.202538</t>
-  </si>
-  <si>
-    <t>02.10.202539</t>
-  </si>
-  <si>
-    <t>02.10.202540</t>
-  </si>
-  <si>
-    <t>02.10.202541</t>
-  </si>
-  <si>
-    <t>02.10.202542</t>
-  </si>
-  <si>
-    <t>02.10.202543</t>
-  </si>
-  <si>
-    <t>02.10.202544</t>
-  </si>
-  <si>
-    <t>02.10.202545</t>
-  </si>
-  <si>
-    <t>02.10.202546</t>
-  </si>
-  <si>
-    <t>02.10.202547</t>
-  </si>
-  <si>
-    <t>02.10.202548</t>
-  </si>
-  <si>
-    <t>02.10.202549</t>
-  </si>
-  <si>
-    <t>02.10.202550</t>
-  </si>
-  <si>
-    <t>02.10.202551</t>
-  </si>
-  <si>
-    <t>02.10.202552</t>
-  </si>
-  <si>
-    <t>02.10.202553</t>
-  </si>
-  <si>
-    <t>02.10.202554</t>
-  </si>
-  <si>
-    <t>02.10.202555</t>
-  </si>
-  <si>
-    <t>02.10.202556</t>
-  </si>
-  <si>
-    <t>02.10.202557</t>
-  </si>
-  <si>
-    <t>02.10.202558</t>
-  </si>
-  <si>
-    <t>02.10.202559</t>
-  </si>
-  <si>
-    <t>02.10.202560</t>
-  </si>
-  <si>
-    <t>02.10.202561</t>
-  </si>
-  <si>
-    <t>02.10.202562</t>
-  </si>
-  <si>
-    <t>02.10.202563</t>
-  </si>
-  <si>
-    <t>02.10.202564</t>
-  </si>
-  <si>
-    <t>02.10.202565</t>
-  </si>
-  <si>
-    <t>02.10.202566</t>
-  </si>
-  <si>
-    <t>02.10.202567</t>
-  </si>
-  <si>
-    <t>02.10.202568</t>
-  </si>
-  <si>
-    <t>02.10.202569</t>
-  </si>
-  <si>
-    <t>02.10.202570</t>
-  </si>
-  <si>
-    <t>02.10.202571</t>
-  </si>
-  <si>
-    <t>02.10.202572</t>
-  </si>
-  <si>
-    <t>02.10.202573</t>
-  </si>
-  <si>
-    <t>02.10.202574</t>
-  </si>
-  <si>
-    <t>02.10.202575</t>
-  </si>
-  <si>
-    <t>02.10.202576</t>
-  </si>
-  <si>
-    <t>02.10.202577</t>
-  </si>
-  <si>
-    <t>02.10.202578</t>
-  </si>
-  <si>
-    <t>02.10.202579</t>
-  </si>
-  <si>
-    <t>02.10.202580</t>
-  </si>
-  <si>
-    <t>02.10.202581</t>
-  </si>
-  <si>
-    <t>02.10.202582</t>
-  </si>
-  <si>
-    <t>02.10.202583</t>
-  </si>
-  <si>
-    <t>02.10.202584</t>
-  </si>
-  <si>
-    <t>02.10.202585</t>
-  </si>
-  <si>
-    <t>02.10.202586</t>
-  </si>
-  <si>
-    <t>02.10.202587</t>
-  </si>
-  <si>
-    <t>02.10.202588</t>
-  </si>
-  <si>
-    <t>02.10.202589</t>
-  </si>
-  <si>
-    <t>02.10.202590</t>
-  </si>
-  <si>
-    <t>02.10.202591</t>
-  </si>
-  <si>
-    <t>02.10.202592</t>
-  </si>
-  <si>
-    <t>02.10.202593</t>
-  </si>
-  <si>
-    <t>02.10.202594</t>
-  </si>
-  <si>
-    <t>02.10.202595</t>
-  </si>
-  <si>
-    <t>02.10.202596</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>14.10.202593</t>
+  </si>
+  <si>
+    <t>14.10.202594</t>
+  </si>
+  <si>
+    <t>14.10.202595</t>
+  </si>
+  <si>
+    <t>14.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
+  </si>
+  <si>
+    <t>16.10.202539</t>
+  </si>
+  <si>
+    <t>16.10.202540</t>
+  </si>
+  <si>
+    <t>16.10.202541</t>
+  </si>
+  <si>
+    <t>16.10.202542</t>
+  </si>
+  <si>
+    <t>16.10.202543</t>
+  </si>
+  <si>
+    <t>16.10.202544</t>
+  </si>
+  <si>
+    <t>16.10.202545</t>
+  </si>
+  <si>
+    <t>16.10.202546</t>
+  </si>
+  <si>
+    <t>16.10.202547</t>
+  </si>
+  <si>
+    <t>16.10.202548</t>
+  </si>
+  <si>
+    <t>16.10.202549</t>
+  </si>
+  <si>
+    <t>16.10.202550</t>
+  </si>
+  <si>
+    <t>16.10.202551</t>
+  </si>
+  <si>
+    <t>16.10.202552</t>
+  </si>
+  <si>
+    <t>16.10.202553</t>
+  </si>
+  <si>
+    <t>16.10.202554</t>
+  </si>
+  <si>
+    <t>16.10.202555</t>
+  </si>
+  <si>
+    <t>16.10.202556</t>
+  </si>
+  <si>
+    <t>16.10.202557</t>
+  </si>
+  <si>
+    <t>16.10.202558</t>
+  </si>
+  <si>
+    <t>16.10.202559</t>
+  </si>
+  <si>
+    <t>16.10.202560</t>
+  </si>
+  <si>
+    <t>16.10.202561</t>
+  </si>
+  <si>
+    <t>16.10.202562</t>
+  </si>
+  <si>
+    <t>16.10.202563</t>
+  </si>
+  <si>
+    <t>16.10.202564</t>
+  </si>
+  <si>
+    <t>16.10.202565</t>
+  </si>
+  <si>
+    <t>16.10.202566</t>
+  </si>
+  <si>
+    <t>16.10.202567</t>
+  </si>
+  <si>
+    <t>16.10.202568</t>
+  </si>
+  <si>
+    <t>16.10.202569</t>
+  </si>
+  <si>
+    <t>16.10.202570</t>
+  </si>
+  <si>
+    <t>16.10.202571</t>
+  </si>
+  <si>
+    <t>16.10.202572</t>
+  </si>
+  <si>
+    <t>16.10.202573</t>
+  </si>
+  <si>
+    <t>16.10.202574</t>
+  </si>
+  <si>
+    <t>16.10.202575</t>
+  </si>
+  <si>
+    <t>16.10.202576</t>
+  </si>
+  <si>
+    <t>16.10.202577</t>
+  </si>
+  <si>
+    <t>16.10.202578</t>
+  </si>
+  <si>
+    <t>16.10.202579</t>
+  </si>
+  <si>
+    <t>16.10.202580</t>
+  </si>
+  <si>
+    <t>16.10.202581</t>
+  </si>
+  <si>
+    <t>16.10.202582</t>
+  </si>
+  <si>
+    <t>16.10.202583</t>
+  </si>
+  <si>
+    <t>16.10.202584</t>
+  </si>
+  <si>
+    <t>16.10.202585</t>
+  </si>
+  <si>
+    <t>16.10.202586</t>
+  </si>
+  <si>
+    <t>16.10.202587</t>
+  </si>
+  <si>
+    <t>16.10.202588</t>
+  </si>
+  <si>
+    <t>16.10.202589</t>
+  </si>
+  <si>
+    <t>16.10.202590</t>
+  </si>
+  <si>
+    <t>16.10.202591</t>
+  </si>
+  <si>
+    <t>16.10.202592</t>
+  </si>
+  <si>
+    <t>16.10.202593</t>
+  </si>
+  <si>
+    <t>16.10.202594</t>
+  </si>
+  <si>
+    <t>16.10.202595</t>
+  </si>
+  <si>
+    <t>16.10.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1279,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>341</v>
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1296,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="C3">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1313,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>345</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1330,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="C5">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1347,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="C6">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1364,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1381,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1398,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>354</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1415,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1432,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>398</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1449,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1466,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1483,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="C14">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1500,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>389</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1517,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="C16">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1534,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1551,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>420</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1568,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1585,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>407</v>
+        <v>66</v>
       </c>
       <c r="C20">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1602,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1619,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>341</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1636,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>333</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1653,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1670,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1687,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1704,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1721,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1738,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1755,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1772,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1789,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1806,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1823,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1840,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1857,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1874,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,10 +1891,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1620,10 +1908,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1637,10 +1925,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1654,10 +1942,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1671,10 +1959,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1688,10 +1976,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1705,10 +1993,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1722,10 +2010,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1739,10 +2027,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1756,10 +2044,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1773,10 +2061,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1790,10 +2078,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1807,10 +2095,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1824,10 +2112,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1841,10 +2129,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1858,10 +2146,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1875,10 +2163,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1892,13 +2180,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2197,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2214,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,10 +2231,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1960,10 +2248,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1977,10 +2265,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1994,13 +2282,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2299,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2316,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2333,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2350,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2367,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2384,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
-        <v>297</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2401,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2418,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2435,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>373</v>
+        <v>56</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2452,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2469,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>415</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2486,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2503,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>626</v>
+        <v>68</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2520,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
-        <v>659</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2537,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
-        <v>688</v>
+        <v>93</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2554,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
-        <v>717</v>
+        <v>105</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2571,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
-        <v>836</v>
+        <v>107</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2588,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>844</v>
+        <v>110</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2605,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>856</v>
+        <v>92</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2622,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>868</v>
+        <v>94</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2639,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>942</v>
+        <v>105</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2656,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
-        <v>946</v>
+        <v>106</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2673,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>949</v>
+        <v>107</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2690,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>952</v>
+        <v>108</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2707,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>972</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2724,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>970</v>
+        <v>135</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2741,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>970</v>
+        <v>136</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2758,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>973</v>
+        <v>138</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2775,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>973</v>
+        <v>148</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2792,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
-        <v>972</v>
+        <v>151</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2809,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>971</v>
+        <v>155</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2826,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>971</v>
+        <v>158</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2843,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2860,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2877,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2894,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2911,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2928,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2945,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2962,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2979,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2996,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3013,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3030,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3047,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3064,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3081,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3098,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3115,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3132,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3149,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3166,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3183,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3200,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3217,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3234,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3251,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3268,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3285,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3302,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3319,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3336,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3353,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3370,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3387,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3404,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3421,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3438,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3455,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3472,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3489,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3506,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3523,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3540,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3557,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3574,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3591,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45932.41666666666</v>
+        <v>45945.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3608,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45932.42708333334</v>
+        <v>45945.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3625,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45932.4375</v>
+        <v>45945.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3642,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45932.44791666666</v>
+        <v>45945.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3659,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45932.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3676,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45932.46875</v>
+        <v>45945.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3693,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45932.47916666666</v>
+        <v>45945.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3710,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45932.48958333334</v>
+        <v>45945.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +3727,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45932.5</v>
+        <v>45945.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +3744,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45932.51041666666</v>
+        <v>45945.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +3761,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45932.52083333334</v>
+        <v>45945.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +3778,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45932.53125</v>
+        <v>45945.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +3795,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45932.54166666666</v>
+        <v>45945.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +3812,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45932.55208333334</v>
+        <v>45945.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +3829,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45932.5625</v>
+        <v>45945.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +3846,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45932.57291666666</v>
+        <v>45945.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +3863,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45932.58333333334</v>
+        <v>45945.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +3880,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45932.59375</v>
+        <v>45945.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +3897,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45932.60416666666</v>
+        <v>45945.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +3914,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45932.61458333334</v>
+        <v>45945.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +3931,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45932.625</v>
+        <v>45945.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +3948,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45932.63541666666</v>
+        <v>45945.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,13 +3965,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45932.64583333334</v>
+        <v>45945.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="D160">
         <v>63</v>
@@ -3694,13 +3982,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45932.65625</v>
+        <v>45945.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D161">
         <v>64</v>
@@ -3711,13 +3999,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45932.66666666666</v>
+        <v>45945.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4016,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45932.67708333334</v>
+        <v>45945.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4033,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45932.6875</v>
+        <v>45945.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4050,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45932.69791666666</v>
+        <v>45945.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4067,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45932.70833333334</v>
+        <v>45945.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4084,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45932.71875</v>
+        <v>45945.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4101,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45932.72916666666</v>
+        <v>45945.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4118,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45932.73958333334</v>
+        <v>45945.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4135,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45932.75</v>
+        <v>45945.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,10 +4152,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45932.76041666666</v>
+        <v>45945.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +4169,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45932.77083333334</v>
+        <v>45945.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +4186,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45932.78125</v>
+        <v>45945.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +4203,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45932.79166666666</v>
+        <v>45945.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +4220,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45932.80208333334</v>
+        <v>45945.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +4237,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45932.8125</v>
+        <v>45945.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +4254,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45932.82291666666</v>
+        <v>45945.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +4271,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45932.83333333334</v>
+        <v>45945.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4288,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45932.84375</v>
+        <v>45945.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4305,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45932.85416666666</v>
+        <v>45945.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4322,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45932.86458333334</v>
+        <v>45945.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4339,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45932.875</v>
+        <v>45945.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4356,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45932.88541666666</v>
+        <v>45945.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4373,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45932.89583333334</v>
+        <v>45945.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4390,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45932.90625</v>
+        <v>45945.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4407,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45932.91666666666</v>
+        <v>45945.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4424,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45932.92708333334</v>
+        <v>45945.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4441,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45932.9375</v>
+        <v>45945.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4458,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45932.94791666666</v>
+        <v>45945.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,10 +4475,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45932.95833333334</v>
+        <v>45945.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4204,10 +4492,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45932.96875</v>
+        <v>45945.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4221,10 +4509,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45932.97916666666</v>
+        <v>45945.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4238,10 +4526,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45932.98958333334</v>
+        <v>45945.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4251,6 +4539,1638 @@
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B194">
+        <v>82</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>81</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>81</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B197">
+        <v>80</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>91</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>91</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B200">
+        <v>86</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>86</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>82</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B203">
+        <v>82</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>89</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>88</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B206">
+        <v>94</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>89</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>90</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B209">
+        <v>92</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>98</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>98</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B212">
+        <v>99</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>100</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>97</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B215">
+        <v>97</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>98</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>99</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B218">
+        <v>101</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>102</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>103</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B221">
+        <v>104</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>111</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>115</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B224">
+        <v>116</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>118</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>115</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B227">
+        <v>114</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>110</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>110</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B230">
+        <v>119</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>114</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>111</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B233">
+        <v>109</v>
+      </c>
+      <c r="C233">
+        <v>122</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>99</v>
+      </c>
+      <c r="C234">
+        <v>120</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>99</v>
+      </c>
+      <c r="C235">
+        <v>130</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45946.4375</v>
+      </c>
+      <c r="B236">
+        <v>99</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45946.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>100</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45946.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>99</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45946.46875</v>
+      </c>
+      <c r="B239">
+        <v>100</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45946.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>102</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45946.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>103</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45946.5</v>
+      </c>
+      <c r="B242">
+        <v>102</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45946.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>104</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45946.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>106</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45946.53125</v>
+      </c>
+      <c r="B245">
+        <v>107</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45946.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>108</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45946.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>110</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45946.5625</v>
+      </c>
+      <c r="B248">
+        <v>112</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45946.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>114</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45946.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>125</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45946.59375</v>
+      </c>
+      <c r="B251">
+        <v>127</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45946.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>129</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45946.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>131</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45946.625</v>
+      </c>
+      <c r="B254">
+        <v>146</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45946.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>149</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45946.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>153</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45946.65625</v>
+      </c>
+      <c r="B257">
+        <v>156</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45946.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>183</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45946.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>192</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45946.6875</v>
+      </c>
+      <c r="B260">
+        <v>205</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45946.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>215</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45946.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>266</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45946.71875</v>
+      </c>
+      <c r="B263">
+        <v>284</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45946.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>302</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45946.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>320</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45946.75</v>
+      </c>
+      <c r="B266">
+        <v>377</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45946.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>392</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45946.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>407</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45946.78125</v>
+      </c>
+      <c r="B269">
+        <v>423</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45946.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>464</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45946.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>474</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45946.8125</v>
+      </c>
+      <c r="B272">
+        <v>484</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45946.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>494</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45946.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>520</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45946.84375</v>
+      </c>
+      <c r="B275">
+        <v>526</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45946.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>531</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45946.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>535</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45946.875</v>
+      </c>
+      <c r="B278">
+        <v>546</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45946.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>548</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45946.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>551</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45946.90625</v>
+      </c>
+      <c r="B281">
+        <v>554</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45946.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>555</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45946.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>558</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45946.9375</v>
+      </c>
+      <c r="B284">
+        <v>558</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45946.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>556</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45946.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45946.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45946.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45946.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>23.10.202593</t>
-  </si>
-  <si>
-    <t>23.10.202594</t>
-  </si>
-  <si>
-    <t>23.10.202595</t>
-  </si>
-  <si>
-    <t>23.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
-  </si>
-  <si>
-    <t>24.10.202528</t>
-  </si>
-  <si>
-    <t>24.10.202529</t>
-  </si>
-  <si>
-    <t>24.10.202530</t>
-  </si>
-  <si>
-    <t>24.10.202531</t>
-  </si>
-  <si>
-    <t>24.10.202532</t>
-  </si>
-  <si>
-    <t>24.10.202533</t>
-  </si>
-  <si>
-    <t>24.10.202534</t>
-  </si>
-  <si>
-    <t>24.10.202535</t>
-  </si>
-  <si>
-    <t>24.10.202536</t>
-  </si>
-  <si>
-    <t>24.10.202537</t>
-  </si>
-  <si>
-    <t>24.10.202538</t>
-  </si>
-  <si>
-    <t>24.10.202539</t>
-  </si>
-  <si>
-    <t>24.10.202540</t>
-  </si>
-  <si>
-    <t>24.10.202541</t>
-  </si>
-  <si>
-    <t>24.10.202542</t>
-  </si>
-  <si>
-    <t>24.10.202543</t>
-  </si>
-  <si>
-    <t>24.10.202544</t>
-  </si>
-  <si>
-    <t>24.10.202545</t>
-  </si>
-  <si>
-    <t>24.10.202546</t>
-  </si>
-  <si>
-    <t>24.10.202547</t>
-  </si>
-  <si>
-    <t>24.10.202548</t>
-  </si>
-  <si>
-    <t>24.10.202549</t>
-  </si>
-  <si>
-    <t>24.10.202550</t>
-  </si>
-  <si>
-    <t>24.10.202551</t>
-  </si>
-  <si>
-    <t>24.10.202552</t>
-  </si>
-  <si>
-    <t>24.10.202553</t>
-  </si>
-  <si>
-    <t>24.10.202554</t>
-  </si>
-  <si>
-    <t>24.10.202555</t>
-  </si>
-  <si>
-    <t>24.10.202556</t>
-  </si>
-  <si>
-    <t>24.10.202557</t>
-  </si>
-  <si>
-    <t>24.10.202558</t>
-  </si>
-  <si>
-    <t>24.10.202559</t>
-  </si>
-  <si>
-    <t>24.10.202560</t>
-  </si>
-  <si>
-    <t>24.10.202561</t>
-  </si>
-  <si>
-    <t>24.10.202562</t>
-  </si>
-  <si>
-    <t>24.10.202563</t>
-  </si>
-  <si>
-    <t>24.10.202564</t>
-  </si>
-  <si>
-    <t>24.10.202565</t>
-  </si>
-  <si>
-    <t>24.10.202566</t>
-  </si>
-  <si>
-    <t>24.10.202567</t>
-  </si>
-  <si>
-    <t>24.10.202568</t>
-  </si>
-  <si>
-    <t>24.10.202569</t>
-  </si>
-  <si>
-    <t>24.10.202570</t>
-  </si>
-  <si>
-    <t>24.10.202571</t>
-  </si>
-  <si>
-    <t>24.10.202572</t>
-  </si>
-  <si>
-    <t>24.10.202573</t>
-  </si>
-  <si>
-    <t>24.10.202574</t>
-  </si>
-  <si>
-    <t>24.10.202575</t>
-  </si>
-  <si>
-    <t>24.10.202576</t>
-  </si>
-  <si>
-    <t>24.10.202577</t>
-  </si>
-  <si>
-    <t>24.10.202578</t>
-  </si>
-  <si>
-    <t>24.10.202579</t>
-  </si>
-  <si>
-    <t>24.10.202580</t>
-  </si>
-  <si>
-    <t>24.10.202581</t>
-  </si>
-  <si>
-    <t>24.10.202582</t>
-  </si>
-  <si>
-    <t>24.10.202583</t>
-  </si>
-  <si>
-    <t>24.10.202584</t>
-  </si>
-  <si>
-    <t>24.10.202585</t>
-  </si>
-  <si>
-    <t>24.10.202586</t>
-  </si>
-  <si>
-    <t>24.10.202587</t>
-  </si>
-  <si>
-    <t>24.10.202588</t>
-  </si>
-  <si>
-    <t>24.10.202589</t>
-  </si>
-  <si>
-    <t>24.10.202590</t>
-  </si>
-  <si>
-    <t>24.10.202591</t>
-  </si>
-  <si>
-    <t>24.10.202592</t>
-  </si>
-  <si>
-    <t>24.10.202593</t>
-  </si>
-  <si>
-    <t>24.10.202594</t>
-  </si>
-  <si>
-    <t>24.10.202595</t>
-  </si>
-  <si>
-    <t>24.10.202596</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>1090.99</v>
+        <v>1233.828</v>
       </c>
       <c r="C2">
-        <v>993</v>
+        <v>1258</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>1073.13</v>
+        <v>1240.941</v>
       </c>
       <c r="C3">
-        <v>983</v>
+        <v>1294</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>1057.67</v>
+        <v>1256.972</v>
       </c>
       <c r="C4">
-        <v>946</v>
+        <v>1316</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>1037.79</v>
+        <v>1264.056</v>
       </c>
       <c r="C5">
-        <v>914</v>
+        <v>1315</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>970.51</v>
+        <v>1279.699</v>
       </c>
       <c r="C6">
-        <v>902</v>
+        <v>1309</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>937.51</v>
+        <v>1286.26</v>
       </c>
       <c r="C7">
-        <v>907</v>
+        <v>1245</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>922.76</v>
+        <v>1290.035</v>
       </c>
       <c r="C8">
-        <v>886</v>
+        <v>1152</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>909.04</v>
+        <v>1294.3</v>
       </c>
       <c r="C9">
-        <v>874</v>
+        <v>1093</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>841.53</v>
+        <v>1296.168</v>
       </c>
       <c r="C10">
-        <v>841</v>
+        <v>1017</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>834.23</v>
+        <v>1287.685</v>
       </c>
       <c r="C11">
-        <v>809</v>
+        <v>1007</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>823.39</v>
+        <v>1284.728</v>
       </c>
       <c r="C12">
-        <v>783</v>
+        <v>984</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>807.16</v>
+        <v>1280.921</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>781.08</v>
+        <v>1252.298</v>
       </c>
       <c r="C14">
-        <v>746</v>
+        <v>907</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>781.46</v>
+        <v>1242.901</v>
       </c>
       <c r="C15">
-        <v>688</v>
+        <v>865</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>772.95</v>
+        <v>1238.633</v>
       </c>
       <c r="C16">
-        <v>653</v>
+        <v>816</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>767.73</v>
+        <v>1232.5</v>
       </c>
       <c r="C17">
-        <v>635</v>
+        <v>820</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>758.3099999999999</v>
+        <v>1201.179</v>
       </c>
       <c r="C18">
-        <v>636</v>
+        <v>828</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>759.33</v>
+        <v>1199.899</v>
       </c>
       <c r="C19">
-        <v>638</v>
+        <v>793</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>758.33</v>
+        <v>1186.383</v>
       </c>
       <c r="C20">
-        <v>641</v>
+        <v>781</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>752.74</v>
+        <v>1181.681</v>
       </c>
       <c r="C21">
-        <v>635</v>
+        <v>801</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
-        <v>754.53</v>
+        <v>1125.325</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>753.35</v>
+        <v>1120.527</v>
       </c>
       <c r="C23">
-        <v>638</v>
+        <v>836</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>750.34</v>
+        <v>1122.113</v>
       </c>
       <c r="C24">
-        <v>611</v>
+        <v>859</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>746.05</v>
+        <v>1118.801</v>
       </c>
       <c r="C25">
-        <v>584</v>
+        <v>900</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>747.79</v>
+        <v>1062.264</v>
       </c>
       <c r="C26">
-        <v>568</v>
+        <v>916</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>742.35</v>
+        <v>1062.524</v>
       </c>
       <c r="C27">
-        <v>583</v>
+        <v>899</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>735.05</v>
+        <v>1058.854</v>
       </c>
       <c r="C28">
-        <v>571</v>
+        <v>906</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>725.3099999999999</v>
+        <v>1048.488</v>
       </c>
       <c r="C29">
-        <v>574</v>
+        <v>922</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>689.85</v>
+        <v>1000.13</v>
       </c>
       <c r="C30">
-        <v>569</v>
+        <v>892</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>679.62</v>
+        <v>987.172</v>
       </c>
       <c r="C31">
-        <v>553</v>
+        <v>889</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>660.4299999999999</v>
+        <v>977.386</v>
       </c>
       <c r="C32">
-        <v>548</v>
+        <v>905</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>657.41</v>
+        <v>960.973</v>
       </c>
       <c r="C33">
-        <v>561</v>
+        <v>911</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>629.1900000000001</v>
+        <v>886.984</v>
       </c>
       <c r="C34">
-        <v>554</v>
+        <v>900</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>621.11</v>
+        <v>880.697</v>
       </c>
       <c r="C35">
-        <v>549</v>
+        <v>899</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>610.78</v>
+        <v>885.537</v>
       </c>
       <c r="C36">
-        <v>526</v>
+        <v>910</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>602.29</v>
+        <v>874.8200000000001</v>
       </c>
       <c r="C37">
-        <v>513</v>
+        <v>922</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>607.17</v>
+        <v>888.044</v>
       </c>
       <c r="C38">
-        <v>506</v>
+        <v>914</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>601.37</v>
+        <v>879.86</v>
       </c>
       <c r="C39">
-        <v>494</v>
+        <v>905</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>595.71</v>
+        <v>873.5599999999999</v>
       </c>
       <c r="C40">
-        <v>485</v>
+        <v>897</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>590.55</v>
+        <v>868.085</v>
       </c>
       <c r="C41">
-        <v>473</v>
+        <v>878</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>579.45</v>
+        <v>832.8339999999999</v>
       </c>
       <c r="C42">
-        <v>485</v>
+        <v>859</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>576.59</v>
+        <v>828.734</v>
       </c>
       <c r="C43">
-        <v>489</v>
+        <v>850</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>572.7</v>
+        <v>823.247</v>
       </c>
       <c r="C44">
-        <v>477</v>
+        <v>820</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>567.5599999999999</v>
+        <v>816.674</v>
       </c>
       <c r="C45">
-        <v>448</v>
+        <v>800</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>527.64</v>
+        <v>776.213</v>
       </c>
       <c r="C46">
-        <v>445</v>
+        <v>782</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>523.58</v>
+        <v>769.331</v>
       </c>
       <c r="C47">
-        <v>443</v>
+        <v>763</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>519</v>
+        <v>763.321</v>
       </c>
       <c r="C48">
-        <v>445</v>
+        <v>771</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>514.05</v>
+        <v>758.046</v>
       </c>
       <c r="C49">
-        <v>450</v>
+        <v>785</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>486.56</v>
+        <v>733.2</v>
       </c>
       <c r="C50">
-        <v>449</v>
+        <v>776</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>482.66</v>
+        <v>730.0650000000001</v>
       </c>
       <c r="C51">
-        <v>462</v>
+        <v>785</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>479.27</v>
+        <v>726.354</v>
       </c>
       <c r="C52">
-        <v>473</v>
+        <v>790</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>476.24</v>
+        <v>722.559</v>
       </c>
       <c r="C53">
-        <v>496</v>
+        <v>805</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>473.96</v>
+        <v>705.621</v>
       </c>
       <c r="C54">
-        <v>476</v>
+        <v>792</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
-        <v>474.27</v>
+        <v>702.546</v>
       </c>
       <c r="C55">
-        <v>484</v>
+        <v>788</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
-        <v>474.22</v>
+        <v>698.808</v>
       </c>
       <c r="C56">
-        <v>492</v>
+        <v>784</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
-        <v>473.84</v>
+        <v>695.87</v>
       </c>
       <c r="C57">
-        <v>516</v>
+        <v>787</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>487.35</v>
+        <v>647.866</v>
       </c>
       <c r="C58">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>488.94</v>
+        <v>643.754</v>
       </c>
       <c r="C59">
-        <v>544</v>
+        <v>793</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>491.74</v>
+        <v>640.248</v>
       </c>
       <c r="C60">
-        <v>555</v>
+        <v>816</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>495.79</v>
+        <v>636.232</v>
       </c>
       <c r="C61">
-        <v>573</v>
+        <v>827</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>517.9</v>
+        <v>630.213</v>
       </c>
       <c r="C62">
-        <v>590</v>
+        <v>828</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>531.4400000000001</v>
+        <v>633.6609999999999</v>
       </c>
       <c r="C63">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>537.8099999999999</v>
+        <v>637.1799999999999</v>
       </c>
       <c r="C64">
-        <v>599</v>
+        <v>855</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>543.63</v>
+        <v>640.9880000000001</v>
       </c>
       <c r="C65">
-        <v>601</v>
+        <v>849</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>606.12</v>
+        <v>669.917</v>
       </c>
       <c r="C66">
-        <v>612</v>
+        <v>889</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>623.3200000000001</v>
+        <v>672.41</v>
       </c>
       <c r="C67">
-        <v>605</v>
+        <v>892</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>642.65</v>
+        <v>672.1079999999999</v>
       </c>
       <c r="C68">
-        <v>630</v>
+        <v>885</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>662.62</v>
+        <v>675.205</v>
       </c>
       <c r="C69">
-        <v>648</v>
+        <v>895</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>770.38</v>
+        <v>730.183</v>
       </c>
       <c r="C70">
-        <v>692</v>
+        <v>914</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>800.26</v>
+        <v>727.234</v>
       </c>
       <c r="C71">
-        <v>786</v>
+        <v>931</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>829.37</v>
+        <v>725.046</v>
       </c>
       <c r="C72">
-        <v>897</v>
+        <v>944</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>856.36</v>
+        <v>725.768</v>
       </c>
       <c r="C73">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>968.0599999999999</v>
+        <v>706.1079999999999</v>
       </c>
       <c r="C74">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>991.28</v>
+        <v>702.773</v>
       </c>
       <c r="C75">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>1012.39</v>
+        <v>699.4589999999999</v>
       </c>
       <c r="C76">
-        <v>1107</v>
+        <v>1079</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>1035.62</v>
+        <v>697.98</v>
       </c>
       <c r="C77">
-        <v>1128</v>
+        <v>1104</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>1111.78</v>
+        <v>668.6369999999999</v>
       </c>
       <c r="C78">
-        <v>1123</v>
+        <v>1087</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>1128.48</v>
+        <v>666.396</v>
       </c>
       <c r="C79">
-        <v>1113</v>
+        <v>1059</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45953.8125</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>1142.07</v>
+        <v>663.907</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>1156.41</v>
+        <v>660.919</v>
       </c>
       <c r="C81">
-        <v>1137</v>
+        <v>1028</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>1177.61</v>
+        <v>632.506</v>
       </c>
       <c r="C82">
-        <v>1122</v>
+        <v>1052</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45953.84375</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>1179.01</v>
+        <v>624.052</v>
       </c>
       <c r="C83">
-        <v>1131</v>
+        <v>1005</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>1180.68</v>
+        <v>616.16</v>
       </c>
       <c r="C84">
-        <v>1157</v>
+        <v>1001</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>1182.84</v>
+        <v>608.119</v>
       </c>
       <c r="C85">
-        <v>1117</v>
+        <v>999</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45953.875</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>1167.63</v>
+        <v>557.849</v>
       </c>
       <c r="C86">
-        <v>1082</v>
+        <v>1007</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
-        <v>1164.73</v>
+        <v>544.543</v>
       </c>
       <c r="C87">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
-        <v>1161.86</v>
+        <v>531.515</v>
       </c>
       <c r="C88">
-        <v>1021</v>
+        <v>958</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45953.90625</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>1158.74</v>
+        <v>516.1420000000001</v>
       </c>
       <c r="C89">
-        <v>1027</v>
+        <v>928</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
-        <v>1132.92</v>
+        <v>452.301</v>
       </c>
       <c r="C90">
-        <v>1024</v>
+        <v>907</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
-        <v>1128.25</v>
+        <v>441.522</v>
       </c>
       <c r="C91">
-        <v>1032</v>
+        <v>894</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45953.9375</v>
+        <v>45968.9375</v>
       </c>
       <c r="B92">
-        <v>1125.47</v>
+        <v>422.281</v>
       </c>
       <c r="C92">
-        <v>1026</v>
+        <v>883</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B93">
-        <v>1119.34</v>
+        <v>412.839</v>
       </c>
       <c r="C93">
-        <v>974</v>
+        <v>862</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B94">
-        <v>1103.089</v>
+        <v>525.295</v>
       </c>
       <c r="C94">
-        <v>972</v>
+        <v>816</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45953.96875</v>
+        <v>45968.96875</v>
       </c>
       <c r="B95">
-        <v>1103.106</v>
+        <v>519.371</v>
       </c>
       <c r="C95">
-        <v>961</v>
+        <v>782</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B96">
-        <v>1115.341</v>
+        <v>515.837</v>
       </c>
       <c r="C96">
-        <v>949</v>
+        <v>747</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B97">
-        <v>1117.468</v>
+        <v>512.467</v>
       </c>
       <c r="C97">
-        <v>947</v>
+        <v>704</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45954</v>
+        <v>45969</v>
       </c>
       <c r="B98">
-        <v>1199.288</v>
+        <v>571.776</v>
       </c>
       <c r="C98">
-        <v>949</v>
+        <v>646</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B99">
-        <v>1199.726</v>
+        <v>554.698</v>
       </c>
       <c r="C99">
-        <v>953</v>
+        <v>611</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B100">
-        <v>1196.317</v>
+        <v>546.198</v>
       </c>
       <c r="C100">
-        <v>950</v>
+        <v>564</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B101">
-        <v>1195.015</v>
+        <v>535.633</v>
       </c>
       <c r="C101">
-        <v>944</v>
+        <v>524</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B102">
-        <v>1202.108</v>
+        <v>481.43</v>
       </c>
       <c r="C102">
-        <v>911</v>
+        <v>467</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B103">
-        <v>1212.43</v>
+        <v>466.436</v>
       </c>
       <c r="C103">
-        <v>914</v>
+        <v>436</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B104">
-        <v>1221.562</v>
+        <v>456.647</v>
       </c>
       <c r="C104">
-        <v>911</v>
+        <v>421</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B105">
-        <v>1228.64</v>
+        <v>443.172</v>
       </c>
       <c r="C105">
-        <v>910</v>
+        <v>404</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B106">
-        <v>1267.47</v>
+        <v>380.655</v>
       </c>
       <c r="C106">
-        <v>892</v>
+        <v>370</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B107">
-        <v>1279.135</v>
+        <v>369.014</v>
       </c>
       <c r="C107">
-        <v>890</v>
+        <v>344</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B108">
-        <v>1290.313</v>
+        <v>367.614</v>
       </c>
       <c r="C108">
-        <v>897</v>
+        <v>340</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B109">
-        <v>1300.841</v>
+        <v>361.848</v>
       </c>
       <c r="C109">
-        <v>941</v>
+        <v>349</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B110">
-        <v>1376.972</v>
+        <v>338.062</v>
       </c>
       <c r="C110">
-        <v>970</v>
+        <v>375</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B111">
-        <v>1388.671</v>
+        <v>334.954</v>
       </c>
       <c r="C111">
-        <v>1025</v>
+        <v>408</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B112">
-        <v>1406.527</v>
+        <v>332.886</v>
       </c>
       <c r="C112">
-        <v>1097</v>
+        <v>411</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B113">
-        <v>1422.275</v>
+        <v>337.147</v>
       </c>
       <c r="C113">
-        <v>1178</v>
+        <v>399</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B114">
-        <v>1505.394</v>
+        <v>300.026</v>
       </c>
       <c r="C114">
-        <v>1244</v>
+        <v>391</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B115">
-        <v>1526.395</v>
+        <v>300.183</v>
       </c>
       <c r="C115">
-        <v>1300</v>
+        <v>399</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B116">
-        <v>1539.993</v>
+        <v>300.646</v>
       </c>
       <c r="C116">
-        <v>1327</v>
+        <v>397</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B117">
-        <v>1548.989</v>
+        <v>301.231</v>
       </c>
       <c r="C117">
-        <v>1358</v>
+        <v>378</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B118">
-        <v>1623.143</v>
+        <v>271.841</v>
       </c>
       <c r="C118">
-        <v>1393</v>
+        <v>358</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B119">
-        <v>1635.552</v>
+        <v>262.17</v>
       </c>
       <c r="C119">
-        <v>1389</v>
+        <v>363</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B120">
-        <v>1649.058</v>
+        <v>262.759</v>
       </c>
       <c r="C120">
-        <v>1422</v>
+        <v>384</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B121">
-        <v>1657.691</v>
+        <v>262.796</v>
       </c>
       <c r="C121">
-        <v>1514</v>
+        <v>389</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B122">
-        <v>1700.383</v>
+        <v>217.634</v>
       </c>
       <c r="C122">
-        <v>1556</v>
+        <v>390</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B123">
-        <v>1700.858</v>
+        <v>219.144</v>
       </c>
       <c r="C123">
-        <v>1591</v>
+        <v>393</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B124">
-        <v>1699.654</v>
+        <v>222.802</v>
       </c>
       <c r="C124">
-        <v>1608</v>
+        <v>391</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B125">
-        <v>1700.248</v>
+        <v>222.087</v>
       </c>
       <c r="C125">
-        <v>1644</v>
+        <v>389</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B126">
-        <v>1787.311</v>
+        <v>201.781</v>
       </c>
       <c r="C126">
-        <v>1733</v>
+        <v>368</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B127">
-        <v>1801.938</v>
+        <v>200.647</v>
       </c>
       <c r="C127">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B128">
-        <v>1800.569</v>
+        <v>201.161</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B129">
-        <v>1826.572</v>
+        <v>213.702</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B130">
-        <v>1876.659</v>
+        <v>198.141</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B131">
-        <v>1885.045</v>
+        <v>196.635</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B132">
-        <v>1874.511</v>
+        <v>195.075</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B133">
-        <v>1884.377</v>
+        <v>193.415</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B134">
-        <v>1939.765</v>
+        <v>142.44</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B135">
-        <v>1939.032</v>
+        <v>144.325</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B136">
-        <v>1936.875</v>
+        <v>146.418</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B137">
-        <v>1933.973</v>
+        <v>148.548</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B138">
-        <v>1903.804</v>
+        <v>153.826</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B139">
-        <v>1896.775</v>
+        <v>155.711</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B140">
-        <v>1886.578</v>
+        <v>158.136</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B141">
-        <v>1879.451</v>
+        <v>161.251</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B142">
-        <v>1863.773</v>
+        <v>166.35</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B143">
-        <v>1862.55</v>
+        <v>167.929</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B144">
-        <v>1867.589</v>
+        <v>169.592</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B145">
-        <v>1858.665</v>
+        <v>171.285</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B146">
-        <v>1837.728</v>
+        <v>163</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B147">
-        <v>1835.666</v>
+        <v>165.597</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B148">
-        <v>1830.982</v>
+        <v>167.298</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B149">
-        <v>1822.491</v>
+        <v>170.008</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B150">
-        <v>1815.844</v>
+        <v>186.81</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B151">
-        <v>1828.701</v>
+        <v>196.689</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B152">
-        <v>1831.139</v>
+        <v>203.337</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B153">
-        <v>1830.163</v>
+        <v>209.317</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B154">
-        <v>1839.614</v>
+        <v>242.87</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B155">
-        <v>1845.722</v>
+        <v>253.947</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B156">
-        <v>1853.768</v>
+        <v>265.156</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B157">
-        <v>1862.423</v>
+        <v>276.455</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B158">
-        <v>1950.152</v>
+        <v>339.271</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B159">
-        <v>1961.682</v>
+        <v>359.931</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B160">
-        <v>1981.396</v>
+        <v>386.541</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B161">
-        <v>1997.301</v>
+        <v>412.83</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B162">
-        <v>2128.534</v>
+        <v>524.6660000000001</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B163">
-        <v>2142.771</v>
+        <v>543.4349999999999</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B164">
-        <v>2152.226</v>
+        <v>562.8440000000001</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B165">
-        <v>2155.577</v>
+        <v>582.532</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B166">
-        <v>2205.565</v>
+        <v>645.328</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B167">
-        <v>2212.186</v>
+        <v>662.972</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B168">
-        <v>2216.976</v>
+        <v>682.532</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B169">
-        <v>2219.762</v>
+        <v>701.092</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B170">
-        <v>2188.144</v>
+        <v>764.998</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B171">
-        <v>2181.107</v>
+        <v>778.794</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B172">
-        <v>2176.217</v>
+        <v>792.442</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B173">
-        <v>2170.559</v>
+        <v>806.359</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B174">
-        <v>2087.455</v>
+        <v>867.9690000000001</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B175">
-        <v>2078.662</v>
+        <v>880.427</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B176">
-        <v>2070.376</v>
+        <v>894.407</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B177">
-        <v>2062.612</v>
+        <v>908.177</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B178">
-        <v>1971.327</v>
+        <v>942.256</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B179">
-        <v>1954.78</v>
+        <v>961.4349999999999</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B180">
-        <v>1914.862</v>
+        <v>979.0410000000001</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B181">
-        <v>1896.872</v>
+        <v>995.51</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B182">
-        <v>1758.969</v>
+        <v>1056.404</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B183">
-        <v>1735.241</v>
+        <v>1067.375</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B184">
-        <v>1709.694</v>
+        <v>1076.984</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B185">
-        <v>1683.212</v>
+        <v>1089.982</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B186">
-        <v>1537.174</v>
+        <v>1132.035</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B187">
-        <v>1515.99</v>
+        <v>1138.548</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B188">
-        <v>1494.493</v>
+        <v>1145.8</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B189">
-        <v>1464.91</v>
+        <v>1153.016</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>07.11.20251</t>
-  </si>
-  <si>
-    <t>07.11.20252</t>
-  </si>
-  <si>
-    <t>07.11.20253</t>
-  </si>
-  <si>
-    <t>07.11.20254</t>
-  </si>
-  <si>
-    <t>07.11.20255</t>
-  </si>
-  <si>
-    <t>07.11.20256</t>
-  </si>
-  <si>
-    <t>07.11.20257</t>
-  </si>
-  <si>
-    <t>07.11.20258</t>
-  </si>
-  <si>
-    <t>07.11.20259</t>
-  </si>
-  <si>
-    <t>07.11.202510</t>
-  </si>
-  <si>
-    <t>07.11.202511</t>
-  </si>
-  <si>
-    <t>07.11.202512</t>
-  </si>
-  <si>
-    <t>07.11.202513</t>
-  </si>
-  <si>
-    <t>07.11.202514</t>
-  </si>
-  <si>
-    <t>07.11.202515</t>
-  </si>
-  <si>
-    <t>07.11.202516</t>
-  </si>
-  <si>
-    <t>07.11.202517</t>
-  </si>
-  <si>
-    <t>07.11.202518</t>
-  </si>
-  <si>
-    <t>07.11.202519</t>
-  </si>
-  <si>
-    <t>07.11.202520</t>
-  </si>
-  <si>
-    <t>07.11.202521</t>
-  </si>
-  <si>
-    <t>07.11.202522</t>
-  </si>
-  <si>
-    <t>07.11.202523</t>
-  </si>
-  <si>
-    <t>07.11.202524</t>
-  </si>
-  <si>
-    <t>07.11.202525</t>
-  </si>
-  <si>
-    <t>07.11.202526</t>
-  </si>
-  <si>
-    <t>07.11.202527</t>
-  </si>
-  <si>
-    <t>07.11.202528</t>
-  </si>
-  <si>
-    <t>07.11.202529</t>
-  </si>
-  <si>
-    <t>07.11.202530</t>
-  </si>
-  <si>
-    <t>07.11.202531</t>
-  </si>
-  <si>
-    <t>07.11.202532</t>
-  </si>
-  <si>
-    <t>07.11.202533</t>
-  </si>
-  <si>
-    <t>07.11.202534</t>
-  </si>
-  <si>
-    <t>07.11.202535</t>
-  </si>
-  <si>
-    <t>07.11.202536</t>
-  </si>
-  <si>
-    <t>07.11.202537</t>
-  </si>
-  <si>
-    <t>07.11.202538</t>
-  </si>
-  <si>
-    <t>07.11.202539</t>
-  </si>
-  <si>
-    <t>07.11.202540</t>
-  </si>
-  <si>
-    <t>07.11.202541</t>
-  </si>
-  <si>
-    <t>07.11.202542</t>
-  </si>
-  <si>
-    <t>07.11.202543</t>
-  </si>
-  <si>
-    <t>07.11.202544</t>
-  </si>
-  <si>
-    <t>07.11.202545</t>
-  </si>
-  <si>
-    <t>07.11.202546</t>
-  </si>
-  <si>
-    <t>07.11.202547</t>
-  </si>
-  <si>
-    <t>07.11.202548</t>
-  </si>
-  <si>
-    <t>07.11.202549</t>
-  </si>
-  <si>
-    <t>07.11.202550</t>
-  </si>
-  <si>
-    <t>07.11.202551</t>
-  </si>
-  <si>
-    <t>07.11.202552</t>
-  </si>
-  <si>
-    <t>07.11.202553</t>
-  </si>
-  <si>
-    <t>07.11.202554</t>
-  </si>
-  <si>
-    <t>07.11.202555</t>
-  </si>
-  <si>
-    <t>07.11.202556</t>
-  </si>
-  <si>
-    <t>07.11.202557</t>
-  </si>
-  <si>
-    <t>07.11.202558</t>
-  </si>
-  <si>
-    <t>07.11.202559</t>
-  </si>
-  <si>
-    <t>07.11.202560</t>
-  </si>
-  <si>
-    <t>07.11.202561</t>
-  </si>
-  <si>
-    <t>07.11.202562</t>
-  </si>
-  <si>
-    <t>07.11.202563</t>
-  </si>
-  <si>
-    <t>07.11.202564</t>
-  </si>
-  <si>
-    <t>07.11.202565</t>
-  </si>
-  <si>
-    <t>07.11.202566</t>
-  </si>
-  <si>
-    <t>07.11.202567</t>
-  </si>
-  <si>
-    <t>07.11.202568</t>
-  </si>
-  <si>
-    <t>07.11.202569</t>
-  </si>
-  <si>
-    <t>07.11.202570</t>
-  </si>
-  <si>
-    <t>07.11.202571</t>
-  </si>
-  <si>
-    <t>07.11.202572</t>
-  </si>
-  <si>
-    <t>07.11.202573</t>
-  </si>
-  <si>
-    <t>07.11.202574</t>
-  </si>
-  <si>
-    <t>07.11.202575</t>
-  </si>
-  <si>
-    <t>07.11.202576</t>
-  </si>
-  <si>
-    <t>07.11.202577</t>
-  </si>
-  <si>
-    <t>07.11.202578</t>
-  </si>
-  <si>
-    <t>07.11.202579</t>
-  </si>
-  <si>
-    <t>07.11.202580</t>
-  </si>
-  <si>
-    <t>07.11.202581</t>
-  </si>
-  <si>
-    <t>07.11.202582</t>
-  </si>
-  <si>
-    <t>07.11.202583</t>
-  </si>
-  <si>
-    <t>07.11.202584</t>
-  </si>
-  <si>
-    <t>07.11.202585</t>
-  </si>
-  <si>
-    <t>07.11.202586</t>
-  </si>
-  <si>
-    <t>07.11.202587</t>
-  </si>
-  <si>
-    <t>07.11.202588</t>
-  </si>
-  <si>
-    <t>07.11.202589</t>
-  </si>
-  <si>
-    <t>07.11.202590</t>
-  </si>
-  <si>
-    <t>07.11.202591</t>
-  </si>
-  <si>
-    <t>07.11.202592</t>
-  </si>
-  <si>
-    <t>07.11.202593</t>
-  </si>
-  <si>
-    <t>07.11.202594</t>
-  </si>
-  <si>
-    <t>07.11.202595</t>
-  </si>
-  <si>
-    <t>07.11.202596</t>
-  </si>
-  <si>
     <t>08.11.20251</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>08.11.202596</t>
+  </si>
+  <si>
+    <t>09.11.20251</t>
+  </si>
+  <si>
+    <t>09.11.20252</t>
+  </si>
+  <si>
+    <t>09.11.20253</t>
+  </si>
+  <si>
+    <t>09.11.20254</t>
+  </si>
+  <si>
+    <t>09.11.20255</t>
+  </si>
+  <si>
+    <t>09.11.20256</t>
+  </si>
+  <si>
+    <t>09.11.20257</t>
+  </si>
+  <si>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>09.11.202525</t>
+  </si>
+  <si>
+    <t>09.11.202526</t>
+  </si>
+  <si>
+    <t>09.11.202527</t>
+  </si>
+  <si>
+    <t>09.11.202528</t>
+  </si>
+  <si>
+    <t>09.11.202529</t>
+  </si>
+  <si>
+    <t>09.11.202530</t>
+  </si>
+  <si>
+    <t>09.11.202531</t>
+  </si>
+  <si>
+    <t>09.11.202532</t>
+  </si>
+  <si>
+    <t>09.11.202533</t>
+  </si>
+  <si>
+    <t>09.11.202534</t>
+  </si>
+  <si>
+    <t>09.11.202535</t>
+  </si>
+  <si>
+    <t>09.11.202536</t>
+  </si>
+  <si>
+    <t>09.11.202537</t>
+  </si>
+  <si>
+    <t>09.11.202538</t>
+  </si>
+  <si>
+    <t>09.11.202539</t>
+  </si>
+  <si>
+    <t>09.11.202540</t>
+  </si>
+  <si>
+    <t>09.11.202541</t>
+  </si>
+  <si>
+    <t>09.11.202542</t>
+  </si>
+  <si>
+    <t>09.11.202543</t>
+  </si>
+  <si>
+    <t>09.11.202544</t>
+  </si>
+  <si>
+    <t>09.11.202545</t>
+  </si>
+  <si>
+    <t>09.11.202546</t>
+  </si>
+  <si>
+    <t>09.11.202547</t>
+  </si>
+  <si>
+    <t>09.11.202548</t>
+  </si>
+  <si>
+    <t>09.11.202549</t>
+  </si>
+  <si>
+    <t>09.11.202550</t>
+  </si>
+  <si>
+    <t>09.11.202551</t>
+  </si>
+  <si>
+    <t>09.11.202552</t>
+  </si>
+  <si>
+    <t>09.11.202553</t>
+  </si>
+  <si>
+    <t>09.11.202554</t>
+  </si>
+  <si>
+    <t>09.11.202555</t>
+  </si>
+  <si>
+    <t>09.11.202556</t>
+  </si>
+  <si>
+    <t>09.11.202557</t>
+  </si>
+  <si>
+    <t>09.11.202558</t>
+  </si>
+  <si>
+    <t>09.11.202559</t>
+  </si>
+  <si>
+    <t>09.11.202560</t>
+  </si>
+  <si>
+    <t>09.11.202561</t>
+  </si>
+  <si>
+    <t>09.11.202562</t>
+  </si>
+  <si>
+    <t>09.11.202563</t>
+  </si>
+  <si>
+    <t>09.11.202564</t>
+  </si>
+  <si>
+    <t>09.11.202565</t>
+  </si>
+  <si>
+    <t>09.11.202566</t>
+  </si>
+  <si>
+    <t>09.11.202567</t>
+  </si>
+  <si>
+    <t>09.11.202568</t>
+  </si>
+  <si>
+    <t>09.11.202569</t>
+  </si>
+  <si>
+    <t>09.11.202570</t>
+  </si>
+  <si>
+    <t>09.11.202571</t>
+  </si>
+  <si>
+    <t>09.11.202572</t>
+  </si>
+  <si>
+    <t>09.11.202573</t>
+  </si>
+  <si>
+    <t>09.11.202574</t>
+  </si>
+  <si>
+    <t>09.11.202575</t>
+  </si>
+  <si>
+    <t>09.11.202576</t>
+  </si>
+  <si>
+    <t>09.11.202577</t>
+  </si>
+  <si>
+    <t>09.11.202578</t>
+  </si>
+  <si>
+    <t>09.11.202579</t>
+  </si>
+  <si>
+    <t>09.11.202580</t>
+  </si>
+  <si>
+    <t>09.11.202581</t>
+  </si>
+  <si>
+    <t>09.11.202582</t>
+  </si>
+  <si>
+    <t>09.11.202583</t>
+  </si>
+  <si>
+    <t>09.11.202584</t>
+  </si>
+  <si>
+    <t>09.11.202585</t>
+  </si>
+  <si>
+    <t>09.11.202586</t>
+  </si>
+  <si>
+    <t>09.11.202587</t>
+  </si>
+  <si>
+    <t>09.11.202588</t>
+  </si>
+  <si>
+    <t>09.11.202589</t>
+  </si>
+  <si>
+    <t>09.11.202590</t>
+  </si>
+  <si>
+    <t>09.11.202591</t>
+  </si>
+  <si>
+    <t>09.11.202592</t>
+  </si>
+  <si>
+    <t>09.11.202593</t>
+  </si>
+  <si>
+    <t>09.11.202594</t>
+  </si>
+  <si>
+    <t>09.11.202595</t>
+  </si>
+  <si>
+    <t>09.11.202596</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>1233.828</v>
+        <v>571.776</v>
       </c>
       <c r="C2">
-        <v>1258</v>
+        <v>646</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>1240.941</v>
+        <v>554.698</v>
       </c>
       <c r="C3">
-        <v>1294</v>
+        <v>611</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>1256.972</v>
+        <v>546.198</v>
       </c>
       <c r="C4">
-        <v>1316</v>
+        <v>564</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>1264.056</v>
+        <v>535.633</v>
       </c>
       <c r="C5">
-        <v>1315</v>
+        <v>524</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>1279.699</v>
+        <v>481.43</v>
       </c>
       <c r="C6">
-        <v>1309</v>
+        <v>467</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>1286.26</v>
+        <v>466.436</v>
       </c>
       <c r="C7">
-        <v>1245</v>
+        <v>436</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>1290.035</v>
+        <v>456.647</v>
       </c>
       <c r="C8">
-        <v>1152</v>
+        <v>421</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>1294.3</v>
+        <v>443.172</v>
       </c>
       <c r="C9">
-        <v>1093</v>
+        <v>404</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>1296.168</v>
+        <v>380.655</v>
       </c>
       <c r="C10">
-        <v>1017</v>
+        <v>370</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>1287.685</v>
+        <v>369.014</v>
       </c>
       <c r="C11">
-        <v>1007</v>
+        <v>344</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>1284.728</v>
+        <v>367.614</v>
       </c>
       <c r="C12">
-        <v>984</v>
+        <v>340</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>1280.921</v>
+        <v>361.848</v>
       </c>
       <c r="C13">
-        <v>943</v>
+        <v>349</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>1252.298</v>
+        <v>338.062</v>
       </c>
       <c r="C14">
-        <v>907</v>
+        <v>375</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>1242.901</v>
+        <v>334.954</v>
       </c>
       <c r="C15">
-        <v>865</v>
+        <v>408</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>1238.633</v>
+        <v>332.886</v>
       </c>
       <c r="C16">
-        <v>816</v>
+        <v>411</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>1232.5</v>
+        <v>337.147</v>
       </c>
       <c r="C17">
-        <v>820</v>
+        <v>399</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>1201.179</v>
+        <v>300.026</v>
       </c>
       <c r="C18">
-        <v>828</v>
+        <v>391</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>1199.899</v>
+        <v>300.183</v>
       </c>
       <c r="C19">
-        <v>793</v>
+        <v>399</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>1186.383</v>
+        <v>300.646</v>
       </c>
       <c r="C20">
-        <v>781</v>
+        <v>397</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
-        <v>1181.681</v>
+        <v>301.231</v>
       </c>
       <c r="C21">
-        <v>801</v>
+        <v>378</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
-        <v>1125.325</v>
+        <v>271.841</v>
       </c>
       <c r="C22">
-        <v>816</v>
+        <v>358</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
-        <v>1120.527</v>
+        <v>262.17</v>
       </c>
       <c r="C23">
-        <v>836</v>
+        <v>363</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
-        <v>1122.113</v>
+        <v>262.759</v>
       </c>
       <c r="C24">
-        <v>859</v>
+        <v>384</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>1118.801</v>
+        <v>262.796</v>
       </c>
       <c r="C25">
-        <v>900</v>
+        <v>389</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
-        <v>1062.264</v>
+        <v>217.634</v>
       </c>
       <c r="C26">
-        <v>916</v>
+        <v>390</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
-        <v>1062.524</v>
+        <v>219.144</v>
       </c>
       <c r="C27">
-        <v>899</v>
+        <v>393</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>1058.854</v>
+        <v>222.802</v>
       </c>
       <c r="C28">
-        <v>906</v>
+        <v>391</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>1048.488</v>
+        <v>222.087</v>
       </c>
       <c r="C29">
-        <v>922</v>
+        <v>389</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>1000.13</v>
+        <v>201.781</v>
       </c>
       <c r="C30">
-        <v>892</v>
+        <v>368</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>987.172</v>
+        <v>200.647</v>
       </c>
       <c r="C31">
-        <v>889</v>
+        <v>354</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
-        <v>977.386</v>
+        <v>201.161</v>
       </c>
       <c r="C32">
-        <v>905</v>
+        <v>351</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
-        <v>960.973</v>
+        <v>213.702</v>
       </c>
       <c r="C33">
-        <v>911</v>
+        <v>333</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>886.984</v>
+        <v>198.141</v>
       </c>
       <c r="C34">
-        <v>900</v>
+        <v>235</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>880.697</v>
+        <v>196.635</v>
       </c>
       <c r="C35">
-        <v>899</v>
+        <v>207</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>885.537</v>
+        <v>195.075</v>
       </c>
       <c r="C36">
-        <v>910</v>
+        <v>192</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>874.8200000000001</v>
+        <v>193.415</v>
       </c>
       <c r="C37">
-        <v>922</v>
+        <v>198</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>888.044</v>
+        <v>142.44</v>
       </c>
       <c r="C38">
-        <v>914</v>
+        <v>181</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>879.86</v>
+        <v>144.325</v>
       </c>
       <c r="C39">
-        <v>905</v>
+        <v>183</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>873.5599999999999</v>
+        <v>146.418</v>
       </c>
       <c r="C40">
-        <v>897</v>
+        <v>188</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>868.085</v>
+        <v>148.548</v>
       </c>
       <c r="C41">
-        <v>878</v>
+        <v>189</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
-        <v>832.8339999999999</v>
+        <v>153.826</v>
       </c>
       <c r="C42">
-        <v>859</v>
+        <v>183</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
-        <v>828.734</v>
+        <v>155.711</v>
       </c>
       <c r="C43">
-        <v>850</v>
+        <v>188</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
-        <v>823.247</v>
+        <v>158.136</v>
       </c>
       <c r="C44">
-        <v>820</v>
+        <v>195</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>816.674</v>
+        <v>161.251</v>
       </c>
       <c r="C45">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>776.213</v>
+        <v>166.35</v>
       </c>
       <c r="C46">
-        <v>782</v>
+        <v>228</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>769.331</v>
+        <v>167.929</v>
       </c>
       <c r="C47">
-        <v>763</v>
+        <v>249</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>763.321</v>
+        <v>169.592</v>
       </c>
       <c r="C48">
-        <v>771</v>
+        <v>276</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>758.046</v>
+        <v>171.285</v>
       </c>
       <c r="C49">
-        <v>785</v>
+        <v>310</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>733.2</v>
+        <v>163</v>
       </c>
       <c r="C50">
-        <v>776</v>
+        <v>318</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>730.0650000000001</v>
+        <v>165.597</v>
       </c>
       <c r="C51">
-        <v>785</v>
+        <v>326</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>726.354</v>
+        <v>167.298</v>
       </c>
       <c r="C52">
-        <v>790</v>
+        <v>338</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>722.559</v>
+        <v>170.008</v>
       </c>
       <c r="C53">
-        <v>805</v>
+        <v>337</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>705.621</v>
+        <v>186.81</v>
       </c>
       <c r="C54">
-        <v>792</v>
+        <v>349</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
-        <v>702.546</v>
+        <v>196.689</v>
       </c>
       <c r="C55">
-        <v>788</v>
+        <v>331</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>698.808</v>
+        <v>203.337</v>
       </c>
       <c r="C56">
-        <v>784</v>
+        <v>327</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>695.87</v>
+        <v>209.317</v>
       </c>
       <c r="C57">
-        <v>787</v>
+        <v>319</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
-        <v>647.866</v>
+        <v>242.87</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
-        <v>643.754</v>
+        <v>253.947</v>
       </c>
       <c r="C59">
-        <v>793</v>
+        <v>336</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
-        <v>640.248</v>
+        <v>265.156</v>
       </c>
       <c r="C60">
-        <v>816</v>
+        <v>342</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
-        <v>636.232</v>
+        <v>276.455</v>
       </c>
       <c r="C61">
-        <v>827</v>
+        <v>370</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
-        <v>630.213</v>
+        <v>339.271</v>
       </c>
       <c r="C62">
-        <v>828</v>
+        <v>417</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
-        <v>633.6609999999999</v>
+        <v>359.931</v>
       </c>
       <c r="C63">
-        <v>860</v>
+        <v>451</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
-        <v>637.1799999999999</v>
+        <v>386.541</v>
       </c>
       <c r="C64">
-        <v>855</v>
+        <v>472</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
-        <v>640.9880000000001</v>
+        <v>412.83</v>
       </c>
       <c r="C65">
-        <v>849</v>
+        <v>483</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
-        <v>669.917</v>
+        <v>524.6660000000001</v>
       </c>
       <c r="C66">
-        <v>889</v>
+        <v>562</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>672.41</v>
+        <v>543.4349999999999</v>
       </c>
       <c r="C67">
-        <v>892</v>
+        <v>637</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
-        <v>672.1079999999999</v>
+        <v>562.8440000000001</v>
       </c>
       <c r="C68">
-        <v>885</v>
+        <v>686</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
-        <v>675.205</v>
+        <v>582.532</v>
       </c>
       <c r="C69">
-        <v>895</v>
+        <v>702</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
-        <v>730.183</v>
+        <v>645.328</v>
       </c>
       <c r="C70">
-        <v>914</v>
+        <v>763</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
-        <v>727.234</v>
+        <v>662.972</v>
       </c>
       <c r="C71">
-        <v>931</v>
+        <v>806</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
-        <v>725.046</v>
+        <v>682.532</v>
       </c>
       <c r="C72">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
-        <v>725.768</v>
+        <v>701.092</v>
       </c>
       <c r="C73">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
-        <v>706.1079999999999</v>
+        <v>764.998</v>
       </c>
       <c r="C74">
-        <v>991</v>
+        <v>1027</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
-        <v>702.773</v>
+        <v>778.794</v>
       </c>
       <c r="C75">
-        <v>1036</v>
+        <v>1065</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
-        <v>699.4589999999999</v>
+        <v>792.442</v>
       </c>
       <c r="C76">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
-        <v>697.98</v>
+        <v>806.359</v>
       </c>
       <c r="C77">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>668.6369999999999</v>
+        <v>867.9690000000001</v>
       </c>
       <c r="C78">
-        <v>1087</v>
+        <v>1151</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>666.396</v>
+        <v>880.427</v>
       </c>
       <c r="C79">
-        <v>1059</v>
+        <v>1170</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
-        <v>663.907</v>
+        <v>894.407</v>
       </c>
       <c r="C80">
-        <v>1070</v>
+        <v>1203</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>660.919</v>
+        <v>908.177</v>
       </c>
       <c r="C81">
-        <v>1028</v>
+        <v>1233</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>632.506</v>
+        <v>942.256</v>
       </c>
       <c r="C82">
-        <v>1052</v>
+        <v>1267</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>624.052</v>
+        <v>961.4349999999999</v>
       </c>
       <c r="C83">
-        <v>1005</v>
+        <v>1265</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>616.16</v>
+        <v>979.0410000000001</v>
       </c>
       <c r="C84">
-        <v>1001</v>
+        <v>1264</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>608.119</v>
+        <v>995.51</v>
       </c>
       <c r="C85">
-        <v>999</v>
+        <v>1259</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>557.849</v>
+        <v>1056.404</v>
       </c>
       <c r="C86">
-        <v>1007</v>
+        <v>1238</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>544.543</v>
+        <v>1067.375</v>
       </c>
       <c r="C87">
-        <v>1001</v>
+        <v>1202</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>531.515</v>
+        <v>1076.984</v>
       </c>
       <c r="C88">
-        <v>958</v>
+        <v>1140</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>516.1420000000001</v>
+        <v>1089.982</v>
       </c>
       <c r="C89">
-        <v>928</v>
+        <v>1110</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>452.301</v>
+        <v>1132.035</v>
       </c>
       <c r="C90">
-        <v>907</v>
+        <v>1119</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>441.522</v>
+        <v>1138.548</v>
       </c>
       <c r="C91">
-        <v>894</v>
+        <v>1145</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B92">
-        <v>422.281</v>
+        <v>1145.8</v>
       </c>
       <c r="C92">
-        <v>883</v>
+        <v>1182</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B93">
-        <v>412.839</v>
+        <v>1153.016</v>
       </c>
       <c r="C93">
-        <v>862</v>
+        <v>1237</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B94">
-        <v>525.295</v>
+        <v>1198.74</v>
       </c>
       <c r="C94">
-        <v>816</v>
+        <v>1266</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B95">
-        <v>519.371</v>
+        <v>1202.655</v>
       </c>
       <c r="C95">
-        <v>782</v>
+        <v>1277</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B96">
-        <v>515.837</v>
+        <v>1205.653</v>
       </c>
       <c r="C96">
-        <v>747</v>
+        <v>1292</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B97">
-        <v>512.467</v>
+        <v>1203.501</v>
       </c>
       <c r="C97">
-        <v>704</v>
+        <v>1340</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B98">
-        <v>571.776</v>
+        <v>1330.446</v>
       </c>
       <c r="C98">
-        <v>646</v>
+        <v>1400</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B99">
-        <v>554.698</v>
+        <v>1332.355</v>
       </c>
       <c r="C99">
-        <v>611</v>
+        <v>1404</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B100">
-        <v>546.198</v>
+        <v>1332.081</v>
       </c>
       <c r="C100">
-        <v>564</v>
+        <v>1345</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B101">
-        <v>535.633</v>
+        <v>1330.511</v>
       </c>
       <c r="C101">
-        <v>524</v>
+        <v>1328</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B102">
-        <v>481.43</v>
+        <v>1342.775</v>
       </c>
       <c r="C102">
-        <v>467</v>
+        <v>1350</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B103">
-        <v>466.436</v>
+        <v>1333.556</v>
       </c>
       <c r="C103">
-        <v>436</v>
+        <v>1336</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B104">
-        <v>456.647</v>
+        <v>1324.469</v>
       </c>
       <c r="C104">
-        <v>421</v>
+        <v>1301</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B105">
-        <v>443.172</v>
+        <v>1317.157</v>
       </c>
       <c r="C105">
-        <v>404</v>
+        <v>1319</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B106">
-        <v>380.655</v>
+        <v>1302.02</v>
       </c>
       <c r="C106">
-        <v>370</v>
+        <v>1391</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B107">
-        <v>369.014</v>
+        <v>1290.016</v>
       </c>
       <c r="C107">
-        <v>344</v>
+        <v>1318</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B108">
-        <v>367.614</v>
+        <v>1275.297</v>
       </c>
       <c r="C108">
-        <v>340</v>
+        <v>1257</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B109">
-        <v>361.848</v>
+        <v>1259.189</v>
       </c>
       <c r="C109">
-        <v>349</v>
+        <v>1263</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B110">
-        <v>338.062</v>
+        <v>1220.941</v>
       </c>
       <c r="C110">
-        <v>375</v>
+        <v>1210</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B111">
-        <v>334.954</v>
+        <v>1198.672</v>
       </c>
       <c r="C111">
-        <v>408</v>
+        <v>1188</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B112">
-        <v>332.886</v>
+        <v>1179.994</v>
       </c>
       <c r="C112">
-        <v>411</v>
+        <v>1201</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B113">
-        <v>337.147</v>
+        <v>1161.759</v>
       </c>
       <c r="C113">
-        <v>399</v>
+        <v>1193</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B114">
-        <v>300.026</v>
+        <v>1111.15</v>
       </c>
       <c r="C114">
-        <v>391</v>
+        <v>1150</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B115">
-        <v>300.183</v>
+        <v>1089.595</v>
       </c>
       <c r="C115">
-        <v>399</v>
+        <v>1111</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B116">
-        <v>300.646</v>
+        <v>1070.345</v>
       </c>
       <c r="C116">
-        <v>397</v>
+        <v>1077</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B117">
-        <v>301.231</v>
+        <v>1050.894</v>
       </c>
       <c r="C117">
-        <v>378</v>
+        <v>1062</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B118">
-        <v>271.841</v>
+        <v>993.151</v>
       </c>
       <c r="C118">
-        <v>358</v>
+        <v>1045</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B119">
-        <v>262.17</v>
+        <v>975.298</v>
       </c>
       <c r="C119">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B120">
-        <v>262.759</v>
+        <v>959.145</v>
       </c>
       <c r="C120">
-        <v>384</v>
+        <v>992</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B121">
-        <v>262.796</v>
+        <v>943.2619999999999</v>
       </c>
       <c r="C121">
-        <v>389</v>
+        <v>970</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B122">
-        <v>217.634</v>
+        <v>876.294</v>
       </c>
       <c r="C122">
-        <v>390</v>
+        <v>928</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B123">
-        <v>219.144</v>
+        <v>859.809</v>
       </c>
       <c r="C123">
-        <v>393</v>
+        <v>903</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B124">
-        <v>222.802</v>
+        <v>846.4829999999999</v>
       </c>
       <c r="C124">
-        <v>391</v>
+        <v>895</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B125">
-        <v>222.087</v>
+        <v>830.581</v>
       </c>
       <c r="C125">
-        <v>389</v>
+        <v>847</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B126">
-        <v>201.781</v>
+        <v>728.015</v>
       </c>
       <c r="C126">
-        <v>368</v>
+        <v>783</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B127">
-        <v>200.647</v>
+        <v>711.01</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B128">
-        <v>201.161</v>
+        <v>694.294</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B129">
-        <v>213.702</v>
+        <v>677.0940000000001</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B130">
-        <v>198.141</v>
+        <v>588.814</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B131">
-        <v>196.635</v>
+        <v>573.522</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B132">
-        <v>195.075</v>
+        <v>557.6420000000001</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B133">
-        <v>193.415</v>
+        <v>541.255</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B134">
-        <v>142.44</v>
+        <v>452.455</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B135">
-        <v>144.325</v>
+        <v>434.506</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B136">
-        <v>146.418</v>
+        <v>421.665</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B137">
-        <v>148.548</v>
+        <v>410.059</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B138">
-        <v>153.826</v>
+        <v>349.814</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B139">
-        <v>155.711</v>
+        <v>344.546</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B140">
-        <v>158.136</v>
+        <v>339.195</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B141">
-        <v>161.251</v>
+        <v>332.328</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B142">
-        <v>166.35</v>
+        <v>298.231</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B143">
-        <v>167.929</v>
+        <v>294.683</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B144">
-        <v>169.592</v>
+        <v>290.608</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B145">
-        <v>171.285</v>
+        <v>286.349</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B146">
-        <v>163</v>
+        <v>254.591</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B147">
-        <v>165.597</v>
+        <v>250.447</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B148">
-        <v>167.298</v>
+        <v>243.81</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B149">
-        <v>170.008</v>
+        <v>239.759</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B150">
-        <v>186.81</v>
+        <v>211.313</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B151">
-        <v>196.689</v>
+        <v>207.406</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B152">
-        <v>203.337</v>
+        <v>203.716</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B153">
-        <v>209.317</v>
+        <v>200.236</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B154">
-        <v>242.87</v>
+        <v>182.476</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B155">
-        <v>253.947</v>
+        <v>179.577</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B156">
-        <v>265.156</v>
+        <v>177.85</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B157">
-        <v>276.455</v>
+        <v>176.391</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B158">
-        <v>339.271</v>
+        <v>171.384</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B159">
-        <v>359.931</v>
+        <v>174.06</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B160">
-        <v>386.541</v>
+        <v>176.973</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B161">
-        <v>412.83</v>
+        <v>179.983</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B162">
-        <v>524.6660000000001</v>
+        <v>183.646</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B163">
-        <v>543.4349999999999</v>
+        <v>187.258</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B164">
-        <v>562.8440000000001</v>
+        <v>190.854</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B165">
-        <v>582.532</v>
+        <v>194.335</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B166">
-        <v>645.328</v>
+        <v>196.092</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B167">
-        <v>662.972</v>
+        <v>196.927</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B168">
-        <v>682.532</v>
+        <v>197.585</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B169">
-        <v>701.092</v>
+        <v>198.126</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B170">
-        <v>764.998</v>
+        <v>201.43</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B171">
-        <v>778.794</v>
+        <v>201.684</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B172">
-        <v>792.442</v>
+        <v>201.132</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B173">
-        <v>806.359</v>
+        <v>200.322</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B174">
-        <v>867.9690000000001</v>
+        <v>193.729</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B175">
-        <v>880.427</v>
+        <v>191.691</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B176">
-        <v>894.407</v>
+        <v>189.817</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B177">
-        <v>908.177</v>
+        <v>187.464</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B178">
-        <v>942.256</v>
+        <v>173.915</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B179">
-        <v>961.4349999999999</v>
+        <v>171.076</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B180">
-        <v>979.0410000000001</v>
+        <v>167.77</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B181">
-        <v>995.51</v>
+        <v>164.154</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B182">
-        <v>1056.404</v>
+        <v>151.216</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B183">
-        <v>1067.375</v>
+        <v>147.082</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B184">
-        <v>1076.984</v>
+        <v>143.821</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B185">
-        <v>1089.982</v>
+        <v>140.626</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B186">
-        <v>1132.035</v>
+        <v>125.292</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B187">
-        <v>1138.548</v>
+        <v>121.73</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B188">
-        <v>1145.8</v>
+        <v>118.594</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B189">
-        <v>1153.016</v>
+        <v>116.13</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,580 +31,868 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.11.20251</t>
-  </si>
-  <si>
-    <t>08.11.20252</t>
-  </si>
-  <si>
-    <t>08.11.20253</t>
-  </si>
-  <si>
-    <t>08.11.20254</t>
-  </si>
-  <si>
-    <t>08.11.20255</t>
-  </si>
-  <si>
-    <t>08.11.20256</t>
-  </si>
-  <si>
-    <t>08.11.20257</t>
-  </si>
-  <si>
-    <t>08.11.20258</t>
-  </si>
-  <si>
-    <t>08.11.20259</t>
-  </si>
-  <si>
-    <t>08.11.202510</t>
-  </si>
-  <si>
-    <t>08.11.202511</t>
-  </si>
-  <si>
-    <t>08.11.202512</t>
-  </si>
-  <si>
-    <t>08.11.202513</t>
-  </si>
-  <si>
-    <t>08.11.202514</t>
-  </si>
-  <si>
-    <t>08.11.202515</t>
-  </si>
-  <si>
-    <t>08.11.202516</t>
-  </si>
-  <si>
-    <t>08.11.202517</t>
-  </si>
-  <si>
-    <t>08.11.202518</t>
-  </si>
-  <si>
-    <t>08.11.202519</t>
-  </si>
-  <si>
-    <t>08.11.202520</t>
-  </si>
-  <si>
-    <t>08.11.202521</t>
-  </si>
-  <si>
-    <t>08.11.202522</t>
-  </si>
-  <si>
-    <t>08.11.202523</t>
-  </si>
-  <si>
-    <t>08.11.202524</t>
-  </si>
-  <si>
-    <t>08.11.202525</t>
-  </si>
-  <si>
-    <t>08.11.202526</t>
-  </si>
-  <si>
-    <t>08.11.202527</t>
-  </si>
-  <si>
-    <t>08.11.202528</t>
-  </si>
-  <si>
-    <t>08.11.202529</t>
-  </si>
-  <si>
-    <t>08.11.202530</t>
-  </si>
-  <si>
-    <t>08.11.202531</t>
-  </si>
-  <si>
-    <t>08.11.202532</t>
-  </si>
-  <si>
-    <t>08.11.202533</t>
-  </si>
-  <si>
-    <t>08.11.202534</t>
-  </si>
-  <si>
-    <t>08.11.202535</t>
-  </si>
-  <si>
-    <t>08.11.202536</t>
-  </si>
-  <si>
-    <t>08.11.202537</t>
-  </si>
-  <si>
-    <t>08.11.202538</t>
-  </si>
-  <si>
-    <t>08.11.202539</t>
-  </si>
-  <si>
-    <t>08.11.202540</t>
-  </si>
-  <si>
-    <t>08.11.202541</t>
-  </si>
-  <si>
-    <t>08.11.202542</t>
-  </si>
-  <si>
-    <t>08.11.202543</t>
-  </si>
-  <si>
-    <t>08.11.202544</t>
-  </si>
-  <si>
-    <t>08.11.202545</t>
-  </si>
-  <si>
-    <t>08.11.202546</t>
-  </si>
-  <si>
-    <t>08.11.202547</t>
-  </si>
-  <si>
-    <t>08.11.202548</t>
-  </si>
-  <si>
-    <t>08.11.202549</t>
-  </si>
-  <si>
-    <t>08.11.202550</t>
-  </si>
-  <si>
-    <t>08.11.202551</t>
-  </si>
-  <si>
-    <t>08.11.202552</t>
-  </si>
-  <si>
-    <t>08.11.202553</t>
-  </si>
-  <si>
-    <t>08.11.202554</t>
-  </si>
-  <si>
-    <t>08.11.202555</t>
-  </si>
-  <si>
-    <t>08.11.202556</t>
-  </si>
-  <si>
-    <t>08.11.202557</t>
-  </si>
-  <si>
-    <t>08.11.202558</t>
-  </si>
-  <si>
-    <t>08.11.202559</t>
-  </si>
-  <si>
-    <t>08.11.202560</t>
-  </si>
-  <si>
-    <t>08.11.202561</t>
-  </si>
-  <si>
-    <t>08.11.202562</t>
-  </si>
-  <si>
-    <t>08.11.202563</t>
-  </si>
-  <si>
-    <t>08.11.202564</t>
-  </si>
-  <si>
-    <t>08.11.202565</t>
-  </si>
-  <si>
-    <t>08.11.202566</t>
-  </si>
-  <si>
-    <t>08.11.202567</t>
-  </si>
-  <si>
-    <t>08.11.202568</t>
-  </si>
-  <si>
-    <t>08.11.202569</t>
-  </si>
-  <si>
-    <t>08.11.202570</t>
-  </si>
-  <si>
-    <t>08.11.202571</t>
-  </si>
-  <si>
-    <t>08.11.202572</t>
-  </si>
-  <si>
-    <t>08.11.202573</t>
-  </si>
-  <si>
-    <t>08.11.202574</t>
-  </si>
-  <si>
-    <t>08.11.202575</t>
-  </si>
-  <si>
-    <t>08.11.202576</t>
-  </si>
-  <si>
-    <t>08.11.202577</t>
-  </si>
-  <si>
-    <t>08.11.202578</t>
-  </si>
-  <si>
-    <t>08.11.202579</t>
-  </si>
-  <si>
-    <t>08.11.202580</t>
-  </si>
-  <si>
-    <t>08.11.202581</t>
-  </si>
-  <si>
-    <t>08.11.202582</t>
-  </si>
-  <si>
-    <t>08.11.202583</t>
-  </si>
-  <si>
-    <t>08.11.202584</t>
-  </si>
-  <si>
-    <t>08.11.202585</t>
-  </si>
-  <si>
-    <t>08.11.202586</t>
-  </si>
-  <si>
-    <t>08.11.202587</t>
-  </si>
-  <si>
-    <t>08.11.202588</t>
-  </si>
-  <si>
-    <t>08.11.202589</t>
-  </si>
-  <si>
-    <t>08.11.202590</t>
-  </si>
-  <si>
-    <t>08.11.202591</t>
-  </si>
-  <si>
-    <t>08.11.202592</t>
-  </si>
-  <si>
-    <t>08.11.202593</t>
-  </si>
-  <si>
-    <t>08.11.202594</t>
-  </si>
-  <si>
-    <t>08.11.202595</t>
-  </si>
-  <si>
-    <t>08.11.202596</t>
-  </si>
-  <si>
-    <t>09.11.20251</t>
-  </si>
-  <si>
-    <t>09.11.20252</t>
-  </si>
-  <si>
-    <t>09.11.20253</t>
-  </si>
-  <si>
-    <t>09.11.20254</t>
-  </si>
-  <si>
-    <t>09.11.20255</t>
-  </si>
-  <si>
-    <t>09.11.20256</t>
-  </si>
-  <si>
-    <t>09.11.20257</t>
-  </si>
-  <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>09.11.202525</t>
-  </si>
-  <si>
-    <t>09.11.202526</t>
-  </si>
-  <si>
-    <t>09.11.202527</t>
-  </si>
-  <si>
-    <t>09.11.202528</t>
-  </si>
-  <si>
-    <t>09.11.202529</t>
-  </si>
-  <si>
-    <t>09.11.202530</t>
-  </si>
-  <si>
-    <t>09.11.202531</t>
-  </si>
-  <si>
-    <t>09.11.202532</t>
-  </si>
-  <si>
-    <t>09.11.202533</t>
-  </si>
-  <si>
-    <t>09.11.202534</t>
-  </si>
-  <si>
-    <t>09.11.202535</t>
-  </si>
-  <si>
-    <t>09.11.202536</t>
-  </si>
-  <si>
-    <t>09.11.202537</t>
-  </si>
-  <si>
-    <t>09.11.202538</t>
-  </si>
-  <si>
-    <t>09.11.202539</t>
-  </si>
-  <si>
-    <t>09.11.202540</t>
-  </si>
-  <si>
-    <t>09.11.202541</t>
-  </si>
-  <si>
-    <t>09.11.202542</t>
-  </si>
-  <si>
-    <t>09.11.202543</t>
-  </si>
-  <si>
-    <t>09.11.202544</t>
-  </si>
-  <si>
-    <t>09.11.202545</t>
-  </si>
-  <si>
-    <t>09.11.202546</t>
-  </si>
-  <si>
-    <t>09.11.202547</t>
-  </si>
-  <si>
-    <t>09.11.202548</t>
-  </si>
-  <si>
-    <t>09.11.202549</t>
-  </si>
-  <si>
-    <t>09.11.202550</t>
-  </si>
-  <si>
-    <t>09.11.202551</t>
-  </si>
-  <si>
-    <t>09.11.202552</t>
-  </si>
-  <si>
-    <t>09.11.202553</t>
-  </si>
-  <si>
-    <t>09.11.202554</t>
-  </si>
-  <si>
-    <t>09.11.202555</t>
-  </si>
-  <si>
-    <t>09.11.202556</t>
-  </si>
-  <si>
-    <t>09.11.202557</t>
-  </si>
-  <si>
-    <t>09.11.202558</t>
-  </si>
-  <si>
-    <t>09.11.202559</t>
-  </si>
-  <si>
-    <t>09.11.202560</t>
-  </si>
-  <si>
-    <t>09.11.202561</t>
-  </si>
-  <si>
-    <t>09.11.202562</t>
-  </si>
-  <si>
-    <t>09.11.202563</t>
-  </si>
-  <si>
-    <t>09.11.202564</t>
-  </si>
-  <si>
-    <t>09.11.202565</t>
-  </si>
-  <si>
-    <t>09.11.202566</t>
-  </si>
-  <si>
-    <t>09.11.202567</t>
-  </si>
-  <si>
-    <t>09.11.202568</t>
-  </si>
-  <si>
-    <t>09.11.202569</t>
-  </si>
-  <si>
-    <t>09.11.202570</t>
-  </si>
-  <si>
-    <t>09.11.202571</t>
-  </si>
-  <si>
-    <t>09.11.202572</t>
-  </si>
-  <si>
-    <t>09.11.202573</t>
-  </si>
-  <si>
-    <t>09.11.202574</t>
-  </si>
-  <si>
-    <t>09.11.202575</t>
-  </si>
-  <si>
-    <t>09.11.202576</t>
-  </si>
-  <si>
-    <t>09.11.202577</t>
-  </si>
-  <si>
-    <t>09.11.202578</t>
-  </si>
-  <si>
-    <t>09.11.202579</t>
-  </si>
-  <si>
-    <t>09.11.202580</t>
-  </si>
-  <si>
-    <t>09.11.202581</t>
-  </si>
-  <si>
-    <t>09.11.202582</t>
-  </si>
-  <si>
-    <t>09.11.202583</t>
-  </si>
-  <si>
-    <t>09.11.202584</t>
-  </si>
-  <si>
-    <t>09.11.202585</t>
-  </si>
-  <si>
-    <t>09.11.202586</t>
-  </si>
-  <si>
-    <t>09.11.202587</t>
-  </si>
-  <si>
-    <t>09.11.202588</t>
-  </si>
-  <si>
-    <t>09.11.202589</t>
-  </si>
-  <si>
-    <t>09.11.202590</t>
-  </si>
-  <si>
-    <t>09.11.202591</t>
-  </si>
-  <si>
-    <t>09.11.202592</t>
-  </si>
-  <si>
-    <t>09.11.202593</t>
-  </si>
-  <si>
-    <t>09.11.202594</t>
-  </si>
-  <si>
-    <t>09.11.202595</t>
-  </si>
-  <si>
-    <t>09.11.202596</t>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.202525</t>
+  </si>
+  <si>
+    <t>11.11.202526</t>
+  </si>
+  <si>
+    <t>11.11.202527</t>
+  </si>
+  <si>
+    <t>11.11.202528</t>
+  </si>
+  <si>
+    <t>11.11.202529</t>
+  </si>
+  <si>
+    <t>11.11.202530</t>
+  </si>
+  <si>
+    <t>11.11.202531</t>
+  </si>
+  <si>
+    <t>11.11.202532</t>
+  </si>
+  <si>
+    <t>11.11.202533</t>
+  </si>
+  <si>
+    <t>11.11.202534</t>
+  </si>
+  <si>
+    <t>11.11.202535</t>
+  </si>
+  <si>
+    <t>11.11.202536</t>
+  </si>
+  <si>
+    <t>11.11.202537</t>
+  </si>
+  <si>
+    <t>11.11.202538</t>
+  </si>
+  <si>
+    <t>11.11.202539</t>
+  </si>
+  <si>
+    <t>11.11.202540</t>
+  </si>
+  <si>
+    <t>11.11.202541</t>
+  </si>
+  <si>
+    <t>11.11.202542</t>
+  </si>
+  <si>
+    <t>11.11.202543</t>
+  </si>
+  <si>
+    <t>11.11.202544</t>
+  </si>
+  <si>
+    <t>11.11.202545</t>
+  </si>
+  <si>
+    <t>11.11.202546</t>
+  </si>
+  <si>
+    <t>11.11.202547</t>
+  </si>
+  <si>
+    <t>11.11.202548</t>
+  </si>
+  <si>
+    <t>11.11.202549</t>
+  </si>
+  <si>
+    <t>11.11.202550</t>
+  </si>
+  <si>
+    <t>11.11.202551</t>
+  </si>
+  <si>
+    <t>11.11.202552</t>
+  </si>
+  <si>
+    <t>11.11.202553</t>
+  </si>
+  <si>
+    <t>11.11.202554</t>
+  </si>
+  <si>
+    <t>11.11.202555</t>
+  </si>
+  <si>
+    <t>11.11.202556</t>
+  </si>
+  <si>
+    <t>11.11.202557</t>
+  </si>
+  <si>
+    <t>11.11.202558</t>
+  </si>
+  <si>
+    <t>11.11.202559</t>
+  </si>
+  <si>
+    <t>11.11.202560</t>
+  </si>
+  <si>
+    <t>11.11.202561</t>
+  </si>
+  <si>
+    <t>11.11.202562</t>
+  </si>
+  <si>
+    <t>11.11.202563</t>
+  </si>
+  <si>
+    <t>11.11.202564</t>
+  </si>
+  <si>
+    <t>11.11.202565</t>
+  </si>
+  <si>
+    <t>11.11.202566</t>
+  </si>
+  <si>
+    <t>11.11.202567</t>
+  </si>
+  <si>
+    <t>11.11.202568</t>
+  </si>
+  <si>
+    <t>11.11.202569</t>
+  </si>
+  <si>
+    <t>11.11.202570</t>
+  </si>
+  <si>
+    <t>11.11.202571</t>
+  </si>
+  <si>
+    <t>11.11.202572</t>
+  </si>
+  <si>
+    <t>11.11.202573</t>
+  </si>
+  <si>
+    <t>11.11.202574</t>
+  </si>
+  <si>
+    <t>11.11.202575</t>
+  </si>
+  <si>
+    <t>11.11.202576</t>
+  </si>
+  <si>
+    <t>11.11.202577</t>
+  </si>
+  <si>
+    <t>11.11.202578</t>
+  </si>
+  <si>
+    <t>11.11.202579</t>
+  </si>
+  <si>
+    <t>11.11.202580</t>
+  </si>
+  <si>
+    <t>11.11.202581</t>
+  </si>
+  <si>
+    <t>11.11.202582</t>
+  </si>
+  <si>
+    <t>11.11.202583</t>
+  </si>
+  <si>
+    <t>11.11.202584</t>
+  </si>
+  <si>
+    <t>11.11.202585</t>
+  </si>
+  <si>
+    <t>11.11.202586</t>
+  </si>
+  <si>
+    <t>11.11.202587</t>
+  </si>
+  <si>
+    <t>11.11.202588</t>
+  </si>
+  <si>
+    <t>11.11.202589</t>
+  </si>
+  <si>
+    <t>11.11.202590</t>
+  </si>
+  <si>
+    <t>11.11.202591</t>
+  </si>
+  <si>
+    <t>11.11.202592</t>
+  </si>
+  <si>
+    <t>11.11.202593</t>
+  </si>
+  <si>
+    <t>11.11.202594</t>
+  </si>
+  <si>
+    <t>11.11.202595</t>
+  </si>
+  <si>
+    <t>11.11.202596</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.202525</t>
+  </si>
+  <si>
+    <t>12.11.202526</t>
+  </si>
+  <si>
+    <t>12.11.202527</t>
+  </si>
+  <si>
+    <t>12.11.202528</t>
+  </si>
+  <si>
+    <t>12.11.202529</t>
+  </si>
+  <si>
+    <t>12.11.202530</t>
+  </si>
+  <si>
+    <t>12.11.202531</t>
+  </si>
+  <si>
+    <t>12.11.202532</t>
+  </si>
+  <si>
+    <t>12.11.202533</t>
+  </si>
+  <si>
+    <t>12.11.202534</t>
+  </si>
+  <si>
+    <t>12.11.202535</t>
+  </si>
+  <si>
+    <t>12.11.202536</t>
+  </si>
+  <si>
+    <t>12.11.202537</t>
+  </si>
+  <si>
+    <t>12.11.202538</t>
+  </si>
+  <si>
+    <t>12.11.202539</t>
+  </si>
+  <si>
+    <t>12.11.202540</t>
+  </si>
+  <si>
+    <t>12.11.202541</t>
+  </si>
+  <si>
+    <t>12.11.202542</t>
+  </si>
+  <si>
+    <t>12.11.202543</t>
+  </si>
+  <si>
+    <t>12.11.202544</t>
+  </si>
+  <si>
+    <t>12.11.202545</t>
+  </si>
+  <si>
+    <t>12.11.202546</t>
+  </si>
+  <si>
+    <t>12.11.202547</t>
+  </si>
+  <si>
+    <t>12.11.202548</t>
+  </si>
+  <si>
+    <t>12.11.202549</t>
+  </si>
+  <si>
+    <t>12.11.202550</t>
+  </si>
+  <si>
+    <t>12.11.202551</t>
+  </si>
+  <si>
+    <t>12.11.202552</t>
+  </si>
+  <si>
+    <t>12.11.202553</t>
+  </si>
+  <si>
+    <t>12.11.202554</t>
+  </si>
+  <si>
+    <t>12.11.202555</t>
+  </si>
+  <si>
+    <t>12.11.202556</t>
+  </si>
+  <si>
+    <t>12.11.202557</t>
+  </si>
+  <si>
+    <t>12.11.202558</t>
+  </si>
+  <si>
+    <t>12.11.202559</t>
+  </si>
+  <si>
+    <t>12.11.202560</t>
+  </si>
+  <si>
+    <t>12.11.202561</t>
+  </si>
+  <si>
+    <t>12.11.202562</t>
+  </si>
+  <si>
+    <t>12.11.202563</t>
+  </si>
+  <si>
+    <t>12.11.202564</t>
+  </si>
+  <si>
+    <t>12.11.202565</t>
+  </si>
+  <si>
+    <t>12.11.202566</t>
+  </si>
+  <si>
+    <t>12.11.202567</t>
+  </si>
+  <si>
+    <t>12.11.202568</t>
+  </si>
+  <si>
+    <t>12.11.202569</t>
+  </si>
+  <si>
+    <t>12.11.202570</t>
+  </si>
+  <si>
+    <t>12.11.202571</t>
+  </si>
+  <si>
+    <t>12.11.202572</t>
+  </si>
+  <si>
+    <t>12.11.202573</t>
+  </si>
+  <si>
+    <t>12.11.202574</t>
+  </si>
+  <si>
+    <t>12.11.202575</t>
+  </si>
+  <si>
+    <t>12.11.202576</t>
+  </si>
+  <si>
+    <t>12.11.202577</t>
+  </si>
+  <si>
+    <t>12.11.202578</t>
+  </si>
+  <si>
+    <t>12.11.202579</t>
+  </si>
+  <si>
+    <t>12.11.202580</t>
+  </si>
+  <si>
+    <t>12.11.202581</t>
+  </si>
+  <si>
+    <t>12.11.202582</t>
+  </si>
+  <si>
+    <t>12.11.202583</t>
+  </si>
+  <si>
+    <t>12.11.202584</t>
+  </si>
+  <si>
+    <t>12.11.202585</t>
+  </si>
+  <si>
+    <t>12.11.202586</t>
+  </si>
+  <si>
+    <t>12.11.202587</t>
+  </si>
+  <si>
+    <t>12.11.202588</t>
+  </si>
+  <si>
+    <t>12.11.202589</t>
+  </si>
+  <si>
+    <t>12.11.202590</t>
+  </si>
+  <si>
+    <t>12.11.202591</t>
+  </si>
+  <si>
+    <t>12.11.202592</t>
+  </si>
+  <si>
+    <t>12.11.202593</t>
+  </si>
+  <si>
+    <t>12.11.202594</t>
+  </si>
+  <si>
+    <t>12.11.202595</t>
+  </si>
+  <si>
+    <t>12.11.202596</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.202525</t>
+  </si>
+  <si>
+    <t>13.11.202526</t>
+  </si>
+  <si>
+    <t>13.11.202527</t>
+  </si>
+  <si>
+    <t>13.11.202528</t>
+  </si>
+  <si>
+    <t>13.11.202529</t>
+  </si>
+  <si>
+    <t>13.11.202530</t>
+  </si>
+  <si>
+    <t>13.11.202531</t>
+  </si>
+  <si>
+    <t>13.11.202532</t>
+  </si>
+  <si>
+    <t>13.11.202533</t>
+  </si>
+  <si>
+    <t>13.11.202534</t>
+  </si>
+  <si>
+    <t>13.11.202535</t>
+  </si>
+  <si>
+    <t>13.11.202536</t>
+  </si>
+  <si>
+    <t>13.11.202537</t>
+  </si>
+  <si>
+    <t>13.11.202538</t>
+  </si>
+  <si>
+    <t>13.11.202539</t>
+  </si>
+  <si>
+    <t>13.11.202540</t>
+  </si>
+  <si>
+    <t>13.11.202541</t>
+  </si>
+  <si>
+    <t>13.11.202542</t>
+  </si>
+  <si>
+    <t>13.11.202543</t>
+  </si>
+  <si>
+    <t>13.11.202544</t>
+  </si>
+  <si>
+    <t>13.11.202545</t>
+  </si>
+  <si>
+    <t>13.11.202546</t>
+  </si>
+  <si>
+    <t>13.11.202547</t>
+  </si>
+  <si>
+    <t>13.11.202548</t>
+  </si>
+  <si>
+    <t>13.11.202549</t>
+  </si>
+  <si>
+    <t>13.11.202550</t>
+  </si>
+  <si>
+    <t>13.11.202551</t>
+  </si>
+  <si>
+    <t>13.11.202552</t>
+  </si>
+  <si>
+    <t>13.11.202553</t>
+  </si>
+  <si>
+    <t>13.11.202554</t>
+  </si>
+  <si>
+    <t>13.11.202555</t>
+  </si>
+  <si>
+    <t>13.11.202556</t>
+  </si>
+  <si>
+    <t>13.11.202557</t>
+  </si>
+  <si>
+    <t>13.11.202558</t>
+  </si>
+  <si>
+    <t>13.11.202559</t>
+  </si>
+  <si>
+    <t>13.11.202560</t>
+  </si>
+  <si>
+    <t>13.11.202561</t>
+  </si>
+  <si>
+    <t>13.11.202562</t>
+  </si>
+  <si>
+    <t>13.11.202563</t>
+  </si>
+  <si>
+    <t>13.11.202564</t>
+  </si>
+  <si>
+    <t>13.11.202565</t>
+  </si>
+  <si>
+    <t>13.11.202566</t>
+  </si>
+  <si>
+    <t>13.11.202567</t>
+  </si>
+  <si>
+    <t>13.11.202568</t>
+  </si>
+  <si>
+    <t>13.11.202569</t>
+  </si>
+  <si>
+    <t>13.11.202570</t>
+  </si>
+  <si>
+    <t>13.11.202571</t>
+  </si>
+  <si>
+    <t>13.11.202572</t>
+  </si>
+  <si>
+    <t>13.11.202573</t>
+  </si>
+  <si>
+    <t>13.11.202574</t>
+  </si>
+  <si>
+    <t>13.11.202575</t>
+  </si>
+  <si>
+    <t>13.11.202576</t>
+  </si>
+  <si>
+    <t>13.11.202577</t>
+  </si>
+  <si>
+    <t>13.11.202578</t>
+  </si>
+  <si>
+    <t>13.11.202579</t>
+  </si>
+  <si>
+    <t>13.11.202580</t>
+  </si>
+  <si>
+    <t>13.11.202581</t>
+  </si>
+  <si>
+    <t>13.11.202582</t>
+  </si>
+  <si>
+    <t>13.11.202583</t>
+  </si>
+  <si>
+    <t>13.11.202584</t>
+  </si>
+  <si>
+    <t>13.11.202585</t>
+  </si>
+  <si>
+    <t>13.11.202586</t>
+  </si>
+  <si>
+    <t>13.11.202587</t>
+  </si>
+  <si>
+    <t>13.11.202588</t>
+  </si>
+  <si>
+    <t>13.11.202589</t>
+  </si>
+  <si>
+    <t>13.11.202590</t>
+  </si>
+  <si>
+    <t>13.11.202591</t>
+  </si>
+  <si>
+    <t>13.11.202592</t>
+  </si>
+  <si>
+    <t>13.11.202593</t>
+  </si>
+  <si>
+    <t>13.11.202594</t>
+  </si>
+  <si>
+    <t>13.11.202595</t>
+  </si>
+  <si>
+    <t>13.11.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,13 +1279,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>571.776</v>
+        <v>518.313</v>
       </c>
       <c r="C2">
-        <v>646</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1008,13 +1296,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>554.698</v>
+        <v>502.125</v>
       </c>
       <c r="C3">
-        <v>611</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1025,13 +1313,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>546.198</v>
+        <v>487.897</v>
       </c>
       <c r="C4">
-        <v>564</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1042,13 +1330,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>535.633</v>
+        <v>477.92</v>
       </c>
       <c r="C5">
-        <v>524</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1059,13 +1347,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>481.43</v>
+        <v>381.362</v>
       </c>
       <c r="C6">
-        <v>467</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1076,13 +1364,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>466.436</v>
+        <v>376.241</v>
       </c>
       <c r="C7">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1093,13 +1381,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>456.647</v>
+        <v>363.677</v>
       </c>
       <c r="C8">
-        <v>421</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1110,13 +1398,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>443.172</v>
+        <v>357.52</v>
       </c>
       <c r="C9">
-        <v>404</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1127,13 +1415,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
-        <v>380.655</v>
+        <v>339.925</v>
       </c>
       <c r="C10">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1144,13 +1432,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>369.014</v>
+        <v>334.141</v>
       </c>
       <c r="C11">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1161,13 +1449,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>367.614</v>
+        <v>332.725</v>
       </c>
       <c r="C12">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1178,13 +1466,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>361.848</v>
+        <v>330.776</v>
       </c>
       <c r="C13">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1195,13 +1483,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>338.062</v>
+        <v>316.309</v>
       </c>
       <c r="C14">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1212,13 +1500,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>334.954</v>
+        <v>317.768</v>
       </c>
       <c r="C15">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1229,13 +1517,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>332.886</v>
+        <v>319.097</v>
       </c>
       <c r="C16">
-        <v>411</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1246,13 +1534,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>337.147</v>
+        <v>322.187</v>
       </c>
       <c r="C17">
-        <v>399</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1263,13 +1551,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>300.026</v>
+        <v>331.827</v>
       </c>
       <c r="C18">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1280,13 +1568,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>300.183</v>
+        <v>330.825</v>
       </c>
       <c r="C19">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1297,13 +1585,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>300.646</v>
+        <v>330.135</v>
       </c>
       <c r="C20">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1314,13 +1602,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>301.231</v>
+        <v>330.007</v>
       </c>
       <c r="C21">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1331,13 +1619,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>271.841</v>
+        <v>322.864</v>
       </c>
       <c r="C22">
-        <v>358</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1348,13 +1636,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>262.17</v>
+        <v>324.806</v>
       </c>
       <c r="C23">
-        <v>363</v>
+        <v>156</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1365,13 +1653,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
-        <v>262.759</v>
+        <v>327.568</v>
       </c>
       <c r="C24">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1382,13 +1670,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>262.796</v>
+        <v>329.975</v>
       </c>
       <c r="C25">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1399,13 +1687,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
-        <v>217.634</v>
+        <v>305.997</v>
       </c>
       <c r="C26">
-        <v>390</v>
+        <v>258</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1416,13 +1704,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
-        <v>219.144</v>
+        <v>306.464</v>
       </c>
       <c r="C27">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1433,13 +1721,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
-        <v>222.802</v>
+        <v>298.897</v>
       </c>
       <c r="C28">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1450,13 +1738,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>222.087</v>
+        <v>302.666</v>
       </c>
       <c r="C29">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1467,13 +1755,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>201.781</v>
+        <v>346.479</v>
       </c>
       <c r="C30">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1484,13 +1772,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>200.647</v>
+        <v>353.96</v>
       </c>
       <c r="C31">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1501,13 +1789,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>201.161</v>
+        <v>360.652</v>
       </c>
       <c r="C32">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1518,13 +1806,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>213.702</v>
+        <v>365.319</v>
       </c>
       <c r="C33">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1535,13 +1823,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>198.141</v>
+        <v>415.422</v>
       </c>
       <c r="C34">
-        <v>235</v>
+        <v>425</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1552,13 +1840,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>196.635</v>
+        <v>424.632</v>
       </c>
       <c r="C35">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1569,13 +1857,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>195.075</v>
+        <v>431.58</v>
       </c>
       <c r="C36">
-        <v>192</v>
+        <v>438</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1586,13 +1874,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>193.415</v>
+        <v>440.958</v>
       </c>
       <c r="C37">
-        <v>198</v>
+        <v>474</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1603,13 +1891,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>142.44</v>
+        <v>458.92</v>
       </c>
       <c r="C38">
-        <v>181</v>
+        <v>544</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1620,13 +1908,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>144.325</v>
+        <v>474.467</v>
       </c>
       <c r="C39">
-        <v>183</v>
+        <v>553</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1637,13 +1925,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>146.418</v>
+        <v>491.122</v>
       </c>
       <c r="C40">
-        <v>188</v>
+        <v>588</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1654,13 +1942,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>148.548</v>
+        <v>507.902</v>
       </c>
       <c r="C41">
-        <v>189</v>
+        <v>624</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1671,13 +1959,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>153.826</v>
+        <v>594.859</v>
       </c>
       <c r="C42">
-        <v>183</v>
+        <v>713</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1688,13 +1976,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>155.711</v>
+        <v>615.822</v>
       </c>
       <c r="C43">
-        <v>188</v>
+        <v>699</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1705,13 +1993,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>158.136</v>
+        <v>636.631</v>
       </c>
       <c r="C44">
-        <v>195</v>
+        <v>705</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1722,13 +2010,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>161.251</v>
+        <v>658.133</v>
       </c>
       <c r="C45">
-        <v>210</v>
+        <v>696</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1739,13 +2027,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>166.35</v>
+        <v>785.018</v>
       </c>
       <c r="C46">
-        <v>228</v>
+        <v>755</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1756,13 +2044,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>167.929</v>
+        <v>811.121</v>
       </c>
       <c r="C47">
-        <v>249</v>
+        <v>799</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1773,13 +2061,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>169.592</v>
+        <v>835.427</v>
       </c>
       <c r="C48">
-        <v>276</v>
+        <v>822</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1790,13 +2078,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>171.285</v>
+        <v>858.867</v>
       </c>
       <c r="C49">
-        <v>310</v>
+        <v>838</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1807,13 +2095,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>163</v>
+        <v>1042.801</v>
       </c>
       <c r="C50">
-        <v>318</v>
+        <v>888</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1824,13 +2112,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>165.597</v>
+        <v>1073.778</v>
       </c>
       <c r="C51">
-        <v>326</v>
+        <v>911</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1841,13 +2129,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>167.298</v>
+        <v>1104.823</v>
       </c>
       <c r="C52">
-        <v>338</v>
+        <v>914</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1858,13 +2146,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>170.008</v>
+        <v>1153.92</v>
       </c>
       <c r="C53">
-        <v>337</v>
+        <v>921</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1875,13 +2163,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>186.81</v>
+        <v>1350.786</v>
       </c>
       <c r="C54">
-        <v>349</v>
+        <v>929</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1892,13 +2180,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>196.689</v>
+        <v>1378.569</v>
       </c>
       <c r="C55">
-        <v>331</v>
+        <v>924</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1909,13 +2197,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>203.337</v>
+        <v>1403.069</v>
       </c>
       <c r="C56">
-        <v>327</v>
+        <v>950</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1926,13 +2214,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>209.317</v>
+        <v>1429.637</v>
       </c>
       <c r="C57">
-        <v>319</v>
+        <v>939</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1943,13 +2231,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>242.87</v>
+        <v>1609.557</v>
       </c>
       <c r="C58">
-        <v>332</v>
+        <v>948</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1960,13 +2248,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>253.947</v>
+        <v>1631.032</v>
       </c>
       <c r="C59">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1977,13 +2265,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>265.156</v>
+        <v>1649.9</v>
       </c>
       <c r="C60">
-        <v>342</v>
+        <v>1023</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1994,13 +2282,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>276.455</v>
+        <v>1667.616</v>
       </c>
       <c r="C61">
-        <v>370</v>
+        <v>1038</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -2011,13 +2299,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>339.271</v>
+        <v>1822.246</v>
       </c>
       <c r="C62">
-        <v>417</v>
+        <v>1071</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -2028,13 +2316,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>359.931</v>
+        <v>1834.16</v>
       </c>
       <c r="C63">
-        <v>451</v>
+        <v>1045</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2045,13 +2333,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>386.541</v>
+        <v>1844.673</v>
       </c>
       <c r="C64">
-        <v>472</v>
+        <v>1071</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -2062,13 +2350,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>412.83</v>
+        <v>1854.522</v>
       </c>
       <c r="C65">
-        <v>483</v>
+        <v>1069</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -2079,13 +2367,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>524.6660000000001</v>
+        <v>1950.162</v>
       </c>
       <c r="C66">
-        <v>562</v>
+        <v>1068</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -2096,13 +2384,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>543.4349999999999</v>
+        <v>1955.395</v>
       </c>
       <c r="C67">
-        <v>637</v>
+        <v>1036</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -2113,13 +2401,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>562.8440000000001</v>
+        <v>1964.109</v>
       </c>
       <c r="C68">
-        <v>686</v>
+        <v>962</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -2130,13 +2418,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>582.532</v>
+        <v>1972.149</v>
       </c>
       <c r="C69">
-        <v>702</v>
+        <v>978</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -2147,13 +2435,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>645.328</v>
+        <v>1994.837</v>
       </c>
       <c r="C70">
-        <v>763</v>
+        <v>989</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2164,13 +2452,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>662.972</v>
+        <v>1990.587</v>
       </c>
       <c r="C71">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2181,13 +2469,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>682.532</v>
+        <v>1988.336</v>
       </c>
       <c r="C72">
-        <v>880</v>
+        <v>916</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2198,13 +2486,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>701.092</v>
+        <v>1984.57</v>
       </c>
       <c r="C73">
-        <v>949</v>
+        <v>887</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2215,13 +2503,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>764.998</v>
+        <v>1969.584</v>
       </c>
       <c r="C74">
-        <v>1027</v>
+        <v>903</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2232,13 +2520,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
-        <v>778.794</v>
+        <v>1964.836</v>
       </c>
       <c r="C75">
-        <v>1065</v>
+        <v>963</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2249,13 +2537,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
-        <v>792.442</v>
+        <v>1961.766</v>
       </c>
       <c r="C76">
-        <v>1092</v>
+        <v>1010</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2266,13 +2554,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>806.359</v>
+        <v>1958.485</v>
       </c>
       <c r="C77">
-        <v>1102</v>
+        <v>1034</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2283,13 +2571,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>867.9690000000001</v>
+        <v>1955.899</v>
       </c>
       <c r="C78">
-        <v>1151</v>
+        <v>1007</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2300,13 +2588,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>880.427</v>
+        <v>1954.117</v>
       </c>
       <c r="C79">
-        <v>1170</v>
+        <v>992</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2317,13 +2605,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>894.407</v>
+        <v>1953.4</v>
       </c>
       <c r="C80">
-        <v>1203</v>
+        <v>960</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2334,13 +2622,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>908.177</v>
+        <v>1952.515</v>
       </c>
       <c r="C81">
-        <v>1233</v>
+        <v>949</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2351,13 +2639,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>942.256</v>
+        <v>1942.986</v>
       </c>
       <c r="C82">
-        <v>1267</v>
+        <v>960</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2368,13 +2656,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>961.4349999999999</v>
+        <v>1940.981</v>
       </c>
       <c r="C83">
-        <v>1265</v>
+        <v>986</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2385,13 +2673,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>979.0410000000001</v>
+        <v>1938.649</v>
       </c>
       <c r="C84">
-        <v>1264</v>
+        <v>1002</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2402,13 +2690,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>995.51</v>
+        <v>1936.561</v>
       </c>
       <c r="C85">
-        <v>1259</v>
+        <v>1018</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2419,13 +2707,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>1056.404</v>
+        <v>1913.828</v>
       </c>
       <c r="C86">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2436,13 +2724,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>1067.375</v>
+        <v>1909.895</v>
       </c>
       <c r="C87">
-        <v>1202</v>
+        <v>995</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2453,13 +2741,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>1076.984</v>
+        <v>1900.903</v>
       </c>
       <c r="C88">
-        <v>1140</v>
+        <v>961</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2470,13 +2758,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>1089.982</v>
+        <v>1892.705</v>
       </c>
       <c r="C89">
-        <v>1110</v>
+        <v>920</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2487,13 +2775,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>1132.035</v>
+        <v>1862.381</v>
       </c>
       <c r="C90">
-        <v>1119</v>
+        <v>922</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2504,13 +2792,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>1138.548</v>
+        <v>1852.416</v>
       </c>
       <c r="C91">
-        <v>1145</v>
+        <v>895</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2521,13 +2809,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>1145.8</v>
+        <v>1842.231</v>
       </c>
       <c r="C92">
-        <v>1182</v>
+        <v>875</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2538,13 +2826,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
-        <v>1153.016</v>
+        <v>1831.453</v>
       </c>
       <c r="C93">
-        <v>1237</v>
+        <v>893</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2555,13 +2843,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>1198.74</v>
+        <v>1339.073</v>
       </c>
       <c r="C94">
-        <v>1266</v>
+        <v>921</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2572,13 +2860,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
-        <v>1202.655</v>
+        <v>1326.697</v>
       </c>
       <c r="C95">
-        <v>1277</v>
+        <v>900</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2589,13 +2877,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
-        <v>1205.653</v>
+        <v>1311.948</v>
       </c>
       <c r="C96">
-        <v>1292</v>
+        <v>872</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2606,13 +2894,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
-        <v>1203.501</v>
+        <v>1304.505</v>
       </c>
       <c r="C97">
-        <v>1340</v>
+        <v>849</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2623,13 +2911,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B98">
-        <v>1330.446</v>
+        <v>840.059</v>
       </c>
       <c r="C98">
-        <v>1400</v>
+        <v>803</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2640,13 +2928,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B99">
-        <v>1332.355</v>
+        <v>828.712</v>
       </c>
       <c r="C99">
-        <v>1404</v>
+        <v>777</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2657,13 +2945,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B100">
-        <v>1332.081</v>
+        <v>812.053</v>
       </c>
       <c r="C100">
-        <v>1345</v>
+        <v>741</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2674,13 +2962,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B101">
-        <v>1330.511</v>
+        <v>795.223</v>
       </c>
       <c r="C101">
-        <v>1328</v>
+        <v>671</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2691,13 +2979,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B102">
-        <v>1342.775</v>
+        <v>704.265</v>
       </c>
       <c r="C102">
-        <v>1350</v>
+        <v>615</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2708,13 +2996,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B103">
-        <v>1333.556</v>
+        <v>694.732</v>
       </c>
       <c r="C103">
-        <v>1336</v>
+        <v>598</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2725,13 +3013,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B104">
-        <v>1324.469</v>
+        <v>708.508</v>
       </c>
       <c r="C104">
-        <v>1301</v>
+        <v>591</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2742,13 +3030,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B105">
-        <v>1317.157</v>
+        <v>697.568</v>
       </c>
       <c r="C105">
-        <v>1319</v>
+        <v>585</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2759,13 +3047,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B106">
-        <v>1302.02</v>
+        <v>659.237</v>
       </c>
       <c r="C106">
-        <v>1391</v>
+        <v>586</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2776,13 +3064,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B107">
-        <v>1290.016</v>
+        <v>650.812</v>
       </c>
       <c r="C107">
-        <v>1318</v>
+        <v>589</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2793,13 +3081,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B108">
-        <v>1275.297</v>
+        <v>642.859</v>
       </c>
       <c r="C108">
-        <v>1257</v>
+        <v>598</v>
       </c>
       <c r="D108">
         <v>11</v>
@@ -2810,13 +3098,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B109">
-        <v>1259.189</v>
+        <v>634.111</v>
       </c>
       <c r="C109">
-        <v>1263</v>
+        <v>579</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -2827,13 +3115,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B110">
-        <v>1220.941</v>
+        <v>601.885</v>
       </c>
       <c r="C110">
-        <v>1210</v>
+        <v>559</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -2844,13 +3132,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B111">
-        <v>1198.672</v>
+        <v>584.4640000000001</v>
       </c>
       <c r="C111">
-        <v>1188</v>
+        <v>552</v>
       </c>
       <c r="D111">
         <v>14</v>
@@ -2861,13 +3149,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B112">
-        <v>1179.994</v>
+        <v>568.7809999999999</v>
       </c>
       <c r="C112">
-        <v>1201</v>
+        <v>548</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -2878,13 +3166,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B113">
-        <v>1161.759</v>
+        <v>554.004</v>
       </c>
       <c r="C113">
-        <v>1193</v>
+        <v>527</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -2895,13 +3183,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B114">
-        <v>1111.15</v>
+        <v>470.676</v>
       </c>
       <c r="C114">
-        <v>1150</v>
+        <v>457</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -2912,13 +3200,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B115">
-        <v>1089.595</v>
+        <v>456.004</v>
       </c>
       <c r="C115">
-        <v>1111</v>
+        <v>388</v>
       </c>
       <c r="D115">
         <v>18</v>
@@ -2929,13 +3217,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B116">
-        <v>1070.345</v>
+        <v>443.481</v>
       </c>
       <c r="C116">
-        <v>1077</v>
+        <v>318</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -2946,13 +3234,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B117">
-        <v>1050.894</v>
+        <v>423.801</v>
       </c>
       <c r="C117">
-        <v>1062</v>
+        <v>262</v>
       </c>
       <c r="D117">
         <v>20</v>
@@ -2963,13 +3251,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B118">
-        <v>993.151</v>
+        <v>356.83</v>
       </c>
       <c r="C118">
-        <v>1045</v>
+        <v>235</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -2980,13 +3268,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B119">
-        <v>975.298</v>
+        <v>351.231</v>
       </c>
       <c r="C119">
-        <v>1012</v>
+        <v>219</v>
       </c>
       <c r="D119">
         <v>22</v>
@@ -2997,13 +3285,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B120">
-        <v>959.145</v>
+        <v>341.193</v>
       </c>
       <c r="C120">
-        <v>992</v>
+        <v>201</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -3014,13 +3302,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B121">
-        <v>943.2619999999999</v>
+        <v>331.647</v>
       </c>
       <c r="C121">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -3031,13 +3319,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B122">
-        <v>876.294</v>
+        <v>277.986</v>
       </c>
       <c r="C122">
-        <v>928</v>
+        <v>169</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3048,13 +3336,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B123">
-        <v>859.809</v>
+        <v>272.15</v>
       </c>
       <c r="C123">
-        <v>903</v>
+        <v>158</v>
       </c>
       <c r="D123">
         <v>26</v>
@@ -3065,13 +3353,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B124">
-        <v>846.4829999999999</v>
+        <v>254.394</v>
       </c>
       <c r="C124">
-        <v>895</v>
+        <v>152</v>
       </c>
       <c r="D124">
         <v>27</v>
@@ -3082,13 +3370,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B125">
-        <v>830.581</v>
+        <v>248.286</v>
       </c>
       <c r="C125">
-        <v>847</v>
+        <v>149</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -3099,13 +3387,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B126">
-        <v>728.015</v>
+        <v>248.672</v>
       </c>
       <c r="C126">
-        <v>783</v>
+        <v>163</v>
       </c>
       <c r="D126">
         <v>29</v>
@@ -3116,13 +3404,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B127">
-        <v>711.01</v>
+        <v>240.915</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -3133,13 +3421,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45970.3125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B128">
-        <v>694.294</v>
+        <v>234.813</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D128">
         <v>31</v>
@@ -3150,13 +3438,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45970.32291666666</v>
+        <v>45973.32291666666</v>
       </c>
       <c r="B129">
-        <v>677.0940000000001</v>
+        <v>231.165</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D129">
         <v>32</v>
@@ -3167,13 +3455,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45970.33333333334</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="B130">
-        <v>588.814</v>
+        <v>165.896</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D130">
         <v>33</v>
@@ -3184,13 +3472,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45970.34375</v>
+        <v>45973.34375</v>
       </c>
       <c r="B131">
-        <v>573.522</v>
+        <v>157.129</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3201,13 +3489,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45970.35416666666</v>
+        <v>45973.35416666666</v>
       </c>
       <c r="B132">
-        <v>557.6420000000001</v>
+        <v>152.02</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3218,13 +3506,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45970.36458333334</v>
+        <v>45973.36458333334</v>
       </c>
       <c r="B133">
-        <v>541.255</v>
+        <v>141.499</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D133">
         <v>36</v>
@@ -3235,13 +3523,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45970.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B134">
-        <v>452.455</v>
+        <v>137.215</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D134">
         <v>37</v>
@@ -3252,13 +3540,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45970.38541666666</v>
+        <v>45973.38541666666</v>
       </c>
       <c r="B135">
-        <v>434.506</v>
+        <v>129.05</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -3269,13 +3557,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45970.39583333334</v>
+        <v>45973.39583333334</v>
       </c>
       <c r="B136">
-        <v>421.665</v>
+        <v>122.992</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -3286,13 +3574,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45970.40625</v>
+        <v>45973.40625</v>
       </c>
       <c r="B137">
-        <v>410.059</v>
+        <v>119.257</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D137">
         <v>40</v>
@@ -3303,13 +3591,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45970.41666666666</v>
+        <v>45973.41666666666</v>
       </c>
       <c r="B138">
-        <v>349.814</v>
+        <v>119.6</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D138">
         <v>41</v>
@@ -3320,13 +3608,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45970.42708333334</v>
+        <v>45973.42708333334</v>
       </c>
       <c r="B139">
-        <v>344.546</v>
+        <v>121.794</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D139">
         <v>42</v>
@@ -3337,13 +3625,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45970.4375</v>
+        <v>45973.4375</v>
       </c>
       <c r="B140">
-        <v>339.195</v>
+        <v>124.606</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -3354,13 +3642,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45970.44791666666</v>
+        <v>45973.44791666666</v>
       </c>
       <c r="B141">
-        <v>332.328</v>
+        <v>128.24</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D141">
         <v>44</v>
@@ -3371,13 +3659,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45970.45833333334</v>
+        <v>45973.45833333334</v>
       </c>
       <c r="B142">
-        <v>298.231</v>
+        <v>148.023</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D142">
         <v>45</v>
@@ -3388,13 +3676,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45970.46875</v>
+        <v>45973.46875</v>
       </c>
       <c r="B143">
-        <v>294.683</v>
+        <v>154.22</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D143">
         <v>46</v>
@@ -3405,13 +3693,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45970.47916666666</v>
+        <v>45973.47916666666</v>
       </c>
       <c r="B144">
-        <v>290.608</v>
+        <v>157.87</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D144">
         <v>47</v>
@@ -3422,13 +3710,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45970.48958333334</v>
+        <v>45973.48958333334</v>
       </c>
       <c r="B145">
-        <v>286.349</v>
+        <v>159.454</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -3439,13 +3727,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45970.5</v>
+        <v>45973.5</v>
       </c>
       <c r="B146">
-        <v>254.591</v>
+        <v>174.55</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D146">
         <v>49</v>
@@ -3456,13 +3744,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45970.51041666666</v>
+        <v>45973.51041666666</v>
       </c>
       <c r="B147">
-        <v>250.447</v>
+        <v>176.19</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D147">
         <v>50</v>
@@ -3473,13 +3761,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45970.52083333334</v>
+        <v>45973.52083333334</v>
       </c>
       <c r="B148">
-        <v>243.81</v>
+        <v>177.819</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D148">
         <v>51</v>
@@ -3490,13 +3778,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45970.53125</v>
+        <v>45973.53125</v>
       </c>
       <c r="B149">
-        <v>239.759</v>
+        <v>179.017</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D149">
         <v>52</v>
@@ -3507,13 +3795,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45970.54166666666</v>
+        <v>45973.54166666666</v>
       </c>
       <c r="B150">
-        <v>211.313</v>
+        <v>162.166</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D150">
         <v>53</v>
@@ -3524,13 +3812,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45970.55208333334</v>
+        <v>45973.55208333334</v>
       </c>
       <c r="B151">
-        <v>207.406</v>
+        <v>160.771</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D151">
         <v>54</v>
@@ -3541,13 +3829,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45970.5625</v>
+        <v>45973.5625</v>
       </c>
       <c r="B152">
-        <v>203.716</v>
+        <v>157.923</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D152">
         <v>55</v>
@@ -3558,13 +3846,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45970.57291666666</v>
+        <v>45973.57291666666</v>
       </c>
       <c r="B153">
-        <v>200.236</v>
+        <v>155.762</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D153">
         <v>56</v>
@@ -3575,13 +3863,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45970.58333333334</v>
+        <v>45973.58333333334</v>
       </c>
       <c r="B154">
-        <v>182.476</v>
+        <v>134.448</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D154">
         <v>57</v>
@@ -3592,13 +3880,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45970.59375</v>
+        <v>45973.59375</v>
       </c>
       <c r="B155">
-        <v>179.577</v>
+        <v>129.417</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D155">
         <v>58</v>
@@ -3609,13 +3897,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45970.60416666666</v>
+        <v>45973.60416666666</v>
       </c>
       <c r="B156">
-        <v>177.85</v>
+        <v>124.232</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D156">
         <v>59</v>
@@ -3626,13 +3914,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45970.61458333334</v>
+        <v>45973.61458333334</v>
       </c>
       <c r="B157">
-        <v>176.391</v>
+        <v>119.177</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -3643,13 +3931,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45970.625</v>
+        <v>45973.625</v>
       </c>
       <c r="B158">
-        <v>171.384</v>
+        <v>97.40600000000001</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D158">
         <v>61</v>
@@ -3660,13 +3948,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45970.63541666666</v>
+        <v>45973.63541666666</v>
       </c>
       <c r="B159">
-        <v>174.06</v>
+        <v>95.318</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D159">
         <v>62</v>
@@ -3677,10 +3965,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45970.64583333334</v>
+        <v>45973.64583333334</v>
       </c>
       <c r="B160">
-        <v>176.973</v>
+        <v>93.98699999999999</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3694,10 +3982,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45970.65625</v>
+        <v>45973.65625</v>
       </c>
       <c r="B161">
-        <v>179.983</v>
+        <v>93.095</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3711,13 +3999,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45970.66666666666</v>
+        <v>45973.66666666666</v>
       </c>
       <c r="B162">
-        <v>183.646</v>
+        <v>88.20399999999999</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D162">
         <v>65</v>
@@ -3728,13 +4016,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45970.67708333334</v>
+        <v>45973.67708333334</v>
       </c>
       <c r="B163">
-        <v>187.258</v>
+        <v>87.846</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D163">
         <v>66</v>
@@ -3745,13 +4033,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45970.6875</v>
+        <v>45973.6875</v>
       </c>
       <c r="B164">
-        <v>190.854</v>
+        <v>87.505</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D164">
         <v>67</v>
@@ -3762,13 +4050,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45970.69791666666</v>
+        <v>45973.69791666666</v>
       </c>
       <c r="B165">
-        <v>194.335</v>
+        <v>87.535</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D165">
         <v>68</v>
@@ -3779,13 +4067,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45970.70833333334</v>
+        <v>45973.70833333334</v>
       </c>
       <c r="B166">
-        <v>196.092</v>
+        <v>84.824</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D166">
         <v>69</v>
@@ -3796,13 +4084,13 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45970.71875</v>
+        <v>45973.71875</v>
       </c>
       <c r="B167">
-        <v>196.927</v>
+        <v>85.377</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D167">
         <v>70</v>
@@ -3813,13 +4101,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45970.72916666666</v>
+        <v>45973.72916666666</v>
       </c>
       <c r="B168">
-        <v>197.585</v>
+        <v>86</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D168">
         <v>71</v>
@@ -3830,13 +4118,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45970.73958333334</v>
+        <v>45973.73958333334</v>
       </c>
       <c r="B169">
-        <v>198.126</v>
+        <v>86.714</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D169">
         <v>72</v>
@@ -3847,13 +4135,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45970.75</v>
+        <v>45973.75</v>
       </c>
       <c r="B170">
-        <v>201.43</v>
+        <v>88.304</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D170">
         <v>73</v>
@@ -3864,13 +4152,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45970.76041666666</v>
+        <v>45973.76041666666</v>
       </c>
       <c r="B171">
-        <v>201.684</v>
+        <v>90.239</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D171">
         <v>74</v>
@@ -3881,13 +4169,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45970.77083333334</v>
+        <v>45973.77083333334</v>
       </c>
       <c r="B172">
-        <v>201.132</v>
+        <v>92.46599999999999</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D172">
         <v>75</v>
@@ -3898,13 +4186,13 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45970.78125</v>
+        <v>45973.78125</v>
       </c>
       <c r="B173">
-        <v>200.322</v>
+        <v>94.679</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D173">
         <v>76</v>
@@ -3915,13 +4203,13 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45970.79166666666</v>
+        <v>45973.79166666666</v>
       </c>
       <c r="B174">
-        <v>193.729</v>
+        <v>100.791</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D174">
         <v>77</v>
@@ -3932,13 +4220,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45970.80208333334</v>
+        <v>45973.80208333334</v>
       </c>
       <c r="B175">
-        <v>191.691</v>
+        <v>102.749</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -3949,13 +4237,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45970.8125</v>
+        <v>45973.8125</v>
       </c>
       <c r="B176">
-        <v>189.817</v>
+        <v>104.648</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D176">
         <v>79</v>
@@ -3966,13 +4254,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45970.82291666666</v>
+        <v>45973.82291666666</v>
       </c>
       <c r="B177">
-        <v>187.464</v>
+        <v>106.619</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D177">
         <v>80</v>
@@ -3983,13 +4271,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45970.83333333334</v>
+        <v>45973.83333333334</v>
       </c>
       <c r="B178">
-        <v>173.915</v>
+        <v>112.062</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D178">
         <v>81</v>
@@ -4000,13 +4288,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45970.84375</v>
+        <v>45973.84375</v>
       </c>
       <c r="B179">
-        <v>171.076</v>
+        <v>112.413</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D179">
         <v>82</v>
@@ -4017,13 +4305,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45970.85416666666</v>
+        <v>45973.85416666666</v>
       </c>
       <c r="B180">
-        <v>167.77</v>
+        <v>112.576</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D180">
         <v>83</v>
@@ -4034,13 +4322,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45970.86458333334</v>
+        <v>45973.86458333334</v>
       </c>
       <c r="B181">
-        <v>164.154</v>
+        <v>113.145</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D181">
         <v>84</v>
@@ -4051,13 +4339,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45970.875</v>
+        <v>45973.875</v>
       </c>
       <c r="B182">
-        <v>151.216</v>
+        <v>116.686</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D182">
         <v>85</v>
@@ -4068,13 +4356,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45970.88541666666</v>
+        <v>45973.88541666666</v>
       </c>
       <c r="B183">
-        <v>147.082</v>
+        <v>116.447</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D183">
         <v>86</v>
@@ -4085,13 +4373,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45970.89583333334</v>
+        <v>45973.89583333334</v>
       </c>
       <c r="B184">
-        <v>143.821</v>
+        <v>115.811</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D184">
         <v>87</v>
@@ -4102,13 +4390,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45970.90625</v>
+        <v>45973.90625</v>
       </c>
       <c r="B185">
-        <v>140.626</v>
+        <v>115.421</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D185">
         <v>88</v>
@@ -4119,13 +4407,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45970.91666666666</v>
+        <v>45973.91666666666</v>
       </c>
       <c r="B186">
-        <v>125.292</v>
+        <v>100.807</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D186">
         <v>89</v>
@@ -4136,13 +4424,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45970.92708333334</v>
+        <v>45973.92708333334</v>
       </c>
       <c r="B187">
-        <v>121.73</v>
+        <v>100.049</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D187">
         <v>90</v>
@@ -4153,10 +4441,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45970.9375</v>
+        <v>45973.9375</v>
       </c>
       <c r="B188">
-        <v>118.594</v>
+        <v>99.557</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4170,13 +4458,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45970.94791666666</v>
+        <v>45973.94791666666</v>
       </c>
       <c r="B189">
-        <v>116.13</v>
+        <v>99.23</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D189">
         <v>92</v>
@@ -4187,13 +4475,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45970.95833333334</v>
+        <v>45973.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>121.368</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D190">
         <v>93</v>
@@ -4204,13 +4492,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45970.96875</v>
+        <v>45973.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>122.268</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D191">
         <v>94</v>
@@ -4221,13 +4509,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45970.97916666666</v>
+        <v>45973.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>123.116</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D192">
         <v>95</v>
@@ -4238,19 +4526,1651 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45970.98958333334</v>
+        <v>45973.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>138.419</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D193">
         <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>107.284</v>
+      </c>
+      <c r="C194">
+        <v>129</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>109.722</v>
+      </c>
+      <c r="C195">
+        <v>105</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>111.538</v>
+      </c>
+      <c r="C196">
+        <v>81</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>115.233</v>
+      </c>
+      <c r="C197">
+        <v>73</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>115.57</v>
+      </c>
+      <c r="C198">
+        <v>63</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>115.016</v>
+      </c>
+      <c r="C199">
+        <v>67</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>114.421</v>
+      </c>
+      <c r="C200">
+        <v>68</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>114.521</v>
+      </c>
+      <c r="C201">
+        <v>67</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>106.401</v>
+      </c>
+      <c r="C202">
+        <v>73</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>104.282</v>
+      </c>
+      <c r="C203">
+        <v>64</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>102.028</v>
+      </c>
+      <c r="C204">
+        <v>67</v>
+      </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>96.474</v>
+      </c>
+      <c r="C205">
+        <v>61</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>87.852</v>
+      </c>
+      <c r="C206">
+        <v>51</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>86.535</v>
+      </c>
+      <c r="C207">
+        <v>46</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>85.276</v>
+      </c>
+      <c r="C208">
+        <v>37</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>84.396</v>
+      </c>
+      <c r="C209">
+        <v>34</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>68.334</v>
+      </c>
+      <c r="C210">
+        <v>27</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>66.11799999999999</v>
+      </c>
+      <c r="C211">
+        <v>19</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>63.862</v>
+      </c>
+      <c r="C212">
+        <v>16</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>61.801</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>42.416</v>
+      </c>
+      <c r="C214">
+        <v>16</v>
+      </c>
+      <c r="D214">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>40.634</v>
+      </c>
+      <c r="C215">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>39.044</v>
+      </c>
+      <c r="C216">
+        <v>14</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>37.75</v>
+      </c>
+      <c r="C217">
+        <v>17</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>36.133</v>
+      </c>
+      <c r="C218">
+        <v>20</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>35.181</v>
+      </c>
+      <c r="C219">
+        <v>25</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>34.497</v>
+      </c>
+      <c r="C220">
+        <v>27</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>33.765</v>
+      </c>
+      <c r="C221">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>31.554</v>
+      </c>
+      <c r="C222">
+        <v>37</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>31.254</v>
+      </c>
+      <c r="C223">
+        <v>35</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>31.255</v>
+      </c>
+      <c r="C224">
+        <v>43</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>31.388</v>
+      </c>
+      <c r="C225">
+        <v>40</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>38.361</v>
+      </c>
+      <c r="C226">
+        <v>15</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>38.997</v>
+      </c>
+      <c r="C227">
+        <v>9</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>38.276</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>35</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>38.266</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>41.794</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>42.39</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>42.933</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>39</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>43.186</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>40</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>44.947</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>41</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>46.19</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>42</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>47.326</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>48.337</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>44</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>54.257</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>54.45</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>54.841</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>55.646</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>58.168</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>58.753</v>
+      </c>
+      <c r="C243">
+        <v>10</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>58.79</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45974.53125</v>
+      </c>
+      <c r="B245">
+        <v>59.068</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>59.79</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45974.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>59.295</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>54</v>
+      </c>
+      <c r="E247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45974.5625</v>
+      </c>
+      <c r="B248">
+        <v>58.617</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45974.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>57.764</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45974.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>55.004</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+      <c r="E250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45974.59375</v>
+      </c>
+      <c r="B251">
+        <v>53.56</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>58</v>
+      </c>
+      <c r="E251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45974.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>52.646</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>59</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45974.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>51.955</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45974.625</v>
+      </c>
+      <c r="B254">
+        <v>48.616</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45974.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>50.002</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45974.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>51.15</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>63</v>
+      </c>
+      <c r="E256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45974.65625</v>
+      </c>
+      <c r="B257">
+        <v>52.354</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45974.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>55.142</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>65</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45974.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>57.279</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>66</v>
+      </c>
+      <c r="E259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45974.6875</v>
+      </c>
+      <c r="B260">
+        <v>59.629</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45974.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>61.793</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45974.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>66.60599999999999</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>69</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45974.71875</v>
+      </c>
+      <c r="B263">
+        <v>69.253</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45974.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>72.077</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>71</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45974.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>74.747</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45974.75</v>
+      </c>
+      <c r="B266">
+        <v>82.268</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>73</v>
+      </c>
+      <c r="E266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45974.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>85.155</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45974.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>88.008</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+      <c r="E268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45974.78125</v>
+      </c>
+      <c r="B269">
+        <v>91.13200000000001</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>76</v>
+      </c>
+      <c r="E269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45974.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>101.235</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45974.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>102.9</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45974.8125</v>
+      </c>
+      <c r="B272">
+        <v>104.642</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45974.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>106.231</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45974.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>106.466</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45974.84375</v>
+      </c>
+      <c r="B275">
+        <v>107.243</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>82</v>
+      </c>
+      <c r="E275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45974.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>108.237</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45974.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>109.352</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45974.875</v>
+      </c>
+      <c r="B278">
+        <v>112.61</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45974.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>113.025</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45974.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>113.016</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>87</v>
+      </c>
+      <c r="E280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45974.90625</v>
+      </c>
+      <c r="B281">
+        <v>112.872</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>88</v>
+      </c>
+      <c r="E281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45974.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>114.811</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45974.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>115.578</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45974.9375</v>
+      </c>
+      <c r="B284">
+        <v>116.293</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45974.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>116.436</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>92</v>
+      </c>
+      <c r="E285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45974.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>93</v>
+      </c>
+      <c r="E286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45974.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45974.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45974.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Wind_Production_Historical.xlsx
+++ b/data_fetching/Entsoe/Wind_Production_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.202525</t>
-  </si>
-  <si>
-    <t>20.11.202526</t>
-  </si>
-  <si>
-    <t>20.11.202527</t>
-  </si>
-  <si>
-    <t>20.11.202528</t>
-  </si>
-  <si>
-    <t>20.11.202529</t>
-  </si>
-  <si>
-    <t>20.11.202530</t>
-  </si>
-  <si>
-    <t>20.11.202531</t>
-  </si>
-  <si>
-    <t>20.11.202532</t>
-  </si>
-  <si>
-    <t>20.11.202533</t>
-  </si>
-  <si>
-    <t>20.11.202534</t>
-  </si>
-  <si>
-    <t>20.11.202535</t>
-  </si>
-  <si>
-    <t>20.11.202536</t>
-  </si>
-  <si>
-    <t>20.11.202537</t>
-  </si>
-  <si>
-    <t>20.11.202538</t>
-  </si>
-  <si>
-    <t>20.11.202539</t>
-  </si>
-  <si>
-    <t>20.11.202540</t>
-  </si>
-  <si>
-    <t>20.11.202541</t>
-  </si>
-  <si>
-    <t>20.11.202542</t>
-  </si>
-  <si>
-    <t>20.11.202543</t>
-  </si>
-  <si>
-    <t>20.11.202544</t>
-  </si>
-  <si>
-    <t>20.11.202545</t>
-  </si>
-  <si>
-    <t>20.11.202546</t>
-  </si>
-  <si>
-    <t>20.11.202547</t>
-  </si>
-  <si>
-    <t>20.11.202548</t>
-  </si>
-  <si>
-    <t>20.11.202549</t>
-  </si>
-  <si>
-    <t>20.11.202550</t>
-  </si>
-  <si>
-    <t>20.11.202551</t>
-  </si>
-  <si>
-    <t>20.11.202552</t>
-  </si>
-  <si>
-    <t>20.11.202553</t>
-  </si>
-  <si>
-    <t>20.11.202554</t>
-  </si>
-  <si>
-    <t>20.11.202555</t>
-  </si>
-  <si>
-    <t>20.11.202556</t>
-  </si>
-  <si>
-    <t>20.11.202557</t>
-  </si>
-  <si>
-    <t>20.11.202558</t>
-  </si>
-  <si>
-    <t>20.11.202559</t>
-  </si>
-  <si>
-    <t>20.11.202560</t>
-  </si>
-  <si>
-    <t>20.11.202561</t>
-  </si>
-  <si>
-    <t>20.11.202562</t>
-  </si>
-  <si>
-    <t>20.11.202563</t>
-  </si>
-  <si>
-    <t>20.11.202564</t>
-  </si>
-  <si>
-    <t>20.11.202565</t>
-  </si>
-  <si>
-    <t>20.11.202566</t>
-  </si>
-  <si>
-    <t>20.11.202567</t>
-  </si>
-  <si>
-    <t>20.11.202568</t>
-  </si>
-  <si>
-    <t>20.11.202569</t>
-  </si>
-  <si>
-    <t>20.11.202570</t>
-  </si>
-  <si>
-    <t>20.11.202571</t>
-  </si>
-  <si>
-    <t>20.11.202572</t>
-  </si>
-  <si>
-    <t>20.11.202573</t>
-  </si>
-  <si>
-    <t>20.11.202574</t>
-  </si>
-  <si>
-    <t>20.11.202575</t>
-  </si>
-  <si>
-    <t>20.11.202576</t>
-  </si>
-  <si>
-    <t>20.11.202577</t>
-  </si>
-  <si>
-    <t>20.11.202578</t>
-  </si>
-  <si>
-    <t>20.11.202579</t>
-  </si>
-  <si>
-    <t>20.11.202580</t>
-  </si>
-  <si>
-    <t>20.11.202581</t>
-  </si>
-  <si>
-    <t>20.11.202582</t>
-  </si>
-  <si>
-    <t>20.11.202583</t>
-  </si>
-  <si>
-    <t>20.11.202584</t>
-  </si>
-  <si>
-    <t>20.11.202585</t>
-  </si>
-  <si>
-    <t>20.11.202586</t>
-  </si>
-  <si>
-    <t>20.11.202587</t>
-  </si>
-  <si>
-    <t>20.11.202588</t>
-  </si>
-  <si>
-    <t>20.11.202589</t>
-  </si>
-  <si>
-    <t>20.11.202590</t>
-  </si>
-  <si>
-    <t>20.11.202591</t>
-  </si>
-  <si>
-    <t>20.11.202592</t>
-  </si>
-  <si>
-    <t>20.11.202593</t>
-  </si>
-  <si>
-    <t>20.11.202594</t>
-  </si>
-  <si>
-    <t>20.11.2